--- a/MINTA-gantt-diagram.xlsx
+++ b/MINTA-gantt-diagram.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BF33B6-E119-41C0-A49E-32709159586E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C07C60E-F3D8-4C6C-8FDA-84D4673B936B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt-diagram" sheetId="11" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
   <si>
     <t>Projekt kezdete:</t>
   </si>
@@ -126,9 +126,6 @@
     <t>9.3.8.  Raktárkezeléshez szükséges adatok létrehozása az adatbázisban</t>
   </si>
   <si>
-    <t>9.3.9.  Árukészletek kezeléséhez tartozó üzleti logika (listázása, módosítása, létrehozása, törlése)</t>
-  </si>
-  <si>
     <t>9.3.10.  Árukészletek kezeléshez kapcsolódó GUI megvalósítás</t>
   </si>
   <si>
@@ -183,12 +180,6 @@
     <t>9.4.5. Bemutató elkészítése</t>
   </si>
   <si>
-    <t xml:space="preserve">Szállítmányozás </t>
-  </si>
-  <si>
-    <t>Hétfő 8:00-9:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">3. Mérföldkő </t>
   </si>
   <si>
@@ -204,13 +195,7 @@
     <t>9.4.6. Árukészletek kezelésének tesztelése (TP, TC, TR)</t>
   </si>
   <si>
-    <t>9.4.7. Járművek kezelésének tesztelése (TP, TC, TR)</t>
-  </si>
-  <si>
     <t>9.4.8. Fuvarok kezelésének tesztelése (TP, TC, TR)</t>
-  </si>
-  <si>
-    <t>9.4.9. Email-es funkciók tesztelése (TP, TC, TR)</t>
   </si>
   <si>
     <t>9.4.10. Térképes funkciók tesztelése (TP, TC, TR)</t>
@@ -220,6 +205,27 @@
   </si>
   <si>
     <t>9.4.12. Biztonsági mentés tesztelése (TP, TC, TR)</t>
+  </si>
+  <si>
+    <t>Nagy Eliot</t>
+  </si>
+  <si>
+    <t>Étel</t>
+  </si>
+  <si>
+    <t>Csütörtök 11:00-12:00</t>
+  </si>
+  <si>
+    <t>9.3.9.  Ételek, menük készítéséhez tartozó üzleti logika (listázása, módosítása, létrehozása, törlése)</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>9.4.7. Hozzávalók kezelésének tesztelése (TP, TC, TR)</t>
+  </si>
+  <si>
+    <t>9.4.9. Értesítések tesztelése (TP, TC, TR)</t>
   </si>
 </sst>
 </file>
@@ -234,12 +240,20 @@
     <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="169" formatCode="\ yyyy/\ mmm/\ d/"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -373,7 +387,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -467,6 +481,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF969696"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,150 +627,150 @@
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="3">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" applyFill="0">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" applyFill="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyFill="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyFill="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyFill="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyFill="0">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="9">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="10">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="11">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="11">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="11" applyFont="1" applyFill="1">
@@ -777,43 +797,43 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="7" applyFont="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyFont="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="3" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="168" fontId="9" fillId="3" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="4" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="168" fontId="9" fillId="4" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="11" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="168" fontId="9" fillId="11" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="10" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="168" fontId="9" fillId="10" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -830,7 +850,7 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -842,7 +862,7 @@
     <xf numFmtId="169" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="3" xfId="8" applyNumberFormat="1">
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="3" xfId="8" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -851,22 +871,416 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
-    <cellStyle name="Comma" xfId="3" builtinId="3" customBuiltin="1"/>
+    <cellStyle name="Cím" xfId="4" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Címsor 1" xfId="5" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Címsor 2" xfId="6" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Címsor 3" xfId="7" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Date" xfId="9" xr:uid="{229918B6-DD13-4F5A-97B9-305F7E002AA3}"/>
-    <cellStyle name="Heading 1" xfId="5" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="6" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="7" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Ezres" xfId="3" builtinId="3" customBuiltin="1"/>
+    <cellStyle name="Hivatkozás" xfId="1" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Name" xfId="10" xr:uid="{B2D3C1EE-6B41-4801-AAFC-C2274E49E503}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
     <cellStyle name="Project Start" xfId="8" xr:uid="{8EB8A09A-C31C-40A3-B2C1-9449520178B8}"/>
     <cellStyle name="Task" xfId="11" xr:uid="{6391D789-272B-4DD2-9BF3-2CDCF610FA41}"/>
-    <cellStyle name="Title" xfId="4" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="2" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="66">
+  <dxfs count="105">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1533,15 +1947,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="65"/>
-      <tableStyleElement type="headerRow" dxfId="64"/>
-      <tableStyleElement type="totalRow" dxfId="63"/>
-      <tableStyleElement type="firstColumn" dxfId="62"/>
-      <tableStyleElement type="lastColumn" dxfId="61"/>
-      <tableStyleElement type="firstRowStripe" dxfId="60"/>
-      <tableStyleElement type="secondRowStripe" dxfId="59"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="58"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="57"/>
+      <tableStyleElement type="wholeTable" dxfId="104"/>
+      <tableStyleElement type="headerRow" dxfId="103"/>
+      <tableStyleElement type="totalRow" dxfId="102"/>
+      <tableStyleElement type="firstColumn" dxfId="101"/>
+      <tableStyleElement type="lastColumn" dxfId="100"/>
+      <tableStyleElement type="firstRowStripe" dxfId="99"/>
+      <tableStyleElement type="secondRowStripe" dxfId="98"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="97"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="96"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1612,10 +2026,10 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FF969696"/>
       <color rgb="FF4A6F9C"/>
       <color rgb="FF215881"/>
       <color rgb="FF42648A"/>
-      <color rgb="FF969696"/>
       <color rgb="FFC0C0C0"/>
       <color rgb="FF427FC2"/>
       <color rgb="FF44678E"/>
@@ -1903,26 +2317,26 @@
   <dimension ref="A1:CF60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BY53" sqref="BY53"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BU56" sqref="BU56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="22" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="2.7109375" style="39" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" hidden="1" customWidth="1"/>
-    <col min="8" max="84" width="2.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="38.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="2.6640625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="6.109375" hidden="1" customWidth="1"/>
+    <col min="8" max="84" width="2.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="23"/>
       <c r="B1" s="59" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="3"/>
@@ -1933,13 +2347,13 @@
       <c r="I1" s="71"/>
       <c r="J1" s="76"/>
       <c r="K1" s="71" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="L1" s="71"/>
       <c r="M1" s="71"/>
       <c r="N1" s="71"/>
       <c r="O1" s="71"/>
-      <c r="P1" s="72"/>
+      <c r="P1" s="84"/>
       <c r="Q1" s="76"/>
       <c r="R1" s="71" t="s">
         <v>16</v>
@@ -1976,14 +2390,14 @@
       <c r="AR1" s="71"/>
       <c r="AS1" s="71"/>
     </row>
-    <row r="2" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="27" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F2" s="38"/>
       <c r="H2" s="25"/>
     </row>
-    <row r="3" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="64"/>
       <c r="C3" s="58" t="s">
         <v>0</v>
@@ -1994,7 +2408,7 @@
       <c r="E3" s="81"/>
       <c r="F3" s="38"/>
     </row>
-    <row r="4" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
       <c r="D4"/>
       <c r="F4" s="82"/>
@@ -2109,7 +2523,7 @@
       <c r="CE4" s="79"/>
       <c r="CF4" s="80"/>
     </row>
-    <row r="5" spans="1:84" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:84" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23"/>
       <c r="B5" s="52" t="s">
         <v>1</v>
@@ -2433,7 +2847,7 @@
         <v>44535</v>
       </c>
     </row>
-    <row r="6" spans="1:84" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:84" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="26"/>
       <c r="D6"/>
       <c r="F6" s="35"/>
@@ -2519,7 +2933,7 @@
       <c r="CE6" s="20"/>
       <c r="CF6" s="20"/>
     </row>
-    <row r="7" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="23"/>
       <c r="B7" s="54" t="s">
         <v>5</v>
@@ -2610,7 +3024,7 @@
       <c r="CE7" s="65"/>
       <c r="CF7" s="65"/>
     </row>
-    <row r="8" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="23"/>
       <c r="B8" s="44" t="s">
         <v>8</v>
@@ -2710,7 +3124,7 @@
       <c r="CE8" s="65"/>
       <c r="CF8" s="65"/>
     </row>
-    <row r="9" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="23"/>
       <c r="B9" s="44" t="s">
         <v>10</v>
@@ -2807,7 +3221,7 @@
       <c r="CE9" s="65"/>
       <c r="CF9" s="65"/>
     </row>
-    <row r="10" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23"/>
       <c r="B10" s="55" t="s">
         <v>6</v>
@@ -2898,7 +3312,7 @@
       <c r="CE10" s="36"/>
       <c r="CF10" s="36"/>
     </row>
-    <row r="11" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="23"/>
       <c r="B11" s="50" t="s">
         <v>12</v>
@@ -2998,7 +3412,7 @@
       <c r="CE11" s="65"/>
       <c r="CF11" s="65"/>
     </row>
-    <row r="12" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="23"/>
       <c r="B12" s="50" t="s">
         <v>13</v>
@@ -3095,7 +3509,7 @@
       <c r="CE12" s="65"/>
       <c r="CF12" s="65"/>
     </row>
-    <row r="13" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="23"/>
       <c r="B13" s="50" t="s">
         <v>15</v>
@@ -3192,7 +3606,7 @@
       <c r="CE13" s="65"/>
       <c r="CF13" s="65"/>
     </row>
-    <row r="14" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="23"/>
       <c r="B14" s="50" t="s">
         <v>17</v>
@@ -3289,20 +3703,20 @@
       <c r="CE14" s="65"/>
       <c r="CF14" s="65"/>
     </row>
-    <row r="15" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="23"/>
       <c r="B15" s="50" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="D15" s="61">
-        <v>44475</v>
+        <v>44479</v>
       </c>
       <c r="E15" s="61">
         <f>D15+3</f>
-        <v>44478</v>
+        <v>44482</v>
       </c>
       <c r="F15" s="36"/>
       <c r="G15" s="10"/>
@@ -3322,16 +3736,15 @@
       <c r="U15" s="65"/>
       <c r="V15" s="37"/>
       <c r="W15" s="37"/>
-      <c r="X15" s="67">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="67"/>
-      <c r="Z15" s="67"/>
-      <c r="AA15" s="67"/>
-      <c r="AB15" s="65"/>
-      <c r="AC15" s="37"/>
-      <c r="AD15" s="37"/>
-      <c r="AE15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="37"/>
+      <c r="AA15" s="65"/>
+      <c r="AB15" s="84">
+        <v>2</v>
+      </c>
+      <c r="AC15" s="84"/>
+      <c r="AD15" s="84"/>
+      <c r="AE15" s="84"/>
       <c r="AF15" s="37"/>
       <c r="AG15" s="37"/>
       <c r="AH15" s="65"/>
@@ -3386,7 +3799,7 @@
       <c r="CE15" s="65"/>
       <c r="CF15" s="65"/>
     </row>
-    <row r="16" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="23"/>
       <c r="B16" s="50" t="s">
         <v>19</v>
@@ -3483,7 +3896,7 @@
       <c r="CE16" s="65"/>
       <c r="CF16" s="65"/>
     </row>
-    <row r="17" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="23"/>
       <c r="B17" s="50" t="s">
         <v>20</v>
@@ -3580,10 +3993,10 @@
       <c r="CE17" s="65"/>
       <c r="CF17" s="65"/>
     </row>
-    <row r="18" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="23"/>
       <c r="B18" s="56" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C18" s="31"/>
       <c r="D18" s="15"/>
@@ -3671,7 +4084,7 @@
       <c r="CE18" s="70"/>
       <c r="CF18" s="70"/>
     </row>
-    <row r="19" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="23">
         <v>1</v>
       </c>
@@ -3773,7 +4186,7 @@
       <c r="CE19" s="65"/>
       <c r="CF19" s="65"/>
     </row>
-    <row r="20" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="23"/>
       <c r="B20" s="48" t="s">
         <v>22</v>
@@ -3870,7 +4283,7 @@
       <c r="CE20" s="65"/>
       <c r="CF20" s="65"/>
     </row>
-    <row r="21" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="23"/>
       <c r="B21" s="48" t="s">
         <v>23</v>
@@ -3967,20 +4380,20 @@
       <c r="CE21" s="65"/>
       <c r="CF21" s="65"/>
     </row>
-    <row r="22" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="23"/>
       <c r="B22" s="48" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="49" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="D22" s="62">
-        <v>44497</v>
+        <v>44496</v>
       </c>
       <c r="E22" s="62">
         <f>D22+3</f>
-        <v>44500</v>
+        <v>44499</v>
       </c>
       <c r="F22" s="36"/>
       <c r="G22" s="10"/>
@@ -4021,13 +4434,13 @@
       <c r="AP22" s="65"/>
       <c r="AQ22" s="37"/>
       <c r="AR22" s="37"/>
-      <c r="AS22" s="37"/>
-      <c r="AT22" s="67">
-        <v>2</v>
-      </c>
-      <c r="AU22" s="67"/>
-      <c r="AV22" s="67"/>
-      <c r="AW22" s="67"/>
+      <c r="AS22" s="84">
+        <v>3</v>
+      </c>
+      <c r="AT22" s="84"/>
+      <c r="AU22" s="84"/>
+      <c r="AV22" s="84"/>
+      <c r="AW22" s="84"/>
       <c r="AX22" s="37"/>
       <c r="AY22" s="37"/>
       <c r="AZ22" s="37"/>
@@ -4064,7 +4477,7 @@
       <c r="CE22" s="65"/>
       <c r="CF22" s="65"/>
     </row>
-    <row r="23" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="23"/>
       <c r="B23" s="48" t="s">
         <v>25</v>
@@ -4161,7 +4574,7 @@
       <c r="CE23" s="65"/>
       <c r="CF23" s="65"/>
     </row>
-    <row r="24" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="23"/>
       <c r="B24" s="48" t="s">
         <v>26</v>
@@ -4258,7 +4671,7 @@
       <c r="CE24" s="65"/>
       <c r="CF24" s="65"/>
     </row>
-    <row r="25" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="23"/>
       <c r="B25" s="77" t="s">
         <v>27</v>
@@ -4355,7 +4768,7 @@
       <c r="CE25" s="65"/>
       <c r="CF25" s="65"/>
     </row>
-    <row r="26" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="23"/>
       <c r="B26" s="77" t="s">
         <v>28</v>
@@ -4452,20 +4865,20 @@
       <c r="CE26" s="65"/>
       <c r="CF26" s="65"/>
     </row>
-    <row r="27" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="23"/>
-      <c r="B27" s="77" t="s">
-        <v>29</v>
+      <c r="B27" s="85" t="s">
+        <v>59</v>
       </c>
       <c r="C27" s="49" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="D27" s="62">
         <v>44497</v>
       </c>
       <c r="E27" s="62">
-        <f>D27+4</f>
-        <v>44501</v>
+        <f>D27+5</f>
+        <v>44502</v>
       </c>
       <c r="F27" s="36"/>
       <c r="G27" s="10"/>
@@ -4507,14 +4920,14 @@
       <c r="AQ27" s="37"/>
       <c r="AR27" s="37"/>
       <c r="AS27" s="37"/>
-      <c r="AT27" s="68">
-        <v>2</v>
-      </c>
-      <c r="AU27" s="68"/>
-      <c r="AV27" s="68"/>
-      <c r="AW27" s="68"/>
-      <c r="AX27" s="68"/>
-      <c r="AY27" s="37"/>
+      <c r="AT27" s="84">
+        <v>3</v>
+      </c>
+      <c r="AU27" s="84"/>
+      <c r="AV27" s="84"/>
+      <c r="AW27" s="84"/>
+      <c r="AX27" s="84"/>
+      <c r="AY27" s="84"/>
       <c r="AZ27" s="37"/>
       <c r="BA27" s="37"/>
       <c r="BB27" s="37"/>
@@ -4549,10 +4962,10 @@
       <c r="CE27" s="65"/>
       <c r="CF27" s="65"/>
     </row>
-    <row r="28" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="23"/>
       <c r="B28" s="77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" s="49" t="s">
         <v>14</v>
@@ -4646,10 +5059,10 @@
       <c r="CE28" s="65"/>
       <c r="CF28" s="65"/>
     </row>
-    <row r="29" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="23"/>
       <c r="B29" s="77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" s="49" t="s">
         <v>14</v>
@@ -4743,10 +5156,10 @@
       <c r="CE29" s="65"/>
       <c r="CF29" s="65"/>
     </row>
-    <row r="30" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="23"/>
       <c r="B30" s="77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" s="49" t="s">
         <v>11</v>
@@ -4840,10 +5253,10 @@
       <c r="CE30" s="65"/>
       <c r="CF30" s="65"/>
     </row>
-    <row r="31" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="23"/>
       <c r="B31" s="77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" s="49" t="s">
         <v>11</v>
@@ -4937,10 +5350,10 @@
       <c r="CE31" s="65"/>
       <c r="CF31" s="65"/>
     </row>
-    <row r="32" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="23"/>
       <c r="B32" s="77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" s="49" t="s">
         <v>16</v>
@@ -5034,10 +5447,10 @@
       <c r="CE32" s="65"/>
       <c r="CF32" s="65"/>
     </row>
-    <row r="33" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="23"/>
       <c r="B33" s="77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="49" t="s">
         <v>16</v>
@@ -5131,10 +5544,10 @@
       <c r="CE33" s="65"/>
       <c r="CF33" s="65"/>
     </row>
-    <row r="34" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="23"/>
       <c r="B34" s="77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" s="49" t="s">
         <v>16</v>
@@ -5228,20 +5641,20 @@
       <c r="CE34" s="65"/>
       <c r="CF34" s="65"/>
     </row>
-    <row r="35" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="23"/>
       <c r="B35" s="77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="49" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="D35" s="62">
-        <v>44497</v>
+        <v>44501</v>
       </c>
       <c r="E35" s="62">
-        <f>D35+2</f>
-        <v>44499</v>
+        <f>D35+3</f>
+        <v>44504</v>
       </c>
       <c r="F35" s="36"/>
       <c r="G35" s="10"/>
@@ -5283,16 +5696,16 @@
       <c r="AQ35" s="37"/>
       <c r="AR35" s="37"/>
       <c r="AS35" s="37"/>
-      <c r="AT35" s="68">
-        <v>1</v>
-      </c>
-      <c r="AU35" s="68"/>
-      <c r="AV35" s="68"/>
+      <c r="AT35" s="37"/>
+      <c r="AU35" s="37"/>
+      <c r="AV35" s="65"/>
       <c r="AW35" s="65"/>
-      <c r="AX35" s="37"/>
-      <c r="AY35" s="37"/>
-      <c r="AZ35" s="37"/>
-      <c r="BA35" s="37"/>
+      <c r="AX35" s="84">
+        <v>2</v>
+      </c>
+      <c r="AY35" s="84"/>
+      <c r="AZ35" s="84"/>
+      <c r="BA35" s="84"/>
       <c r="BB35" s="37"/>
       <c r="BC35" s="65"/>
       <c r="BD35" s="65"/>
@@ -5325,10 +5738,10 @@
       <c r="CE35" s="65"/>
       <c r="CF35" s="65"/>
     </row>
-    <row r="36" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="23"/>
       <c r="B36" s="77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" s="49" t="s">
         <v>14</v>
@@ -5337,8 +5750,8 @@
         <v>44501</v>
       </c>
       <c r="E36" s="62">
-        <f>D36+4</f>
-        <v>44505</v>
+        <f>D36+3</f>
+        <v>44504</v>
       </c>
       <c r="F36" s="36"/>
       <c r="G36" s="10"/>
@@ -5422,10 +5835,10 @@
       <c r="CE36" s="65"/>
       <c r="CF36" s="65"/>
     </row>
-    <row r="37" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="23"/>
       <c r="B37" s="77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" s="49" t="s">
         <v>14</v>
@@ -5519,10 +5932,10 @@
       <c r="CE37" s="65"/>
       <c r="CF37" s="65"/>
     </row>
-    <row r="38" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
       <c r="B38" s="77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" s="49" t="s">
         <v>11</v>
@@ -5616,10 +6029,10 @@
       <c r="CE38" s="65"/>
       <c r="CF38" s="65"/>
     </row>
-    <row r="39" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="23"/>
       <c r="B39" s="77" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" s="49" t="s">
         <v>11</v>
@@ -5713,10 +6126,10 @@
       <c r="CE39" s="65"/>
       <c r="CF39" s="65"/>
     </row>
-    <row r="40" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="23"/>
       <c r="B40" s="77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" s="49" t="s">
         <v>9</v>
@@ -5810,10 +6223,10 @@
       <c r="CE40" s="65"/>
       <c r="CF40" s="65"/>
     </row>
-    <row r="41" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="23"/>
       <c r="B41" s="48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" s="49" t="s">
         <v>11</v>
@@ -5907,7 +6320,7 @@
       <c r="CE41" s="65"/>
       <c r="CF41" s="65"/>
     </row>
-    <row r="42" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="23"/>
       <c r="B42" s="57" t="s">
         <v>7</v>
@@ -5998,10 +6411,10 @@
       <c r="CE42" s="36"/>
       <c r="CF42" s="36"/>
     </row>
-    <row r="43" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
       <c r="B43" s="46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" s="47" t="s">
         <v>11</v>
@@ -6098,20 +6511,20 @@
       <c r="CE43" s="65"/>
       <c r="CF43" s="65"/>
     </row>
-    <row r="44" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="23"/>
       <c r="B44" s="46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" s="47" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="D44" s="63">
         <v>44515</v>
       </c>
       <c r="E44" s="63">
-        <f t="shared" ref="E44:E45" si="24">D44+4</f>
-        <v>44519</v>
+        <f>D44+5</f>
+        <v>44520</v>
       </c>
       <c r="F44" s="36"/>
       <c r="G44" s="10"/>
@@ -6171,14 +6584,14 @@
       <c r="BI44" s="37"/>
       <c r="BJ44" s="65"/>
       <c r="BK44" s="65"/>
-      <c r="BL44" s="68">
-        <v>3</v>
-      </c>
-      <c r="BM44" s="68"/>
-      <c r="BN44" s="68"/>
-      <c r="BO44" s="68"/>
-      <c r="BP44" s="68"/>
-      <c r="BQ44" s="65"/>
+      <c r="BL44" s="84">
+        <v>2</v>
+      </c>
+      <c r="BM44" s="84"/>
+      <c r="BN44" s="84"/>
+      <c r="BO44" s="84"/>
+      <c r="BP44" s="84"/>
+      <c r="BQ44" s="84"/>
       <c r="BR44" s="65"/>
       <c r="BS44" s="37"/>
       <c r="BT44" s="37"/>
@@ -6195,10 +6608,10 @@
       <c r="CE44" s="65"/>
       <c r="CF44" s="65"/>
     </row>
-    <row r="45" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="23"/>
       <c r="B45" s="46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45" s="47" t="s">
         <v>16</v>
@@ -6207,7 +6620,7 @@
         <v>44515</v>
       </c>
       <c r="E45" s="63">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="E44:E45" si="24">D45+4</f>
         <v>44519</v>
       </c>
       <c r="F45" s="36"/>
@@ -6292,13 +6705,13 @@
       <c r="CE45" s="65"/>
       <c r="CF45" s="65"/>
     </row>
-    <row r="46" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="23"/>
       <c r="B46" s="46" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C46" s="47" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="D46" s="63">
         <v>44522</v>
@@ -6371,8 +6784,8 @@
       <c r="BP46" s="37"/>
       <c r="BQ46" s="65"/>
       <c r="BR46" s="65"/>
-      <c r="BS46" s="72">
-        <v>1</v>
+      <c r="BS46" s="84" t="s">
+        <v>60</v>
       </c>
       <c r="BT46" s="37"/>
       <c r="BU46" s="37"/>
@@ -6388,10 +6801,10 @@
       <c r="CE46" s="65"/>
       <c r="CF46" s="65"/>
     </row>
-    <row r="47" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="23"/>
       <c r="B47" s="46" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C47" s="47" t="s">
         <v>16</v>
@@ -6484,10 +6897,10 @@
       <c r="CE47" s="65"/>
       <c r="CF47" s="65"/>
     </row>
-    <row r="48" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="23"/>
       <c r="B48" s="46" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C48" s="47" t="s">
         <v>11</v>
@@ -6580,13 +6993,13 @@
       <c r="CE48" s="65"/>
       <c r="CF48" s="65"/>
     </row>
-    <row r="49" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="23"/>
       <c r="B49" s="46" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C49" s="47" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D49" s="63">
         <v>44525</v>
@@ -6662,8 +7075,8 @@
       <c r="BS49" s="37"/>
       <c r="BT49" s="37"/>
       <c r="BU49" s="37"/>
-      <c r="BV49" s="73">
-        <v>1</v>
+      <c r="BV49" s="84" t="s">
+        <v>60</v>
       </c>
       <c r="BW49" s="37"/>
       <c r="BX49" s="65"/>
@@ -6676,10 +7089,10 @@
       <c r="CE49" s="65"/>
       <c r="CF49" s="65"/>
     </row>
-    <row r="50" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="23"/>
       <c r="B50" s="46" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C50" s="47" t="s">
         <v>11</v>
@@ -6772,19 +7185,19 @@
       <c r="CE50" s="65"/>
       <c r="CF50" s="65"/>
     </row>
-    <row r="51" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="23"/>
       <c r="B51" s="46" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C51" s="47" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D51" s="63">
-        <v>44524</v>
+        <v>44526</v>
       </c>
       <c r="E51" s="63">
-        <v>44524</v>
+        <v>44526</v>
       </c>
       <c r="F51" s="36"/>
       <c r="G51" s="10"/>
@@ -6853,11 +7266,11 @@
       <c r="BR51" s="65"/>
       <c r="BS51" s="37"/>
       <c r="BT51" s="37"/>
-      <c r="BU51" s="73">
-        <v>1</v>
-      </c>
+      <c r="BU51" s="37"/>
       <c r="BV51" s="37"/>
-      <c r="BW51" s="37"/>
+      <c r="BW51" s="84" t="s">
+        <v>60</v>
+      </c>
       <c r="BX51" s="65"/>
       <c r="BY51" s="65"/>
       <c r="BZ51" s="37"/>
@@ -6868,10 +7281,10 @@
       <c r="CE51" s="65"/>
       <c r="CF51" s="65"/>
     </row>
-    <row r="52" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="23"/>
       <c r="B52" s="46" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C52" s="47" t="s">
         <v>14</v>
@@ -6964,10 +7377,10 @@
       <c r="CE52" s="65"/>
       <c r="CF52" s="65"/>
     </row>
-    <row r="53" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="23"/>
       <c r="B53" s="46" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C53" s="47" t="s">
         <v>14</v>
@@ -7060,19 +7473,19 @@
       <c r="CE53" s="65"/>
       <c r="CF53" s="65"/>
     </row>
-    <row r="54" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="23"/>
       <c r="B54" s="46" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C54" s="47" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="D54" s="63">
-        <v>44525</v>
+        <v>44526</v>
       </c>
       <c r="E54" s="63">
-        <v>44525</v>
+        <v>44526</v>
       </c>
       <c r="F54" s="36"/>
       <c r="G54" s="10"/>
@@ -7142,10 +7555,10 @@
       <c r="BS54" s="37"/>
       <c r="BT54" s="37"/>
       <c r="BU54" s="37"/>
-      <c r="BV54" s="74">
-        <v>1</v>
-      </c>
-      <c r="BW54" s="37"/>
+      <c r="BV54" s="37"/>
+      <c r="BW54" s="84" t="s">
+        <v>60</v>
+      </c>
       <c r="BX54" s="65"/>
       <c r="BY54" s="65"/>
       <c r="BZ54" s="37"/>
@@ -7156,10 +7569,10 @@
       <c r="CE54" s="65"/>
       <c r="CF54" s="65"/>
     </row>
-    <row r="55" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="23"/>
       <c r="B55" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C55" s="47" t="s">
         <v>11</v>
@@ -7253,7 +7666,7 @@
       <c r="CE55" s="65"/>
       <c r="CF55" s="65"/>
     </row>
-    <row r="56" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="22"/>
       <c r="B56" s="34"/>
       <c r="C56" s="33"/>
@@ -7342,10 +7755,10 @@
       <c r="CE56" s="37"/>
       <c r="CF56" s="37"/>
     </row>
-    <row r="57" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="23"/>
       <c r="B57" s="40" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C57" s="41"/>
       <c r="D57" s="42"/>
@@ -7433,20 +7846,15 @@
       <c r="CE57" s="37"/>
       <c r="CF57" s="37"/>
     </row>
-    <row r="59" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="8"/>
       <c r="E59" s="24"/>
     </row>
-    <row r="60" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="BL4:BR4"/>
-    <mergeCell ref="BS4:BY4"/>
-    <mergeCell ref="BZ4:CF4"/>
-    <mergeCell ref="AX4:BD4"/>
-    <mergeCell ref="BE4:BK4"/>
     <mergeCell ref="AJ4:AP4"/>
     <mergeCell ref="AQ4:AW4"/>
     <mergeCell ref="D3:E3"/>
@@ -7455,252 +7863,387 @@
     <mergeCell ref="V4:AB4"/>
     <mergeCell ref="AC4:AI4"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="BL4:BR4"/>
+    <mergeCell ref="BS4:BY4"/>
+    <mergeCell ref="BZ4:CF4"/>
+    <mergeCell ref="AX4:BD4"/>
+    <mergeCell ref="BE4:BK4"/>
   </mergeCells>
   <conditionalFormatting sqref="H56:BX57 BZ56:CE57 H5:BX6 BZ6:CE6 H7:S7 V7:Z9 AC7:AG9 AJ7:AN9 AQ7:AU9 AX7:BB9 BE7:BI9 BL7:BP9 BS7:BW9 BZ7:CD9 H9:Q9 H8:M8 R8:S8">
-    <cfRule type="expression" dxfId="56" priority="122">
+    <cfRule type="expression" dxfId="95" priority="161">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56:BX57 BZ56:CE57 H6:BX6 BZ6:CE6 H7:S7 V7:Z9 AC7:AG9 AJ7:AN9 AQ7:AU9 AX7:BB9 BE7:BI9 BL7:BP9 BS7:BW9 BZ7:CD9 H9:Q9 H8:M8 R8:S8">
-    <cfRule type="expression" dxfId="55" priority="116">
+    <cfRule type="expression" dxfId="94" priority="155">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="156" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ5:CF5 BY56:BY57 CF56:CF57 BY5:BY6 CF6">
-    <cfRule type="expression" dxfId="53" priority="124">
+    <cfRule type="expression" dxfId="92" priority="163">
       <formula>AND(TODAY()&gt;=BY$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY56:BY57 CF56:CF57 BY6 CF6">
-    <cfRule type="expression" dxfId="52" priority="127">
+    <cfRule type="expression" dxfId="91" priority="166">
       <formula>AND(task_start&lt;=BY$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BY$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="167" stopIfTrue="1">
       <formula>AND(task_end&gt;=BY$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:S10 BZ10:CD10 V10:Z10 AC10:AG10 AJ10:AN10 AQ10:AU10 AX10:BB10 BE10:BI10 BL10:BP10 BS10:BW10">
-    <cfRule type="expression" dxfId="50" priority="73">
+    <cfRule type="expression" dxfId="89" priority="112">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:S10 BZ10:CD10 V10:Z10 AC10:AG10 AJ10:AN10 AQ10:AU10 AX10:BB10 BE10:BI10 BL10:BP10 BS10:BW10">
-    <cfRule type="expression" dxfId="49" priority="71">
+    <cfRule type="expression" dxfId="88" priority="110">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="111" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ11:CD17 V13:Z14 AC11:AG12 AJ11:AN17 AQ11:AU17 AX11:BB17 BE11:BI17 BL11:BP17 BS11:BW17 H11:S17 V16:Z17 V15:W15 AC17:AF17 AD16:AG16 V11:V12 AC15:AG15 AF13:AG13 AG14">
-    <cfRule type="expression" dxfId="47" priority="67">
+  <conditionalFormatting sqref="BZ11:CD17 V13:Z13 AC11:AG12 AJ11:AN17 AQ11:AU17 AX11:BB17 BE11:BI17 BL11:BP17 BS11:BW17 H11:S17 V16:Z17 AC17:AF17 AD16:AG16 V11:V12 AF15:AG15 AF13:AG13 AG14 V14:W15 Y14:Z14">
+    <cfRule type="expression" dxfId="86" priority="106">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ11:CD17 V13:Z14 AC11:AG12 AJ11:AN17 AQ11:AU17 AX11:BB17 BE11:BI17 BL11:BP17 BS11:BW17 H11:S17 V16:Z17 V15:W15 AC17:AF17 AD16:AG16 V11:V12 AC15:AG15 AF13:AG13 AG14">
-    <cfRule type="expression" dxfId="46" priority="65">
+  <conditionalFormatting sqref="BZ11:CD17 V13:Z13 AC11:AG12 AJ11:AN17 AQ11:AU17 AX11:BB17 BE11:BI17 BL11:BP17 BS11:BW17 H11:S17 V16:Z17 AC17:AF17 AD16:AG16 V11:V12 AF15:AG15 AF13:AG13 AG14 V14:W15 Y14:Z14">
+    <cfRule type="expression" dxfId="85" priority="104">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="105" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:S18 BZ18:CD18 V18:Z18 AC18:AG18 AJ18:AN18 AQ18:AU18 AX18:BB18 BE18:BI18 BL18:BP18 BS18:BW18">
-    <cfRule type="expression" dxfId="44" priority="61">
+    <cfRule type="expression" dxfId="83" priority="100">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:S18 BZ18:CD18 V18:Z18 AC18:AG18 AJ18:AN18 AQ18:AU18 AX18:BB18 BE18:BI18 BL18:BP18 BS18:BW18">
-    <cfRule type="expression" dxfId="43" priority="59">
+    <cfRule type="expression" dxfId="82" priority="98">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="99" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42:L42 BZ42:CD42 V42:Z42 O42:S42 AC42:AG42 AJ42:AN42 AQ42:AU42 AX42:BB42 BE42:BI42 BL42:BP42 BS42:BW42">
-    <cfRule type="expression" dxfId="41" priority="55">
+    <cfRule type="expression" dxfId="80" priority="94">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42:L42 BZ42:CD42 V42:Z42 O42:S42 AC42:AG42 AJ42:AN42 AQ42:AU42 AX42:BB42 BE42:BI42 BL42:BP42 BS42:BW42">
-    <cfRule type="expression" dxfId="40" priority="53">
+    <cfRule type="expression" dxfId="79" priority="92">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="93" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19:S40 BZ19:CD41 V19:Z41 M42:M55 H41:M41 O41:S41 N41:N55 AC19:AG41 AJ19:AN19 AQ20:AU21 AX19:BB22 BL19:BP41 BS19:BW41 AU19 AJ22:AN25 AJ20:AJ21 AN21 AJ27:AN41 AJ26:AM26 AQ30:AU34 AT29:AU29 AQ36:AU37 AQ35:AS35 AQ26:AU26 AU24 AQ25:AS25 AQ23:AU23 AQ22:AS22 AX24:BB26 BA23:BB23 AX41:BB41 AX40:AY40 AY27:BB27 AQ28:AU28 AQ27:AS27 AX35:BB35 AZ32:BB32 BE19:BI41 AX30 AQ40:AU41 AU38 AQ39:AS39 AX38:BB39 AX37:AY37 AX33:AX34 AX29:BB29">
-    <cfRule type="expression" dxfId="38" priority="49">
+  <conditionalFormatting sqref="H19:S40 BZ19:CD41 V19:Z41 M42:M55 H41:M41 O41:S41 N41:N55 AC19:AG41 AJ19:AN19 AQ20:AU21 AX19:BB22 BL19:BP41 BS19:BW41 AU19 AJ22:AN25 AJ20:AJ21 AN21 AJ27:AN41 AJ26:AM26 AQ30:AU34 AT29:AU29 AQ36:AU37 AQ35:AS35 AQ26:AU26 AU24 AQ25:AS25 AQ23:AU23 AQ22:AR22 AX24:BB26 BA23:BB23 AX41:BB41 AX40:AY40 AZ27:BB27 AQ28:AU28 AQ27:AS27 AZ32:BB32 BE19:BI41 AX30 AQ40:AU41 AU38 AQ39:AS39 AX38:BB39 AX37:AY37 AX33:AX34 AX29:BB29">
+    <cfRule type="expression" dxfId="77" priority="88">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19:S40 BZ19:CD41 V19:Z41 M42:M55 H41:M41 O41:S41 N41:N55 AC19:AG41 AJ19:AN19 AQ20:AU21 AX19:BB22 BL19:BP41 BS19:BW41 AU19 AJ22:AN25 AJ20:AJ21 AN21 AJ27:AN41 AJ26:AM26 AQ30:AU34 AT29:AU29 AQ36:AU37 AQ35:AS35 AQ26:AU26 AU24 AQ25:AS25 AQ23:AU23 AQ22:AS22 AX24:BB26 BA23:BB23 AX41:BB41 AX40:AY40 AY27:BB27 AQ28:AU28 AQ27:AS27 AX35:BB35 AZ32:BB32 BE19:BI41 AX30 AQ40:AU41 AU38 AQ39:AS39 AX38:BB39 AX37:AY37 AX33:AX34 AX29:BB29">
-    <cfRule type="expression" dxfId="37" priority="47">
+  <conditionalFormatting sqref="H19:S40 BZ19:CD41 V19:Z41 M42:M55 H41:M41 O41:S41 N41:N55 AC19:AG41 AJ19:AN19 AQ20:AU21 AX19:BB22 BL19:BP41 BS19:BW41 AU19 AJ22:AN25 AJ20:AJ21 AN21 AJ27:AN41 AJ26:AM26 AQ30:AU34 AT29:AU29 AQ36:AU37 AQ35:AS35 AQ26:AU26 AU24 AQ25:AS25 AQ23:AU23 AQ22:AR22 AX24:BB26 BA23:BB23 AX41:BB41 AX40:AY40 AZ27:BB27 AQ28:AU28 AQ27:AS27 AZ32:BB32 BE19:BI41 AX30 AQ40:AU41 AU38 AQ39:AS39 AX38:BB39 AX37:AY37 AX33:AX34 AX29:BB29">
+    <cfRule type="expression" dxfId="76" priority="86">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="87" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43:L55 BZ43:CD55 V43:Z55 O43:S55 AC43:AG55 AJ43:AN55 AQ43:AU55 AX43:BB55 BE43:BI55 BS55:BV55 BL46:BP55 BS43:BW45 BT46:BW47 BS49:BU49 BS48 BU48:BW48 BS52 BS54:BU54 BW54 BS50:BT51 BV50:BW51 BW49 BS53:BT53 BV53:BW53 BU52:BW52">
-    <cfRule type="expression" dxfId="35" priority="43">
+  <conditionalFormatting sqref="H43:L55 BZ43:CD55 V43:Z55 O43:S55 AC43:AG55 AJ43:AN55 AQ43:AU55 AX43:BB55 BE43:BI55 BS55:BV55 BL46:BP55 BS43:BW45 BT46:BW47 BS49:BU49 BS48 BU48:BW48 BS52 BS54:BU54 BS50:BT51 BV50:BW50 BW49 BS53:BT53 BV53:BW53 BU52:BW52 BV51">
+    <cfRule type="expression" dxfId="74" priority="82">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43:L55 BZ43:CD55 V43:Z55 O43:S55 AC43:AG55 AJ43:AN55 AQ43:AU55 AX43:BB55 BE43:BI55 BS55:BV55 BL46:BP55 BS43:BW45 BT46:BW47 BS49:BU49 BS48 BU48:BW48 BS52 BS54:BU54 BW54 BS50:BT51 BV50:BW51 BW49 BS53:BT53 BV53:BW53 BU52:BW52">
-    <cfRule type="expression" dxfId="34" priority="41">
+  <conditionalFormatting sqref="H43:L55 BZ43:CD55 V43:Z55 O43:S55 AC43:AG55 AJ43:AN55 AQ43:AU55 AX43:BB55 BE43:BI55 BS55:BV55 BL46:BP55 BS43:BW45 BT46:BW47 BS49:BU49 BS48 BU48:BW48 BS52 BS54:BU54 BS50:BT51 BV50:BW50 BW49 BS53:BT53 BV53:BW53 BU52:BW52 BV51">
+    <cfRule type="expression" dxfId="73" priority="80">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="81" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:U55">
-    <cfRule type="expression" dxfId="32" priority="34">
+    <cfRule type="expression" dxfId="71" priority="73">
       <formula>AND(TODAY()&gt;=T$5,TODAY()&lt;U$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:U55">
-    <cfRule type="expression" dxfId="31" priority="32">
+    <cfRule type="expression" dxfId="70" priority="71">
       <formula>AND(task_start&lt;=T$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=T$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="72" stopIfTrue="1">
       <formula>AND(task_end&gt;=T$5,task_start&lt;U$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA7:AB14 AA17:AB55 AB15">
-    <cfRule type="expression" dxfId="29" priority="31">
+  <conditionalFormatting sqref="AA7:AB14 AA17:AB55">
+    <cfRule type="expression" dxfId="68" priority="70">
       <formula>AND(TODAY()&gt;=AA$5,TODAY()&lt;AB$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA7:AB14 AA17:AB55 AB15">
-    <cfRule type="expression" dxfId="28" priority="29">
+  <conditionalFormatting sqref="AA7:AB14 AA17:AB55">
+    <cfRule type="expression" dxfId="67" priority="68">
       <formula>AND(task_start&lt;=AA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AA$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="69" stopIfTrue="1">
       <formula>AND(task_end&gt;=AA$5,task_start&lt;AB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH7:AI55">
-    <cfRule type="expression" dxfId="26" priority="28">
+    <cfRule type="expression" dxfId="65" priority="67">
       <formula>AND(TODAY()&gt;=AH$5,TODAY()&lt;AI$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH7:AI55">
-    <cfRule type="expression" dxfId="25" priority="26">
+    <cfRule type="expression" dxfId="64" priority="65">
       <formula>AND(task_start&lt;=AH$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AH$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="66" stopIfTrue="1">
       <formula>AND(task_end&gt;=AH$5,task_start&lt;AI$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO7:AP18 AO20:AP25 AO19 AO27:AP55">
-    <cfRule type="expression" dxfId="23" priority="25">
+    <cfRule type="expression" dxfId="62" priority="64">
       <formula>AND(TODAY()&gt;=AO$5,TODAY()&lt;AP$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO7:AP18 AO20:AP25 AO19 AO27:AP55">
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="61" priority="62">
       <formula>AND(task_start&lt;=AO$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AO$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="63" stopIfTrue="1">
       <formula>AND(task_end&gt;=AO$5,task_start&lt;AP$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV7:AW21 AV36:AW38 AW35 AV26:AW26 AV23:AW24 AV33:AW34 AV31:AV32 AV40:AW55 AV28:AW30">
-    <cfRule type="expression" dxfId="20" priority="22">
+    <cfRule type="expression" dxfId="59" priority="61">
       <formula>AND(TODAY()&gt;=AV$5,TODAY()&lt;AW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV7:AW21 AV36:AW38 AW35 AV26:AW26 AV23:AW24 AV33:AW34 AV31:AV32 AV40:AW55 AV28:AW30">
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="58" priority="59">
       <formula>AND(task_start&lt;=AV$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AV$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="60" stopIfTrue="1">
       <formula>AND(task_end&gt;=AV$5,task_start&lt;AW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC42:BD55 BC41 BC35:BD40 BD34 BC7:BD33">
-    <cfRule type="expression" dxfId="17" priority="19">
+    <cfRule type="expression" dxfId="56" priority="58">
       <formula>AND(TODAY()&gt;=BC$5,TODAY()&lt;BD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC42:BD55 BC41 BC35:BD40 BD34 BC7:BD33">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="55" priority="56">
       <formula>AND(task_start&lt;=BC$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BC$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="57" stopIfTrue="1">
       <formula>AND(task_end&gt;=BC$5,task_start&lt;BD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ7:BK55">
-    <cfRule type="expression" dxfId="14" priority="16">
+    <cfRule type="expression" dxfId="53" priority="55">
       <formula>AND(TODAY()&gt;=BJ$5,TODAY()&lt;BK$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ7:BK55">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="52" priority="53">
       <formula>AND(task_start&lt;=BJ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BJ$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="54" stopIfTrue="1">
       <formula>AND(task_end&gt;=BJ$5,task_start&lt;BK$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ7:BR55">
-    <cfRule type="expression" dxfId="11" priority="13">
+  <conditionalFormatting sqref="BQ7:BR43 BQ45:BR55 BR44">
+    <cfRule type="expression" dxfId="50" priority="52">
       <formula>AND(TODAY()&gt;=BQ$5,TODAY()&lt;BR$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ7:BR55">
-    <cfRule type="expression" dxfId="10" priority="11">
+  <conditionalFormatting sqref="BQ7:BR43 BQ45:BR55 BR44">
+    <cfRule type="expression" dxfId="49" priority="50">
       <formula>AND(task_start&lt;=BQ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BQ$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="51" stopIfTrue="1">
       <formula>AND(task_end&gt;=BQ$5,task_start&lt;BR$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX7:BY55">
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="47" priority="49">
       <formula>AND(TODAY()&gt;=BX$5,TODAY()&lt;BY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX7:BY55">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="46" priority="47">
       <formula>AND(task_start&lt;=BX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BX$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="48" stopIfTrue="1">
       <formula>AND(task_end&gt;=BX$5,task_start&lt;BY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE7:CF55">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="44" priority="46">
       <formula>AND(TODAY()&gt;=CE$5,TODAY()&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE7:CF55">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="43" priority="44">
       <formula>AND(task_start&lt;=CE$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=CE$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="45" stopIfTrue="1">
       <formula>AND(task_end&gt;=CE$5,task_start&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW31">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="41" priority="42">
       <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW31">
+    <cfRule type="expression" dxfId="40" priority="40">
+      <formula>AND(task_start&lt;=AW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AW$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="41" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AW$5,task_start&lt;AX$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA15">
+    <cfRule type="expression" dxfId="38" priority="39">
+      <formula>AND(TODAY()&gt;=AA$5,TODAY()&lt;AB$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA15">
+    <cfRule type="expression" dxfId="37" priority="37">
+      <formula>AND(task_start&lt;=AA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AA$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="38" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AA$5,task_start&lt;AB$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y15">
+    <cfRule type="expression" dxfId="26" priority="27">
+      <formula>AND(TODAY()&gt;=Y$5,TODAY()&lt;Z$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y15">
+    <cfRule type="expression" dxfId="25" priority="25">
+      <formula>AND(task_start&lt;=Y$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Y$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="26" stopIfTrue="1">
+      <formula>AND(task_end&gt;=Y$5,task_start&lt;Z$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z15">
+    <cfRule type="expression" dxfId="23" priority="24">
+      <formula>AND(TODAY()&gt;=Z$5,TODAY()&lt;AA$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z15">
+    <cfRule type="expression" dxfId="22" priority="22">
+      <formula>AND(task_start&lt;=Z$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Z$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="23" stopIfTrue="1">
+      <formula>AND(task_end&gt;=Z$5,task_start&lt;AA$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X14">
+    <cfRule type="expression" dxfId="20" priority="21">
+      <formula>AND(TODAY()&gt;=X$5,TODAY()&lt;Y$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X14">
+    <cfRule type="expression" dxfId="19" priority="19">
+      <formula>AND(task_start&lt;=X$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=X$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="20" stopIfTrue="1">
+      <formula>AND(task_end&gt;=X$5,task_start&lt;Y$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT35">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>AND(TODAY()&gt;=AT$5,TODAY()&lt;AU$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT35">
+    <cfRule type="expression" dxfId="16" priority="16">
+      <formula>AND(task_start&lt;=AT$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AT$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AT$5,task_start&lt;AU$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU35">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>AND(TODAY()&gt;=AU$5,TODAY()&lt;AV$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU35">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>AND(task_start&lt;=AU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AU$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AU$5,task_start&lt;AV$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV35">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>AND(TODAY()&gt;=AV$5,TODAY()&lt;AW$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV35">
+    <cfRule type="expression" dxfId="10" priority="10">
+      <formula>AND(task_start&lt;=AV$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AV$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AV$5,task_start&lt;AW$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB35">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>AND(TODAY()&gt;=BB$5,TODAY()&lt;BC$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB35">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>AND(task_start&lt;=BB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BB$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BB$5,task_start&lt;BC$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BU51">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>AND(TODAY()&gt;=BU$5,TODAY()&lt;BV$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BU51">
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>AND(task_start&lt;=BU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BU$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BU$5,task_start&lt;BV$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BV54">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND(TODAY()&gt;=BV$5,TODAY()&lt;BW$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BV54">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND(task_start&lt;=AW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AW$5)</formula>
+      <formula>AND(task_start&lt;=BV$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BV$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AW$5,task_start&lt;AX$5)</formula>
+      <formula>AND(task_end&gt;=BV$5,task_start&lt;BW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>

--- a/MINTA-gantt-diagram.xlsx
+++ b/MINTA-gantt-diagram.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C07C60E-F3D8-4C6C-8FDA-84D4673B936B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt-diagram" sheetId="11" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <definedName name="task_start" localSheetId="0">'Gantt-diagram'!$D1</definedName>
     <definedName name="today" localSheetId="0">TODAY()</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
   <si>
     <t>Projekt kezdete:</t>
   </si>
@@ -102,9 +101,6 @@
     <t>9.2.7. Bemutató elkészítése</t>
   </si>
   <si>
-    <t>9.3.1.  Felhasználói munkamenet üzleti logikája több jogosultsági szinttel (admin, raktáros, sofőr)</t>
-  </si>
-  <si>
     <t>9.3.2.  Felhasználói munkamenethez kapcsolódó GUI megvalósítása</t>
   </si>
   <si>
@@ -132,9 +128,6 @@
     <t>9.3.11.  Árukészletek kezeléséhez szükséges adatok létrehozása az adatbázisban</t>
   </si>
   <si>
-    <t>9.3.12.  Járművek kezeléséhez kapcsolódó üzleti logika (listázása, módosítása, létrehozása, törlése)</t>
-  </si>
-  <si>
     <t>9.3.13.  Járművek kezeléshez kapcsolódó GUI megvalósítása</t>
   </si>
   <si>
@@ -151,9 +144,6 @@
   </si>
   <si>
     <t>9.3.18.  Email-es kiértesítés új szállítmány esetén az adott raktárosnak és sofőrnek</t>
-  </si>
-  <si>
-    <t>9.3.19.  Fuvar útvonalának megjelenítése térképen a kezdő és a végponttal együtt</t>
   </si>
   <si>
     <t>9.3.20.  Kapcsolatfelvételi űrlap biztosítása új cégek számára (üzleti logika és GUI)</t>
@@ -227,18 +217,30 @@
   <si>
     <t>9.4.9. Értesítések tesztelése (TP, TC, TR)</t>
   </si>
+  <si>
+    <t>Rózsa Kristóf</t>
+  </si>
+  <si>
+    <t>9.3.19.  Fuvar idejének megjelenítése</t>
+  </si>
+  <si>
+    <t>9.3.1.  Felhasználói munkamenet üzleti logikája több jogosultsági szinttel (admin, user)</t>
+  </si>
+  <si>
+    <t>9.3.12.  Futárok kezeléséhez kapcsolódó üzleti logika (listázása, módosítása, létrehozása, törlése)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
-    <numFmt numFmtId="166" formatCode="ddd\,\ m/d/yyyy"/>
-    <numFmt numFmtId="167" formatCode="d"/>
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="169" formatCode="\ yyyy/\ mmm/\ d/"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="165" formatCode="ddd\,\ m/d/yyyy"/>
+    <numFmt numFmtId="166" formatCode="d"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="168" formatCode="\ yyyy/\ mmm/\ d/"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -387,7 +389,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -487,6 +489,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF969696"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,7 +640,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
@@ -641,10 +649,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="3">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" applyFill="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" applyFill="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyFill="0">
@@ -654,7 +662,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -668,13 +676,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -682,28 +690,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -729,7 +737,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="9">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="10" applyFill="1">
@@ -767,10 +775,10 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="11" applyFont="1" applyFill="1">
@@ -821,16 +829,16 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="3" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="4" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="167" fontId="9" fillId="4" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="11" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="167" fontId="9" fillId="11" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="10" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="167" fontId="9" fillId="10" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="10" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
@@ -853,16 +861,20 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="3" xfId="8" applyNumberFormat="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="8" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -871,26 +883,84 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Cím" xfId="4" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Címsor 1" xfId="5" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Címsor 2" xfId="6" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Címsor 3" xfId="7" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Date" xfId="9" xr:uid="{229918B6-DD13-4F5A-97B9-305F7E002AA3}"/>
+    <cellStyle name="Date" xfId="9"/>
     <cellStyle name="Ezres" xfId="3" builtinId="3" customBuiltin="1"/>
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Name" xfId="10" xr:uid="{B2D3C1EE-6B41-4801-AAFC-C2274E49E503}"/>
+    <cellStyle name="Name" xfId="10"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
-    <cellStyle name="Project Start" xfId="8" xr:uid="{8EB8A09A-C31C-40A3-B2C1-9449520178B8}"/>
-    <cellStyle name="Task" xfId="11" xr:uid="{6391D789-272B-4DD2-9BF3-2CDCF610FA41}"/>
-    <cellStyle name="zHiddenText" xfId="2" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
+    <cellStyle name="Project Start" xfId="8"/>
+    <cellStyle name="Task" xfId="11"/>
+    <cellStyle name="zHiddenText" xfId="2"/>
   </cellStyles>
-  <dxfs count="105">
+  <dxfs count="111">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1946,16 +2016,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="104"/>
-      <tableStyleElement type="headerRow" dxfId="103"/>
-      <tableStyleElement type="totalRow" dxfId="102"/>
-      <tableStyleElement type="firstColumn" dxfId="101"/>
-      <tableStyleElement type="lastColumn" dxfId="100"/>
-      <tableStyleElement type="firstRowStripe" dxfId="99"/>
-      <tableStyleElement type="secondRowStripe" dxfId="98"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="97"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="96"/>
+    <tableStyle name="ToDoList" pivot="0" count="9">
+      <tableStyleElement type="wholeTable" dxfId="110"/>
+      <tableStyleElement type="headerRow" dxfId="109"/>
+      <tableStyleElement type="totalRow" dxfId="108"/>
+      <tableStyleElement type="firstColumn" dxfId="107"/>
+      <tableStyleElement type="lastColumn" dxfId="106"/>
+      <tableStyleElement type="firstRowStripe" dxfId="105"/>
+      <tableStyleElement type="secondRowStripe" dxfId="104"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="103"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="102"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2310,15 +2380,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:CF60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BU56" sqref="BU56"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2336,7 +2406,7 @@
     <row r="1" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="23"/>
       <c r="B1" s="59" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="3"/>
@@ -2347,23 +2417,23 @@
       <c r="I1" s="71"/>
       <c r="J1" s="76"/>
       <c r="K1" s="71" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L1" s="71"/>
       <c r="M1" s="71"/>
       <c r="N1" s="71"/>
       <c r="O1" s="71"/>
-      <c r="P1" s="84"/>
+      <c r="P1" s="78"/>
       <c r="Q1" s="76"/>
       <c r="R1" s="71" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="S1" s="71"/>
       <c r="T1" s="71"/>
       <c r="U1" s="71"/>
       <c r="V1" s="71"/>
       <c r="W1" s="71"/>
-      <c r="X1" s="73"/>
+      <c r="X1" s="86"/>
       <c r="Y1" s="76"/>
       <c r="Z1" s="71" t="s">
         <v>14</v>
@@ -2392,7 +2462,7 @@
     </row>
     <row r="2" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F2" s="38"/>
       <c r="H2" s="25"/>
@@ -2402,126 +2472,126 @@
       <c r="C3" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="81">
+      <c r="D3" s="83">
         <v>44459</v>
       </c>
-      <c r="E3" s="81"/>
+      <c r="E3" s="83"/>
       <c r="F3" s="38"/>
     </row>
     <row r="4" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
       <c r="D4"/>
-      <c r="F4" s="82"/>
-      <c r="H4" s="78">
+      <c r="F4" s="84"/>
+      <c r="H4" s="80">
         <f>H5</f>
         <v>44459</v>
       </c>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="78">
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="80">
         <f>O5</f>
         <v>44466</v>
       </c>
-      <c r="P4" s="79"/>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="79"/>
-      <c r="U4" s="80"/>
-      <c r="V4" s="78">
+      <c r="P4" s="81"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="81"/>
+      <c r="T4" s="81"/>
+      <c r="U4" s="82"/>
+      <c r="V4" s="80">
         <f>V5</f>
         <v>44473</v>
       </c>
-      <c r="W4" s="79"/>
-      <c r="X4" s="79"/>
-      <c r="Y4" s="79"/>
-      <c r="Z4" s="79"/>
-      <c r="AA4" s="79"/>
-      <c r="AB4" s="80"/>
-      <c r="AC4" s="78">
+      <c r="W4" s="81"/>
+      <c r="X4" s="81"/>
+      <c r="Y4" s="81"/>
+      <c r="Z4" s="81"/>
+      <c r="AA4" s="81"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="80">
         <f>AC5</f>
         <v>44480</v>
       </c>
-      <c r="AD4" s="79"/>
-      <c r="AE4" s="79"/>
-      <c r="AF4" s="79"/>
-      <c r="AG4" s="79"/>
-      <c r="AH4" s="79"/>
-      <c r="AI4" s="80"/>
-      <c r="AJ4" s="78">
+      <c r="AD4" s="81"/>
+      <c r="AE4" s="81"/>
+      <c r="AF4" s="81"/>
+      <c r="AG4" s="81"/>
+      <c r="AH4" s="81"/>
+      <c r="AI4" s="82"/>
+      <c r="AJ4" s="80">
         <f>AJ5</f>
         <v>44487</v>
       </c>
-      <c r="AK4" s="79"/>
-      <c r="AL4" s="79"/>
-      <c r="AM4" s="79"/>
-      <c r="AN4" s="79"/>
-      <c r="AO4" s="79"/>
-      <c r="AP4" s="80"/>
-      <c r="AQ4" s="78">
+      <c r="AK4" s="81"/>
+      <c r="AL4" s="81"/>
+      <c r="AM4" s="81"/>
+      <c r="AN4" s="81"/>
+      <c r="AO4" s="81"/>
+      <c r="AP4" s="82"/>
+      <c r="AQ4" s="80">
         <f>AQ5</f>
         <v>44494</v>
       </c>
-      <c r="AR4" s="79"/>
-      <c r="AS4" s="79"/>
-      <c r="AT4" s="79"/>
-      <c r="AU4" s="79"/>
-      <c r="AV4" s="79"/>
-      <c r="AW4" s="80"/>
-      <c r="AX4" s="78">
+      <c r="AR4" s="81"/>
+      <c r="AS4" s="81"/>
+      <c r="AT4" s="81"/>
+      <c r="AU4" s="81"/>
+      <c r="AV4" s="81"/>
+      <c r="AW4" s="82"/>
+      <c r="AX4" s="80">
         <f>AX5</f>
         <v>44501</v>
       </c>
-      <c r="AY4" s="79"/>
-      <c r="AZ4" s="79"/>
-      <c r="BA4" s="79"/>
-      <c r="BB4" s="79"/>
-      <c r="BC4" s="79"/>
-      <c r="BD4" s="80"/>
-      <c r="BE4" s="78">
+      <c r="AY4" s="81"/>
+      <c r="AZ4" s="81"/>
+      <c r="BA4" s="81"/>
+      <c r="BB4" s="81"/>
+      <c r="BC4" s="81"/>
+      <c r="BD4" s="82"/>
+      <c r="BE4" s="80">
         <f>BE5</f>
         <v>44508</v>
       </c>
-      <c r="BF4" s="79"/>
-      <c r="BG4" s="79"/>
-      <c r="BH4" s="79"/>
-      <c r="BI4" s="79"/>
-      <c r="BJ4" s="79"/>
-      <c r="BK4" s="80"/>
-      <c r="BL4" s="78">
+      <c r="BF4" s="81"/>
+      <c r="BG4" s="81"/>
+      <c r="BH4" s="81"/>
+      <c r="BI4" s="81"/>
+      <c r="BJ4" s="81"/>
+      <c r="BK4" s="82"/>
+      <c r="BL4" s="80">
         <f>BL5</f>
         <v>44515</v>
       </c>
-      <c r="BM4" s="79"/>
-      <c r="BN4" s="79"/>
-      <c r="BO4" s="79"/>
-      <c r="BP4" s="79"/>
-      <c r="BQ4" s="79"/>
-      <c r="BR4" s="80"/>
-      <c r="BS4" s="78">
+      <c r="BM4" s="81"/>
+      <c r="BN4" s="81"/>
+      <c r="BO4" s="81"/>
+      <c r="BP4" s="81"/>
+      <c r="BQ4" s="81"/>
+      <c r="BR4" s="82"/>
+      <c r="BS4" s="80">
         <f>BS5</f>
         <v>44522</v>
       </c>
-      <c r="BT4" s="79"/>
-      <c r="BU4" s="79"/>
-      <c r="BV4" s="79"/>
-      <c r="BW4" s="79"/>
-      <c r="BX4" s="79"/>
-      <c r="BY4" s="80"/>
-      <c r="BZ4" s="78">
+      <c r="BT4" s="81"/>
+      <c r="BU4" s="81"/>
+      <c r="BV4" s="81"/>
+      <c r="BW4" s="81"/>
+      <c r="BX4" s="81"/>
+      <c r="BY4" s="82"/>
+      <c r="BZ4" s="80">
         <f>BZ5</f>
         <v>44529</v>
       </c>
-      <c r="CA4" s="79"/>
-      <c r="CB4" s="79"/>
-      <c r="CC4" s="79"/>
-      <c r="CD4" s="79"/>
-      <c r="CE4" s="79"/>
-      <c r="CF4" s="80"/>
+      <c r="CA4" s="81"/>
+      <c r="CB4" s="81"/>
+      <c r="CC4" s="81"/>
+      <c r="CD4" s="81"/>
+      <c r="CE4" s="81"/>
+      <c r="CF4" s="82"/>
     </row>
     <row r="5" spans="1:84" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23"/>
@@ -2537,7 +2607,7 @@
       <c r="E5" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="83"/>
+      <c r="F5" s="85"/>
       <c r="H5" s="6">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2</f>
         <v>44459</v>
@@ -3418,7 +3488,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="D12" s="61">
         <v>44474</v>
@@ -3444,12 +3514,12 @@
       <c r="T12" s="65"/>
       <c r="U12" s="65"/>
       <c r="V12" s="37"/>
-      <c r="W12" s="68">
+      <c r="W12" s="87">
         <v>2</v>
       </c>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="68"/>
+      <c r="X12" s="87"/>
+      <c r="Y12" s="87"/>
+      <c r="Z12" s="87"/>
       <c r="AA12" s="65"/>
       <c r="AB12" s="65"/>
       <c r="AC12" s="37"/>
@@ -3515,7 +3585,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D13" s="61">
         <v>44480</v>
@@ -3547,11 +3617,11 @@
       <c r="Z13" s="37"/>
       <c r="AA13" s="65"/>
       <c r="AB13" s="65"/>
-      <c r="AC13" s="66">
-        <v>1</v>
-      </c>
-      <c r="AD13" s="66"/>
-      <c r="AE13" s="66"/>
+      <c r="AC13" s="87">
+        <v>2</v>
+      </c>
+      <c r="AD13" s="87"/>
+      <c r="AE13" s="87"/>
       <c r="AF13" s="37"/>
       <c r="AG13" s="37"/>
       <c r="AH13" s="65"/>
@@ -3709,7 +3779,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D15" s="61">
         <v>44479</v>
@@ -3739,12 +3809,12 @@
       <c r="Y15" s="37"/>
       <c r="Z15" s="37"/>
       <c r="AA15" s="65"/>
-      <c r="AB15" s="84">
+      <c r="AB15" s="78">
         <v>2</v>
       </c>
-      <c r="AC15" s="84"/>
-      <c r="AD15" s="84"/>
-      <c r="AE15" s="84"/>
+      <c r="AC15" s="78"/>
+      <c r="AD15" s="78"/>
+      <c r="AE15" s="78"/>
       <c r="AF15" s="37"/>
       <c r="AG15" s="37"/>
       <c r="AH15" s="65"/>
@@ -3996,7 +4066,7 @@
     <row r="18" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="23"/>
       <c r="B18" s="56" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C18" s="31"/>
       <c r="D18" s="15"/>
@@ -4089,10 +4159,10 @@
         <v>1</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="D19" s="62">
         <v>44493</v>
@@ -4140,13 +4210,13 @@
       <c r="AM19" s="37"/>
       <c r="AN19" s="37"/>
       <c r="AO19" s="65"/>
-      <c r="AP19" s="67">
+      <c r="AP19" s="87">
         <v>2</v>
       </c>
-      <c r="AQ19" s="67"/>
-      <c r="AR19" s="67"/>
-      <c r="AS19" s="67"/>
-      <c r="AT19" s="67"/>
+      <c r="AQ19" s="87"/>
+      <c r="AR19" s="87"/>
+      <c r="AS19" s="87"/>
+      <c r="AT19" s="87"/>
       <c r="AU19" s="37"/>
       <c r="AV19" s="65"/>
       <c r="AW19" s="65"/>
@@ -4189,7 +4259,7 @@
     <row r="20" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="23"/>
       <c r="B20" s="48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="49" t="s">
         <v>16</v>
@@ -4286,7 +4356,7 @@
     <row r="21" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="23"/>
       <c r="B21" s="48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="49" t="s">
         <v>14</v>
@@ -4383,10 +4453,10 @@
     <row r="22" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="23"/>
       <c r="B22" s="48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="49" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D22" s="62">
         <v>44496</v>
@@ -4434,13 +4504,13 @@
       <c r="AP22" s="65"/>
       <c r="AQ22" s="37"/>
       <c r="AR22" s="37"/>
-      <c r="AS22" s="84">
+      <c r="AS22" s="78">
         <v>3</v>
       </c>
-      <c r="AT22" s="84"/>
-      <c r="AU22" s="84"/>
-      <c r="AV22" s="84"/>
-      <c r="AW22" s="84"/>
+      <c r="AT22" s="78"/>
+      <c r="AU22" s="78"/>
+      <c r="AV22" s="78"/>
+      <c r="AW22" s="78"/>
       <c r="AX22" s="37"/>
       <c r="AY22" s="37"/>
       <c r="AZ22" s="37"/>
@@ -4480,7 +4550,7 @@
     <row r="23" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="23"/>
       <c r="B23" s="48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="49" t="s">
         <v>11</v>
@@ -4577,17 +4647,17 @@
     <row r="24" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="23"/>
       <c r="B24" s="48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="49" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D24" s="62">
-        <v>44494</v>
+        <v>44499</v>
       </c>
       <c r="E24" s="62">
         <f>D24+3</f>
-        <v>44497</v>
+        <v>44502</v>
       </c>
       <c r="F24" s="36"/>
       <c r="G24" s="10"/>
@@ -4626,17 +4696,17 @@
       <c r="AN24" s="37"/>
       <c r="AO24" s="65"/>
       <c r="AP24" s="65"/>
-      <c r="AQ24" s="66">
+      <c r="AQ24" s="37"/>
+      <c r="AR24" s="37"/>
+      <c r="AS24" s="37"/>
+      <c r="AT24" s="37"/>
+      <c r="AU24" s="37"/>
+      <c r="AV24" s="87">
         <v>2</v>
       </c>
-      <c r="AR24" s="66"/>
-      <c r="AS24" s="66"/>
-      <c r="AT24" s="66"/>
-      <c r="AU24" s="37"/>
-      <c r="AV24" s="65"/>
-      <c r="AW24" s="65"/>
-      <c r="AX24" s="37"/>
-      <c r="AY24" s="37"/>
+      <c r="AW24" s="87"/>
+      <c r="AX24" s="87"/>
+      <c r="AY24" s="87"/>
       <c r="AZ24" s="37"/>
       <c r="BA24" s="37"/>
       <c r="BB24" s="37"/>
@@ -4674,7 +4744,7 @@
     <row r="25" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="23"/>
       <c r="B25" s="77" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="49" t="s">
         <v>16</v>
@@ -4771,7 +4841,7 @@
     <row r="26" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="23"/>
       <c r="B26" s="77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="49" t="s">
         <v>14</v>
@@ -4867,11 +4937,11 @@
     </row>
     <row r="27" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="23"/>
-      <c r="B27" s="85" t="s">
-        <v>59</v>
+      <c r="B27" s="79" t="s">
+        <v>56</v>
       </c>
       <c r="C27" s="49" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D27" s="62">
         <v>44497</v>
@@ -4920,14 +4990,14 @@
       <c r="AQ27" s="37"/>
       <c r="AR27" s="37"/>
       <c r="AS27" s="37"/>
-      <c r="AT27" s="84">
+      <c r="AT27" s="78">
         <v>3</v>
       </c>
-      <c r="AU27" s="84"/>
-      <c r="AV27" s="84"/>
-      <c r="AW27" s="84"/>
-      <c r="AX27" s="84"/>
-      <c r="AY27" s="84"/>
+      <c r="AU27" s="78"/>
+      <c r="AV27" s="78"/>
+      <c r="AW27" s="78"/>
+      <c r="AX27" s="78"/>
+      <c r="AY27" s="78"/>
       <c r="AZ27" s="37"/>
       <c r="BA27" s="37"/>
       <c r="BB27" s="37"/>
@@ -4965,7 +5035,7 @@
     <row r="28" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="23"/>
       <c r="B28" s="77" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="49" t="s">
         <v>14</v>
@@ -5062,7 +5132,7 @@
     <row r="29" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="23"/>
       <c r="B29" s="77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="49" t="s">
         <v>14</v>
@@ -5158,11 +5228,11 @@
     </row>
     <row r="30" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="23"/>
-      <c r="B30" s="77" t="s">
-        <v>31</v>
+      <c r="B30" s="79" t="s">
+        <v>63</v>
       </c>
       <c r="C30" s="49" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="D30" s="62">
         <v>44502</v>
@@ -5216,12 +5286,12 @@
       <c r="AV30" s="65"/>
       <c r="AW30" s="65"/>
       <c r="AX30" s="37"/>
-      <c r="AY30" s="72">
+      <c r="AY30" s="86">
         <v>2</v>
       </c>
-      <c r="AZ30" s="72"/>
-      <c r="BA30" s="72"/>
-      <c r="BB30" s="72"/>
+      <c r="AZ30" s="86"/>
+      <c r="BA30" s="86"/>
+      <c r="BB30" s="86"/>
       <c r="BC30" s="65"/>
       <c r="BD30" s="65"/>
       <c r="BE30" s="37"/>
@@ -5256,7 +5326,7 @@
     <row r="31" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="23"/>
       <c r="B31" s="77" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C31" s="49" t="s">
         <v>11</v>
@@ -5353,7 +5423,7 @@
     <row r="32" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="23"/>
       <c r="B32" s="77" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C32" s="49" t="s">
         <v>16</v>
@@ -5450,7 +5520,7 @@
     <row r="33" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="23"/>
       <c r="B33" s="77" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C33" s="49" t="s">
         <v>16</v>
@@ -5547,7 +5617,7 @@
     <row r="34" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="23"/>
       <c r="B34" s="77" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C34" s="49" t="s">
         <v>16</v>
@@ -5644,10 +5714,10 @@
     <row r="35" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="23"/>
       <c r="B35" s="77" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C35" s="49" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D35" s="62">
         <v>44501</v>
@@ -5700,12 +5770,12 @@
       <c r="AU35" s="37"/>
       <c r="AV35" s="65"/>
       <c r="AW35" s="65"/>
-      <c r="AX35" s="84">
+      <c r="AX35" s="78">
         <v>2</v>
       </c>
-      <c r="AY35" s="84"/>
-      <c r="AZ35" s="84"/>
-      <c r="BA35" s="84"/>
+      <c r="AY35" s="78"/>
+      <c r="AZ35" s="78"/>
+      <c r="BA35" s="78"/>
       <c r="BB35" s="37"/>
       <c r="BC35" s="65"/>
       <c r="BD35" s="65"/>
@@ -5741,7 +5811,7 @@
     <row r="36" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="23"/>
       <c r="B36" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C36" s="49" t="s">
         <v>14</v>
@@ -5837,11 +5907,11 @@
     </row>
     <row r="37" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="23"/>
-      <c r="B37" s="77" t="s">
-        <v>38</v>
+      <c r="B37" s="79" t="s">
+        <v>61</v>
       </c>
       <c r="C37" s="49" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="D37" s="62">
         <v>44503</v>
@@ -5896,12 +5966,11 @@
       <c r="AW37" s="65"/>
       <c r="AX37" s="37"/>
       <c r="AY37" s="37"/>
-      <c r="AZ37" s="74">
+      <c r="BA37" s="86">
         <v>1</v>
       </c>
-      <c r="BA37" s="74"/>
-      <c r="BB37" s="74"/>
-      <c r="BC37" s="65"/>
+      <c r="BB37" s="86"/>
+      <c r="BC37" s="86"/>
       <c r="BD37" s="65"/>
       <c r="BE37" s="37"/>
       <c r="BF37" s="37"/>
@@ -5935,7 +6004,7 @@
     <row r="38" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
       <c r="B38" s="77" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C38" s="49" t="s">
         <v>11</v>
@@ -5984,12 +6053,12 @@
       <c r="AN38" s="37"/>
       <c r="AO38" s="65"/>
       <c r="AP38" s="65"/>
-      <c r="AQ38" s="72">
+      <c r="AQ38" s="86">
         <v>2</v>
       </c>
-      <c r="AR38" s="72"/>
-      <c r="AS38" s="72"/>
-      <c r="AT38" s="72"/>
+      <c r="AR38" s="86"/>
+      <c r="AS38" s="86"/>
+      <c r="AT38" s="86"/>
       <c r="AU38" s="37"/>
       <c r="AV38" s="65"/>
       <c r="AW38" s="65"/>
@@ -6032,10 +6101,10 @@
     <row r="39" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="23"/>
       <c r="B39" s="77" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C39" s="49" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="D39" s="62">
         <v>44497</v>
@@ -6129,7 +6198,7 @@
     <row r="40" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="23"/>
       <c r="B40" s="77" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C40" s="49" t="s">
         <v>9</v>
@@ -6226,7 +6295,7 @@
     <row r="41" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="23"/>
       <c r="B41" s="48" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C41" s="49" t="s">
         <v>11</v>
@@ -6414,7 +6483,7 @@
     <row r="43" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
       <c r="B43" s="46" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C43" s="47" t="s">
         <v>11</v>
@@ -6514,10 +6583,10 @@
     <row r="44" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="23"/>
       <c r="B44" s="46" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C44" s="47" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D44" s="63">
         <v>44515</v>
@@ -6584,14 +6653,14 @@
       <c r="BI44" s="37"/>
       <c r="BJ44" s="65"/>
       <c r="BK44" s="65"/>
-      <c r="BL44" s="84">
+      <c r="BL44" s="78">
         <v>2</v>
       </c>
-      <c r="BM44" s="84"/>
-      <c r="BN44" s="84"/>
-      <c r="BO44" s="84"/>
-      <c r="BP44" s="84"/>
-      <c r="BQ44" s="84"/>
+      <c r="BM44" s="78"/>
+      <c r="BN44" s="78"/>
+      <c r="BO44" s="78"/>
+      <c r="BP44" s="78"/>
+      <c r="BQ44" s="78"/>
       <c r="BR44" s="65"/>
       <c r="BS44" s="37"/>
       <c r="BT44" s="37"/>
@@ -6611,7 +6680,7 @@
     <row r="45" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="23"/>
       <c r="B45" s="46" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C45" s="47" t="s">
         <v>16</v>
@@ -6620,7 +6689,7 @@
         <v>44515</v>
       </c>
       <c r="E45" s="63">
-        <f t="shared" ref="E44:E45" si="24">D45+4</f>
+        <f t="shared" ref="E45" si="24">D45+4</f>
         <v>44519</v>
       </c>
       <c r="F45" s="36"/>
@@ -6708,10 +6777,10 @@
     <row r="46" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="23"/>
       <c r="B46" s="46" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C46" s="47" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D46" s="63">
         <v>44522</v>
@@ -6784,8 +6853,8 @@
       <c r="BP46" s="37"/>
       <c r="BQ46" s="65"/>
       <c r="BR46" s="65"/>
-      <c r="BS46" s="84" t="s">
-        <v>60</v>
+      <c r="BS46" s="78" t="s">
+        <v>57</v>
       </c>
       <c r="BT46" s="37"/>
       <c r="BU46" s="37"/>
@@ -6804,7 +6873,7 @@
     <row r="47" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="23"/>
       <c r="B47" s="46" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C47" s="47" t="s">
         <v>16</v>
@@ -6900,7 +6969,7 @@
     <row r="48" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="23"/>
       <c r="B48" s="46" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C48" s="47" t="s">
         <v>11</v>
@@ -6996,10 +7065,10 @@
     <row r="49" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="23"/>
       <c r="B49" s="46" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C49" s="47" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D49" s="63">
         <v>44525</v>
@@ -7075,8 +7144,8 @@
       <c r="BS49" s="37"/>
       <c r="BT49" s="37"/>
       <c r="BU49" s="37"/>
-      <c r="BV49" s="84" t="s">
-        <v>60</v>
+      <c r="BV49" s="78" t="s">
+        <v>57</v>
       </c>
       <c r="BW49" s="37"/>
       <c r="BX49" s="65"/>
@@ -7092,7 +7161,7 @@
     <row r="50" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="23"/>
       <c r="B50" s="46" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C50" s="47" t="s">
         <v>11</v>
@@ -7188,10 +7257,10 @@
     <row r="51" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="23"/>
       <c r="B51" s="46" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C51" s="47" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D51" s="63">
         <v>44526</v>
@@ -7268,8 +7337,8 @@
       <c r="BT51" s="37"/>
       <c r="BU51" s="37"/>
       <c r="BV51" s="37"/>
-      <c r="BW51" s="84" t="s">
-        <v>60</v>
+      <c r="BW51" s="78" t="s">
+        <v>57</v>
       </c>
       <c r="BX51" s="65"/>
       <c r="BY51" s="65"/>
@@ -7284,7 +7353,7 @@
     <row r="52" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="23"/>
       <c r="B52" s="46" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C52" s="47" t="s">
         <v>14</v>
@@ -7380,10 +7449,10 @@
     <row r="53" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="23"/>
       <c r="B53" s="46" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C53" s="47" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="D53" s="63">
         <v>44524</v>
@@ -7458,7 +7527,7 @@
       <c r="BR53" s="65"/>
       <c r="BS53" s="37"/>
       <c r="BT53" s="37"/>
-      <c r="BU53" s="74">
+      <c r="BU53" s="86">
         <v>1</v>
       </c>
       <c r="BV53" s="37"/>
@@ -7476,10 +7545,10 @@
     <row r="54" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="23"/>
       <c r="B54" s="46" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C54" s="47" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D54" s="63">
         <v>44526</v>
@@ -7556,8 +7625,8 @@
       <c r="BT54" s="37"/>
       <c r="BU54" s="37"/>
       <c r="BV54" s="37"/>
-      <c r="BW54" s="84" t="s">
-        <v>60</v>
+      <c r="BW54" s="78" t="s">
+        <v>57</v>
       </c>
       <c r="BX54" s="65"/>
       <c r="BY54" s="65"/>
@@ -7572,7 +7641,7 @@
     <row r="55" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="23"/>
       <c r="B55" s="46" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C55" s="47" t="s">
         <v>11</v>
@@ -7758,7 +7827,7 @@
     <row r="57" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="23"/>
       <c r="B57" s="40" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C57" s="41"/>
       <c r="D57" s="42"/>
@@ -7855,6 +7924,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="BL4:BR4"/>
+    <mergeCell ref="BS4:BY4"/>
+    <mergeCell ref="BZ4:CF4"/>
+    <mergeCell ref="AX4:BD4"/>
+    <mergeCell ref="BE4:BK4"/>
     <mergeCell ref="AJ4:AP4"/>
     <mergeCell ref="AQ4:AW4"/>
     <mergeCell ref="D3:E3"/>
@@ -7863,387 +7937,421 @@
     <mergeCell ref="V4:AB4"/>
     <mergeCell ref="AC4:AI4"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="BL4:BR4"/>
-    <mergeCell ref="BS4:BY4"/>
-    <mergeCell ref="BZ4:CF4"/>
-    <mergeCell ref="AX4:BD4"/>
-    <mergeCell ref="BE4:BK4"/>
   </mergeCells>
-  <conditionalFormatting sqref="H56:BX57 BZ56:CE57 H5:BX6 BZ6:CE6 H7:S7 V7:Z9 AC7:AG9 AJ7:AN9 AQ7:AU9 AX7:BB9 BE7:BI9 BL7:BP9 BS7:BW9 BZ7:CD9 H9:Q9 H8:M8 R8:S8">
-    <cfRule type="expression" dxfId="95" priority="161">
+  <conditionalFormatting sqref="H56:BX57 BZ56:CE57 H5:BX6 BZ6:CE6 H7:S7 V7:Z9 AC7:AG9 AJ7:AN9 AQ7:AU9 AX7:BB9 BE7:BI9 BL7:BP9 BS7:BW9 BZ7:CD9 H9:Q9 H8:M8 R8:S8 AJ22:AN23 AJ25:AN25 AJ24:AK24">
+    <cfRule type="expression" dxfId="101" priority="167">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H56:BX57 BZ56:CE57 H6:BX6 BZ6:CE6 H7:S7 V7:Z9 AC7:AG9 AJ7:AN9 AQ7:AU9 AX7:BB9 BE7:BI9 BL7:BP9 BS7:BW9 BZ7:CD9 H9:Q9 H8:M8 R8:S8">
-    <cfRule type="expression" dxfId="94" priority="155">
+  <conditionalFormatting sqref="H56:BX57 BZ56:CE57 H6:BX6 BZ6:CE6 H7:S7 V7:Z9 AC7:AG9 AJ7:AN9 AQ7:AU9 AX7:BB9 BE7:BI9 BL7:BP9 BS7:BW9 BZ7:CD9 H9:Q9 H8:M8 R8:S8 AJ22:AN23 AJ25:AN25 AJ24:AK24">
+    <cfRule type="expression" dxfId="100" priority="161">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="162" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ5:CF5 BY56:BY57 CF56:CF57 BY5:BY6 CF6">
-    <cfRule type="expression" dxfId="92" priority="163">
+    <cfRule type="expression" dxfId="98" priority="169">
       <formula>AND(TODAY()&gt;=BY$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY56:BY57 CF56:CF57 BY6 CF6">
-    <cfRule type="expression" dxfId="91" priority="166">
+    <cfRule type="expression" dxfId="97" priority="172">
       <formula>AND(task_start&lt;=BY$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BY$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="167" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="173" stopIfTrue="1">
       <formula>AND(task_end&gt;=BY$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:S10 BZ10:CD10 V10:Z10 AC10:AG10 AJ10:AN10 AQ10:AU10 AX10:BB10 BE10:BI10 BL10:BP10 BS10:BW10">
-    <cfRule type="expression" dxfId="89" priority="112">
+    <cfRule type="expression" dxfId="95" priority="118">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:S10 BZ10:CD10 V10:Z10 AC10:AG10 AJ10:AN10 AQ10:AU10 AX10:BB10 BE10:BI10 BL10:BP10 BS10:BW10">
-    <cfRule type="expression" dxfId="88" priority="110">
+    <cfRule type="expression" dxfId="94" priority="116">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="111" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="117" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ11:CD17 V13:Z13 AC11:AG12 AJ11:AN17 AQ11:AU17 AX11:BB17 BE11:BI17 BL11:BP17 BS11:BW17 H11:S17 V16:Z17 AC17:AF17 AD16:AG16 V11:V12 AF15:AG15 AF13:AG13 AG14 V14:W15 Y14:Z14">
-    <cfRule type="expression" dxfId="86" priority="106">
+    <cfRule type="expression" dxfId="92" priority="112">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ11:CD17 V13:Z13 AC11:AG12 AJ11:AN17 AQ11:AU17 AX11:BB17 BE11:BI17 BL11:BP17 BS11:BW17 H11:S17 V16:Z17 AC17:AF17 AD16:AG16 V11:V12 AF15:AG15 AF13:AG13 AG14 V14:W15 Y14:Z14">
-    <cfRule type="expression" dxfId="85" priority="104">
+    <cfRule type="expression" dxfId="91" priority="110">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="111" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:S18 BZ18:CD18 V18:Z18 AC18:AG18 AJ18:AN18 AQ18:AU18 AX18:BB18 BE18:BI18 BL18:BP18 BS18:BW18">
-    <cfRule type="expression" dxfId="83" priority="100">
+    <cfRule type="expression" dxfId="89" priority="106">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:S18 BZ18:CD18 V18:Z18 AC18:AG18 AJ18:AN18 AQ18:AU18 AX18:BB18 BE18:BI18 BL18:BP18 BS18:BW18">
-    <cfRule type="expression" dxfId="82" priority="98">
+    <cfRule type="expression" dxfId="88" priority="104">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="105" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42:L42 BZ42:CD42 V42:Z42 O42:S42 AC42:AG42 AJ42:AN42 AQ42:AU42 AX42:BB42 BE42:BI42 BL42:BP42 BS42:BW42">
-    <cfRule type="expression" dxfId="80" priority="94">
+    <cfRule type="expression" dxfId="86" priority="100">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42:L42 BZ42:CD42 V42:Z42 O42:S42 AC42:AG42 AJ42:AN42 AQ42:AU42 AX42:BB42 BE42:BI42 BL42:BP42 BS42:BW42">
-    <cfRule type="expression" dxfId="79" priority="92">
+    <cfRule type="expression" dxfId="85" priority="98">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="99" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19:S40 BZ19:CD41 V19:Z41 M42:M55 H41:M41 O41:S41 N41:N55 AC19:AG41 AJ19:AN19 AQ20:AU21 AX19:BB22 BL19:BP41 BS19:BW41 AU19 AJ22:AN25 AJ20:AJ21 AN21 AJ27:AN41 AJ26:AM26 AQ30:AU34 AT29:AU29 AQ36:AU37 AQ35:AS35 AQ26:AU26 AU24 AQ25:AS25 AQ23:AU23 AQ22:AR22 AX24:BB26 BA23:BB23 AX41:BB41 AX40:AY40 AZ27:BB27 AQ28:AU28 AQ27:AS27 AZ32:BB32 BE19:BI41 AX30 AQ40:AU41 AU38 AQ39:AS39 AX38:BB39 AX37:AY37 AX33:AX34 AX29:BB29">
-    <cfRule type="expression" dxfId="77" priority="88">
+  <conditionalFormatting sqref="H19:S40 BZ19:CD41 V19:Z41 M42:M55 H41:M41 O41:S41 N41:N55 AC19:AG41 AJ19:AN19 AQ20:AU21 AX19:BB22 BL19:BP41 BS19:BW41 AU19 AJ20:AJ21 AN21 AJ27:AN41 AJ26:AM26 AQ30:AU34 AT29:AU29 AQ36:AU37 AQ35:AS35 AQ26:AU26 AQ25:AS25 AQ23:AU23 AQ22:AR22 AX25:BB26 BA23:BB23 AX41:BB41 AX40:AY40 AZ27:BB27 AQ28:AU28 AQ27:AS27 AZ32:BB32 BE19:BI41 AX30 AQ40:AU41 AU38 AQ39:AS39 AX38:BB39 AX37:AY37 AX33:AX34 AX29:BB29 AZ24:BB24">
+    <cfRule type="expression" dxfId="2" priority="94">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19:S40 BZ19:CD41 V19:Z41 M42:M55 H41:M41 O41:S41 N41:N55 AC19:AG41 AJ19:AN19 AQ20:AU21 AX19:BB22 BL19:BP41 BS19:BW41 AU19 AJ22:AN25 AJ20:AJ21 AN21 AJ27:AN41 AJ26:AM26 AQ30:AU34 AT29:AU29 AQ36:AU37 AQ35:AS35 AQ26:AU26 AU24 AQ25:AS25 AQ23:AU23 AQ22:AR22 AX24:BB26 BA23:BB23 AX41:BB41 AX40:AY40 AZ27:BB27 AQ28:AU28 AQ27:AS27 AZ32:BB32 BE19:BI41 AX30 AQ40:AU41 AU38 AQ39:AS39 AX38:BB39 AX37:AY37 AX33:AX34 AX29:BB29">
-    <cfRule type="expression" dxfId="76" priority="86">
+  <conditionalFormatting sqref="H19:S40 BZ19:CD41 V19:Z41 M42:M55 H41:M41 O41:S41 N41:N55 AC19:AG41 AJ19:AN19 AQ20:AU21 AX19:BB22 BL19:BP41 BS19:BW41 AU19 AJ20:AJ21 AN21 AJ27:AN41 AJ26:AM26 AQ30:AU34 AT29:AU29 AQ36:AU37 AQ35:AS35 AQ26:AU26 AQ25:AS25 AQ23:AU23 AQ22:AR22 AX25:BB26 BA23:BB23 AX41:BB41 AX40:AY40 AZ27:BB27 AQ28:AU28 AQ27:AS27 AZ32:BB32 BE19:BI41 AX30 AQ40:AU41 AU38 AQ39:AS39 AX38:BB39 AX37:AY37 AX33:AX34 AX29:BB29 AZ24:BB24">
+    <cfRule type="expression" dxfId="1" priority="92">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="93" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43:L55 BZ43:CD55 V43:Z55 O43:S55 AC43:AG55 AJ43:AN55 AQ43:AU55 AX43:BB55 BE43:BI55 BS55:BV55 BL46:BP55 BS43:BW45 BT46:BW47 BS49:BU49 BS48 BU48:BW48 BS52 BS54:BU54 BS50:BT51 BV50:BW50 BW49 BS53:BT53 BV53:BW53 BU52:BW52 BV51">
-    <cfRule type="expression" dxfId="74" priority="82">
+    <cfRule type="expression" dxfId="83" priority="88">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43:L55 BZ43:CD55 V43:Z55 O43:S55 AC43:AG55 AJ43:AN55 AQ43:AU55 AX43:BB55 BE43:BI55 BS55:BV55 BL46:BP55 BS43:BW45 BT46:BW47 BS49:BU49 BS48 BU48:BW48 BS52 BS54:BU54 BS50:BT51 BV50:BW50 BW49 BS53:BT53 BV53:BW53 BU52:BW52 BV51">
-    <cfRule type="expression" dxfId="73" priority="80">
+    <cfRule type="expression" dxfId="82" priority="86">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="87" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:U55">
-    <cfRule type="expression" dxfId="71" priority="73">
+    <cfRule type="expression" dxfId="80" priority="79">
       <formula>AND(TODAY()&gt;=T$5,TODAY()&lt;U$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:U55">
-    <cfRule type="expression" dxfId="70" priority="71">
+    <cfRule type="expression" dxfId="79" priority="77">
       <formula>AND(task_start&lt;=T$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=T$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="78" stopIfTrue="1">
       <formula>AND(task_end&gt;=T$5,task_start&lt;U$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA7:AB14 AA17:AB55">
-    <cfRule type="expression" dxfId="68" priority="70">
+    <cfRule type="expression" dxfId="77" priority="76">
       <formula>AND(TODAY()&gt;=AA$5,TODAY()&lt;AB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA7:AB14 AA17:AB55">
-    <cfRule type="expression" dxfId="67" priority="68">
+    <cfRule type="expression" dxfId="76" priority="74">
       <formula>AND(task_start&lt;=AA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AA$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="75" stopIfTrue="1">
       <formula>AND(task_end&gt;=AA$5,task_start&lt;AB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH7:AI55">
-    <cfRule type="expression" dxfId="65" priority="67">
+    <cfRule type="expression" dxfId="74" priority="73">
       <formula>AND(TODAY()&gt;=AH$5,TODAY()&lt;AI$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH7:AI55">
-    <cfRule type="expression" dxfId="64" priority="65">
+    <cfRule type="expression" dxfId="73" priority="71">
       <formula>AND(task_start&lt;=AH$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AH$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="72" stopIfTrue="1">
       <formula>AND(task_end&gt;=AH$5,task_start&lt;AI$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO7:AP18 AO20:AP25 AO19 AO27:AP55">
-    <cfRule type="expression" dxfId="62" priority="64">
+    <cfRule type="expression" dxfId="71" priority="70">
       <formula>AND(TODAY()&gt;=AO$5,TODAY()&lt;AP$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO7:AP18 AO20:AP25 AO19 AO27:AP55">
-    <cfRule type="expression" dxfId="61" priority="62">
+    <cfRule type="expression" dxfId="70" priority="68">
       <formula>AND(task_start&lt;=AO$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AO$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="69" stopIfTrue="1">
       <formula>AND(task_end&gt;=AO$5,task_start&lt;AP$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV7:AW21 AV36:AW38 AW35 AV26:AW26 AV23:AW24 AV33:AW34 AV31:AV32 AV40:AW55 AV28:AW30">
-    <cfRule type="expression" dxfId="59" priority="61">
+  <conditionalFormatting sqref="AV7:AW21 AV36:AW38 AW35 AV26:AW26 AV23:AW23 AV33:AW34 AV31:AV32 AV40:AW55 AV28:AW30">
+    <cfRule type="expression" dxfId="68" priority="67">
       <formula>AND(TODAY()&gt;=AV$5,TODAY()&lt;AW$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV7:AW21 AV36:AW38 AW35 AV26:AW26 AV23:AW24 AV33:AW34 AV31:AV32 AV40:AW55 AV28:AW30">
-    <cfRule type="expression" dxfId="58" priority="59">
+  <conditionalFormatting sqref="AV7:AW21 AV36:AW38 AW35 AV26:AW26 AV23:AW23 AV33:AW34 AV31:AV32 AV40:AW55 AV28:AW30">
+    <cfRule type="expression" dxfId="67" priority="65">
       <formula>AND(task_start&lt;=AV$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AV$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="66" stopIfTrue="1">
       <formula>AND(task_end&gt;=AV$5,task_start&lt;AW$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC42:BD55 BC41 BC35:BD40 BD34 BC7:BD33">
-    <cfRule type="expression" dxfId="56" priority="58">
+  <conditionalFormatting sqref="BC42:BD55 BC41 BC35:BD36 BD34 BC7:BD33 BC38:BD40 BD37">
+    <cfRule type="expression" dxfId="65" priority="64">
       <formula>AND(TODAY()&gt;=BC$5,TODAY()&lt;BD$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC42:BD55 BC41 BC35:BD40 BD34 BC7:BD33">
-    <cfRule type="expression" dxfId="55" priority="56">
+  <conditionalFormatting sqref="BC42:BD55 BC41 BC35:BD36 BD34 BC7:BD33 BC38:BD40 BD37">
+    <cfRule type="expression" dxfId="64" priority="62">
       <formula>AND(task_start&lt;=BC$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BC$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="63" stopIfTrue="1">
       <formula>AND(task_end&gt;=BC$5,task_start&lt;BD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ7:BK55">
-    <cfRule type="expression" dxfId="53" priority="55">
+    <cfRule type="expression" dxfId="62" priority="61">
       <formula>AND(TODAY()&gt;=BJ$5,TODAY()&lt;BK$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ7:BK55">
-    <cfRule type="expression" dxfId="52" priority="53">
+    <cfRule type="expression" dxfId="61" priority="59">
       <formula>AND(task_start&lt;=BJ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BJ$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="60" stopIfTrue="1">
       <formula>AND(task_end&gt;=BJ$5,task_start&lt;BK$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ7:BR43 BQ45:BR55 BR44">
-    <cfRule type="expression" dxfId="50" priority="52">
+    <cfRule type="expression" dxfId="59" priority="58">
       <formula>AND(TODAY()&gt;=BQ$5,TODAY()&lt;BR$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ7:BR43 BQ45:BR55 BR44">
-    <cfRule type="expression" dxfId="49" priority="50">
+    <cfRule type="expression" dxfId="58" priority="56">
       <formula>AND(task_start&lt;=BQ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BQ$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="57" stopIfTrue="1">
       <formula>AND(task_end&gt;=BQ$5,task_start&lt;BR$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX7:BY55">
-    <cfRule type="expression" dxfId="47" priority="49">
+    <cfRule type="expression" dxfId="56" priority="55">
       <formula>AND(TODAY()&gt;=BX$5,TODAY()&lt;BY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX7:BY55">
-    <cfRule type="expression" dxfId="46" priority="47">
+    <cfRule type="expression" dxfId="55" priority="53">
       <formula>AND(task_start&lt;=BX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BX$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="54" stopIfTrue="1">
       <formula>AND(task_end&gt;=BX$5,task_start&lt;BY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE7:CF55">
-    <cfRule type="expression" dxfId="44" priority="46">
+    <cfRule type="expression" dxfId="53" priority="52">
       <formula>AND(TODAY()&gt;=CE$5,TODAY()&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE7:CF55">
-    <cfRule type="expression" dxfId="43" priority="44">
+    <cfRule type="expression" dxfId="52" priority="50">
       <formula>AND(task_start&lt;=CE$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=CE$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="51" stopIfTrue="1">
       <formula>AND(task_end&gt;=CE$5,task_start&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW31">
-    <cfRule type="expression" dxfId="41" priority="42">
+    <cfRule type="expression" dxfId="50" priority="48">
       <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW31">
-    <cfRule type="expression" dxfId="40" priority="40">
+    <cfRule type="expression" dxfId="49" priority="46">
       <formula>AND(task_start&lt;=AW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AW$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="47" stopIfTrue="1">
       <formula>AND(task_end&gt;=AW$5,task_start&lt;AX$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA15">
-    <cfRule type="expression" dxfId="38" priority="39">
+    <cfRule type="expression" dxfId="47" priority="45">
       <formula>AND(TODAY()&gt;=AA$5,TODAY()&lt;AB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA15">
-    <cfRule type="expression" dxfId="37" priority="37">
+    <cfRule type="expression" dxfId="46" priority="43">
       <formula>AND(task_start&lt;=AA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AA$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="44" stopIfTrue="1">
       <formula>AND(task_end&gt;=AA$5,task_start&lt;AB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y15">
-    <cfRule type="expression" dxfId="26" priority="27">
+    <cfRule type="expression" dxfId="44" priority="33">
       <formula>AND(TODAY()&gt;=Y$5,TODAY()&lt;Z$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y15">
-    <cfRule type="expression" dxfId="25" priority="25">
+    <cfRule type="expression" dxfId="43" priority="31">
       <formula>AND(task_start&lt;=Y$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Y$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="32" stopIfTrue="1">
       <formula>AND(task_end&gt;=Y$5,task_start&lt;Z$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z15">
-    <cfRule type="expression" dxfId="23" priority="24">
+    <cfRule type="expression" dxfId="41" priority="30">
       <formula>AND(TODAY()&gt;=Z$5,TODAY()&lt;AA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z15">
-    <cfRule type="expression" dxfId="22" priority="22">
+    <cfRule type="expression" dxfId="40" priority="28">
       <formula>AND(task_start&lt;=Z$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Z$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="29" stopIfTrue="1">
       <formula>AND(task_end&gt;=Z$5,task_start&lt;AA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X14">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="38" priority="27">
       <formula>AND(TODAY()&gt;=X$5,TODAY()&lt;Y$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X14">
-    <cfRule type="expression" dxfId="19" priority="19">
+    <cfRule type="expression" dxfId="37" priority="25">
       <formula>AND(task_start&lt;=X$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=X$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="26" stopIfTrue="1">
       <formula>AND(task_end&gt;=X$5,task_start&lt;Y$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT35">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="35" priority="24">
       <formula>AND(TODAY()&gt;=AT$5,TODAY()&lt;AU$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT35">
-    <cfRule type="expression" dxfId="16" priority="16">
+    <cfRule type="expression" dxfId="34" priority="22">
       <formula>AND(task_start&lt;=AT$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AT$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="23" stopIfTrue="1">
       <formula>AND(task_end&gt;=AT$5,task_start&lt;AU$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="32" priority="21">
       <formula>AND(TODAY()&gt;=AU$5,TODAY()&lt;AV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35">
-    <cfRule type="expression" dxfId="13" priority="13">
+    <cfRule type="expression" dxfId="31" priority="19">
       <formula>AND(task_start&lt;=AU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AU$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="20" stopIfTrue="1">
       <formula>AND(task_end&gt;=AU$5,task_start&lt;AV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV35">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="29" priority="18">
       <formula>AND(TODAY()&gt;=AV$5,TODAY()&lt;AW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV35">
-    <cfRule type="expression" dxfId="10" priority="10">
+    <cfRule type="expression" dxfId="28" priority="16">
       <formula>AND(task_start&lt;=AV$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AV$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="17" stopIfTrue="1">
       <formula>AND(task_end&gt;=AV$5,task_start&lt;AW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB35">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="26" priority="15">
       <formula>AND(TODAY()&gt;=BB$5,TODAY()&lt;BC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB35">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="25" priority="13">
       <formula>AND(task_start&lt;=BB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="14" stopIfTrue="1">
       <formula>AND(task_end&gt;=BB$5,task_start&lt;BC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU51">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="23" priority="12">
       <formula>AND(TODAY()&gt;=BU$5,TODAY()&lt;BV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU51">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="22" priority="10">
       <formula>AND(task_start&lt;=BU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BU$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="11" stopIfTrue="1">
       <formula>AND(task_end&gt;=BU$5,task_start&lt;BV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV54">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="20" priority="9">
       <formula>AND(TODAY()&gt;=BV$5,TODAY()&lt;BW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV54">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="19" priority="7">
       <formula>AND(task_start&lt;=BV$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BV$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="8" stopIfTrue="1">
       <formula>AND(task_end&gt;=BV$5,task_start&lt;BW$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ24:AS24">
+    <cfRule type="expression" dxfId="17" priority="175">
+      <formula>AND(TODAY()&gt;=AL$5,TODAY()&lt;AM$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ24:AS24">
+    <cfRule type="expression" dxfId="16" priority="178">
+      <formula>AND(task_start&lt;=AL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AL$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="179" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AL$5,task_start&lt;AM$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL24:AN24">
+    <cfRule type="expression" dxfId="14" priority="6">
+      <formula>AND(TODAY()&gt;=AL$5,TODAY()&lt;AM$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL24:AN24">
+    <cfRule type="expression" dxfId="13" priority="4">
+      <formula>AND(task_start&lt;=AL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AL$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AL$5,task_start&lt;AM$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT24:AU24">
+    <cfRule type="expression" dxfId="11" priority="3">
+      <formula>AND(TODAY()&gt;=AT$5,TODAY()&lt;AU$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT24:AU24">
+    <cfRule type="expression" dxfId="10" priority="1">
+      <formula>AND(task_start&lt;=AT$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AT$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="2" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AT$5,task_start&lt;AU$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>

--- a/MINTA-gantt-diagram.xlsx
+++ b/MINTA-gantt-diagram.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt-diagram" sheetId="11" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <definedName name="task_start" localSheetId="0">'Gantt-diagram'!$D1</definedName>
     <definedName name="today" localSheetId="0">TODAY()</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="66">
   <si>
     <t>Projekt kezdete:</t>
   </si>
@@ -128,16 +128,10 @@
     <t>9.3.11.  Árukészletek kezeléséhez szükséges adatok létrehozása az adatbázisban</t>
   </si>
   <si>
-    <t>9.3.13.  Járművek kezeléshez kapcsolódó GUI megvalósítása</t>
-  </si>
-  <si>
     <t>9.3.14.  Járművek kezeléséhez szükséges adatok létrehozása az adatbázisban</t>
   </si>
   <si>
     <t>9.3.15.  Fuvarok kezeléséhez tartozó üzleti logika (listázása, módosítása, létrehozása, törlése)</t>
-  </si>
-  <si>
-    <t>9.3.16.  Fuvarok kezeléshez kapcsolódó GUI megvalósítása</t>
   </si>
   <si>
     <t>9.3.17.  Fuvarok kezeléséhez szükséges adatok létrehozása az adatbázisban</t>
@@ -229,11 +223,23 @@
   <si>
     <t>9.3.12.  Futárok kezeléséhez kapcsolódó üzleti logika (listázása, módosítása, létrehozása, törlése)</t>
   </si>
+  <si>
+    <t>Nagy György</t>
+  </si>
+  <si>
+    <t>Tesz Elek</t>
+  </si>
+  <si>
+    <t>9.3.13.  Futárok kezeléséhez kapcsolódó GUI megvalósítása</t>
+  </si>
+  <si>
+    <t>9.3.16.  Fuvarok kezeléséhez kapcsolódó GUI megvalósítása</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
@@ -242,7 +248,7 @@
     <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="168" formatCode="\ yyyy/\ mmm/\ d/"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,8 +394,16 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -495,6 +509,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,7 +688,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -865,6 +891,8 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -883,8 +911,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Cím" xfId="4" builtinId="15" customBuiltin="1"/>
@@ -900,7 +932,7 @@
     <cellStyle name="Task" xfId="11"/>
     <cellStyle name="zHiddenText" xfId="2"/>
   </cellStyles>
-  <dxfs count="111">
+  <dxfs count="174">
     <dxf>
       <fill>
         <patternFill>
@@ -918,6 +950,636 @@
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -2017,15 +2679,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9">
-      <tableStyleElement type="wholeTable" dxfId="110"/>
-      <tableStyleElement type="headerRow" dxfId="109"/>
-      <tableStyleElement type="totalRow" dxfId="108"/>
-      <tableStyleElement type="firstColumn" dxfId="107"/>
-      <tableStyleElement type="lastColumn" dxfId="106"/>
-      <tableStyleElement type="firstRowStripe" dxfId="105"/>
-      <tableStyleElement type="secondRowStripe" dxfId="104"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="103"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="102"/>
+      <tableStyleElement type="wholeTable" dxfId="173"/>
+      <tableStyleElement type="headerRow" dxfId="172"/>
+      <tableStyleElement type="totalRow" dxfId="171"/>
+      <tableStyleElement type="firstColumn" dxfId="170"/>
+      <tableStyleElement type="lastColumn" dxfId="169"/>
+      <tableStyleElement type="firstRowStripe" dxfId="168"/>
+      <tableStyleElement type="secondRowStripe" dxfId="167"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="166"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="165"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2386,27 +3048,32 @@
   </sheetPr>
   <dimension ref="A1:CF60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AT9" sqref="AT9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="38.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="2.6640625" style="39" customWidth="1"/>
-    <col min="7" max="7" width="6.109375" hidden="1" customWidth="1"/>
-    <col min="8" max="84" width="2.5546875" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="22" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" style="39" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="27" width="2.5703125" customWidth="1"/>
+    <col min="28" max="28" width="2.7109375" customWidth="1"/>
+    <col min="29" max="29" width="2.85546875" customWidth="1"/>
+    <col min="30" max="72" width="2.5703125" customWidth="1"/>
+    <col min="73" max="73" width="2.7109375" customWidth="1"/>
+    <col min="74" max="84" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="23"/>
       <c r="B1" s="59" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="3"/>
@@ -2417,7 +3084,7 @@
       <c r="I1" s="71"/>
       <c r="J1" s="76"/>
       <c r="K1" s="71" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L1" s="71"/>
       <c r="M1" s="71"/>
@@ -2426,174 +3093,175 @@
       <c r="P1" s="78"/>
       <c r="Q1" s="76"/>
       <c r="R1" s="71" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S1" s="71"/>
       <c r="T1" s="71"/>
       <c r="U1" s="71"/>
       <c r="V1" s="71"/>
       <c r="W1" s="71"/>
-      <c r="X1" s="86"/>
+      <c r="X1" s="80"/>
       <c r="Y1" s="76"/>
       <c r="Z1" s="71" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="AA1" s="71"/>
       <c r="AB1" s="71"/>
       <c r="AC1" s="71"/>
-      <c r="AD1" s="74"/>
+      <c r="AD1" s="89"/>
       <c r="AE1" s="76"/>
       <c r="AF1" s="76" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="AG1" s="71"/>
       <c r="AH1" s="71"/>
       <c r="AI1" s="71"/>
       <c r="AJ1" s="71"/>
-      <c r="AK1" s="75"/>
+      <c r="AK1" s="88"/>
       <c r="AL1" s="76"/>
-      <c r="AM1" s="71"/>
+      <c r="AM1" s="71" t="s">
+        <v>9</v>
+      </c>
       <c r="AN1" s="71"/>
       <c r="AO1" s="71"/>
       <c r="AP1" s="71"/>
       <c r="AQ1" s="71"/>
-      <c r="AR1" s="71"/>
-      <c r="AS1" s="71"/>
+      <c r="AR1" s="69"/>
     </row>
-    <row r="2" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F2" s="38"/>
       <c r="H2" s="25"/>
     </row>
-    <row r="3" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="64"/>
       <c r="C3" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="83">
+      <c r="D3" s="85">
         <v>44459</v>
       </c>
-      <c r="E3" s="83"/>
+      <c r="E3" s="85"/>
       <c r="F3" s="38"/>
     </row>
-    <row r="4" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
       <c r="D4"/>
-      <c r="F4" s="84"/>
-      <c r="H4" s="80">
+      <c r="F4" s="86"/>
+      <c r="H4" s="82">
         <f>H5</f>
         <v>44459</v>
       </c>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="80">
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="82">
         <f>O5</f>
         <v>44466</v>
       </c>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
-      <c r="T4" s="81"/>
-      <c r="U4" s="82"/>
-      <c r="V4" s="80">
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="83"/>
+      <c r="U4" s="84"/>
+      <c r="V4" s="82">
         <f>V5</f>
         <v>44473</v>
       </c>
-      <c r="W4" s="81"/>
-      <c r="X4" s="81"/>
-      <c r="Y4" s="81"/>
-      <c r="Z4" s="81"/>
-      <c r="AA4" s="81"/>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="80">
+      <c r="W4" s="83"/>
+      <c r="X4" s="83"/>
+      <c r="Y4" s="83"/>
+      <c r="Z4" s="83"/>
+      <c r="AA4" s="83"/>
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="82">
         <f>AC5</f>
         <v>44480</v>
       </c>
-      <c r="AD4" s="81"/>
-      <c r="AE4" s="81"/>
-      <c r="AF4" s="81"/>
-      <c r="AG4" s="81"/>
-      <c r="AH4" s="81"/>
-      <c r="AI4" s="82"/>
-      <c r="AJ4" s="80">
+      <c r="AD4" s="83"/>
+      <c r="AE4" s="83"/>
+      <c r="AF4" s="83"/>
+      <c r="AG4" s="83"/>
+      <c r="AH4" s="83"/>
+      <c r="AI4" s="84"/>
+      <c r="AJ4" s="82">
         <f>AJ5</f>
         <v>44487</v>
       </c>
-      <c r="AK4" s="81"/>
-      <c r="AL4" s="81"/>
-      <c r="AM4" s="81"/>
-      <c r="AN4" s="81"/>
-      <c r="AO4" s="81"/>
-      <c r="AP4" s="82"/>
-      <c r="AQ4" s="80">
+      <c r="AK4" s="83"/>
+      <c r="AL4" s="83"/>
+      <c r="AM4" s="83"/>
+      <c r="AN4" s="83"/>
+      <c r="AO4" s="83"/>
+      <c r="AP4" s="84"/>
+      <c r="AQ4" s="82">
         <f>AQ5</f>
         <v>44494</v>
       </c>
-      <c r="AR4" s="81"/>
-      <c r="AS4" s="81"/>
-      <c r="AT4" s="81"/>
-      <c r="AU4" s="81"/>
-      <c r="AV4" s="81"/>
-      <c r="AW4" s="82"/>
-      <c r="AX4" s="80">
+      <c r="AR4" s="83"/>
+      <c r="AS4" s="83"/>
+      <c r="AT4" s="83"/>
+      <c r="AU4" s="83"/>
+      <c r="AV4" s="83"/>
+      <c r="AW4" s="84"/>
+      <c r="AX4" s="82">
         <f>AX5</f>
         <v>44501</v>
       </c>
-      <c r="AY4" s="81"/>
-      <c r="AZ4" s="81"/>
-      <c r="BA4" s="81"/>
-      <c r="BB4" s="81"/>
-      <c r="BC4" s="81"/>
-      <c r="BD4" s="82"/>
-      <c r="BE4" s="80">
+      <c r="AY4" s="83"/>
+      <c r="AZ4" s="83"/>
+      <c r="BA4" s="83"/>
+      <c r="BB4" s="83"/>
+      <c r="BC4" s="83"/>
+      <c r="BD4" s="84"/>
+      <c r="BE4" s="82">
         <f>BE5</f>
         <v>44508</v>
       </c>
-      <c r="BF4" s="81"/>
-      <c r="BG4" s="81"/>
-      <c r="BH4" s="81"/>
-      <c r="BI4" s="81"/>
-      <c r="BJ4" s="81"/>
-      <c r="BK4" s="82"/>
-      <c r="BL4" s="80">
+      <c r="BF4" s="83"/>
+      <c r="BG4" s="83"/>
+      <c r="BH4" s="83"/>
+      <c r="BI4" s="83"/>
+      <c r="BJ4" s="83"/>
+      <c r="BK4" s="84"/>
+      <c r="BL4" s="82">
         <f>BL5</f>
         <v>44515</v>
       </c>
-      <c r="BM4" s="81"/>
-      <c r="BN4" s="81"/>
-      <c r="BO4" s="81"/>
-      <c r="BP4" s="81"/>
-      <c r="BQ4" s="81"/>
-      <c r="BR4" s="82"/>
-      <c r="BS4" s="80">
+      <c r="BM4" s="83"/>
+      <c r="BN4" s="83"/>
+      <c r="BO4" s="83"/>
+      <c r="BP4" s="83"/>
+      <c r="BQ4" s="83"/>
+      <c r="BR4" s="84"/>
+      <c r="BS4" s="82">
         <f>BS5</f>
         <v>44522</v>
       </c>
-      <c r="BT4" s="81"/>
-      <c r="BU4" s="81"/>
-      <c r="BV4" s="81"/>
-      <c r="BW4" s="81"/>
-      <c r="BX4" s="81"/>
-      <c r="BY4" s="82"/>
-      <c r="BZ4" s="80">
+      <c r="BT4" s="83"/>
+      <c r="BU4" s="83"/>
+      <c r="BV4" s="83"/>
+      <c r="BW4" s="83"/>
+      <c r="BX4" s="83"/>
+      <c r="BY4" s="84"/>
+      <c r="BZ4" s="82">
         <f>BZ5</f>
         <v>44529</v>
       </c>
-      <c r="CA4" s="81"/>
-      <c r="CB4" s="81"/>
-      <c r="CC4" s="81"/>
-      <c r="CD4" s="81"/>
-      <c r="CE4" s="81"/>
-      <c r="CF4" s="82"/>
+      <c r="CA4" s="83"/>
+      <c r="CB4" s="83"/>
+      <c r="CC4" s="83"/>
+      <c r="CD4" s="83"/>
+      <c r="CE4" s="83"/>
+      <c r="CF4" s="84"/>
     </row>
-    <row r="5" spans="1:84" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:84" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23"/>
       <c r="B5" s="52" t="s">
         <v>1</v>
@@ -2607,7 +3275,7 @@
       <c r="E5" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="85"/>
+      <c r="F5" s="87"/>
       <c r="H5" s="6">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2</f>
         <v>44459</v>
@@ -2917,7 +3585,7 @@
         <v>44535</v>
       </c>
     </row>
-    <row r="6" spans="1:84" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:84" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="26"/>
       <c r="D6"/>
       <c r="F6" s="35"/>
@@ -3003,7 +3671,7 @@
       <c r="CE6" s="20"/>
       <c r="CF6" s="20"/>
     </row>
-    <row r="7" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23"/>
       <c r="B7" s="54" t="s">
         <v>5</v>
@@ -3094,7 +3762,7 @@
       <c r="CE7" s="65"/>
       <c r="CF7" s="65"/>
     </row>
-    <row r="8" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23"/>
       <c r="B8" s="44" t="s">
         <v>8</v>
@@ -3194,7 +3862,7 @@
       <c r="CE8" s="65"/>
       <c r="CF8" s="65"/>
     </row>
-    <row r="9" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="44" t="s">
         <v>10</v>
@@ -3291,7 +3959,7 @@
       <c r="CE9" s="65"/>
       <c r="CF9" s="65"/>
     </row>
-    <row r="10" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23"/>
       <c r="B10" s="55" t="s">
         <v>6</v>
@@ -3382,20 +4050,20 @@
       <c r="CE10" s="36"/>
       <c r="CF10" s="36"/>
     </row>
-    <row r="11" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23"/>
       <c r="B11" s="50" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="D11" s="61">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E11" s="61">
         <f>D11+3</f>
-        <v>44477</v>
+        <v>44478</v>
       </c>
       <c r="F11" s="36"/>
       <c r="G11" s="10">
@@ -3417,13 +4085,13 @@
       <c r="T11" s="65"/>
       <c r="U11" s="65"/>
       <c r="V11" s="37"/>
-      <c r="W11" s="67">
-        <v>1</v>
-      </c>
-      <c r="X11" s="67"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="67"/>
-      <c r="AA11" s="65"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="88">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="88"/>
+      <c r="Z11" s="88"/>
+      <c r="AA11" s="88"/>
       <c r="AB11" s="65"/>
       <c r="AC11" s="37"/>
       <c r="AD11" s="37"/>
@@ -3482,13 +4150,13 @@
       <c r="CE11" s="65"/>
       <c r="CF11" s="65"/>
     </row>
-    <row r="12" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23"/>
       <c r="B12" s="50" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D12" s="61">
         <v>44474</v>
@@ -3514,12 +4182,12 @@
       <c r="T12" s="65"/>
       <c r="U12" s="65"/>
       <c r="V12" s="37"/>
-      <c r="W12" s="87">
+      <c r="W12" s="81">
         <v>2</v>
       </c>
-      <c r="X12" s="87"/>
-      <c r="Y12" s="87"/>
-      <c r="Z12" s="87"/>
+      <c r="X12" s="81"/>
+      <c r="Y12" s="81"/>
+      <c r="Z12" s="81"/>
       <c r="AA12" s="65"/>
       <c r="AB12" s="65"/>
       <c r="AC12" s="37"/>
@@ -3579,13 +4247,13 @@
       <c r="CE12" s="65"/>
       <c r="CF12" s="65"/>
     </row>
-    <row r="13" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="23"/>
       <c r="B13" s="50" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D13" s="61">
         <v>44480</v>
@@ -3617,11 +4285,11 @@
       <c r="Z13" s="37"/>
       <c r="AA13" s="65"/>
       <c r="AB13" s="65"/>
-      <c r="AC13" s="87">
+      <c r="AC13" s="81">
         <v>2</v>
       </c>
-      <c r="AD13" s="87"/>
-      <c r="AE13" s="87"/>
+      <c r="AD13" s="81"/>
+      <c r="AE13" s="81"/>
       <c r="AF13" s="37"/>
       <c r="AG13" s="37"/>
       <c r="AH13" s="65"/>
@@ -3676,7 +4344,7 @@
       <c r="CE13" s="65"/>
       <c r="CF13" s="65"/>
     </row>
-    <row r="14" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="23"/>
       <c r="B14" s="50" t="s">
         <v>17</v>
@@ -3773,13 +4441,13 @@
       <c r="CE14" s="65"/>
       <c r="CF14" s="65"/>
     </row>
-    <row r="15" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23"/>
       <c r="B15" s="50" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D15" s="61">
         <v>44479</v>
@@ -3821,7 +4489,7 @@
       <c r="AI15" s="65"/>
       <c r="AJ15" s="37"/>
       <c r="AK15" s="37"/>
-      <c r="AL15" s="37"/>
+      <c r="AL15" s="90"/>
       <c r="AM15" s="37"/>
       <c r="AN15" s="37"/>
       <c r="AO15" s="65"/>
@@ -3869,20 +4537,20 @@
       <c r="CE15" s="65"/>
       <c r="CF15" s="65"/>
     </row>
-    <row r="16" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23"/>
       <c r="B16" s="50" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="D16" s="61">
-        <v>44478</v>
+        <v>44481</v>
       </c>
       <c r="E16" s="61">
         <f>D16+2</f>
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="F16" s="36"/>
       <c r="G16" s="10"/>
@@ -3905,15 +4573,15 @@
       <c r="X16" s="37"/>
       <c r="Y16" s="37"/>
       <c r="Z16" s="37"/>
-      <c r="AA16" s="67">
-        <v>1</v>
-      </c>
-      <c r="AB16" s="67"/>
-      <c r="AC16" s="67"/>
-      <c r="AD16" s="37"/>
-      <c r="AE16" s="37"/>
-      <c r="AF16" s="37"/>
-      <c r="AG16" s="37"/>
+      <c r="AA16" s="37"/>
+      <c r="AB16" s="37"/>
+      <c r="AC16" s="37"/>
+      <c r="AD16" s="88">
+        <v>2</v>
+      </c>
+      <c r="AE16" s="88"/>
+      <c r="AF16" s="88"/>
+      <c r="AG16" s="90"/>
       <c r="AH16" s="65"/>
       <c r="AI16" s="65"/>
       <c r="AJ16" s="37"/>
@@ -3966,7 +4634,7 @@
       <c r="CE16" s="65"/>
       <c r="CF16" s="65"/>
     </row>
-    <row r="17" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="23"/>
       <c r="B17" s="50" t="s">
         <v>20</v>
@@ -4063,10 +4731,10 @@
       <c r="CE17" s="65"/>
       <c r="CF17" s="65"/>
     </row>
-    <row r="18" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="23"/>
       <c r="B18" s="56" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C18" s="31"/>
       <c r="D18" s="15"/>
@@ -4154,15 +4822,15 @@
       <c r="CE18" s="70"/>
       <c r="CF18" s="70"/>
     </row>
-    <row r="19" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <v>1</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D19" s="62">
         <v>44493</v>
@@ -4210,13 +4878,13 @@
       <c r="AM19" s="37"/>
       <c r="AN19" s="37"/>
       <c r="AO19" s="65"/>
-      <c r="AP19" s="87">
+      <c r="AP19" s="81">
         <v>2</v>
       </c>
-      <c r="AQ19" s="87"/>
-      <c r="AR19" s="87"/>
-      <c r="AS19" s="87"/>
-      <c r="AT19" s="87"/>
+      <c r="AQ19" s="81"/>
+      <c r="AR19" s="81"/>
+      <c r="AS19" s="81"/>
+      <c r="AT19" s="81"/>
       <c r="AU19" s="37"/>
       <c r="AV19" s="65"/>
       <c r="AW19" s="65"/>
@@ -4256,7 +4924,7 @@
       <c r="CE19" s="65"/>
       <c r="CF19" s="65"/>
     </row>
-    <row r="20" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="23"/>
       <c r="B20" s="48" t="s">
         <v>21</v>
@@ -4353,7 +5021,7 @@
       <c r="CE20" s="65"/>
       <c r="CF20" s="65"/>
     </row>
-    <row r="21" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="23"/>
       <c r="B21" s="48" t="s">
         <v>22</v>
@@ -4450,13 +5118,13 @@
       <c r="CE21" s="65"/>
       <c r="CF21" s="65"/>
     </row>
-    <row r="22" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="23"/>
       <c r="B22" s="48" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D22" s="62">
         <v>44496</v>
@@ -4547,20 +5215,20 @@
       <c r="CE22" s="65"/>
       <c r="CF22" s="65"/>
     </row>
-    <row r="23" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="23"/>
       <c r="B23" s="48" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="49" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="D23" s="62">
-        <v>44501</v>
+        <v>44494</v>
       </c>
       <c r="E23" s="62">
         <f>D23+2</f>
-        <v>44503</v>
+        <v>44496</v>
       </c>
       <c r="F23" s="36"/>
       <c r="G23" s="10"/>
@@ -4599,18 +5267,18 @@
       <c r="AN23" s="37"/>
       <c r="AO23" s="65"/>
       <c r="AP23" s="65"/>
-      <c r="AQ23" s="37"/>
-      <c r="AR23" s="37"/>
-      <c r="AS23" s="37"/>
+      <c r="AQ23" s="88">
+        <v>2</v>
+      </c>
+      <c r="AR23" s="88"/>
+      <c r="AS23" s="88"/>
       <c r="AT23" s="37"/>
       <c r="AU23" s="37"/>
       <c r="AV23" s="65"/>
       <c r="AW23" s="65"/>
-      <c r="AX23" s="67">
-        <v>1</v>
-      </c>
-      <c r="AY23" s="67"/>
-      <c r="AZ23" s="67"/>
+      <c r="AX23" s="37"/>
+      <c r="AY23" s="37"/>
+      <c r="AZ23" s="37"/>
       <c r="BA23" s="37"/>
       <c r="BB23" s="37"/>
       <c r="BC23" s="65"/>
@@ -4644,13 +5312,13 @@
       <c r="CE23" s="65"/>
       <c r="CF23" s="65"/>
     </row>
-    <row r="24" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="23"/>
       <c r="B24" s="48" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="49" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D24" s="62">
         <v>44499</v>
@@ -4701,12 +5369,12 @@
       <c r="AS24" s="37"/>
       <c r="AT24" s="37"/>
       <c r="AU24" s="37"/>
-      <c r="AV24" s="87">
+      <c r="AV24" s="81">
         <v>2</v>
       </c>
-      <c r="AW24" s="87"/>
-      <c r="AX24" s="87"/>
-      <c r="AY24" s="87"/>
+      <c r="AW24" s="81"/>
+      <c r="AX24" s="81"/>
+      <c r="AY24" s="81"/>
       <c r="AZ24" s="37"/>
       <c r="BA24" s="37"/>
       <c r="BB24" s="37"/>
@@ -4741,7 +5409,7 @@
       <c r="CE24" s="65"/>
       <c r="CF24" s="65"/>
     </row>
-    <row r="25" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="23"/>
       <c r="B25" s="77" t="s">
         <v>26</v>
@@ -4838,7 +5506,7 @@
       <c r="CE25" s="65"/>
       <c r="CF25" s="65"/>
     </row>
-    <row r="26" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="23"/>
       <c r="B26" s="77" t="s">
         <v>27</v>
@@ -4935,13 +5603,13 @@
       <c r="CE26" s="65"/>
       <c r="CF26" s="65"/>
     </row>
-    <row r="27" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="23"/>
       <c r="B27" s="79" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C27" s="49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D27" s="62">
         <v>44497</v>
@@ -5032,7 +5700,7 @@
       <c r="CE27" s="65"/>
       <c r="CF27" s="65"/>
     </row>
-    <row r="28" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="23"/>
       <c r="B28" s="77" t="s">
         <v>28</v>
@@ -5129,7 +5797,7 @@
       <c r="CE28" s="65"/>
       <c r="CF28" s="65"/>
     </row>
-    <row r="29" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="23"/>
       <c r="B29" s="77" t="s">
         <v>29</v>
@@ -5226,13 +5894,13 @@
       <c r="CE29" s="65"/>
       <c r="CF29" s="65"/>
     </row>
-    <row r="30" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="23"/>
       <c r="B30" s="79" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C30" s="49" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D30" s="62">
         <v>44502</v>
@@ -5286,12 +5954,12 @@
       <c r="AV30" s="65"/>
       <c r="AW30" s="65"/>
       <c r="AX30" s="37"/>
-      <c r="AY30" s="86">
+      <c r="AY30" s="80">
         <v>2</v>
       </c>
-      <c r="AZ30" s="86"/>
-      <c r="BA30" s="86"/>
-      <c r="BB30" s="86"/>
+      <c r="AZ30" s="80"/>
+      <c r="BA30" s="80"/>
+      <c r="BB30" s="80"/>
       <c r="BC30" s="65"/>
       <c r="BD30" s="65"/>
       <c r="BE30" s="37"/>
@@ -5323,20 +5991,20 @@
       <c r="CE30" s="65"/>
       <c r="CF30" s="65"/>
     </row>
-    <row r="31" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="23"/>
-      <c r="B31" s="77" t="s">
-        <v>30</v>
+      <c r="B31" s="79" t="s">
+        <v>64</v>
       </c>
       <c r="C31" s="49" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="D31" s="62">
-        <v>44501</v>
+        <v>44497</v>
       </c>
       <c r="E31" s="62">
         <f>D31+4</f>
-        <v>44505</v>
+        <v>44501</v>
       </c>
       <c r="F31" s="36"/>
       <c r="G31" s="10"/>
@@ -5378,17 +6046,17 @@
       <c r="AQ31" s="37"/>
       <c r="AR31" s="37"/>
       <c r="AS31" s="37"/>
-      <c r="AT31" s="37"/>
-      <c r="AU31" s="37"/>
-      <c r="AV31" s="65"/>
-      <c r="AW31" s="65"/>
-      <c r="AX31" s="72">
+      <c r="AT31" s="88">
         <v>3</v>
       </c>
-      <c r="AY31" s="72"/>
-      <c r="AZ31" s="72"/>
-      <c r="BA31" s="72"/>
-      <c r="BB31" s="72"/>
+      <c r="AU31" s="88"/>
+      <c r="AV31" s="88"/>
+      <c r="AW31" s="88"/>
+      <c r="AX31" s="88"/>
+      <c r="AY31" s="37"/>
+      <c r="AZ31" s="37"/>
+      <c r="BA31" s="37"/>
+      <c r="BB31" s="37"/>
       <c r="BC31" s="65"/>
       <c r="BD31" s="65"/>
       <c r="BE31" s="37"/>
@@ -5420,10 +6088,10 @@
       <c r="CE31" s="65"/>
       <c r="CF31" s="65"/>
     </row>
-    <row r="32" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="23"/>
       <c r="B32" s="77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="49" t="s">
         <v>16</v>
@@ -5517,10 +6185,10 @@
       <c r="CE32" s="65"/>
       <c r="CF32" s="65"/>
     </row>
-    <row r="33" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="23"/>
       <c r="B33" s="77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="49" t="s">
         <v>16</v>
@@ -5614,13 +6282,13 @@
       <c r="CE33" s="65"/>
       <c r="CF33" s="65"/>
     </row>
-    <row r="34" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="23"/>
-      <c r="B34" s="77" t="s">
-        <v>33</v>
+      <c r="B34" s="79" t="s">
+        <v>65</v>
       </c>
       <c r="C34" s="49" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="D34" s="62">
         <v>44502</v>
@@ -5674,14 +6342,14 @@
       <c r="AV34" s="65"/>
       <c r="AW34" s="65"/>
       <c r="AX34" s="37"/>
-      <c r="AY34" s="73">
+      <c r="AY34" s="88">
         <v>3</v>
       </c>
-      <c r="AZ34" s="73"/>
-      <c r="BA34" s="73"/>
-      <c r="BB34" s="73"/>
-      <c r="BC34" s="73"/>
-      <c r="BD34" s="65"/>
+      <c r="AZ34" s="88"/>
+      <c r="BA34" s="88"/>
+      <c r="BB34" s="88"/>
+      <c r="BC34" s="88"/>
+      <c r="BD34" s="37"/>
       <c r="BE34" s="37"/>
       <c r="BF34" s="37"/>
       <c r="BG34" s="37"/>
@@ -5711,13 +6379,13 @@
       <c r="CE34" s="65"/>
       <c r="CF34" s="65"/>
     </row>
-    <row r="35" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
       <c r="B35" s="77" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C35" s="49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D35" s="62">
         <v>44501</v>
@@ -5808,10 +6476,10 @@
       <c r="CE35" s="65"/>
       <c r="CF35" s="65"/>
     </row>
-    <row r="36" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="23"/>
       <c r="B36" s="77" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C36" s="49" t="s">
         <v>14</v>
@@ -5905,13 +6573,13 @@
       <c r="CE36" s="65"/>
       <c r="CF36" s="65"/>
     </row>
-    <row r="37" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="23"/>
       <c r="B37" s="79" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C37" s="49" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D37" s="62">
         <v>44503</v>
@@ -5966,11 +6634,11 @@
       <c r="AW37" s="65"/>
       <c r="AX37" s="37"/>
       <c r="AY37" s="37"/>
-      <c r="BA37" s="86">
+      <c r="BA37" s="80">
         <v>1</v>
       </c>
-      <c r="BB37" s="86"/>
-      <c r="BC37" s="86"/>
+      <c r="BB37" s="80"/>
+      <c r="BC37" s="80"/>
       <c r="BD37" s="65"/>
       <c r="BE37" s="37"/>
       <c r="BF37" s="37"/>
@@ -6001,10 +6669,10 @@
       <c r="CE37" s="65"/>
       <c r="CF37" s="65"/>
     </row>
-    <row r="38" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="23"/>
       <c r="B38" s="77" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C38" s="49" t="s">
         <v>11</v>
@@ -6053,12 +6721,12 @@
       <c r="AN38" s="37"/>
       <c r="AO38" s="65"/>
       <c r="AP38" s="65"/>
-      <c r="AQ38" s="86">
+      <c r="AQ38" s="80">
         <v>2</v>
       </c>
-      <c r="AR38" s="86"/>
-      <c r="AS38" s="86"/>
-      <c r="AT38" s="86"/>
+      <c r="AR38" s="80"/>
+      <c r="AS38" s="80"/>
+      <c r="AT38" s="80"/>
       <c r="AU38" s="37"/>
       <c r="AV38" s="65"/>
       <c r="AW38" s="65"/>
@@ -6098,13 +6766,13 @@
       <c r="CE38" s="65"/>
       <c r="CF38" s="65"/>
     </row>
-    <row r="39" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="23"/>
       <c r="B39" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C39" s="49" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D39" s="62">
         <v>44497</v>
@@ -6195,20 +6863,20 @@
       <c r="CE39" s="65"/>
       <c r="CF39" s="65"/>
     </row>
-    <row r="40" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="23"/>
       <c r="B40" s="77" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C40" s="49" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="62">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="E40" s="62">
         <f>D40+2</f>
-        <v>44505</v>
+        <v>44506</v>
       </c>
       <c r="F40" s="36"/>
       <c r="G40" s="10"/>
@@ -6256,12 +6924,12 @@
       <c r="AW40" s="65"/>
       <c r="AX40" s="37"/>
       <c r="AY40" s="37"/>
-      <c r="AZ40" s="69">
+      <c r="AZ40" s="37"/>
+      <c r="BA40" s="75">
         <v>1</v>
       </c>
-      <c r="BA40" s="69"/>
-      <c r="BB40" s="69"/>
-      <c r="BC40" s="65"/>
+      <c r="BB40" s="75"/>
+      <c r="BC40" s="75"/>
       <c r="BD40" s="65"/>
       <c r="BE40" s="37"/>
       <c r="BF40" s="37"/>
@@ -6292,10 +6960,10 @@
       <c r="CE40" s="65"/>
       <c r="CF40" s="65"/>
     </row>
-    <row r="41" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="23"/>
       <c r="B41" s="48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C41" s="49" t="s">
         <v>11</v>
@@ -6389,7 +7057,7 @@
       <c r="CE41" s="65"/>
       <c r="CF41" s="65"/>
     </row>
-    <row r="42" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="23"/>
       <c r="B42" s="57" t="s">
         <v>7</v>
@@ -6480,13 +7148,13 @@
       <c r="CE42" s="36"/>
       <c r="CF42" s="36"/>
     </row>
-    <row r="43" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="23"/>
       <c r="B43" s="46" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C43" s="47" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="D43" s="63">
         <v>44515</v>
@@ -6556,13 +7224,13 @@
       <c r="BI43" s="37"/>
       <c r="BJ43" s="65"/>
       <c r="BK43" s="65"/>
-      <c r="BL43" s="67">
-        <v>2</v>
-      </c>
-      <c r="BM43" s="67"/>
-      <c r="BN43" s="67"/>
-      <c r="BO43" s="67"/>
-      <c r="BP43" s="67"/>
+      <c r="BL43" s="88">
+        <v>1</v>
+      </c>
+      <c r="BM43" s="88"/>
+      <c r="BN43" s="88"/>
+      <c r="BO43" s="88"/>
+      <c r="BP43" s="88"/>
       <c r="BQ43" s="65"/>
       <c r="BR43" s="65"/>
       <c r="BS43" s="37"/>
@@ -6580,13 +7248,13 @@
       <c r="CE43" s="65"/>
       <c r="CF43" s="65"/>
     </row>
-    <row r="44" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="23"/>
       <c r="B44" s="46" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C44" s="47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D44" s="63">
         <v>44515</v>
@@ -6677,10 +7345,10 @@
       <c r="CE44" s="65"/>
       <c r="CF44" s="65"/>
     </row>
-    <row r="45" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="23"/>
       <c r="B45" s="46" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C45" s="47" t="s">
         <v>16</v>
@@ -6774,13 +7442,13 @@
       <c r="CE45" s="65"/>
       <c r="CF45" s="65"/>
     </row>
-    <row r="46" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="23"/>
       <c r="B46" s="46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C46" s="47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D46" s="63">
         <v>44522</v>
@@ -6854,7 +7522,7 @@
       <c r="BQ46" s="65"/>
       <c r="BR46" s="65"/>
       <c r="BS46" s="78" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="BT46" s="37"/>
       <c r="BU46" s="37"/>
@@ -6870,10 +7538,10 @@
       <c r="CE46" s="65"/>
       <c r="CF46" s="65"/>
     </row>
-    <row r="47" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="23"/>
       <c r="B47" s="46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C47" s="47" t="s">
         <v>16</v>
@@ -6966,10 +7634,10 @@
       <c r="CE47" s="65"/>
       <c r="CF47" s="65"/>
     </row>
-    <row r="48" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="23"/>
       <c r="B48" s="46" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C48" s="47" t="s">
         <v>11</v>
@@ -7062,13 +7730,13 @@
       <c r="CE48" s="65"/>
       <c r="CF48" s="65"/>
     </row>
-    <row r="49" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="23"/>
       <c r="B49" s="46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C49" s="47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D49" s="63">
         <v>44525</v>
@@ -7145,7 +7813,7 @@
       <c r="BT49" s="37"/>
       <c r="BU49" s="37"/>
       <c r="BV49" s="78" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="BW49" s="37"/>
       <c r="BX49" s="65"/>
@@ -7158,13 +7826,13 @@
       <c r="CE49" s="65"/>
       <c r="CF49" s="65"/>
     </row>
-    <row r="50" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="23"/>
       <c r="B50" s="46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C50" s="47" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="D50" s="63">
         <v>44524</v>
@@ -7239,8 +7907,8 @@
       <c r="BR50" s="65"/>
       <c r="BS50" s="37"/>
       <c r="BT50" s="37"/>
-      <c r="BU50" s="72">
-        <v>1</v>
+      <c r="BU50" s="91">
+        <v>0.3</v>
       </c>
       <c r="BV50" s="37"/>
       <c r="BW50" s="37"/>
@@ -7254,13 +7922,13 @@
       <c r="CE50" s="65"/>
       <c r="CF50" s="65"/>
     </row>
-    <row r="51" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="23"/>
       <c r="B51" s="46" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C51" s="47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D51" s="63">
         <v>44526</v>
@@ -7338,7 +8006,7 @@
       <c r="BU51" s="37"/>
       <c r="BV51" s="37"/>
       <c r="BW51" s="78" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="BX51" s="65"/>
       <c r="BY51" s="65"/>
@@ -7350,10 +8018,10 @@
       <c r="CE51" s="65"/>
       <c r="CF51" s="65"/>
     </row>
-    <row r="52" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="23"/>
       <c r="B52" s="46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C52" s="47" t="s">
         <v>14</v>
@@ -7446,13 +8114,13 @@
       <c r="CE52" s="65"/>
       <c r="CF52" s="65"/>
     </row>
-    <row r="53" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="23"/>
       <c r="B53" s="46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C53" s="47" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D53" s="63">
         <v>44524</v>
@@ -7527,7 +8195,7 @@
       <c r="BR53" s="65"/>
       <c r="BS53" s="37"/>
       <c r="BT53" s="37"/>
-      <c r="BU53" s="86">
+      <c r="BU53" s="80">
         <v>1</v>
       </c>
       <c r="BV53" s="37"/>
@@ -7542,13 +8210,13 @@
       <c r="CE53" s="65"/>
       <c r="CF53" s="65"/>
     </row>
-    <row r="54" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="23"/>
       <c r="B54" s="46" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C54" s="47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D54" s="63">
         <v>44526</v>
@@ -7626,7 +8294,7 @@
       <c r="BU54" s="37"/>
       <c r="BV54" s="37"/>
       <c r="BW54" s="78" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="BX54" s="65"/>
       <c r="BY54" s="65"/>
@@ -7638,10 +8306,10 @@
       <c r="CE54" s="65"/>
       <c r="CF54" s="65"/>
     </row>
-    <row r="55" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="23"/>
       <c r="B55" s="46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C55" s="47" t="s">
         <v>11</v>
@@ -7735,7 +8403,7 @@
       <c r="CE55" s="65"/>
       <c r="CF55" s="65"/>
     </row>
-    <row r="56" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="22"/>
       <c r="B56" s="34"/>
       <c r="C56" s="33"/>
@@ -7824,10 +8492,10 @@
       <c r="CE56" s="37"/>
       <c r="CF56" s="37"/>
     </row>
-    <row r="57" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="23"/>
       <c r="B57" s="40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C57" s="41"/>
       <c r="D57" s="42"/>
@@ -7915,20 +8583,15 @@
       <c r="CE57" s="37"/>
       <c r="CF57" s="37"/>
     </row>
-    <row r="59" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C59" s="8"/>
       <c r="E59" s="24"/>
     </row>
-    <row r="60" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C60" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="BL4:BR4"/>
-    <mergeCell ref="BS4:BY4"/>
-    <mergeCell ref="BZ4:CF4"/>
-    <mergeCell ref="AX4:BD4"/>
-    <mergeCell ref="BE4:BK4"/>
     <mergeCell ref="AJ4:AP4"/>
     <mergeCell ref="AQ4:AW4"/>
     <mergeCell ref="D3:E3"/>
@@ -7937,421 +8600,530 @@
     <mergeCell ref="V4:AB4"/>
     <mergeCell ref="AC4:AI4"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="BL4:BR4"/>
+    <mergeCell ref="BS4:BY4"/>
+    <mergeCell ref="BZ4:CF4"/>
+    <mergeCell ref="AX4:BD4"/>
+    <mergeCell ref="BE4:BK4"/>
   </mergeCells>
   <conditionalFormatting sqref="H56:BX57 BZ56:CE57 H5:BX6 BZ6:CE6 H7:S7 V7:Z9 AC7:AG9 AJ7:AN9 AQ7:AU9 AX7:BB9 BE7:BI9 BL7:BP9 BS7:BW9 BZ7:CD9 H9:Q9 H8:M8 R8:S8 AJ22:AN23 AJ25:AN25 AJ24:AK24">
-    <cfRule type="expression" dxfId="101" priority="167">
+    <cfRule type="expression" dxfId="164" priority="197">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56:BX57 BZ56:CE57 H6:BX6 BZ6:CE6 H7:S7 V7:Z9 AC7:AG9 AJ7:AN9 AQ7:AU9 AX7:BB9 BE7:BI9 BL7:BP9 BS7:BW9 BZ7:CD9 H9:Q9 H8:M8 R8:S8 AJ22:AN23 AJ25:AN25 AJ24:AK24">
-    <cfRule type="expression" dxfId="100" priority="161">
+    <cfRule type="expression" dxfId="163" priority="191">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="192" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ5:CF5 BY56:BY57 CF56:CF57 BY5:BY6 CF6">
-    <cfRule type="expression" dxfId="98" priority="169">
+    <cfRule type="expression" dxfId="161" priority="199">
       <formula>AND(TODAY()&gt;=BY$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY56:BY57 CF56:CF57 BY6 CF6">
-    <cfRule type="expression" dxfId="97" priority="172">
+    <cfRule type="expression" dxfId="160" priority="202">
       <formula>AND(task_start&lt;=BY$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BY$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="173" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="203" stopIfTrue="1">
       <formula>AND(task_end&gt;=BY$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:S10 BZ10:CD10 V10:Z10 AC10:AG10 AJ10:AN10 AQ10:AU10 AX10:BB10 BE10:BI10 BL10:BP10 BS10:BW10">
-    <cfRule type="expression" dxfId="95" priority="118">
+    <cfRule type="expression" dxfId="158" priority="148">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:S10 BZ10:CD10 V10:Z10 AC10:AG10 AJ10:AN10 AQ10:AU10 AX10:BB10 BE10:BI10 BL10:BP10 BS10:BW10">
-    <cfRule type="expression" dxfId="94" priority="116">
+    <cfRule type="expression" dxfId="157" priority="146">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="147" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ11:CD17 V13:Z13 AC11:AG12 AJ11:AN17 AQ11:AU17 AX11:BB17 BE11:BI17 BL11:BP17 BS11:BW17 H11:S17 V16:Z17 AC17:AF17 AD16:AG16 V11:V12 AF15:AG15 AF13:AG13 AG14 V14:W15 Y14:Z14">
-    <cfRule type="expression" dxfId="92" priority="112">
+  <conditionalFormatting sqref="BZ11:CD17 V13:Z13 AC11:AG12 AJ11:AN17 AQ11:AU17 AX11:BB17 BE11:BI17 BL11:BP17 BS11:BW17 H11:S17 V16:Z17 AC17:AF17 V11:V12 AF15:AG15 AF13:AG13 AG14 V14:W15 Y14:Z14">
+    <cfRule type="expression" dxfId="155" priority="142">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ11:CD17 V13:Z13 AC11:AG12 AJ11:AN17 AQ11:AU17 AX11:BB17 BE11:BI17 BL11:BP17 BS11:BW17 H11:S17 V16:Z17 AC17:AF17 AD16:AG16 V11:V12 AF15:AG15 AF13:AG13 AG14 V14:W15 Y14:Z14">
-    <cfRule type="expression" dxfId="91" priority="110">
+  <conditionalFormatting sqref="BZ11:CD17 V13:Z13 AC11:AG12 AJ11:AN17 AQ11:AU17 AX11:BB17 BE11:BI17 BL11:BP17 BS11:BW17 H11:S17 V16:Z17 AC17:AF17 V11:V12 AF15:AG15 AF13:AG13 AG14 V14:W15 Y14:Z14">
+    <cfRule type="expression" dxfId="154" priority="140">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="111" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="141" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:S18 BZ18:CD18 V18:Z18 AC18:AG18 AJ18:AN18 AQ18:AU18 AX18:BB18 BE18:BI18 BL18:BP18 BS18:BW18">
-    <cfRule type="expression" dxfId="89" priority="106">
+    <cfRule type="expression" dxfId="152" priority="136">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:S18 BZ18:CD18 V18:Z18 AC18:AG18 AJ18:AN18 AQ18:AU18 AX18:BB18 BE18:BI18 BL18:BP18 BS18:BW18">
-    <cfRule type="expression" dxfId="88" priority="104">
+    <cfRule type="expression" dxfId="151" priority="134">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="135" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42:L42 BZ42:CD42 V42:Z42 O42:S42 AC42:AG42 AJ42:AN42 AQ42:AU42 AX42:BB42 BE42:BI42 BL42:BP42 BS42:BW42">
-    <cfRule type="expression" dxfId="86" priority="100">
+    <cfRule type="expression" dxfId="149" priority="130">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42:L42 BZ42:CD42 V42:Z42 O42:S42 AC42:AG42 AJ42:AN42 AQ42:AU42 AX42:BB42 BE42:BI42 BL42:BP42 BS42:BW42">
-    <cfRule type="expression" dxfId="85" priority="98">
+    <cfRule type="expression" dxfId="148" priority="128">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="129" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19:S40 BZ19:CD41 V19:Z41 M42:M55 H41:M41 O41:S41 N41:N55 AC19:AG41 AJ19:AN19 AQ20:AU21 AX19:BB22 BL19:BP41 BS19:BW41 AU19 AJ20:AJ21 AN21 AJ27:AN41 AJ26:AM26 AQ30:AU34 AT29:AU29 AQ36:AU37 AQ35:AS35 AQ26:AU26 AQ25:AS25 AQ23:AU23 AQ22:AR22 AX25:BB26 BA23:BB23 AX41:BB41 AX40:AY40 AZ27:BB27 AQ28:AU28 AQ27:AS27 AZ32:BB32 BE19:BI41 AX30 AQ40:AU41 AU38 AQ39:AS39 AX38:BB39 AX37:AY37 AX33:AX34 AX29:BB29 AZ24:BB24">
-    <cfRule type="expression" dxfId="2" priority="94">
+  <conditionalFormatting sqref="H19:S40 BZ19:CD41 V19:Z41 M42:M55 H41:M41 O41:S41 N41:N55 AC19:AG41 AJ19:AN19 AQ20:AU21 AX19:BB22 BL19:BP41 BS19:BW41 AU19 AJ20:AJ21 AN21 AJ27:AN41 AJ26:AM26 AQ30:AU30 AT29:AU29 AQ36:AU37 AQ35:AS35 AQ26:AU26 AQ25:AS25 AT23:AU23 AQ22:AR22 AX25:BB26 BA23:BB23 AX41:BB41 AX40:AY40 AZ27:BB27 AQ28:AU28 AQ27:AS27 AZ32:BB32 BE19:BI33 AX30 AQ40:AU41 AU38 AQ39:AS39 AX38:BB39 AX37:AY37 AX33:AX34 AX29:BB29 AZ24:BB24 BE35:BI41 BI34 AQ32:AU34 AQ31:AS31">
+    <cfRule type="expression" dxfId="146" priority="124">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19:S40 BZ19:CD41 V19:Z41 M42:M55 H41:M41 O41:S41 N41:N55 AC19:AG41 AJ19:AN19 AQ20:AU21 AX19:BB22 BL19:BP41 BS19:BW41 AU19 AJ20:AJ21 AN21 AJ27:AN41 AJ26:AM26 AQ30:AU34 AT29:AU29 AQ36:AU37 AQ35:AS35 AQ26:AU26 AQ25:AS25 AQ23:AU23 AQ22:AR22 AX25:BB26 BA23:BB23 AX41:BB41 AX40:AY40 AZ27:BB27 AQ28:AU28 AQ27:AS27 AZ32:BB32 BE19:BI41 AX30 AQ40:AU41 AU38 AQ39:AS39 AX38:BB39 AX37:AY37 AX33:AX34 AX29:BB29 AZ24:BB24">
-    <cfRule type="expression" dxfId="1" priority="92">
+  <conditionalFormatting sqref="H19:S40 BZ19:CD41 V19:Z41 M42:M55 H41:M41 O41:S41 N41:N55 AC19:AG41 AJ19:AN19 AQ20:AU21 AX19:BB22 BL19:BP41 BS19:BW41 AU19 AJ20:AJ21 AN21 AJ27:AN41 AJ26:AM26 AQ30:AU30 AT29:AU29 AQ36:AU37 AQ35:AS35 AQ26:AU26 AQ25:AS25 AT23:AU23 AQ22:AR22 AX25:BB26 BA23:BB23 AX41:BB41 AX40:AY40 AZ27:BB27 AQ28:AU28 AQ27:AS27 AZ32:BB32 BE19:BI33 AX30 AQ40:AU41 AU38 AQ39:AS39 AX38:BB39 AX37:AY37 AX33:AX34 AX29:BB29 AZ24:BB24 BE35:BI41 BI34 AQ32:AU34 AQ31:AS31">
+    <cfRule type="expression" dxfId="145" priority="122">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="123" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43:L55 BZ43:CD55 V43:Z55 O43:S55 AC43:AG55 AJ43:AN55 AQ43:AU55 AX43:BB55 BE43:BI55 BS55:BV55 BL46:BP55 BS43:BW45 BT46:BW47 BS49:BU49 BS48 BU48:BW48 BS52 BS54:BU54 BS50:BT51 BV50:BW50 BW49 BS53:BT53 BV53:BW53 BU52:BW52 BV51">
-    <cfRule type="expression" dxfId="83" priority="88">
+    <cfRule type="expression" dxfId="143" priority="118">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43:L55 BZ43:CD55 V43:Z55 O43:S55 AC43:AG55 AJ43:AN55 AQ43:AU55 AX43:BB55 BE43:BI55 BS55:BV55 BL46:BP55 BS43:BW45 BT46:BW47 BS49:BU49 BS48 BU48:BW48 BS52 BS54:BU54 BS50:BT51 BV50:BW50 BW49 BS53:BT53 BV53:BW53 BU52:BW52 BV51">
-    <cfRule type="expression" dxfId="82" priority="86">
+    <cfRule type="expression" dxfId="142" priority="116">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="117" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:U55">
-    <cfRule type="expression" dxfId="80" priority="79">
+    <cfRule type="expression" dxfId="140" priority="109">
       <formula>AND(TODAY()&gt;=T$5,TODAY()&lt;U$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:U55">
-    <cfRule type="expression" dxfId="79" priority="77">
+    <cfRule type="expression" dxfId="139" priority="107">
       <formula>AND(task_start&lt;=T$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=T$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="108" stopIfTrue="1">
       <formula>AND(task_end&gt;=T$5,task_start&lt;U$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA7:AB14 AA17:AB55">
-    <cfRule type="expression" dxfId="77" priority="76">
+  <conditionalFormatting sqref="AA7:AB10 AA17:AB55 AA12:AB14">
+    <cfRule type="expression" dxfId="137" priority="106">
       <formula>AND(TODAY()&gt;=AA$5,TODAY()&lt;AB$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA7:AB14 AA17:AB55">
-    <cfRule type="expression" dxfId="76" priority="74">
+  <conditionalFormatting sqref="AA7:AB10 AA17:AB55 AA12:AB14">
+    <cfRule type="expression" dxfId="136" priority="104">
       <formula>AND(task_start&lt;=AA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AA$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="105" stopIfTrue="1">
       <formula>AND(task_end&gt;=AA$5,task_start&lt;AB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH7:AI55">
-    <cfRule type="expression" dxfId="74" priority="73">
+    <cfRule type="expression" dxfId="134" priority="103">
       <formula>AND(TODAY()&gt;=AH$5,TODAY()&lt;AI$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH7:AI55">
-    <cfRule type="expression" dxfId="73" priority="71">
+    <cfRule type="expression" dxfId="133" priority="101">
       <formula>AND(task_start&lt;=AH$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AH$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="102" stopIfTrue="1">
       <formula>AND(task_end&gt;=AH$5,task_start&lt;AI$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO7:AP18 AO20:AP25 AO19 AO27:AP55">
-    <cfRule type="expression" dxfId="71" priority="70">
+    <cfRule type="expression" dxfId="131" priority="100">
       <formula>AND(TODAY()&gt;=AO$5,TODAY()&lt;AP$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO7:AP18 AO20:AP25 AO19 AO27:AP55">
-    <cfRule type="expression" dxfId="70" priority="68">
+    <cfRule type="expression" dxfId="130" priority="98">
       <formula>AND(task_start&lt;=AO$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AO$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="99" stopIfTrue="1">
       <formula>AND(task_end&gt;=AO$5,task_start&lt;AP$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV7:AW21 AV36:AW38 AW35 AV26:AW26 AV23:AW23 AV33:AW34 AV31:AV32 AV40:AW55 AV28:AW30">
-    <cfRule type="expression" dxfId="68" priority="67">
+  <conditionalFormatting sqref="AV7:AW21 AV36:AW38 AW35 AV26:AW26 AV23:AW23 AV33:AW34 AV32 AV40:AW55 AV28:AW30">
+    <cfRule type="expression" dxfId="128" priority="97">
       <formula>AND(TODAY()&gt;=AV$5,TODAY()&lt;AW$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV7:AW21 AV36:AW38 AW35 AV26:AW26 AV23:AW23 AV33:AW34 AV31:AV32 AV40:AW55 AV28:AW30">
-    <cfRule type="expression" dxfId="67" priority="65">
+  <conditionalFormatting sqref="AV7:AW21 AV36:AW38 AW35 AV26:AW26 AV23:AW23 AV33:AW34 AV32 AV40:AW55 AV28:AW30">
+    <cfRule type="expression" dxfId="127" priority="95">
       <formula>AND(task_start&lt;=AV$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AV$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="96" stopIfTrue="1">
       <formula>AND(task_end&gt;=AV$5,task_start&lt;AW$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC42:BD55 BC41 BC35:BD36 BD34 BC7:BD33 BC38:BD40 BD37">
-    <cfRule type="expression" dxfId="65" priority="64">
+  <conditionalFormatting sqref="BC42:BD55 BC41 BC35:BD36 BC7:BD33 BC38:BD39 BD37 BD40">
+    <cfRule type="expression" dxfId="125" priority="94">
       <formula>AND(TODAY()&gt;=BC$5,TODAY()&lt;BD$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC42:BD55 BC41 BC35:BD36 BD34 BC7:BD33 BC38:BD40 BD37">
-    <cfRule type="expression" dxfId="64" priority="62">
+  <conditionalFormatting sqref="BC42:BD55 BC41 BC35:BD36 BC7:BD33 BC38:BD39 BD37 BD40">
+    <cfRule type="expression" dxfId="124" priority="92">
       <formula>AND(task_start&lt;=BC$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BC$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="93" stopIfTrue="1">
       <formula>AND(task_end&gt;=BC$5,task_start&lt;BD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ7:BK55">
-    <cfRule type="expression" dxfId="62" priority="61">
+    <cfRule type="expression" dxfId="122" priority="91">
       <formula>AND(TODAY()&gt;=BJ$5,TODAY()&lt;BK$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ7:BK55">
-    <cfRule type="expression" dxfId="61" priority="59">
+    <cfRule type="expression" dxfId="121" priority="89">
       <formula>AND(task_start&lt;=BJ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BJ$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="90" stopIfTrue="1">
       <formula>AND(task_end&gt;=BJ$5,task_start&lt;BK$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ7:BR43 BQ45:BR55 BR44">
-    <cfRule type="expression" dxfId="59" priority="58">
+    <cfRule type="expression" dxfId="119" priority="88">
       <formula>AND(TODAY()&gt;=BQ$5,TODAY()&lt;BR$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ7:BR43 BQ45:BR55 BR44">
-    <cfRule type="expression" dxfId="58" priority="56">
+    <cfRule type="expression" dxfId="118" priority="86">
       <formula>AND(task_start&lt;=BQ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BQ$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="87" stopIfTrue="1">
       <formula>AND(task_end&gt;=BQ$5,task_start&lt;BR$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX7:BY55">
-    <cfRule type="expression" dxfId="56" priority="55">
+    <cfRule type="expression" dxfId="116" priority="85">
       <formula>AND(TODAY()&gt;=BX$5,TODAY()&lt;BY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX7:BY55">
-    <cfRule type="expression" dxfId="55" priority="53">
+    <cfRule type="expression" dxfId="115" priority="83">
       <formula>AND(task_start&lt;=BX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BX$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="84" stopIfTrue="1">
       <formula>AND(task_end&gt;=BX$5,task_start&lt;BY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE7:CF55">
-    <cfRule type="expression" dxfId="53" priority="52">
+    <cfRule type="expression" dxfId="113" priority="82">
       <formula>AND(TODAY()&gt;=CE$5,TODAY()&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE7:CF55">
-    <cfRule type="expression" dxfId="52" priority="50">
+    <cfRule type="expression" dxfId="112" priority="80">
       <formula>AND(task_start&lt;=CE$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=CE$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="81" stopIfTrue="1">
       <formula>AND(task_end&gt;=CE$5,task_start&lt;CF$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW31">
-    <cfRule type="expression" dxfId="50" priority="48">
-      <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW31">
-    <cfRule type="expression" dxfId="49" priority="46">
-      <formula>AND(task_start&lt;=AW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AW$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="47" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AW$5,task_start&lt;AX$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA15">
-    <cfRule type="expression" dxfId="47" priority="45">
+    <cfRule type="expression" dxfId="107" priority="75">
       <formula>AND(TODAY()&gt;=AA$5,TODAY()&lt;AB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA15">
-    <cfRule type="expression" dxfId="46" priority="43">
+    <cfRule type="expression" dxfId="106" priority="73">
       <formula>AND(task_start&lt;=AA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AA$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="74" stopIfTrue="1">
       <formula>AND(task_end&gt;=AA$5,task_start&lt;AB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y15">
-    <cfRule type="expression" dxfId="44" priority="33">
+    <cfRule type="expression" dxfId="104" priority="63">
       <formula>AND(TODAY()&gt;=Y$5,TODAY()&lt;Z$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y15">
-    <cfRule type="expression" dxfId="43" priority="31">
+    <cfRule type="expression" dxfId="103" priority="61">
       <formula>AND(task_start&lt;=Y$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Y$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="62" stopIfTrue="1">
       <formula>AND(task_end&gt;=Y$5,task_start&lt;Z$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z15">
-    <cfRule type="expression" dxfId="41" priority="30">
+    <cfRule type="expression" dxfId="101" priority="60">
       <formula>AND(TODAY()&gt;=Z$5,TODAY()&lt;AA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z15">
-    <cfRule type="expression" dxfId="40" priority="28">
+    <cfRule type="expression" dxfId="100" priority="58">
       <formula>AND(task_start&lt;=Z$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Z$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="59" stopIfTrue="1">
       <formula>AND(task_end&gt;=Z$5,task_start&lt;AA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X14">
-    <cfRule type="expression" dxfId="38" priority="27">
+    <cfRule type="expression" dxfId="98" priority="57">
       <formula>AND(TODAY()&gt;=X$5,TODAY()&lt;Y$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X14">
-    <cfRule type="expression" dxfId="37" priority="25">
+    <cfRule type="expression" dxfId="97" priority="55">
       <formula>AND(task_start&lt;=X$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=X$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="56" stopIfTrue="1">
       <formula>AND(task_end&gt;=X$5,task_start&lt;Y$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT35">
-    <cfRule type="expression" dxfId="35" priority="24">
+    <cfRule type="expression" dxfId="95" priority="54">
       <formula>AND(TODAY()&gt;=AT$5,TODAY()&lt;AU$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT35">
-    <cfRule type="expression" dxfId="34" priority="22">
+    <cfRule type="expression" dxfId="94" priority="52">
       <formula>AND(task_start&lt;=AT$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AT$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="53" stopIfTrue="1">
       <formula>AND(task_end&gt;=AT$5,task_start&lt;AU$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35">
-    <cfRule type="expression" dxfId="32" priority="21">
+    <cfRule type="expression" dxfId="92" priority="51">
       <formula>AND(TODAY()&gt;=AU$5,TODAY()&lt;AV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35">
-    <cfRule type="expression" dxfId="31" priority="19">
+    <cfRule type="expression" dxfId="91" priority="49">
       <formula>AND(task_start&lt;=AU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AU$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="50" stopIfTrue="1">
       <formula>AND(task_end&gt;=AU$5,task_start&lt;AV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV35">
-    <cfRule type="expression" dxfId="29" priority="18">
+    <cfRule type="expression" dxfId="89" priority="48">
       <formula>AND(TODAY()&gt;=AV$5,TODAY()&lt;AW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV35">
-    <cfRule type="expression" dxfId="28" priority="16">
+    <cfRule type="expression" dxfId="88" priority="46">
       <formula>AND(task_start&lt;=AV$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AV$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="47" stopIfTrue="1">
       <formula>AND(task_end&gt;=AV$5,task_start&lt;AW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB35">
-    <cfRule type="expression" dxfId="26" priority="15">
+    <cfRule type="expression" dxfId="86" priority="45">
       <formula>AND(TODAY()&gt;=BB$5,TODAY()&lt;BC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB35">
-    <cfRule type="expression" dxfId="25" priority="13">
+    <cfRule type="expression" dxfId="85" priority="43">
       <formula>AND(task_start&lt;=BB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="44" stopIfTrue="1">
       <formula>AND(task_end&gt;=BB$5,task_start&lt;BC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU51">
-    <cfRule type="expression" dxfId="23" priority="12">
+    <cfRule type="expression" dxfId="83" priority="42">
       <formula>AND(TODAY()&gt;=BU$5,TODAY()&lt;BV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU51">
-    <cfRule type="expression" dxfId="22" priority="10">
+    <cfRule type="expression" dxfId="82" priority="40">
       <formula>AND(task_start&lt;=BU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BU$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="41" stopIfTrue="1">
       <formula>AND(task_end&gt;=BU$5,task_start&lt;BV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV54">
-    <cfRule type="expression" dxfId="20" priority="9">
+    <cfRule type="expression" dxfId="80" priority="39">
       <formula>AND(TODAY()&gt;=BV$5,TODAY()&lt;BW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV54">
-    <cfRule type="expression" dxfId="19" priority="7">
+    <cfRule type="expression" dxfId="79" priority="37">
       <formula>AND(task_start&lt;=BV$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BV$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="38" stopIfTrue="1">
       <formula>AND(task_end&gt;=BV$5,task_start&lt;BW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ24:AS24">
-    <cfRule type="expression" dxfId="17" priority="175">
+    <cfRule type="expression" dxfId="77" priority="205">
       <formula>AND(TODAY()&gt;=AL$5,TODAY()&lt;AM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ24:AS24">
-    <cfRule type="expression" dxfId="16" priority="178">
+    <cfRule type="expression" dxfId="76" priority="208">
       <formula>AND(task_start&lt;=AL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AL$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="179" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="209" stopIfTrue="1">
       <formula>AND(task_end&gt;=AL$5,task_start&lt;AM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL24:AN24">
-    <cfRule type="expression" dxfId="14" priority="6">
+    <cfRule type="expression" dxfId="74" priority="36">
       <formula>AND(TODAY()&gt;=AL$5,TODAY()&lt;AM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL24:AN24">
-    <cfRule type="expression" dxfId="13" priority="4">
+    <cfRule type="expression" dxfId="73" priority="34">
       <formula>AND(task_start&lt;=AL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AL$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="35" stopIfTrue="1">
       <formula>AND(task_end&gt;=AL$5,task_start&lt;AM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT24:AU24">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="71" priority="33">
       <formula>AND(TODAY()&gt;=AT$5,TODAY()&lt;AU$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT24:AU24">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="70" priority="31">
       <formula>AND(task_start&lt;=AT$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AT$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="32" stopIfTrue="1">
       <formula>AND(task_end&gt;=AT$5,task_start&lt;AU$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W11">
+    <cfRule type="expression" dxfId="68" priority="30">
+      <formula>AND(TODAY()&gt;=W$5,TODAY()&lt;X$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W11">
+    <cfRule type="expression" dxfId="67" priority="28">
+      <formula>AND(task_start&lt;=W$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="29" stopIfTrue="1">
+      <formula>AND(task_end&gt;=W$5,task_start&lt;X$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA16:AB16">
+    <cfRule type="expression" dxfId="65" priority="27">
+      <formula>AND(TODAY()&gt;=AA$5,TODAY()&lt;AB$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA16:AB16">
+    <cfRule type="expression" dxfId="63" priority="25">
+      <formula>AND(task_start&lt;=AA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AA$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="26" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AA$5,task_start&lt;AB$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB11">
+    <cfRule type="expression" dxfId="59" priority="24">
+      <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;AC$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB11">
+    <cfRule type="expression" dxfId="57" priority="22">
+      <formula>AND(task_start&lt;=AB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AB$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="23" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AB$5,task_start&lt;AC$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC16">
+    <cfRule type="expression" dxfId="53" priority="21">
+      <formula>AND(TODAY()&gt;=AC$5,TODAY()&lt;AD$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC16">
+    <cfRule type="expression" dxfId="51" priority="19">
+      <formula>AND(task_start&lt;=AC$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AC$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="20" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AC$5,task_start&lt;AD$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX23:AZ23">
+    <cfRule type="expression" dxfId="47" priority="18">
+      <formula>AND(TODAY()&gt;=AX$5,TODAY()&lt;AY$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX23:AZ23">
+    <cfRule type="expression" dxfId="45" priority="16">
+      <formula>AND(task_start&lt;=AX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AX$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="17" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG16">
+    <cfRule type="expression" dxfId="35" priority="12">
+      <formula>AND(TODAY()&gt;=AG$5,TODAY()&lt;AH$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG16">
+    <cfRule type="expression" dxfId="33" priority="10">
+      <formula>AND(task_start&lt;=AG$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AG$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="11" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AG$5,task_start&lt;AH$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY31:BB31">
+    <cfRule type="expression" dxfId="29" priority="9">
+      <formula>AND(TODAY()&gt;=AY$5,TODAY()&lt;AZ$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY31:BB31">
+    <cfRule type="expression" dxfId="27" priority="7">
+      <formula>AND(task_start&lt;=AY$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AY$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="8" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AY$5,task_start&lt;AZ$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BD34:BH34">
+    <cfRule type="expression" dxfId="11" priority="6">
+      <formula>AND(TODAY()&gt;=BD$5,TODAY()&lt;BE$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BD34:BH34">
+    <cfRule type="expression" dxfId="9" priority="4">
+      <formula>AND(task_start&lt;=BD$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BD$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="5" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BD$5,task_start&lt;BE$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ40">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>AND(TODAY()&gt;=AZ$5,TODAY()&lt;BA$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ40">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>AND(task_start&lt;=AZ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AZ$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AZ$5,task_start&lt;BA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>

--- a/MINTA-gantt-diagram.xlsx
+++ b/MINTA-gantt-diagram.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C511BA04-1174-4E9E-9CFC-DA61F60AECDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9285"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt-diagram" sheetId="11" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <definedName name="task_start" localSheetId="0">'Gantt-diagram'!$D1</definedName>
     <definedName name="today" localSheetId="0">TODAY()</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,6 +30,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="66">
   <si>
     <t>Projekt kezdete:</t>
   </si>
@@ -71,22 +73,13 @@
     <t>9.1.2. Bemutató elkészítése</t>
   </si>
   <si>
-    <t>Teszt Elek</t>
-  </si>
-  <si>
     <t>9.2.1. Use Case diagram</t>
   </si>
   <si>
     <t>9.2.2. Class diagram</t>
   </si>
   <si>
-    <t>Lev Elek</t>
-  </si>
-  <si>
     <t>9.2.3. Sequence diagram</t>
-  </si>
-  <si>
-    <t>Remek Elek</t>
   </si>
   <si>
     <t>9.2.4. Egyed-kapcsolat diagram adatbázishoz</t>
@@ -113,22 +106,10 @@
     <t>9.3.5.  Felhasználók kezeléséhez kapcsolódó GUI megvalósítása</t>
   </si>
   <si>
-    <t>9.3.6.  Raktárak kezeléshez tartozó üzleti logika (listázása, módosítása, létrehozása, törlése)</t>
-  </si>
-  <si>
-    <t>9.3.7.  Raktárak kezeléshez kapcsolódó GUI megvalósítása</t>
-  </si>
-  <si>
-    <t>9.3.8.  Raktárkezeléshez szükséges adatok létrehozása az adatbázisban</t>
-  </si>
-  <si>
     <t>9.3.15.  Fuvarok kezeléséhez tartozó üzleti logika (listázása, módosítása, létrehozása, törlése)</t>
   </si>
   <si>
     <t>9.3.17.  Fuvarok kezeléséhez szükséges adatok létrehozása az adatbázisban</t>
-  </si>
-  <si>
-    <t>9.3.20.  Kapcsolatfelvételi űrlap biztosítása új cégek számára (üzleti logika és GUI)</t>
   </si>
   <si>
     <t>9.3.21.  Biztonsági mentés automatikus létrehozása</t>
@@ -161,16 +142,7 @@
     <t>9.4.4. Felhasználói munkamenet tesztelése (TP, TC, TR)</t>
   </si>
   <si>
-    <t>9.4.5. Raktárak kezelésének tesztelése (TP, TC, TR)</t>
-  </si>
-  <si>
-    <t>9.4.6. Árukészletek kezelésének tesztelése (TP, TC, TR)</t>
-  </si>
-  <si>
     <t>9.4.8. Fuvarok kezelésének tesztelése (TP, TC, TR)</t>
-  </si>
-  <si>
-    <t>9.4.10. Térképes funkciók tesztelése (TP, TC, TR)</t>
   </si>
   <si>
     <t>9.4.11. Kapcsolatfelvételi űrlap tesztelése (TP, TC, TR)</t>
@@ -238,11 +210,38 @@
   <si>
     <t>9.3.18.  Értesítés sikeres rendelés esetén</t>
   </si>
+  <si>
+    <t>Nagy Dominik</t>
+  </si>
+  <si>
+    <t>9.3.6.  Étel rendeléséhez tartozó üzleti logika (listázása, módosítása, létrehozása, törlése)</t>
+  </si>
+  <si>
+    <t>9.3.7.   Étel rendeléséhez kapcsolódó GUI megvalósítása</t>
+  </si>
+  <si>
+    <t>9.3.8.  Étel rendeléséhez  szükséges adatok létrehozása az adatbázisban</t>
+  </si>
+  <si>
+    <t>9.3.20.  Kapcsolatfelvételi űrlap biztosítása új ügyfelek számára (üzleti logika és GUI)</t>
+  </si>
+  <si>
+    <t>9.4.5. Étel rendelés tesztelése (TP, TC, TR)</t>
+  </si>
+  <si>
+    <t>9.4.6. Ételek, menük készítésének tesztelése (TP, TC, TR)</t>
+  </si>
+  <si>
+    <t>0,3</t>
+  </si>
+  <si>
+    <t>9.4.10. Fuvar idejének tesztelése (TP, TC, TR)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
@@ -251,7 +250,7 @@
     <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="169" formatCode="\ yyyy/\ mmm/\ d/"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,8 +412,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -489,25 +495,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,8 +529,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF580F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -688,6 +700,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -718,7 +739,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -901,34 +922,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="169" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -947,6034 +971,32 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Cím" xfId="4" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Címsor 1" xfId="5" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Címsor 2" xfId="6" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Címsor 3" xfId="7" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Date" xfId="9"/>
+    <cellStyle name="Date" xfId="9" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Ezres" xfId="3" builtinId="3" customBuiltin="1"/>
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Name" xfId="10"/>
+    <cellStyle name="Name" xfId="10" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
-    <cellStyle name="Project Start" xfId="8"/>
-    <cellStyle name="Task" xfId="11"/>
-    <cellStyle name="zHiddenText" xfId="2"/>
+    <cellStyle name="Project Start" xfId="8" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Task" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="zHiddenText" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
-  <dxfs count="753">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="153">
     <dxf>
       <fill>
         <patternFill>
@@ -8510,16 +2532,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="ToDoList" pivot="0" count="9">
-      <tableStyleElement type="wholeTable" dxfId="752"/>
-      <tableStyleElement type="headerRow" dxfId="751"/>
-      <tableStyleElement type="totalRow" dxfId="750"/>
-      <tableStyleElement type="firstColumn" dxfId="749"/>
-      <tableStyleElement type="lastColumn" dxfId="748"/>
-      <tableStyleElement type="firstRowStripe" dxfId="747"/>
-      <tableStyleElement type="secondRowStripe" dxfId="746"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="745"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="744"/>
+    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" dxfId="152"/>
+      <tableStyleElement type="headerRow" dxfId="151"/>
+      <tableStyleElement type="totalRow" dxfId="150"/>
+      <tableStyleElement type="firstColumn" dxfId="149"/>
+      <tableStyleElement type="lastColumn" dxfId="148"/>
+      <tableStyleElement type="firstRowStripe" dxfId="147"/>
+      <tableStyleElement type="secondRowStripe" dxfId="146"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="145"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="144"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -8590,6 +2612,7 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FFF580F8"/>
       <color rgb="FF969696"/>
       <color rgb="FF4A6F9C"/>
       <color rgb="FF215881"/>
@@ -8874,7 +2897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8882,7 +2905,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BL46" sqref="BL46"/>
+      <selection pane="bottomLeft" activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8905,7 +2928,7 @@
     <row r="1" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="23"/>
       <c r="B1" s="59" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="3"/>
@@ -8913,65 +2936,71 @@
       <c r="F1" s="38"/>
       <c r="G1" s="21"/>
       <c r="H1" s="21"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="71"/>
-      <c r="AC1" s="71"/>
-      <c r="AD1" s="83"/>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="76" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG1" s="71"/>
-      <c r="AH1" s="71"/>
-      <c r="AI1" s="71"/>
-      <c r="AJ1" s="71"/>
-      <c r="AK1" s="82"/>
-      <c r="AL1" s="76"/>
-      <c r="AM1" s="71" t="s">
+      <c r="I1" s="67"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="67"/>
+      <c r="AI1" s="67"/>
+      <c r="AJ1" s="67"/>
+      <c r="AK1" s="75"/>
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN1" s="67"/>
+      <c r="AO1" s="67"/>
+      <c r="AP1" s="67"/>
+      <c r="AQ1" s="67"/>
+      <c r="AR1" s="89"/>
+      <c r="AS1" s="67"/>
+      <c r="AT1" s="67"/>
+      <c r="AU1" s="91"/>
+      <c r="AV1" s="69"/>
+      <c r="AW1" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX1" s="89"/>
+      <c r="AY1" s="67"/>
+      <c r="AZ1" s="90"/>
+      <c r="BC1" s="92"/>
+      <c r="BE1" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="AN1" s="71"/>
-      <c r="AO1" s="71"/>
-      <c r="AP1" s="71"/>
-      <c r="AQ1" s="71"/>
-      <c r="AR1" s="93"/>
-      <c r="AS1" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="AT1" s="71"/>
-      <c r="AU1" s="71"/>
-      <c r="AV1" s="71"/>
-      <c r="AW1" s="71"/>
-      <c r="AX1" s="94"/>
-      <c r="AY1" s="71"/>
+      <c r="BJ1" s="94"/>
     </row>
     <row r="2" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="27" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F2" s="38"/>
       <c r="H2" s="25"/>
@@ -8981,126 +3010,126 @@
       <c r="C3" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="89">
+      <c r="D3" s="86">
         <v>44459</v>
       </c>
-      <c r="E3" s="89"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="38"/>
     </row>
     <row r="4" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
       <c r="D4"/>
-      <c r="F4" s="90"/>
-      <c r="H4" s="86">
+      <c r="F4" s="87"/>
+      <c r="H4" s="83">
         <f>H5</f>
         <v>44459</v>
       </c>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="86">
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="83">
         <f>O5</f>
         <v>44466</v>
       </c>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="86">
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="84"/>
+      <c r="T4" s="84"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="83">
         <f>V5</f>
         <v>44473</v>
       </c>
-      <c r="W4" s="87"/>
-      <c r="X4" s="87"/>
-      <c r="Y4" s="87"/>
-      <c r="Z4" s="87"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="86">
+      <c r="W4" s="84"/>
+      <c r="X4" s="84"/>
+      <c r="Y4" s="84"/>
+      <c r="Z4" s="84"/>
+      <c r="AA4" s="84"/>
+      <c r="AB4" s="85"/>
+      <c r="AC4" s="83">
         <f>AC5</f>
         <v>44480</v>
       </c>
-      <c r="AD4" s="87"/>
-      <c r="AE4" s="87"/>
-      <c r="AF4" s="87"/>
-      <c r="AG4" s="87"/>
-      <c r="AH4" s="87"/>
-      <c r="AI4" s="88"/>
-      <c r="AJ4" s="86">
+      <c r="AD4" s="84"/>
+      <c r="AE4" s="84"/>
+      <c r="AF4" s="84"/>
+      <c r="AG4" s="84"/>
+      <c r="AH4" s="84"/>
+      <c r="AI4" s="85"/>
+      <c r="AJ4" s="83">
         <f>AJ5</f>
         <v>44487</v>
       </c>
-      <c r="AK4" s="87"/>
-      <c r="AL4" s="87"/>
-      <c r="AM4" s="87"/>
-      <c r="AN4" s="87"/>
-      <c r="AO4" s="87"/>
-      <c r="AP4" s="88"/>
-      <c r="AQ4" s="86">
+      <c r="AK4" s="84"/>
+      <c r="AL4" s="84"/>
+      <c r="AM4" s="84"/>
+      <c r="AN4" s="84"/>
+      <c r="AO4" s="84"/>
+      <c r="AP4" s="85"/>
+      <c r="AQ4" s="83">
         <f>AQ5</f>
         <v>44494</v>
       </c>
-      <c r="AR4" s="87"/>
-      <c r="AS4" s="87"/>
-      <c r="AT4" s="87"/>
-      <c r="AU4" s="87"/>
-      <c r="AV4" s="87"/>
-      <c r="AW4" s="88"/>
-      <c r="AX4" s="86">
+      <c r="AR4" s="84"/>
+      <c r="AS4" s="84"/>
+      <c r="AT4" s="84"/>
+      <c r="AU4" s="84"/>
+      <c r="AV4" s="84"/>
+      <c r="AW4" s="85"/>
+      <c r="AX4" s="83">
         <f>AX5</f>
         <v>44501</v>
       </c>
-      <c r="AY4" s="87"/>
-      <c r="AZ4" s="87"/>
-      <c r="BA4" s="87"/>
-      <c r="BB4" s="87"/>
-      <c r="BC4" s="87"/>
-      <c r="BD4" s="88"/>
-      <c r="BE4" s="86">
+      <c r="AY4" s="84"/>
+      <c r="AZ4" s="84"/>
+      <c r="BA4" s="84"/>
+      <c r="BB4" s="84"/>
+      <c r="BC4" s="84"/>
+      <c r="BD4" s="85"/>
+      <c r="BE4" s="83">
         <f>BE5</f>
         <v>44508</v>
       </c>
-      <c r="BF4" s="87"/>
-      <c r="BG4" s="87"/>
-      <c r="BH4" s="87"/>
-      <c r="BI4" s="87"/>
-      <c r="BJ4" s="87"/>
-      <c r="BK4" s="88"/>
-      <c r="BL4" s="86">
+      <c r="BF4" s="84"/>
+      <c r="BG4" s="84"/>
+      <c r="BH4" s="84"/>
+      <c r="BI4" s="84"/>
+      <c r="BJ4" s="84"/>
+      <c r="BK4" s="85"/>
+      <c r="BL4" s="83">
         <f>BL5</f>
         <v>44515</v>
       </c>
-      <c r="BM4" s="87"/>
-      <c r="BN4" s="87"/>
-      <c r="BO4" s="87"/>
-      <c r="BP4" s="87"/>
-      <c r="BQ4" s="87"/>
-      <c r="BR4" s="88"/>
-      <c r="BS4" s="86">
+      <c r="BM4" s="84"/>
+      <c r="BN4" s="84"/>
+      <c r="BO4" s="84"/>
+      <c r="BP4" s="84"/>
+      <c r="BQ4" s="84"/>
+      <c r="BR4" s="85"/>
+      <c r="BS4" s="83">
         <f>BS5</f>
         <v>44522</v>
       </c>
-      <c r="BT4" s="87"/>
-      <c r="BU4" s="87"/>
-      <c r="BV4" s="87"/>
-      <c r="BW4" s="87"/>
-      <c r="BX4" s="87"/>
-      <c r="BY4" s="88"/>
-      <c r="BZ4" s="86">
+      <c r="BT4" s="84"/>
+      <c r="BU4" s="84"/>
+      <c r="BV4" s="84"/>
+      <c r="BW4" s="84"/>
+      <c r="BX4" s="84"/>
+      <c r="BY4" s="85"/>
+      <c r="BZ4" s="83">
         <f>BZ5</f>
         <v>44529</v>
       </c>
-      <c r="CA4" s="87"/>
-      <c r="CB4" s="87"/>
-      <c r="CC4" s="87"/>
-      <c r="CD4" s="87"/>
-      <c r="CE4" s="87"/>
-      <c r="CF4" s="88"/>
+      <c r="CA4" s="84"/>
+      <c r="CB4" s="84"/>
+      <c r="CC4" s="84"/>
+      <c r="CD4" s="84"/>
+      <c r="CE4" s="84"/>
+      <c r="CF4" s="85"/>
     </row>
     <row r="5" spans="1:84" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23"/>
@@ -9116,7 +3145,7 @@
       <c r="E5" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="91"/>
+      <c r="F5" s="88"/>
       <c r="H5" s="6">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2</f>
         <v>44459</v>
@@ -9612,16 +3641,15 @@
         <v>9</v>
       </c>
       <c r="D8" s="60">
-        <v>44465</v>
+        <v>44470</v>
       </c>
       <c r="E8" s="60">
-        <f>D8+3</f>
-        <v>44468</v>
+        <v>44474</v>
       </c>
       <c r="F8" s="36"/>
       <c r="G8" s="10">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H8" s="37"/>
       <c r="I8" s="37"/>
@@ -9629,18 +3657,18 @@
       <c r="K8" s="37"/>
       <c r="L8" s="37"/>
       <c r="M8" s="65"/>
-      <c r="N8" s="69">
+      <c r="N8" s="65"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="94">
         <v>1</v>
       </c>
-      <c r="O8" s="69"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="65"/>
-      <c r="U8" s="65"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
+      <c r="T8" s="94"/>
+      <c r="U8" s="94"/>
+      <c r="V8" s="94"/>
+      <c r="W8" s="94"/>
       <c r="X8" s="37"/>
       <c r="Y8" s="37"/>
       <c r="Z8" s="37"/>
@@ -9709,14 +3737,13 @@
         <v>10</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="D9" s="60">
-        <v>44469</v>
+        <v>44472</v>
       </c>
       <c r="E9" s="60">
-        <f>D9+1</f>
-        <v>44470</v>
+        <v>44474</v>
       </c>
       <c r="F9" s="36"/>
       <c r="G9" s="10"/>
@@ -9730,14 +3757,14 @@
       <c r="O9" s="37"/>
       <c r="P9" s="37"/>
       <c r="Q9" s="37"/>
-      <c r="R9" s="67">
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="95">
         <v>1</v>
       </c>
-      <c r="S9" s="67"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
+      <c r="V9" s="95"/>
+      <c r="W9" s="95"/>
       <c r="X9" s="37"/>
       <c r="Y9" s="37"/>
       <c r="Z9" s="37"/>
@@ -9894,10 +3921,10 @@
     <row r="11" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23"/>
       <c r="B11" s="50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D11" s="61">
         <v>44475</v>
@@ -9927,12 +3954,12 @@
       <c r="U11" s="65"/>
       <c r="V11" s="37"/>
       <c r="W11" s="37"/>
-      <c r="X11" s="82">
+      <c r="X11" s="75">
         <v>2</v>
       </c>
-      <c r="Y11" s="82"/>
-      <c r="Z11" s="82"/>
-      <c r="AA11" s="82"/>
+      <c r="Y11" s="75"/>
+      <c r="Z11" s="75"/>
+      <c r="AA11" s="75"/>
       <c r="AB11" s="65"/>
       <c r="AC11" s="37"/>
       <c r="AD11" s="37"/>
@@ -9994,10 +4021,10 @@
     <row r="12" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23"/>
       <c r="B12" s="50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D12" s="61">
         <v>44474</v>
@@ -10023,12 +4050,12 @@
       <c r="T12" s="65"/>
       <c r="U12" s="65"/>
       <c r="V12" s="37"/>
-      <c r="W12" s="81">
+      <c r="W12" s="74">
         <v>2</v>
       </c>
-      <c r="X12" s="81"/>
-      <c r="Y12" s="81"/>
-      <c r="Z12" s="81"/>
+      <c r="X12" s="74"/>
+      <c r="Y12" s="74"/>
+      <c r="Z12" s="74"/>
       <c r="AA12" s="65"/>
       <c r="AB12" s="65"/>
       <c r="AC12" s="37"/>
@@ -10091,10 +4118,10 @@
     <row r="13" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="23"/>
       <c r="B13" s="50" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D13" s="61">
         <v>44480</v>
@@ -10126,11 +4153,11 @@
       <c r="Z13" s="37"/>
       <c r="AA13" s="65"/>
       <c r="AB13" s="65"/>
-      <c r="AC13" s="81">
+      <c r="AC13" s="74">
         <v>2</v>
       </c>
-      <c r="AD13" s="81"/>
-      <c r="AE13" s="81"/>
+      <c r="AD13" s="74"/>
+      <c r="AE13" s="74"/>
       <c r="AF13" s="37"/>
       <c r="AG13" s="37"/>
       <c r="AH13" s="65"/>
@@ -10188,10 +4215,10 @@
     <row r="14" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="23"/>
       <c r="B14" s="50" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D14" s="61">
         <v>44479</v>
@@ -10221,13 +4248,13 @@
       <c r="X14" s="37"/>
       <c r="Y14" s="37"/>
       <c r="Z14" s="37"/>
-      <c r="AA14" s="95"/>
-      <c r="AB14" s="96">
+      <c r="AA14" s="80"/>
+      <c r="AB14" s="81">
         <v>3</v>
       </c>
-      <c r="AC14" s="96"/>
-      <c r="AD14" s="96"/>
-      <c r="AE14" s="96"/>
+      <c r="AC14" s="81"/>
+      <c r="AD14" s="81"/>
+      <c r="AE14" s="81"/>
       <c r="AF14" s="37"/>
       <c r="AG14" s="37"/>
       <c r="AH14" s="65"/>
@@ -10285,10 +4312,10 @@
     <row r="15" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23"/>
       <c r="B15" s="50" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D15" s="61">
         <v>44479</v>
@@ -10318,19 +4345,19 @@
       <c r="Y15" s="37"/>
       <c r="Z15" s="37"/>
       <c r="AA15" s="65"/>
-      <c r="AB15" s="78">
+      <c r="AB15" s="71">
         <v>2</v>
       </c>
-      <c r="AC15" s="78"/>
-      <c r="AD15" s="78"/>
-      <c r="AE15" s="78"/>
+      <c r="AC15" s="71"/>
+      <c r="AD15" s="71"/>
+      <c r="AE15" s="71"/>
       <c r="AF15" s="37"/>
       <c r="AG15" s="37"/>
       <c r="AH15" s="65"/>
       <c r="AI15" s="65"/>
       <c r="AJ15" s="37"/>
       <c r="AK15" s="37"/>
-      <c r="AL15" s="84"/>
+      <c r="AL15" s="77"/>
       <c r="AM15" s="37"/>
       <c r="AN15" s="37"/>
       <c r="AO15" s="65"/>
@@ -10381,10 +4408,10 @@
     <row r="16" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23"/>
       <c r="B16" s="50" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D16" s="61">
         <v>44481</v>
@@ -10414,15 +4441,15 @@
       <c r="X16" s="37"/>
       <c r="Y16" s="37"/>
       <c r="Z16" s="37"/>
-      <c r="AA16" s="37"/>
-      <c r="AB16" s="37"/>
+      <c r="AA16" s="65"/>
+      <c r="AB16" s="65"/>
       <c r="AC16" s="37"/>
-      <c r="AD16" s="82">
+      <c r="AD16" s="75">
         <v>2</v>
       </c>
-      <c r="AE16" s="82"/>
-      <c r="AF16" s="82"/>
-      <c r="AG16" s="84"/>
+      <c r="AE16" s="75"/>
+      <c r="AF16" s="75"/>
+      <c r="AG16" s="77"/>
       <c r="AH16" s="65"/>
       <c r="AI16" s="65"/>
       <c r="AJ16" s="37"/>
@@ -10478,17 +4505,17 @@
     <row r="17" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="23"/>
       <c r="B17" s="50" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="D17" s="61">
-        <v>44484</v>
+        <v>44483</v>
       </c>
       <c r="E17" s="61">
         <f>D17</f>
-        <v>44484</v>
+        <v>44483</v>
       </c>
       <c r="F17" s="36"/>
       <c r="G17" s="10"/>
@@ -10516,10 +4543,10 @@
       <c r="AC17" s="37"/>
       <c r="AD17" s="37"/>
       <c r="AE17" s="37"/>
-      <c r="AF17" s="37"/>
-      <c r="AG17" s="68">
-        <v>1</v>
-      </c>
+      <c r="AF17" s="95">
+        <v>2</v>
+      </c>
+      <c r="AG17" s="95"/>
       <c r="AH17" s="65"/>
       <c r="AI17" s="65"/>
       <c r="AJ17" s="37"/>
@@ -10575,7 +4602,7 @@
     <row r="18" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="23"/>
       <c r="B18" s="56" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C18" s="31"/>
       <c r="D18" s="15"/>
@@ -10585,93 +4612,93 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="70"/>
-      <c r="S18" s="70"/>
-      <c r="T18" s="70"/>
-      <c r="U18" s="70"/>
-      <c r="V18" s="70"/>
-      <c r="W18" s="70"/>
-      <c r="X18" s="70"/>
-      <c r="Y18" s="70"/>
-      <c r="Z18" s="70"/>
-      <c r="AA18" s="70"/>
-      <c r="AB18" s="70"/>
-      <c r="AC18" s="70"/>
-      <c r="AD18" s="70"/>
-      <c r="AE18" s="70"/>
-      <c r="AF18" s="70"/>
-      <c r="AG18" s="70"/>
-      <c r="AH18" s="70"/>
-      <c r="AI18" s="70"/>
-      <c r="AJ18" s="70"/>
-      <c r="AK18" s="70"/>
-      <c r="AL18" s="70"/>
-      <c r="AM18" s="70"/>
-      <c r="AN18" s="70"/>
-      <c r="AO18" s="70"/>
-      <c r="AP18" s="70"/>
-      <c r="AQ18" s="70"/>
-      <c r="AR18" s="70"/>
-      <c r="AS18" s="70"/>
-      <c r="AT18" s="70"/>
-      <c r="AU18" s="70"/>
-      <c r="AV18" s="70"/>
-      <c r="AW18" s="70"/>
-      <c r="AX18" s="70"/>
-      <c r="AY18" s="70"/>
-      <c r="AZ18" s="70"/>
-      <c r="BA18" s="70"/>
-      <c r="BB18" s="70"/>
-      <c r="BC18" s="70"/>
-      <c r="BD18" s="70"/>
-      <c r="BE18" s="70"/>
-      <c r="BF18" s="70"/>
-      <c r="BG18" s="70"/>
-      <c r="BH18" s="70"/>
-      <c r="BI18" s="70"/>
-      <c r="BJ18" s="70"/>
-      <c r="BK18" s="70"/>
-      <c r="BL18" s="70"/>
-      <c r="BM18" s="70"/>
-      <c r="BN18" s="70"/>
-      <c r="BO18" s="70"/>
-      <c r="BP18" s="70"/>
-      <c r="BQ18" s="70"/>
-      <c r="BR18" s="70"/>
-      <c r="BS18" s="70"/>
-      <c r="BT18" s="70"/>
-      <c r="BU18" s="70"/>
-      <c r="BV18" s="70"/>
-      <c r="BW18" s="70"/>
-      <c r="BX18" s="70"/>
-      <c r="BY18" s="70"/>
-      <c r="BZ18" s="70"/>
-      <c r="CA18" s="70"/>
-      <c r="CB18" s="70"/>
-      <c r="CC18" s="70"/>
-      <c r="CD18" s="70"/>
-      <c r="CE18" s="70"/>
-      <c r="CF18" s="70"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="66"/>
+      <c r="U18" s="66"/>
+      <c r="V18" s="66"/>
+      <c r="W18" s="66"/>
+      <c r="X18" s="66"/>
+      <c r="Y18" s="66"/>
+      <c r="Z18" s="66"/>
+      <c r="AA18" s="66"/>
+      <c r="AB18" s="66"/>
+      <c r="AC18" s="66"/>
+      <c r="AD18" s="66"/>
+      <c r="AE18" s="66"/>
+      <c r="AF18" s="66"/>
+      <c r="AG18" s="66"/>
+      <c r="AH18" s="66"/>
+      <c r="AI18" s="66"/>
+      <c r="AJ18" s="66"/>
+      <c r="AK18" s="66"/>
+      <c r="AL18" s="66"/>
+      <c r="AM18" s="66"/>
+      <c r="AN18" s="66"/>
+      <c r="AO18" s="66"/>
+      <c r="AP18" s="66"/>
+      <c r="AQ18" s="66"/>
+      <c r="AR18" s="66"/>
+      <c r="AS18" s="66"/>
+      <c r="AT18" s="66"/>
+      <c r="AU18" s="66"/>
+      <c r="AV18" s="66"/>
+      <c r="AW18" s="66"/>
+      <c r="AX18" s="66"/>
+      <c r="AY18" s="66"/>
+      <c r="AZ18" s="66"/>
+      <c r="BA18" s="66"/>
+      <c r="BB18" s="66"/>
+      <c r="BC18" s="66"/>
+      <c r="BD18" s="66"/>
+      <c r="BE18" s="66"/>
+      <c r="BF18" s="66"/>
+      <c r="BG18" s="66"/>
+      <c r="BH18" s="66"/>
+      <c r="BI18" s="66"/>
+      <c r="BJ18" s="66"/>
+      <c r="BK18" s="66"/>
+      <c r="BL18" s="66"/>
+      <c r="BM18" s="66"/>
+      <c r="BN18" s="66"/>
+      <c r="BO18" s="66"/>
+      <c r="BP18" s="66"/>
+      <c r="BQ18" s="66"/>
+      <c r="BR18" s="66"/>
+      <c r="BS18" s="66"/>
+      <c r="BT18" s="66"/>
+      <c r="BU18" s="66"/>
+      <c r="BV18" s="66"/>
+      <c r="BW18" s="66"/>
+      <c r="BX18" s="66"/>
+      <c r="BY18" s="66"/>
+      <c r="BZ18" s="66"/>
+      <c r="CA18" s="66"/>
+      <c r="CB18" s="66"/>
+      <c r="CC18" s="66"/>
+      <c r="CD18" s="66"/>
+      <c r="CE18" s="66"/>
+      <c r="CF18" s="66"/>
     </row>
     <row r="19" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <v>1</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D19" s="62">
         <v>44493</v>
@@ -10719,13 +4746,13 @@
       <c r="AM19" s="37"/>
       <c r="AN19" s="37"/>
       <c r="AO19" s="65"/>
-      <c r="AP19" s="81">
+      <c r="AP19" s="74">
         <v>2</v>
       </c>
-      <c r="AQ19" s="81"/>
-      <c r="AR19" s="81"/>
-      <c r="AS19" s="81"/>
-      <c r="AT19" s="81"/>
+      <c r="AQ19" s="74"/>
+      <c r="AR19" s="74"/>
+      <c r="AS19" s="74"/>
+      <c r="AT19" s="74"/>
       <c r="AU19" s="37"/>
       <c r="AV19" s="65"/>
       <c r="AW19" s="65"/>
@@ -10768,10 +4795,10 @@
     <row r="20" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="23"/>
       <c r="B20" s="48" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D20" s="62">
         <v>44488</v>
@@ -10811,12 +4838,12 @@
       <c r="AH20" s="65"/>
       <c r="AI20" s="65"/>
       <c r="AJ20" s="37"/>
-      <c r="AK20" s="96">
+      <c r="AK20" s="81">
         <v>2</v>
       </c>
-      <c r="AL20" s="96"/>
-      <c r="AM20" s="96"/>
-      <c r="AN20" s="96"/>
+      <c r="AL20" s="81"/>
+      <c r="AM20" s="81"/>
+      <c r="AN20" s="81"/>
       <c r="AO20" s="65"/>
       <c r="AP20" s="65"/>
       <c r="AQ20" s="37"/>
@@ -10865,10 +4892,10 @@
     <row r="21" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="23"/>
       <c r="B21" s="48" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C21" s="49" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D21" s="62">
         <v>44491</v>
@@ -10908,16 +4935,14 @@
       <c r="AH21" s="65"/>
       <c r="AI21" s="65"/>
       <c r="AJ21" s="37"/>
-      <c r="AK21" s="68">
+      <c r="AK21" s="37"/>
+      <c r="AL21" s="37"/>
+      <c r="AM21" s="37"/>
+      <c r="AN21" s="81">
         <v>1</v>
       </c>
-      <c r="AL21" s="68"/>
-      <c r="AM21" s="68"/>
-      <c r="AN21" s="96">
-        <v>1</v>
-      </c>
-      <c r="AO21" s="96"/>
-      <c r="AP21" s="96"/>
+      <c r="AO21" s="81"/>
+      <c r="AP21" s="81"/>
       <c r="AQ21" s="37"/>
       <c r="AR21" s="37"/>
       <c r="AS21" s="37"/>
@@ -10964,10 +4989,10 @@
     <row r="22" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="23"/>
       <c r="B22" s="48" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C22" s="49" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D22" s="62">
         <v>44496</v>
@@ -11015,13 +5040,13 @@
       <c r="AP22" s="65"/>
       <c r="AQ22" s="37"/>
       <c r="AR22" s="37"/>
-      <c r="AS22" s="78">
+      <c r="AS22" s="71">
         <v>3</v>
       </c>
-      <c r="AT22" s="78"/>
-      <c r="AU22" s="78"/>
-      <c r="AV22" s="78"/>
-      <c r="AW22" s="78"/>
+      <c r="AT22" s="71"/>
+      <c r="AU22" s="71"/>
+      <c r="AV22" s="71"/>
+      <c r="AW22" s="71"/>
       <c r="AX22" s="37"/>
       <c r="AY22" s="37"/>
       <c r="AZ22" s="37"/>
@@ -11061,10 +5086,10 @@
     <row r="23" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="23"/>
       <c r="B23" s="48" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C23" s="49" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D23" s="62">
         <v>44494</v>
@@ -11110,11 +5135,11 @@
       <c r="AN23" s="37"/>
       <c r="AO23" s="65"/>
       <c r="AP23" s="65"/>
-      <c r="AQ23" s="82">
+      <c r="AQ23" s="75">
         <v>2</v>
       </c>
-      <c r="AR23" s="82"/>
-      <c r="AS23" s="82"/>
+      <c r="AR23" s="75"/>
+      <c r="AS23" s="75"/>
       <c r="AT23" s="37"/>
       <c r="AU23" s="37"/>
       <c r="AV23" s="65"/>
@@ -11158,10 +5183,10 @@
     <row r="24" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="23"/>
       <c r="B24" s="48" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="C24" s="49" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D24" s="62">
         <v>44499</v>
@@ -11212,12 +5237,12 @@
       <c r="AS24" s="37"/>
       <c r="AT24" s="37"/>
       <c r="AU24" s="37"/>
-      <c r="AV24" s="81">
+      <c r="AV24" s="74">
         <v>2</v>
       </c>
-      <c r="AW24" s="81"/>
-      <c r="AX24" s="81"/>
-      <c r="AY24" s="81"/>
+      <c r="AW24" s="74"/>
+      <c r="AX24" s="74"/>
+      <c r="AY24" s="74"/>
       <c r="AZ24" s="37"/>
       <c r="BA24" s="37"/>
       <c r="BB24" s="37"/>
@@ -11254,11 +5279,11 @@
     </row>
     <row r="25" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="23"/>
-      <c r="B25" s="77" t="s">
-        <v>26</v>
+      <c r="B25" s="82" t="s">
+        <v>59</v>
       </c>
       <c r="C25" s="49" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D25" s="62">
         <v>44497</v>
@@ -11307,12 +5332,12 @@
       <c r="AQ25" s="37"/>
       <c r="AR25" s="37"/>
       <c r="AS25" s="37"/>
-      <c r="AT25" s="66">
-        <v>2</v>
-      </c>
-      <c r="AU25" s="66"/>
-      <c r="AV25" s="66"/>
-      <c r="AW25" s="66"/>
+      <c r="AT25" s="95">
+        <v>3</v>
+      </c>
+      <c r="AU25" s="95"/>
+      <c r="AV25" s="95"/>
+      <c r="AW25" s="95"/>
       <c r="AX25" s="37"/>
       <c r="AY25" s="37"/>
       <c r="AZ25" s="37"/>
@@ -11351,11 +5376,11 @@
     </row>
     <row r="26" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="23"/>
-      <c r="B26" s="77" t="s">
-        <v>27</v>
+      <c r="B26" s="82" t="s">
+        <v>60</v>
       </c>
       <c r="C26" s="49" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="D26" s="62">
         <v>44491</v>
@@ -11398,11 +5423,11 @@
       <c r="AK26" s="37"/>
       <c r="AL26" s="37"/>
       <c r="AM26" s="37"/>
-      <c r="AN26" s="68">
+      <c r="AN26" s="95">
         <v>1</v>
       </c>
-      <c r="AO26" s="68"/>
-      <c r="AP26" s="68"/>
+      <c r="AO26" s="95"/>
+      <c r="AP26" s="95"/>
       <c r="AQ26" s="37"/>
       <c r="AR26" s="37"/>
       <c r="AS26" s="37"/>
@@ -11448,11 +5473,11 @@
     </row>
     <row r="27" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="23"/>
-      <c r="B27" s="79" t="s">
-        <v>50</v>
+      <c r="B27" s="72" t="s">
+        <v>40</v>
       </c>
       <c r="C27" s="49" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D27" s="62">
         <v>44497</v>
@@ -11501,14 +5526,14 @@
       <c r="AQ27" s="37"/>
       <c r="AR27" s="37"/>
       <c r="AS27" s="37"/>
-      <c r="AT27" s="78">
+      <c r="AT27" s="71">
         <v>3</v>
       </c>
-      <c r="AU27" s="78"/>
-      <c r="AV27" s="78"/>
-      <c r="AW27" s="78"/>
-      <c r="AX27" s="78"/>
-      <c r="AY27" s="78"/>
+      <c r="AU27" s="71"/>
+      <c r="AV27" s="71"/>
+      <c r="AW27" s="71"/>
+      <c r="AX27" s="71"/>
+      <c r="AY27" s="71"/>
       <c r="AZ27" s="37"/>
       <c r="BA27" s="37"/>
       <c r="BB27" s="37"/>
@@ -11545,11 +5570,11 @@
     </row>
     <row r="28" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="23"/>
-      <c r="B28" s="97" t="s">
-        <v>63</v>
+      <c r="B28" s="82" t="s">
+        <v>53</v>
       </c>
       <c r="C28" s="49" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D28" s="62">
         <v>44494</v>
@@ -11595,22 +5620,20 @@
       <c r="AN28" s="37"/>
       <c r="AO28" s="65"/>
       <c r="AP28" s="65"/>
-      <c r="AQ28" s="96">
+      <c r="AQ28" s="81">
         <v>2</v>
       </c>
-      <c r="AR28" s="96"/>
-      <c r="AS28" s="96"/>
-      <c r="AT28" s="96"/>
-      <c r="AU28" s="96"/>
+      <c r="AR28" s="81"/>
+      <c r="AS28" s="81"/>
+      <c r="AT28" s="81"/>
+      <c r="AU28" s="81"/>
       <c r="AV28" s="65"/>
       <c r="AW28" s="65"/>
-      <c r="AX28" s="74">
-        <v>2</v>
-      </c>
-      <c r="AY28" s="74"/>
-      <c r="AZ28" s="74"/>
-      <c r="BA28" s="74"/>
-      <c r="BB28" s="74"/>
+      <c r="AX28" s="37"/>
+      <c r="AY28" s="37"/>
+      <c r="AZ28" s="37"/>
+      <c r="BA28" s="37"/>
+      <c r="BB28" s="37"/>
       <c r="BC28" s="65"/>
       <c r="BD28" s="65"/>
       <c r="BE28" s="37"/>
@@ -11644,11 +5667,11 @@
     </row>
     <row r="29" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="23"/>
-      <c r="B29" s="97" t="s">
-        <v>64</v>
+      <c r="B29" s="82" t="s">
+        <v>54</v>
       </c>
       <c r="C29" s="49" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D29" s="62">
         <v>44494</v>
@@ -11694,11 +5717,11 @@
       <c r="AN29" s="37"/>
       <c r="AO29" s="65"/>
       <c r="AP29" s="65"/>
-      <c r="AQ29" s="92">
+      <c r="AQ29" s="79">
         <v>1</v>
       </c>
-      <c r="AR29" s="92"/>
-      <c r="AS29" s="92"/>
+      <c r="AR29" s="79"/>
+      <c r="AS29" s="79"/>
       <c r="AT29" s="37"/>
       <c r="AU29" s="37"/>
       <c r="AV29" s="65"/>
@@ -11741,11 +5764,11 @@
     </row>
     <row r="30" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="23"/>
-      <c r="B30" s="79" t="s">
-        <v>57</v>
+      <c r="B30" s="72" t="s">
+        <v>47</v>
       </c>
       <c r="C30" s="49" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D30" s="62">
         <v>44502</v>
@@ -11799,12 +5822,12 @@
       <c r="AV30" s="65"/>
       <c r="AW30" s="65"/>
       <c r="AX30" s="37"/>
-      <c r="AY30" s="80">
+      <c r="AY30" s="73">
         <v>2</v>
       </c>
-      <c r="AZ30" s="80"/>
-      <c r="BA30" s="80"/>
-      <c r="BB30" s="80"/>
+      <c r="AZ30" s="73"/>
+      <c r="BA30" s="73"/>
+      <c r="BB30" s="73"/>
       <c r="BC30" s="65"/>
       <c r="BD30" s="65"/>
       <c r="BE30" s="37"/>
@@ -11838,11 +5861,11 @@
     </row>
     <row r="31" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="23"/>
-      <c r="B31" s="79" t="s">
-        <v>60</v>
+      <c r="B31" s="72" t="s">
+        <v>50</v>
       </c>
       <c r="C31" s="49" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D31" s="62">
         <v>44497</v>
@@ -11891,13 +5914,13 @@
       <c r="AQ31" s="37"/>
       <c r="AR31" s="37"/>
       <c r="AS31" s="37"/>
-      <c r="AT31" s="82">
+      <c r="AT31" s="75">
         <v>3</v>
       </c>
-      <c r="AU31" s="82"/>
-      <c r="AV31" s="82"/>
-      <c r="AW31" s="82"/>
-      <c r="AX31" s="82"/>
+      <c r="AU31" s="75"/>
+      <c r="AV31" s="75"/>
+      <c r="AW31" s="75"/>
+      <c r="AX31" s="75"/>
       <c r="AY31" s="37"/>
       <c r="AZ31" s="37"/>
       <c r="BA31" s="37"/>
@@ -11935,11 +5958,11 @@
     </row>
     <row r="32" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="23"/>
-      <c r="B32" s="97" t="s">
-        <v>65</v>
+      <c r="B32" s="82" t="s">
+        <v>55</v>
       </c>
       <c r="C32" s="49" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D32" s="62">
         <v>44497</v>
@@ -11989,15 +6012,13 @@
       <c r="AR32" s="37"/>
       <c r="AS32" s="37"/>
       <c r="AT32" s="37"/>
-      <c r="AU32" s="92">
+      <c r="AU32" s="79">
         <v>1</v>
       </c>
-      <c r="AV32" s="92"/>
-      <c r="AW32" s="92"/>
-      <c r="AX32" s="73">
-        <v>2</v>
-      </c>
-      <c r="AY32" s="73"/>
+      <c r="AV32" s="79"/>
+      <c r="AW32" s="79"/>
+      <c r="AX32" s="37"/>
+      <c r="AY32" s="37"/>
       <c r="AZ32" s="37"/>
       <c r="BA32" s="37"/>
       <c r="BB32" s="37"/>
@@ -12034,11 +6055,11 @@
     </row>
     <row r="33" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="23"/>
-      <c r="B33" s="77" t="s">
-        <v>28</v>
+      <c r="B33" s="70" t="s">
+        <v>22</v>
       </c>
       <c r="C33" s="49" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D33" s="62">
         <v>44502</v>
@@ -12092,12 +6113,12 @@
       <c r="AV33" s="65"/>
       <c r="AW33" s="65"/>
       <c r="AX33" s="37"/>
-      <c r="AY33" s="73">
+      <c r="AY33" s="96">
         <v>2</v>
       </c>
-      <c r="AZ33" s="73"/>
-      <c r="BA33" s="73"/>
-      <c r="BB33" s="73"/>
+      <c r="AZ33" s="96"/>
+      <c r="BA33" s="96"/>
+      <c r="BB33" s="96"/>
       <c r="BC33" s="65"/>
       <c r="BD33" s="65"/>
       <c r="BE33" s="37"/>
@@ -12131,11 +6152,11 @@
     </row>
     <row r="34" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="23"/>
-      <c r="B34" s="79" t="s">
-        <v>61</v>
+      <c r="B34" s="72" t="s">
+        <v>51</v>
       </c>
       <c r="C34" s="49" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D34" s="62">
         <v>44502</v>
@@ -12189,13 +6210,13 @@
       <c r="AV34" s="65"/>
       <c r="AW34" s="65"/>
       <c r="AX34" s="37"/>
-      <c r="AY34" s="82">
+      <c r="AY34" s="75">
         <v>3</v>
       </c>
-      <c r="AZ34" s="82"/>
-      <c r="BA34" s="82"/>
-      <c r="BB34" s="82"/>
-      <c r="BC34" s="82"/>
+      <c r="AZ34" s="75"/>
+      <c r="BA34" s="75"/>
+      <c r="BB34" s="75"/>
+      <c r="BC34" s="75"/>
       <c r="BD34" s="37"/>
       <c r="BE34" s="37"/>
       <c r="BF34" s="37"/>
@@ -12228,11 +6249,11 @@
     </row>
     <row r="35" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
-      <c r="B35" s="77" t="s">
-        <v>29</v>
+      <c r="B35" s="70" t="s">
+        <v>23</v>
       </c>
       <c r="C35" s="49" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D35" s="62">
         <v>44501</v>
@@ -12285,12 +6306,12 @@
       <c r="AU35" s="37"/>
       <c r="AV35" s="65"/>
       <c r="AW35" s="65"/>
-      <c r="AX35" s="78">
+      <c r="AX35" s="71">
         <v>2</v>
       </c>
-      <c r="AY35" s="78"/>
-      <c r="AZ35" s="78"/>
-      <c r="BA35" s="78"/>
+      <c r="AY35" s="71"/>
+      <c r="AZ35" s="71"/>
+      <c r="BA35" s="71"/>
       <c r="BB35" s="37"/>
       <c r="BC35" s="65"/>
       <c r="BD35" s="65"/>
@@ -12325,11 +6346,11 @@
     </row>
     <row r="36" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="23"/>
-      <c r="B36" s="97" t="s">
-        <v>66</v>
+      <c r="B36" s="82" t="s">
+        <v>56</v>
       </c>
       <c r="C36" s="49" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D36" s="62">
         <v>44501</v>
@@ -12382,12 +6403,12 @@
       <c r="AU36" s="37"/>
       <c r="AV36" s="65"/>
       <c r="AW36" s="65"/>
-      <c r="AX36" s="96">
+      <c r="AX36" s="81">
         <v>2</v>
       </c>
-      <c r="AY36" s="96"/>
-      <c r="AZ36" s="96"/>
-      <c r="BA36" s="96"/>
+      <c r="AY36" s="81"/>
+      <c r="AZ36" s="81"/>
+      <c r="BA36" s="81"/>
       <c r="BB36" s="37"/>
       <c r="BC36" s="65"/>
       <c r="BD36" s="65"/>
@@ -12422,11 +6443,11 @@
     </row>
     <row r="37" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="23"/>
-      <c r="B37" s="79" t="s">
-        <v>55</v>
+      <c r="B37" s="72" t="s">
+        <v>45</v>
       </c>
       <c r="C37" s="49" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D37" s="62">
         <v>44503</v>
@@ -12481,11 +6502,11 @@
       <c r="AW37" s="65"/>
       <c r="AX37" s="37"/>
       <c r="AY37" s="37"/>
-      <c r="BA37" s="80">
+      <c r="BA37" s="73">
         <v>1</v>
       </c>
-      <c r="BB37" s="80"/>
-      <c r="BC37" s="80"/>
+      <c r="BB37" s="73"/>
+      <c r="BC37" s="73"/>
       <c r="BD37" s="65"/>
       <c r="BE37" s="37"/>
       <c r="BF37" s="37"/>
@@ -12518,11 +6539,11 @@
     </row>
     <row r="38" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="23"/>
-      <c r="B38" s="77" t="s">
-        <v>30</v>
+      <c r="B38" s="82" t="s">
+        <v>61</v>
       </c>
       <c r="C38" s="49" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="D38" s="62">
         <v>44494</v>
@@ -12568,12 +6589,12 @@
       <c r="AN38" s="37"/>
       <c r="AO38" s="65"/>
       <c r="AP38" s="65"/>
-      <c r="AQ38" s="80">
+      <c r="AQ38" s="96">
         <v>2</v>
       </c>
-      <c r="AR38" s="80"/>
-      <c r="AS38" s="80"/>
-      <c r="AT38" s="80"/>
+      <c r="AR38" s="96"/>
+      <c r="AS38" s="96"/>
+      <c r="AT38" s="96"/>
       <c r="AU38" s="37"/>
       <c r="AV38" s="65"/>
       <c r="AW38" s="65"/>
@@ -12615,11 +6636,11 @@
     </row>
     <row r="39" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="23"/>
-      <c r="B39" s="77" t="s">
-        <v>31</v>
+      <c r="B39" s="70" t="s">
+        <v>24</v>
       </c>
       <c r="C39" s="49" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D39" s="62">
         <v>44497</v>
@@ -12668,12 +6689,12 @@
       <c r="AQ39" s="37"/>
       <c r="AR39" s="37"/>
       <c r="AS39" s="37"/>
-      <c r="AT39" s="72">
+      <c r="AT39" s="68">
         <v>2</v>
       </c>
-      <c r="AU39" s="72"/>
-      <c r="AV39" s="72"/>
-      <c r="AW39" s="72"/>
+      <c r="AU39" s="68"/>
+      <c r="AV39" s="68"/>
+      <c r="AW39" s="68"/>
       <c r="AX39" s="37"/>
       <c r="AY39" s="37"/>
       <c r="AZ39" s="37"/>
@@ -12712,8 +6733,8 @@
     </row>
     <row r="40" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="23"/>
-      <c r="B40" s="77" t="s">
-        <v>32</v>
+      <c r="B40" s="70" t="s">
+        <v>25</v>
       </c>
       <c r="C40" s="49" t="s">
         <v>9</v>
@@ -12772,11 +6793,11 @@
       <c r="AX40" s="37"/>
       <c r="AY40" s="37"/>
       <c r="AZ40" s="37"/>
-      <c r="BA40" s="75">
+      <c r="BA40" s="97">
         <v>1</v>
       </c>
-      <c r="BB40" s="75"/>
-      <c r="BC40" s="75"/>
+      <c r="BB40" s="97"/>
+      <c r="BC40" s="97"/>
       <c r="BD40" s="65"/>
       <c r="BE40" s="37"/>
       <c r="BF40" s="37"/>
@@ -12810,10 +6831,10 @@
     <row r="41" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="23"/>
       <c r="B41" s="48" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C41" s="49" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="D41" s="62">
         <v>44507</v>
@@ -12872,7 +6893,7 @@
       <c r="BA41" s="37"/>
       <c r="BB41" s="37"/>
       <c r="BC41" s="65"/>
-      <c r="BD41" s="72">
+      <c r="BD41" s="98">
         <v>1</v>
       </c>
       <c r="BE41" s="37"/>
@@ -12998,10 +7019,10 @@
     <row r="43" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="23"/>
       <c r="B43" s="46" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C43" s="47" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D43" s="63">
         <v>44515</v>
@@ -13071,13 +7092,13 @@
       <c r="BI43" s="37"/>
       <c r="BJ43" s="65"/>
       <c r="BK43" s="65"/>
-      <c r="BL43" s="82">
+      <c r="BL43" s="75">
         <v>1</v>
       </c>
-      <c r="BM43" s="82"/>
-      <c r="BN43" s="82"/>
-      <c r="BO43" s="82"/>
-      <c r="BP43" s="82"/>
+      <c r="BM43" s="75"/>
+      <c r="BN43" s="75"/>
+      <c r="BO43" s="75"/>
+      <c r="BP43" s="75"/>
       <c r="BQ43" s="65"/>
       <c r="BR43" s="65"/>
       <c r="BS43" s="37"/>
@@ -13098,10 +7119,10 @@
     <row r="44" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="23"/>
       <c r="B44" s="46" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C44" s="47" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D44" s="63">
         <v>44515</v>
@@ -13168,14 +7189,14 @@
       <c r="BI44" s="37"/>
       <c r="BJ44" s="65"/>
       <c r="BK44" s="65"/>
-      <c r="BL44" s="78">
+      <c r="BL44" s="71">
         <v>2</v>
       </c>
-      <c r="BM44" s="78"/>
-      <c r="BN44" s="78"/>
-      <c r="BO44" s="78"/>
-      <c r="BP44" s="78"/>
-      <c r="BQ44" s="78"/>
+      <c r="BM44" s="71"/>
+      <c r="BN44" s="71"/>
+      <c r="BO44" s="71"/>
+      <c r="BP44" s="71"/>
+      <c r="BQ44" s="71"/>
       <c r="BR44" s="65"/>
       <c r="BS44" s="37"/>
       <c r="BT44" s="37"/>
@@ -13195,10 +7216,10 @@
     <row r="45" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="23"/>
       <c r="B45" s="46" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C45" s="47" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D45" s="63">
         <v>44515</v>
@@ -13265,13 +7286,13 @@
       <c r="BI45" s="37"/>
       <c r="BJ45" s="65"/>
       <c r="BK45" s="65"/>
-      <c r="BL45" s="96">
+      <c r="BL45" s="81">
         <v>2</v>
       </c>
-      <c r="BM45" s="96"/>
-      <c r="BN45" s="96"/>
-      <c r="BO45" s="96"/>
-      <c r="BP45" s="96"/>
+      <c r="BM45" s="81"/>
+      <c r="BN45" s="81"/>
+      <c r="BO45" s="81"/>
+      <c r="BP45" s="81"/>
       <c r="BQ45" s="65"/>
       <c r="BR45" s="65"/>
       <c r="BS45" s="37"/>
@@ -13292,10 +7313,10 @@
     <row r="46" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="23"/>
       <c r="B46" s="46" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C46" s="47" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D46" s="63">
         <v>44522</v>
@@ -13368,8 +7389,8 @@
       <c r="BP46" s="37"/>
       <c r="BQ46" s="65"/>
       <c r="BR46" s="65"/>
-      <c r="BS46" s="78" t="s">
-        <v>51</v>
+      <c r="BS46" s="71" t="s">
+        <v>41</v>
       </c>
       <c r="BT46" s="37"/>
       <c r="BU46" s="37"/>
@@ -13388,10 +7409,10 @@
     <row r="47" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="23"/>
       <c r="B47" s="46" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C47" s="47" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D47" s="63">
         <v>44522</v>
@@ -13464,8 +7485,8 @@
       <c r="BP47" s="37"/>
       <c r="BQ47" s="65"/>
       <c r="BR47" s="65"/>
-      <c r="BS47" s="73">
-        <v>1</v>
+      <c r="BS47" s="96" t="s">
+        <v>64</v>
       </c>
       <c r="BT47" s="37"/>
       <c r="BU47" s="37"/>
@@ -13484,10 +7505,10 @@
     <row r="48" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="23"/>
       <c r="B48" s="46" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C48" s="47" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="D48" s="63">
         <v>44523</v>
@@ -13561,8 +7582,8 @@
       <c r="BQ48" s="65"/>
       <c r="BR48" s="65"/>
       <c r="BS48" s="37"/>
-      <c r="BT48" s="72">
-        <v>1</v>
+      <c r="BT48" s="96" t="s">
+        <v>64</v>
       </c>
       <c r="BU48" s="37"/>
       <c r="BV48" s="37"/>
@@ -13580,10 +7601,10 @@
     <row r="49" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="23"/>
       <c r="B49" s="46" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C49" s="47" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D49" s="63">
         <v>44525</v>
@@ -13659,8 +7680,8 @@
       <c r="BS49" s="37"/>
       <c r="BT49" s="37"/>
       <c r="BU49" s="37"/>
-      <c r="BV49" s="78" t="s">
-        <v>51</v>
+      <c r="BV49" s="71" t="s">
+        <v>41</v>
       </c>
       <c r="BW49" s="37"/>
       <c r="BX49" s="65"/>
@@ -13676,10 +7697,10 @@
     <row r="50" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="23"/>
       <c r="B50" s="46" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C50" s="47" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D50" s="63">
         <v>44524</v>
@@ -13754,7 +7775,7 @@
       <c r="BR50" s="65"/>
       <c r="BS50" s="37"/>
       <c r="BT50" s="37"/>
-      <c r="BU50" s="85">
+      <c r="BU50" s="78">
         <v>0.3</v>
       </c>
       <c r="BV50" s="37"/>
@@ -13772,10 +7793,10 @@
     <row r="51" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="23"/>
       <c r="B51" s="46" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C51" s="47" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D51" s="63">
         <v>44526</v>
@@ -13852,8 +7873,8 @@
       <c r="BT51" s="37"/>
       <c r="BU51" s="37"/>
       <c r="BV51" s="37"/>
-      <c r="BW51" s="78" t="s">
-        <v>51</v>
+      <c r="BW51" s="71" t="s">
+        <v>41</v>
       </c>
       <c r="BX51" s="65"/>
       <c r="BY51" s="65"/>
@@ -13868,10 +7889,10 @@
     <row r="52" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="23"/>
       <c r="B52" s="46" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C52" s="47" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="D52" s="63">
         <v>44523</v>
@@ -13945,8 +7966,8 @@
       <c r="BQ52" s="65"/>
       <c r="BR52" s="65"/>
       <c r="BS52" s="37"/>
-      <c r="BT52" s="74">
-        <v>1</v>
+      <c r="BT52" s="96" t="s">
+        <v>64</v>
       </c>
       <c r="BU52" s="37"/>
       <c r="BV52" s="37"/>
@@ -13964,10 +7985,10 @@
     <row r="53" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="23"/>
       <c r="B53" s="46" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C53" s="47" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D53" s="63">
         <v>44524</v>
@@ -14042,7 +8063,7 @@
       <c r="BR53" s="65"/>
       <c r="BS53" s="37"/>
       <c r="BT53" s="37"/>
-      <c r="BU53" s="80">
+      <c r="BU53" s="73">
         <v>1</v>
       </c>
       <c r="BV53" s="37"/>
@@ -14060,10 +8081,10 @@
     <row r="54" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="23"/>
       <c r="B54" s="46" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C54" s="47" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D54" s="63">
         <v>44526</v>
@@ -14140,8 +8161,8 @@
       <c r="BT54" s="37"/>
       <c r="BU54" s="37"/>
       <c r="BV54" s="37"/>
-      <c r="BW54" s="78" t="s">
-        <v>51</v>
+      <c r="BW54" s="71" t="s">
+        <v>41</v>
       </c>
       <c r="BX54" s="65"/>
       <c r="BY54" s="65"/>
@@ -14156,10 +8177,10 @@
     <row r="55" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="23"/>
       <c r="B55" s="46" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C55" s="47" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="D55" s="63">
         <v>44526</v>
@@ -14237,7 +8258,7 @@
       <c r="BT55" s="37"/>
       <c r="BU55" s="37"/>
       <c r="BV55" s="37"/>
-      <c r="BW55" s="67">
+      <c r="BW55" s="95">
         <v>1</v>
       </c>
       <c r="BX55" s="65"/>
@@ -14342,7 +8363,7 @@
     <row r="57" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="23"/>
       <c r="B57" s="40" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C57" s="41"/>
       <c r="D57" s="42"/>
@@ -14439,11 +8460,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="BL4:BR4"/>
-    <mergeCell ref="BS4:BY4"/>
-    <mergeCell ref="BZ4:CF4"/>
-    <mergeCell ref="AX4:BD4"/>
-    <mergeCell ref="BE4:BK4"/>
     <mergeCell ref="AJ4:AP4"/>
     <mergeCell ref="AQ4:AW4"/>
     <mergeCell ref="D3:E3"/>
@@ -14452,524 +8468,516 @@
     <mergeCell ref="V4:AB4"/>
     <mergeCell ref="AC4:AI4"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="BL4:BR4"/>
+    <mergeCell ref="BS4:BY4"/>
+    <mergeCell ref="BZ4:CF4"/>
+    <mergeCell ref="AX4:BD4"/>
+    <mergeCell ref="BE4:BK4"/>
   </mergeCells>
-  <conditionalFormatting sqref="H56:BX57 BZ56:CE57 H5:BX6 BZ6:CE6 H7:S7 V7:Z9 AC7:AG9 AJ7:AN9 AQ7:AU9 AX7:BB9 BE7:BI9 BL7:BP9 BS7:BW9 BZ7:CD9 H9:Q9 H8:M8 R8:S8 AJ22:AN23 AJ25:AN25 AJ24:AK24">
-    <cfRule type="expression" dxfId="740" priority="203">
+  <conditionalFormatting sqref="H56:BX57 BZ56:CE57 H5:BX6 BZ6:CE6 V7:Z7 AC7:AG9 AJ7:AN9 AQ7:AU9 AX7:BB9 BE7:BI9 BL7:BP9 BS7:BW9 BZ7:CD9 AJ22:AN23 AJ25:AN25 AJ24:AK24 X8:Z9 N7:S7 H7:M8 N8:R8 H9:T9">
+    <cfRule type="expression" dxfId="2" priority="203">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H56:BX57 BZ56:CE57 H6:BX6 BZ6:CE6 H7:S7 V7:Z9 AC7:AG9 AJ7:AN9 AQ7:AU9 AX7:BB9 BE7:BI9 BL7:BP9 BS7:BW9 BZ7:CD9 H9:Q9 H8:M8 R8:S8 AJ22:AN23 AJ25:AN25 AJ24:AK24">
-    <cfRule type="expression" dxfId="739" priority="197">
+  <conditionalFormatting sqref="H56:BX57 BZ56:CE57 H6:BX6 BZ6:CE6 V7:Z7 AC7:AG9 AJ7:AN9 AQ7:AU9 AX7:BB9 BE7:BI9 BL7:BP9 BS7:BW9 BZ7:CD9 AJ22:AN23 AJ25:AN25 AJ24:AK24 X8:Z9 N7:S7 H7:M8 N8:R8 H9:T9">
+    <cfRule type="expression" dxfId="1" priority="197">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="738" priority="198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="198" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ5:CF5 BY56:BY57 CF56:CF57 BY5:BY6 CF6">
-    <cfRule type="expression" dxfId="737" priority="205">
+    <cfRule type="expression" dxfId="143" priority="205">
       <formula>AND(TODAY()&gt;=BY$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY56:BY57 CF56:CF57 BY6 CF6">
-    <cfRule type="expression" dxfId="736" priority="208">
+    <cfRule type="expression" dxfId="142" priority="208">
       <formula>AND(task_start&lt;=BY$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BY$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="735" priority="209" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="209" stopIfTrue="1">
       <formula>AND(task_end&gt;=BY$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:S10 BZ10:CD10 V10:Z10 AC10:AG10 AJ10:AN10 AQ10:AU10 AX10:BB10 BE10:BI10 BL10:BP10 BS10:BW10">
-    <cfRule type="expression" dxfId="734" priority="154">
+    <cfRule type="expression" dxfId="140" priority="154">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:S10 BZ10:CD10 V10:Z10 AC10:AG10 AJ10:AN10 AQ10:AU10 AX10:BB10 BE10:BI10 BL10:BP10 BS10:BW10">
-    <cfRule type="expression" dxfId="733" priority="152">
+    <cfRule type="expression" dxfId="139" priority="152">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="732" priority="153" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="153" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ11:CD17 V13:Z13 AC11:AG12 AJ11:AN17 AQ11:AU17 AX11:BB17 BE11:BI17 BL11:BP17 BS11:BW17 H11:S17 V16:Z17 AC17:AF17 V11:V12 V14:W15 Y14:Z14 AF13:AG15">
-    <cfRule type="expression" dxfId="731" priority="148">
+  <conditionalFormatting sqref="BZ11:CD17 V13:Z13 AC11:AG12 AJ11:AN17 AQ11:AU17 AX11:BB17 BE11:BI17 BL11:BP17 BS11:BW17 H11:S17 V16:Z17 AC17:AE17 V11:V12 V14:W15 Y14:Z14 AF13:AG15">
+    <cfRule type="expression" dxfId="5" priority="148">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ11:CD17 V13:Z13 AC11:AG12 AJ11:AN17 AQ11:AU17 AX11:BB17 BE11:BI17 BL11:BP17 BS11:BW17 H11:S17 V16:Z17 AC17:AF17 V11:V12 V14:W15 Y14:Z14 AF13:AG15">
-    <cfRule type="expression" dxfId="730" priority="146">
+  <conditionalFormatting sqref="BZ11:CD17 V13:Z13 AC11:AG12 AJ11:AN17 AQ11:AU17 AX11:BB17 BE11:BI17 BL11:BP17 BS11:BW17 H11:S17 V16:Z17 AC17:AE17 V11:V12 V14:W15 Y14:Z14 AF13:AG15">
+    <cfRule type="expression" dxfId="4" priority="146">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="729" priority="147" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="147" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:S18 BZ18:CD18 V18:Z18 AC18:AG18 AJ18:AN18 AQ18:AU18 AX18:BB18 BE18:BI18 BL18:BP18 BS18:BW18">
-    <cfRule type="expression" dxfId="728" priority="142">
+    <cfRule type="expression" dxfId="137" priority="142">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:S18 BZ18:CD18 V18:Z18 AC18:AG18 AJ18:AN18 AQ18:AU18 AX18:BB18 BE18:BI18 BL18:BP18 BS18:BW18">
-    <cfRule type="expression" dxfId="727" priority="140">
+    <cfRule type="expression" dxfId="136" priority="140">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="726" priority="141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="141" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42:L42 BZ42:CD42 V42:Z42 O42:S42 AC42:AG42 AJ42:AN42 AQ42:AU42 AX42:BB42 BE42:BI42 BL42:BP42 BS42:BW42">
-    <cfRule type="expression" dxfId="725" priority="136">
+    <cfRule type="expression" dxfId="134" priority="136">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42:L42 BZ42:CD42 V42:Z42 O42:S42 AC42:AG42 AJ42:AN42 AQ42:AU42 AX42:BB42 BE42:BI42 BL42:BP42 BS42:BW42">
-    <cfRule type="expression" dxfId="724" priority="134">
+    <cfRule type="expression" dxfId="133" priority="134">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="723" priority="135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="135" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19:S40 BZ19:CD41 V19:Z41 M42:M55 H41:M41 O41:S41 N41:N55 AC19:AG41 AJ19:AN19 AQ20:AU21 AX19:BB22 BL19:BP41 BS19:BW41 AU19 AJ20:AJ21 AJ27:AN41 AJ26:AM26 AQ30:AU30 AT29:AU29 AQ36:AU37 AQ35:AS35 AQ26:AU26 AQ25:AS25 AT23:AU23 AQ22:AR22 AX25:BB26 BA23:BB23 AX41:BB41 AX40:AY40 AZ27:BB27 AQ27:AS27 AZ32:BB32 BE19:BI33 AX30 AQ40:AU41 AU38 AQ39:AS39 AX38:BB39 AX37:AY37 AX33:AX34 AX29:BB29 AZ24:BB24 BE35:BI41 BI34 AQ33:AU34 AQ31:AS32">
-    <cfRule type="expression" dxfId="722" priority="130">
+  <conditionalFormatting sqref="H19:S40 BZ19:CD41 V19:Z41 M42:M55 H41:M41 O41:S41 N41:N55 AC19:AG41 AJ19:AN19 AQ20:AU21 AX19:BB22 BL19:BP41 BS19:BW41 AU19 AJ20:AJ21 AJ27:AN41 AJ26:AM26 AQ30:AU30 AT29:AU29 AQ36:AU37 AQ35:AS35 AQ26:AU26 AQ25:AS25 AT23:AU23 AQ22:AR22 AX25:BB26 BA23:BB23 AX41:BB41 AX40:AY40 AZ27:BB27 AQ27:AS27 BE19:BI33 AX30 AQ40:AU41 AU38 AQ39:AS39 AX38:BB39 AX37:AY37 AX33:AX34 AZ24:BB24 BE35:BI41 BI34 AQ33:AU34 AQ31:AS32 AK21:AM21 AX28:BB29 AX32:BB32">
+    <cfRule type="expression" dxfId="131" priority="130">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19:S40 BZ19:CD41 V19:Z41 M42:M55 H41:M41 O41:S41 N41:N55 AC19:AG41 AJ19:AN19 AQ20:AU21 AX19:BB22 BL19:BP41 BS19:BW41 AU19 AJ20:AJ21 AJ27:AN41 AJ26:AM26 AQ30:AU30 AT29:AU29 AQ36:AU37 AQ35:AS35 AQ26:AU26 AQ25:AS25 AT23:AU23 AQ22:AR22 AX25:BB26 BA23:BB23 AX41:BB41 AX40:AY40 AZ27:BB27 AQ27:AS27 AZ32:BB32 BE19:BI33 AX30 AQ40:AU41 AU38 AQ39:AS39 AX38:BB39 AX37:AY37 AX33:AX34 AX29:BB29 AZ24:BB24 BE35:BI41 BI34 AQ33:AU34 AQ31:AS32">
-    <cfRule type="expression" dxfId="721" priority="128">
+  <conditionalFormatting sqref="H19:S40 BZ19:CD41 V19:Z41 M42:M55 H41:M41 O41:S41 N41:N55 AC19:AG41 AJ19:AN19 AQ20:AU21 AX19:BB22 BL19:BP41 BS19:BW41 AU19 AJ20:AJ21 AJ27:AN41 AJ26:AM26 AQ30:AU30 AT29:AU29 AQ36:AU37 AQ35:AS35 AQ26:AU26 AQ25:AS25 AT23:AU23 AQ22:AR22 AX25:BB26 BA23:BB23 AX41:BB41 AX40:AY40 AZ27:BB27 AQ27:AS27 BE19:BI33 AX30 AQ40:AU41 AU38 AQ39:AS39 AX38:BB39 AX37:AY37 AX33:AX34 AZ24:BB24 BE35:BI41 BI34 AQ33:AU34 AQ31:AS32 AK21:AM21 AX28:BB29 AX32:BB32">
+    <cfRule type="expression" dxfId="130" priority="128">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="720" priority="129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="129" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43:L55 BZ43:CD55 V43:Z55 O43:S55 AC43:AG55 AJ43:AN55 AQ43:AU55 AX43:BB55 BE43:BI55 BS55:BV55 BL46:BP55 BS43:BW45 BT46:BW47 BS49:BU49 BS48 BU48:BW48 BS52 BS54:BU54 BS50:BT51 BV50:BW50 BW49 BS53:BT53 BV53:BW53 BU52:BW52 BV51">
-    <cfRule type="expression" dxfId="719" priority="124">
+    <cfRule type="expression" dxfId="128" priority="124">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43:L55 BZ43:CD55 V43:Z55 O43:S55 AC43:AG55 AJ43:AN55 AQ43:AU55 AX43:BB55 BE43:BI55 BS55:BV55 BL46:BP55 BS43:BW45 BT46:BW47 BS49:BU49 BS48 BU48:BW48 BS52 BS54:BU54 BS50:BT51 BV50:BW50 BW49 BS53:BT53 BV53:BW53 BU52:BW52 BV51">
-    <cfRule type="expression" dxfId="718" priority="122">
+    <cfRule type="expression" dxfId="127" priority="122">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="717" priority="123" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="123" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T7:U55">
-    <cfRule type="expression" dxfId="716" priority="115">
+  <conditionalFormatting sqref="T7:U7 T10:U55">
+    <cfRule type="expression" dxfId="125" priority="115">
       <formula>AND(TODAY()&gt;=T$5,TODAY()&lt;U$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T7:U55">
-    <cfRule type="expression" dxfId="715" priority="113">
+  <conditionalFormatting sqref="T7:U7 T10:U55">
+    <cfRule type="expression" dxfId="124" priority="113">
       <formula>AND(task_start&lt;=T$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=T$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="714" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="114" stopIfTrue="1">
       <formula>AND(task_end&gt;=T$5,task_start&lt;U$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA7:AB10 AA17:AB55 AA12:AB13 AA14">
-    <cfRule type="expression" dxfId="713" priority="112">
+  <conditionalFormatting sqref="AA7:AB10 AA12:AB13 AA14 AA16:AB55">
+    <cfRule type="expression" dxfId="122" priority="112">
       <formula>AND(TODAY()&gt;=AA$5,TODAY()&lt;AB$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA7:AB10 AA17:AB55 AA12:AB13 AA14">
-    <cfRule type="expression" dxfId="712" priority="110">
+  <conditionalFormatting sqref="AA7:AB10 AA12:AB13 AA14 AA16:AB55">
+    <cfRule type="expression" dxfId="121" priority="110">
       <formula>AND(task_start&lt;=AA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AA$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="711" priority="111" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="111" stopIfTrue="1">
       <formula>AND(task_end&gt;=AA$5,task_start&lt;AB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH7:AI55">
-    <cfRule type="expression" dxfId="710" priority="109">
+    <cfRule type="expression" dxfId="119" priority="109">
       <formula>AND(TODAY()&gt;=AH$5,TODAY()&lt;AI$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH7:AI55">
-    <cfRule type="expression" dxfId="709" priority="107">
+    <cfRule type="expression" dxfId="118" priority="107">
       <formula>AND(task_start&lt;=AH$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AH$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="708" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="108" stopIfTrue="1">
       <formula>AND(task_end&gt;=AH$5,task_start&lt;AI$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO7:AP18 AO20:AP20 AO19 AO27:AP55 AO22:AP25">
-    <cfRule type="expression" dxfId="707" priority="106">
+    <cfRule type="expression" dxfId="116" priority="106">
       <formula>AND(TODAY()&gt;=AO$5,TODAY()&lt;AP$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO7:AP18 AO20:AP20 AO19 AO27:AP55 AO22:AP25">
-    <cfRule type="expression" dxfId="706" priority="104">
+    <cfRule type="expression" dxfId="115" priority="104">
       <formula>AND(task_start&lt;=AO$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AO$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="705" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="105" stopIfTrue="1">
       <formula>AND(task_end&gt;=AO$5,task_start&lt;AP$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV7:AW21 AV36:AW38 AW35 AV26:AW26 AV23:AW23 AV33:AW34 AV40:AW55 AV28:AW30">
-    <cfRule type="expression" dxfId="704" priority="103">
+    <cfRule type="expression" dxfId="113" priority="103">
       <formula>AND(TODAY()&gt;=AV$5,TODAY()&lt;AW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV7:AW21 AV36:AW38 AW35 AV26:AW26 AV23:AW23 AV33:AW34 AV40:AW55 AV28:AW30">
-    <cfRule type="expression" dxfId="703" priority="101">
+    <cfRule type="expression" dxfId="112" priority="101">
       <formula>AND(task_start&lt;=AV$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AV$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="702" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="102" stopIfTrue="1">
       <formula>AND(task_end&gt;=AV$5,task_start&lt;AW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC42:BD55 BC41 BC35:BD36 BC7:BD33 BC38:BD39 BD37 BD40">
-    <cfRule type="expression" dxfId="701" priority="100">
+    <cfRule type="expression" dxfId="110" priority="100">
       <formula>AND(TODAY()&gt;=BC$5,TODAY()&lt;BD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC42:BD55 BC41 BC35:BD36 BC7:BD33 BC38:BD39 BD37 BD40">
-    <cfRule type="expression" dxfId="700" priority="98">
+    <cfRule type="expression" dxfId="109" priority="98">
       <formula>AND(task_start&lt;=BC$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BC$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="699" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="99" stopIfTrue="1">
       <formula>AND(task_end&gt;=BC$5,task_start&lt;BD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ7:BK55">
-    <cfRule type="expression" dxfId="698" priority="97">
+    <cfRule type="expression" dxfId="107" priority="97">
       <formula>AND(TODAY()&gt;=BJ$5,TODAY()&lt;BK$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ7:BK55">
-    <cfRule type="expression" dxfId="697" priority="95">
+    <cfRule type="expression" dxfId="106" priority="95">
       <formula>AND(task_start&lt;=BJ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BJ$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="696" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="96" stopIfTrue="1">
       <formula>AND(task_end&gt;=BJ$5,task_start&lt;BK$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ7:BR43 BQ45:BR55 BR44">
-    <cfRule type="expression" dxfId="695" priority="94">
+    <cfRule type="expression" dxfId="104" priority="94">
       <formula>AND(TODAY()&gt;=BQ$5,TODAY()&lt;BR$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ7:BR43 BQ45:BR55 BR44">
-    <cfRule type="expression" dxfId="694" priority="92">
+    <cfRule type="expression" dxfId="103" priority="92">
       <formula>AND(task_start&lt;=BQ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BQ$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="693" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="93" stopIfTrue="1">
       <formula>AND(task_end&gt;=BQ$5,task_start&lt;BR$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX7:BY55">
-    <cfRule type="expression" dxfId="692" priority="91">
+    <cfRule type="expression" dxfId="101" priority="91">
       <formula>AND(TODAY()&gt;=BX$5,TODAY()&lt;BY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX7:BY55">
-    <cfRule type="expression" dxfId="691" priority="89">
+    <cfRule type="expression" dxfId="100" priority="89">
       <formula>AND(task_start&lt;=BX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BX$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="690" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="90" stopIfTrue="1">
       <formula>AND(task_end&gt;=BX$5,task_start&lt;BY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE7:CF55">
-    <cfRule type="expression" dxfId="689" priority="88">
+    <cfRule type="expression" dxfId="98" priority="88">
       <formula>AND(TODAY()&gt;=CE$5,TODAY()&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE7:CF55">
-    <cfRule type="expression" dxfId="688" priority="86">
+    <cfRule type="expression" dxfId="97" priority="86">
       <formula>AND(task_start&lt;=CE$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=CE$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="687" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="87" stopIfTrue="1">
       <formula>AND(task_end&gt;=CE$5,task_start&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA15">
-    <cfRule type="expression" dxfId="686" priority="81">
+    <cfRule type="expression" dxfId="95" priority="81">
       <formula>AND(TODAY()&gt;=AA$5,TODAY()&lt;AB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA15">
-    <cfRule type="expression" dxfId="685" priority="79">
+    <cfRule type="expression" dxfId="94" priority="79">
       <formula>AND(task_start&lt;=AA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AA$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="684" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="80" stopIfTrue="1">
       <formula>AND(task_end&gt;=AA$5,task_start&lt;AB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y15">
-    <cfRule type="expression" dxfId="683" priority="69">
+    <cfRule type="expression" dxfId="92" priority="69">
       <formula>AND(TODAY()&gt;=Y$5,TODAY()&lt;Z$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y15">
-    <cfRule type="expression" dxfId="682" priority="67">
+    <cfRule type="expression" dxfId="91" priority="67">
       <formula>AND(task_start&lt;=Y$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Y$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="681" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="68" stopIfTrue="1">
       <formula>AND(task_end&gt;=Y$5,task_start&lt;Z$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z15">
-    <cfRule type="expression" dxfId="680" priority="66">
+    <cfRule type="expression" dxfId="89" priority="66">
       <formula>AND(TODAY()&gt;=Z$5,TODAY()&lt;AA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z15">
-    <cfRule type="expression" dxfId="679" priority="64">
+    <cfRule type="expression" dxfId="88" priority="64">
       <formula>AND(task_start&lt;=Z$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Z$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="678" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="65" stopIfTrue="1">
       <formula>AND(task_end&gt;=Z$5,task_start&lt;AA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X14">
-    <cfRule type="expression" dxfId="677" priority="63">
+    <cfRule type="expression" dxfId="86" priority="63">
       <formula>AND(TODAY()&gt;=X$5,TODAY()&lt;Y$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X14">
-    <cfRule type="expression" dxfId="676" priority="61">
+    <cfRule type="expression" dxfId="85" priority="61">
       <formula>AND(task_start&lt;=X$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=X$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="675" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="62" stopIfTrue="1">
       <formula>AND(task_end&gt;=X$5,task_start&lt;Y$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT35">
-    <cfRule type="expression" dxfId="674" priority="60">
+    <cfRule type="expression" dxfId="83" priority="60">
       <formula>AND(TODAY()&gt;=AT$5,TODAY()&lt;AU$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT35">
-    <cfRule type="expression" dxfId="673" priority="58">
+    <cfRule type="expression" dxfId="82" priority="58">
       <formula>AND(task_start&lt;=AT$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AT$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="672" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="59" stopIfTrue="1">
       <formula>AND(task_end&gt;=AT$5,task_start&lt;AU$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35">
-    <cfRule type="expression" dxfId="671" priority="57">
+    <cfRule type="expression" dxfId="80" priority="57">
       <formula>AND(TODAY()&gt;=AU$5,TODAY()&lt;AV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35">
-    <cfRule type="expression" dxfId="670" priority="55">
+    <cfRule type="expression" dxfId="79" priority="55">
       <formula>AND(task_start&lt;=AU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AU$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="669" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="56" stopIfTrue="1">
       <formula>AND(task_end&gt;=AU$5,task_start&lt;AV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV35">
-    <cfRule type="expression" dxfId="668" priority="54">
+    <cfRule type="expression" dxfId="77" priority="54">
       <formula>AND(TODAY()&gt;=AV$5,TODAY()&lt;AW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV35">
-    <cfRule type="expression" dxfId="667" priority="52">
+    <cfRule type="expression" dxfId="76" priority="52">
       <formula>AND(task_start&lt;=AV$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AV$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="666" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="53" stopIfTrue="1">
       <formula>AND(task_end&gt;=AV$5,task_start&lt;AW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB35:BB36">
-    <cfRule type="expression" dxfId="665" priority="51">
+    <cfRule type="expression" dxfId="74" priority="51">
       <formula>AND(TODAY()&gt;=BB$5,TODAY()&lt;BC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB35:BB36">
-    <cfRule type="expression" dxfId="664" priority="49">
+    <cfRule type="expression" dxfId="73" priority="49">
       <formula>AND(task_start&lt;=BB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="663" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="50" stopIfTrue="1">
       <formula>AND(task_end&gt;=BB$5,task_start&lt;BC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU51">
-    <cfRule type="expression" dxfId="662" priority="48">
+    <cfRule type="expression" dxfId="71" priority="48">
       <formula>AND(TODAY()&gt;=BU$5,TODAY()&lt;BV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU51">
-    <cfRule type="expression" dxfId="661" priority="46">
+    <cfRule type="expression" dxfId="70" priority="46">
       <formula>AND(task_start&lt;=BU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BU$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="660" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="47" stopIfTrue="1">
       <formula>AND(task_end&gt;=BU$5,task_start&lt;BV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV54">
-    <cfRule type="expression" dxfId="659" priority="45">
+    <cfRule type="expression" dxfId="68" priority="45">
       <formula>AND(TODAY()&gt;=BV$5,TODAY()&lt;BW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV54">
-    <cfRule type="expression" dxfId="658" priority="43">
+    <cfRule type="expression" dxfId="67" priority="43">
       <formula>AND(task_start&lt;=BV$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BV$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="657" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="44" stopIfTrue="1">
       <formula>AND(task_end&gt;=BV$5,task_start&lt;BW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ24:AS24">
-    <cfRule type="expression" dxfId="656" priority="211">
+    <cfRule type="expression" dxfId="65" priority="211">
       <formula>AND(TODAY()&gt;=AL$5,TODAY()&lt;AM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ24:AS24">
-    <cfRule type="expression" dxfId="655" priority="214">
+    <cfRule type="expression" dxfId="64" priority="214">
       <formula>AND(task_start&lt;=AL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AL$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="654" priority="215" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="215" stopIfTrue="1">
       <formula>AND(task_end&gt;=AL$5,task_start&lt;AM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL24:AN24">
-    <cfRule type="expression" dxfId="653" priority="42">
+    <cfRule type="expression" dxfId="62" priority="42">
       <formula>AND(TODAY()&gt;=AL$5,TODAY()&lt;AM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL24:AN24">
-    <cfRule type="expression" dxfId="652" priority="40">
+    <cfRule type="expression" dxfId="61" priority="40">
       <formula>AND(task_start&lt;=AL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AL$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="651" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="41" stopIfTrue="1">
       <formula>AND(task_end&gt;=AL$5,task_start&lt;AM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT24:AU24">
-    <cfRule type="expression" dxfId="650" priority="39">
+    <cfRule type="expression" dxfId="59" priority="39">
       <formula>AND(TODAY()&gt;=AT$5,TODAY()&lt;AU$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT24:AU24">
-    <cfRule type="expression" dxfId="649" priority="37">
+    <cfRule type="expression" dxfId="58" priority="37">
       <formula>AND(task_start&lt;=AT$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AT$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="648" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="38" stopIfTrue="1">
       <formula>AND(task_end&gt;=AT$5,task_start&lt;AU$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W11">
-    <cfRule type="expression" dxfId="647" priority="36">
+    <cfRule type="expression" dxfId="56" priority="36">
       <formula>AND(TODAY()&gt;=W$5,TODAY()&lt;X$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W11">
-    <cfRule type="expression" dxfId="646" priority="34">
+    <cfRule type="expression" dxfId="55" priority="34">
       <formula>AND(task_start&lt;=W$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="645" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="35" stopIfTrue="1">
       <formula>AND(task_end&gt;=W$5,task_start&lt;X$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA16:AB16">
-    <cfRule type="expression" dxfId="644" priority="33">
-      <formula>AND(TODAY()&gt;=AA$5,TODAY()&lt;AB$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA16:AB16">
-    <cfRule type="expression" dxfId="643" priority="31">
-      <formula>AND(task_start&lt;=AA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AA$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="642" priority="32" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AA$5,task_start&lt;AB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB11">
-    <cfRule type="expression" dxfId="641" priority="30">
+    <cfRule type="expression" dxfId="50" priority="30">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;AC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB11">
-    <cfRule type="expression" dxfId="640" priority="28">
+    <cfRule type="expression" dxfId="49" priority="28">
       <formula>AND(task_start&lt;=AB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="639" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="29" stopIfTrue="1">
       <formula>AND(task_end&gt;=AB$5,task_start&lt;AC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC16">
-    <cfRule type="expression" dxfId="638" priority="27">
+    <cfRule type="expression" dxfId="47" priority="27">
       <formula>AND(TODAY()&gt;=AC$5,TODAY()&lt;AD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC16">
-    <cfRule type="expression" dxfId="637" priority="25">
+    <cfRule type="expression" dxfId="46" priority="25">
       <formula>AND(task_start&lt;=AC$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AC$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="636" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="26" stopIfTrue="1">
       <formula>AND(task_end&gt;=AC$5,task_start&lt;AD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX23:AZ23">
-    <cfRule type="expression" dxfId="635" priority="24">
+    <cfRule type="expression" dxfId="44" priority="24">
       <formula>AND(TODAY()&gt;=AX$5,TODAY()&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX23:AZ23">
-    <cfRule type="expression" dxfId="634" priority="22">
+    <cfRule type="expression" dxfId="43" priority="22">
       <formula>AND(task_start&lt;=AX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AX$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="633" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="23" stopIfTrue="1">
       <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG16">
-    <cfRule type="expression" dxfId="632" priority="18">
+    <cfRule type="expression" dxfId="41" priority="18">
       <formula>AND(TODAY()&gt;=AG$5,TODAY()&lt;AH$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG16">
-    <cfRule type="expression" dxfId="631" priority="16">
+    <cfRule type="expression" dxfId="40" priority="16">
       <formula>AND(task_start&lt;=AG$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AG$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="630" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="17" stopIfTrue="1">
       <formula>AND(task_end&gt;=AG$5,task_start&lt;AH$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY31:BB31">
-    <cfRule type="expression" dxfId="629" priority="15">
+    <cfRule type="expression" dxfId="38" priority="15">
       <formula>AND(TODAY()&gt;=AY$5,TODAY()&lt;AZ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY31:BB31">
-    <cfRule type="expression" dxfId="628" priority="13">
+    <cfRule type="expression" dxfId="37" priority="13">
       <formula>AND(task_start&lt;=AY$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AY$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="627" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="14" stopIfTrue="1">
       <formula>AND(task_end&gt;=AY$5,task_start&lt;AZ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD34:BH34">
-    <cfRule type="expression" dxfId="626" priority="12">
+    <cfRule type="expression" dxfId="35" priority="12">
       <formula>AND(TODAY()&gt;=BD$5,TODAY()&lt;BE$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD34:BH34">
-    <cfRule type="expression" dxfId="625" priority="10">
+    <cfRule type="expression" dxfId="34" priority="10">
       <formula>AND(task_start&lt;=BD$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BD$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="624" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="11" stopIfTrue="1">
       <formula>AND(task_end&gt;=BD$5,task_start&lt;BE$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ40">
-    <cfRule type="expression" dxfId="623" priority="9">
+    <cfRule type="expression" dxfId="32" priority="9">
       <formula>AND(TODAY()&gt;=AZ$5,TODAY()&lt;BA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ40">
-    <cfRule type="expression" dxfId="622" priority="7">
+    <cfRule type="expression" dxfId="31" priority="7">
       <formula>AND(task_start&lt;=AZ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AZ$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="621" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="8" stopIfTrue="1">
       <formula>AND(task_end&gt;=AZ$5,task_start&lt;BA$5)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/MINTA-gantt-diagram.xlsx
+++ b/MINTA-gantt-diagram.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C511BA04-1174-4E9E-9CFC-DA61F60AECDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71165203-C34C-4F4E-B712-28F7A372708C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="65">
   <si>
     <t>Projekt kezdete:</t>
   </si>
@@ -185,9 +185,6 @@
   </si>
   <si>
     <t>Nagy György</t>
-  </si>
-  <si>
-    <t>Tesz Elek</t>
   </si>
   <si>
     <t>9.3.13.  Futárok kezeléséhez kapcsolódó GUI megvalósítása</t>
@@ -420,7 +417,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -514,12 +511,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,7 +730,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -938,21 +929,30 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -971,16 +971,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Cím" xfId="4" builtinId="15" customBuiltin="1"/>
@@ -996,277 +986,7 @@
     <cellStyle name="Task" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="zHiddenText" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
-  <dxfs count="153">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="126">
     <dxf>
       <fill>
         <patternFill>
@@ -2533,15 +2253,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="152"/>
-      <tableStyleElement type="headerRow" dxfId="151"/>
-      <tableStyleElement type="totalRow" dxfId="150"/>
-      <tableStyleElement type="firstColumn" dxfId="149"/>
-      <tableStyleElement type="lastColumn" dxfId="148"/>
-      <tableStyleElement type="firstRowStripe" dxfId="147"/>
-      <tableStyleElement type="secondRowStripe" dxfId="146"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="145"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="144"/>
+      <tableStyleElement type="wholeTable" dxfId="125"/>
+      <tableStyleElement type="headerRow" dxfId="124"/>
+      <tableStyleElement type="totalRow" dxfId="123"/>
+      <tableStyleElement type="firstColumn" dxfId="122"/>
+      <tableStyleElement type="lastColumn" dxfId="121"/>
+      <tableStyleElement type="firstRowStripe" dxfId="120"/>
+      <tableStyleElement type="secondRowStripe" dxfId="119"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="118"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="117"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2905,7 +2625,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L41" sqref="L41"/>
+      <selection pane="bottomLeft" activeCell="CI14" sqref="CI14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2958,12 +2678,12 @@
       <c r="X1" s="73"/>
       <c r="Y1" s="69"/>
       <c r="Z1" s="67" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="AA1" s="67"/>
       <c r="AB1" s="67"/>
       <c r="AC1" s="67"/>
-      <c r="AD1" s="76"/>
+      <c r="AD1" s="90"/>
       <c r="AE1" s="69"/>
       <c r="AF1" s="69" t="s">
         <v>48</v>
@@ -2975,28 +2695,26 @@
       <c r="AK1" s="75"/>
       <c r="AL1" s="69"/>
       <c r="AM1" s="67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AN1" s="67"/>
       <c r="AO1" s="67"/>
       <c r="AP1" s="67"/>
       <c r="AQ1" s="67"/>
-      <c r="AR1" s="89"/>
+      <c r="AR1" s="82"/>
       <c r="AS1" s="67"/>
       <c r="AT1" s="67"/>
-      <c r="AU1" s="91"/>
+      <c r="AU1" s="84"/>
       <c r="AV1" s="69"/>
       <c r="AW1" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX1" s="89"/>
+        <v>56</v>
+      </c>
+      <c r="AX1" s="82"/>
       <c r="AY1" s="67"/>
-      <c r="AZ1" s="90"/>
-      <c r="BC1" s="92"/>
-      <c r="BE1" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="BJ1" s="94"/>
+      <c r="AZ1" s="83"/>
+      <c r="BC1" s="85"/>
+      <c r="BE1" s="86"/>
+      <c r="BJ1" s="83"/>
     </row>
     <row r="2" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="27" t="s">
@@ -3010,126 +2728,126 @@
       <c r="C3" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="86">
+      <c r="D3" s="95">
         <v>44459</v>
       </c>
-      <c r="E3" s="86"/>
+      <c r="E3" s="95"/>
       <c r="F3" s="38"/>
     </row>
     <row r="4" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
       <c r="D4"/>
-      <c r="F4" s="87"/>
-      <c r="H4" s="83">
+      <c r="F4" s="96"/>
+      <c r="H4" s="92">
         <f>H5</f>
         <v>44459</v>
       </c>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="83">
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="92">
         <f>O5</f>
         <v>44466</v>
       </c>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
-      <c r="T4" s="84"/>
-      <c r="U4" s="85"/>
-      <c r="V4" s="83">
+      <c r="P4" s="93"/>
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="92">
         <f>V5</f>
         <v>44473</v>
       </c>
-      <c r="W4" s="84"/>
-      <c r="X4" s="84"/>
-      <c r="Y4" s="84"/>
-      <c r="Z4" s="84"/>
-      <c r="AA4" s="84"/>
-      <c r="AB4" s="85"/>
-      <c r="AC4" s="83">
+      <c r="W4" s="93"/>
+      <c r="X4" s="93"/>
+      <c r="Y4" s="93"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="93"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="92">
         <f>AC5</f>
         <v>44480</v>
       </c>
-      <c r="AD4" s="84"/>
-      <c r="AE4" s="84"/>
-      <c r="AF4" s="84"/>
-      <c r="AG4" s="84"/>
-      <c r="AH4" s="84"/>
-      <c r="AI4" s="85"/>
-      <c r="AJ4" s="83">
+      <c r="AD4" s="93"/>
+      <c r="AE4" s="93"/>
+      <c r="AF4" s="93"/>
+      <c r="AG4" s="93"/>
+      <c r="AH4" s="93"/>
+      <c r="AI4" s="94"/>
+      <c r="AJ4" s="92">
         <f>AJ5</f>
         <v>44487</v>
       </c>
-      <c r="AK4" s="84"/>
-      <c r="AL4" s="84"/>
-      <c r="AM4" s="84"/>
-      <c r="AN4" s="84"/>
-      <c r="AO4" s="84"/>
-      <c r="AP4" s="85"/>
-      <c r="AQ4" s="83">
+      <c r="AK4" s="93"/>
+      <c r="AL4" s="93"/>
+      <c r="AM4" s="93"/>
+      <c r="AN4" s="93"/>
+      <c r="AO4" s="93"/>
+      <c r="AP4" s="94"/>
+      <c r="AQ4" s="92">
         <f>AQ5</f>
         <v>44494</v>
       </c>
-      <c r="AR4" s="84"/>
-      <c r="AS4" s="84"/>
-      <c r="AT4" s="84"/>
-      <c r="AU4" s="84"/>
-      <c r="AV4" s="84"/>
-      <c r="AW4" s="85"/>
-      <c r="AX4" s="83">
+      <c r="AR4" s="93"/>
+      <c r="AS4" s="93"/>
+      <c r="AT4" s="93"/>
+      <c r="AU4" s="93"/>
+      <c r="AV4" s="93"/>
+      <c r="AW4" s="94"/>
+      <c r="AX4" s="92">
         <f>AX5</f>
         <v>44501</v>
       </c>
-      <c r="AY4" s="84"/>
-      <c r="AZ4" s="84"/>
-      <c r="BA4" s="84"/>
-      <c r="BB4" s="84"/>
-      <c r="BC4" s="84"/>
-      <c r="BD4" s="85"/>
-      <c r="BE4" s="83">
+      <c r="AY4" s="93"/>
+      <c r="AZ4" s="93"/>
+      <c r="BA4" s="93"/>
+      <c r="BB4" s="93"/>
+      <c r="BC4" s="93"/>
+      <c r="BD4" s="94"/>
+      <c r="BE4" s="92">
         <f>BE5</f>
         <v>44508</v>
       </c>
-      <c r="BF4" s="84"/>
-      <c r="BG4" s="84"/>
-      <c r="BH4" s="84"/>
-      <c r="BI4" s="84"/>
-      <c r="BJ4" s="84"/>
-      <c r="BK4" s="85"/>
-      <c r="BL4" s="83">
+      <c r="BF4" s="93"/>
+      <c r="BG4" s="93"/>
+      <c r="BH4" s="93"/>
+      <c r="BI4" s="93"/>
+      <c r="BJ4" s="93"/>
+      <c r="BK4" s="94"/>
+      <c r="BL4" s="92">
         <f>BL5</f>
         <v>44515</v>
       </c>
-      <c r="BM4" s="84"/>
-      <c r="BN4" s="84"/>
-      <c r="BO4" s="84"/>
-      <c r="BP4" s="84"/>
-      <c r="BQ4" s="84"/>
-      <c r="BR4" s="85"/>
-      <c r="BS4" s="83">
+      <c r="BM4" s="93"/>
+      <c r="BN4" s="93"/>
+      <c r="BO4" s="93"/>
+      <c r="BP4" s="93"/>
+      <c r="BQ4" s="93"/>
+      <c r="BR4" s="94"/>
+      <c r="BS4" s="92">
         <f>BS5</f>
         <v>44522</v>
       </c>
-      <c r="BT4" s="84"/>
-      <c r="BU4" s="84"/>
-      <c r="BV4" s="84"/>
-      <c r="BW4" s="84"/>
-      <c r="BX4" s="84"/>
-      <c r="BY4" s="85"/>
-      <c r="BZ4" s="83">
+      <c r="BT4" s="93"/>
+      <c r="BU4" s="93"/>
+      <c r="BV4" s="93"/>
+      <c r="BW4" s="93"/>
+      <c r="BX4" s="93"/>
+      <c r="BY4" s="94"/>
+      <c r="BZ4" s="92">
         <f>BZ5</f>
         <v>44529</v>
       </c>
-      <c r="CA4" s="84"/>
-      <c r="CB4" s="84"/>
-      <c r="CC4" s="84"/>
-      <c r="CD4" s="84"/>
-      <c r="CE4" s="84"/>
-      <c r="CF4" s="85"/>
+      <c r="CA4" s="93"/>
+      <c r="CB4" s="93"/>
+      <c r="CC4" s="93"/>
+      <c r="CD4" s="93"/>
+      <c r="CE4" s="93"/>
+      <c r="CF4" s="94"/>
     </row>
     <row r="5" spans="1:84" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23"/>
@@ -3145,7 +2863,7 @@
       <c r="E5" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="88"/>
+      <c r="F5" s="97"/>
       <c r="H5" s="6">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2</f>
         <v>44459</v>
@@ -3662,13 +3380,13 @@
       <c r="P8" s="37"/>
       <c r="Q8" s="37"/>
       <c r="R8" s="37"/>
-      <c r="S8" s="94">
+      <c r="S8" s="87">
         <v>1</v>
       </c>
-      <c r="T8" s="94"/>
-      <c r="U8" s="94"/>
-      <c r="V8" s="94"/>
-      <c r="W8" s="94"/>
+      <c r="T8" s="87"/>
+      <c r="U8" s="87"/>
+      <c r="V8" s="87"/>
+      <c r="W8" s="87"/>
       <c r="X8" s="37"/>
       <c r="Y8" s="37"/>
       <c r="Z8" s="37"/>
@@ -3737,7 +3455,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="60">
         <v>44472</v>
@@ -3760,11 +3478,11 @@
       <c r="R9" s="37"/>
       <c r="S9" s="37"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="95">
+      <c r="U9" s="88">
         <v>1</v>
       </c>
-      <c r="V9" s="95"/>
-      <c r="W9" s="95"/>
+      <c r="V9" s="88"/>
+      <c r="W9" s="88"/>
       <c r="X9" s="37"/>
       <c r="Y9" s="37"/>
       <c r="Z9" s="37"/>
@@ -4218,7 +3936,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="61">
         <v>44479</v>
@@ -4248,13 +3966,13 @@
       <c r="X14" s="37"/>
       <c r="Y14" s="37"/>
       <c r="Z14" s="37"/>
-      <c r="AA14" s="80"/>
-      <c r="AB14" s="81">
+      <c r="AA14" s="79"/>
+      <c r="AB14" s="80">
         <v>3</v>
       </c>
-      <c r="AC14" s="81"/>
-      <c r="AD14" s="81"/>
-      <c r="AE14" s="81"/>
+      <c r="AC14" s="80"/>
+      <c r="AD14" s="80"/>
+      <c r="AE14" s="80"/>
       <c r="AF14" s="37"/>
       <c r="AG14" s="37"/>
       <c r="AH14" s="65"/>
@@ -4357,7 +4075,7 @@
       <c r="AI15" s="65"/>
       <c r="AJ15" s="37"/>
       <c r="AK15" s="37"/>
-      <c r="AL15" s="77"/>
+      <c r="AL15" s="76"/>
       <c r="AM15" s="37"/>
       <c r="AN15" s="37"/>
       <c r="AO15" s="65"/>
@@ -4449,7 +4167,7 @@
       </c>
       <c r="AE16" s="75"/>
       <c r="AF16" s="75"/>
-      <c r="AG16" s="77"/>
+      <c r="AG16" s="76"/>
       <c r="AH16" s="65"/>
       <c r="AI16" s="65"/>
       <c r="AJ16" s="37"/>
@@ -4508,7 +4226,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" s="61">
         <v>44483</v>
@@ -4543,10 +4261,10 @@
       <c r="AC17" s="37"/>
       <c r="AD17" s="37"/>
       <c r="AE17" s="37"/>
-      <c r="AF17" s="95">
+      <c r="AF17" s="88">
         <v>2</v>
       </c>
-      <c r="AG17" s="95"/>
+      <c r="AG17" s="88"/>
       <c r="AH17" s="65"/>
       <c r="AI17" s="65"/>
       <c r="AJ17" s="37"/>
@@ -4798,7 +4516,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" s="62">
         <v>44488</v>
@@ -4838,12 +4556,12 @@
       <c r="AH20" s="65"/>
       <c r="AI20" s="65"/>
       <c r="AJ20" s="37"/>
-      <c r="AK20" s="81">
+      <c r="AK20" s="80">
         <v>2</v>
       </c>
-      <c r="AL20" s="81"/>
-      <c r="AM20" s="81"/>
-      <c r="AN20" s="81"/>
+      <c r="AL20" s="80"/>
+      <c r="AM20" s="80"/>
+      <c r="AN20" s="80"/>
       <c r="AO20" s="65"/>
       <c r="AP20" s="65"/>
       <c r="AQ20" s="37"/>
@@ -4895,7 +4613,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" s="62">
         <v>44491</v>
@@ -4938,11 +4656,11 @@
       <c r="AK21" s="37"/>
       <c r="AL21" s="37"/>
       <c r="AM21" s="37"/>
-      <c r="AN21" s="81">
+      <c r="AN21" s="80">
         <v>1</v>
       </c>
-      <c r="AO21" s="81"/>
-      <c r="AP21" s="81"/>
+      <c r="AO21" s="80"/>
+      <c r="AP21" s="80"/>
       <c r="AQ21" s="37"/>
       <c r="AR21" s="37"/>
       <c r="AS21" s="37"/>
@@ -5183,7 +4901,7 @@
     <row r="24" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="23"/>
       <c r="B24" s="48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" s="49" t="s">
         <v>44</v>
@@ -5279,11 +4997,11 @@
     </row>
     <row r="25" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="23"/>
-      <c r="B25" s="82" t="s">
-        <v>59</v>
+      <c r="B25" s="81" t="s">
+        <v>58</v>
       </c>
       <c r="C25" s="49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" s="62">
         <v>44497</v>
@@ -5332,12 +5050,12 @@
       <c r="AQ25" s="37"/>
       <c r="AR25" s="37"/>
       <c r="AS25" s="37"/>
-      <c r="AT25" s="95">
+      <c r="AT25" s="88">
         <v>3</v>
       </c>
-      <c r="AU25" s="95"/>
-      <c r="AV25" s="95"/>
-      <c r="AW25" s="95"/>
+      <c r="AU25" s="88"/>
+      <c r="AV25" s="88"/>
+      <c r="AW25" s="88"/>
       <c r="AX25" s="37"/>
       <c r="AY25" s="37"/>
       <c r="AZ25" s="37"/>
@@ -5376,11 +5094,11 @@
     </row>
     <row r="26" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="23"/>
-      <c r="B26" s="82" t="s">
-        <v>60</v>
+      <c r="B26" s="81" t="s">
+        <v>59</v>
       </c>
       <c r="C26" s="49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26" s="62">
         <v>44491</v>
@@ -5423,11 +5141,11 @@
       <c r="AK26" s="37"/>
       <c r="AL26" s="37"/>
       <c r="AM26" s="37"/>
-      <c r="AN26" s="95">
+      <c r="AN26" s="88">
         <v>1</v>
       </c>
-      <c r="AO26" s="95"/>
-      <c r="AP26" s="95"/>
+      <c r="AO26" s="88"/>
+      <c r="AP26" s="88"/>
       <c r="AQ26" s="37"/>
       <c r="AR26" s="37"/>
       <c r="AS26" s="37"/>
@@ -5570,11 +5288,11 @@
     </row>
     <row r="28" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="23"/>
-      <c r="B28" s="82" t="s">
-        <v>53</v>
+      <c r="B28" s="81" t="s">
+        <v>52</v>
       </c>
       <c r="C28" s="49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D28" s="62">
         <v>44494</v>
@@ -5620,13 +5338,13 @@
       <c r="AN28" s="37"/>
       <c r="AO28" s="65"/>
       <c r="AP28" s="65"/>
-      <c r="AQ28" s="81">
+      <c r="AQ28" s="80">
         <v>2</v>
       </c>
-      <c r="AR28" s="81"/>
-      <c r="AS28" s="81"/>
-      <c r="AT28" s="81"/>
-      <c r="AU28" s="81"/>
+      <c r="AR28" s="80"/>
+      <c r="AS28" s="80"/>
+      <c r="AT28" s="80"/>
+      <c r="AU28" s="80"/>
       <c r="AV28" s="65"/>
       <c r="AW28" s="65"/>
       <c r="AX28" s="37"/>
@@ -5667,11 +5385,11 @@
     </row>
     <row r="29" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="23"/>
-      <c r="B29" s="82" t="s">
-        <v>54</v>
+      <c r="B29" s="81" t="s">
+        <v>53</v>
       </c>
       <c r="C29" s="49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D29" s="62">
         <v>44494</v>
@@ -5717,11 +5435,11 @@
       <c r="AN29" s="37"/>
       <c r="AO29" s="65"/>
       <c r="AP29" s="65"/>
-      <c r="AQ29" s="79">
+      <c r="AQ29" s="78">
         <v>1</v>
       </c>
-      <c r="AR29" s="79"/>
-      <c r="AS29" s="79"/>
+      <c r="AR29" s="78"/>
+      <c r="AS29" s="78"/>
       <c r="AT29" s="37"/>
       <c r="AU29" s="37"/>
       <c r="AV29" s="65"/>
@@ -5862,7 +5580,7 @@
     <row r="31" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="23"/>
       <c r="B31" s="72" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" s="49" t="s">
         <v>48</v>
@@ -5958,11 +5676,11 @@
     </row>
     <row r="32" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="23"/>
-      <c r="B32" s="82" t="s">
-        <v>55</v>
+      <c r="B32" s="81" t="s">
+        <v>54</v>
       </c>
       <c r="C32" s="49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D32" s="62">
         <v>44497</v>
@@ -6012,11 +5730,11 @@
       <c r="AR32" s="37"/>
       <c r="AS32" s="37"/>
       <c r="AT32" s="37"/>
-      <c r="AU32" s="79">
+      <c r="AU32" s="78">
         <v>1</v>
       </c>
-      <c r="AV32" s="79"/>
-      <c r="AW32" s="79"/>
+      <c r="AV32" s="78"/>
+      <c r="AW32" s="78"/>
       <c r="AX32" s="37"/>
       <c r="AY32" s="37"/>
       <c r="AZ32" s="37"/>
@@ -6059,7 +5777,7 @@
         <v>22</v>
       </c>
       <c r="C33" s="49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33" s="62">
         <v>44502</v>
@@ -6113,12 +5831,12 @@
       <c r="AV33" s="65"/>
       <c r="AW33" s="65"/>
       <c r="AX33" s="37"/>
-      <c r="AY33" s="96">
+      <c r="AY33" s="89">
         <v>2</v>
       </c>
-      <c r="AZ33" s="96"/>
-      <c r="BA33" s="96"/>
-      <c r="BB33" s="96"/>
+      <c r="AZ33" s="89"/>
+      <c r="BA33" s="89"/>
+      <c r="BB33" s="89"/>
       <c r="BC33" s="65"/>
       <c r="BD33" s="65"/>
       <c r="BE33" s="37"/>
@@ -6153,7 +5871,7 @@
     <row r="34" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="23"/>
       <c r="B34" s="72" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" s="49" t="s">
         <v>48</v>
@@ -6346,11 +6064,11 @@
     </row>
     <row r="36" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="23"/>
-      <c r="B36" s="82" t="s">
-        <v>56</v>
+      <c r="B36" s="81" t="s">
+        <v>55</v>
       </c>
       <c r="C36" s="49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D36" s="62">
         <v>44501</v>
@@ -6403,12 +6121,12 @@
       <c r="AU36" s="37"/>
       <c r="AV36" s="65"/>
       <c r="AW36" s="65"/>
-      <c r="AX36" s="81">
+      <c r="AX36" s="80">
         <v>2</v>
       </c>
-      <c r="AY36" s="81"/>
-      <c r="AZ36" s="81"/>
-      <c r="BA36" s="81"/>
+      <c r="AY36" s="80"/>
+      <c r="AZ36" s="80"/>
+      <c r="BA36" s="80"/>
       <c r="BB36" s="37"/>
       <c r="BC36" s="65"/>
       <c r="BD36" s="65"/>
@@ -6539,11 +6257,11 @@
     </row>
     <row r="38" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="23"/>
-      <c r="B38" s="82" t="s">
-        <v>61</v>
+      <c r="B38" s="81" t="s">
+        <v>60</v>
       </c>
       <c r="C38" s="49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D38" s="62">
         <v>44494</v>
@@ -6589,12 +6307,12 @@
       <c r="AN38" s="37"/>
       <c r="AO38" s="65"/>
       <c r="AP38" s="65"/>
-      <c r="AQ38" s="96">
+      <c r="AQ38" s="89">
         <v>2</v>
       </c>
-      <c r="AR38" s="96"/>
-      <c r="AS38" s="96"/>
-      <c r="AT38" s="96"/>
+      <c r="AR38" s="89"/>
+      <c r="AS38" s="89"/>
+      <c r="AT38" s="89"/>
       <c r="AU38" s="37"/>
       <c r="AV38" s="65"/>
       <c r="AW38" s="65"/>
@@ -6793,11 +6511,11 @@
       <c r="AX40" s="37"/>
       <c r="AY40" s="37"/>
       <c r="AZ40" s="37"/>
-      <c r="BA40" s="97">
+      <c r="BA40" s="90">
         <v>1</v>
       </c>
-      <c r="BB40" s="97"/>
-      <c r="BC40" s="97"/>
+      <c r="BB40" s="90"/>
+      <c r="BC40" s="90"/>
       <c r="BD40" s="65"/>
       <c r="BE40" s="37"/>
       <c r="BF40" s="37"/>
@@ -6834,7 +6552,7 @@
         <v>26</v>
       </c>
       <c r="C41" s="49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D41" s="62">
         <v>44507</v>
@@ -6893,7 +6611,7 @@
       <c r="BA41" s="37"/>
       <c r="BB41" s="37"/>
       <c r="BC41" s="65"/>
-      <c r="BD41" s="98">
+      <c r="BD41" s="91">
         <v>1</v>
       </c>
       <c r="BE41" s="37"/>
@@ -7219,7 +6937,7 @@
         <v>29</v>
       </c>
       <c r="C45" s="47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D45" s="63">
         <v>44515</v>
@@ -7286,13 +7004,13 @@
       <c r="BI45" s="37"/>
       <c r="BJ45" s="65"/>
       <c r="BK45" s="65"/>
-      <c r="BL45" s="81">
+      <c r="BL45" s="80">
         <v>2</v>
       </c>
-      <c r="BM45" s="81"/>
-      <c r="BN45" s="81"/>
-      <c r="BO45" s="81"/>
-      <c r="BP45" s="81"/>
+      <c r="BM45" s="80"/>
+      <c r="BN45" s="80"/>
+      <c r="BO45" s="80"/>
+      <c r="BP45" s="80"/>
       <c r="BQ45" s="65"/>
       <c r="BR45" s="65"/>
       <c r="BS45" s="37"/>
@@ -7409,10 +7127,10 @@
     <row r="47" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="23"/>
       <c r="B47" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C47" s="47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D47" s="63">
         <v>44522</v>
@@ -7485,8 +7203,8 @@
       <c r="BP47" s="37"/>
       <c r="BQ47" s="65"/>
       <c r="BR47" s="65"/>
-      <c r="BS47" s="96" t="s">
-        <v>64</v>
+      <c r="BS47" s="89" t="s">
+        <v>63</v>
       </c>
       <c r="BT47" s="37"/>
       <c r="BU47" s="37"/>
@@ -7505,10 +7223,10 @@
     <row r="48" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="23"/>
       <c r="B48" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C48" s="47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D48" s="63">
         <v>44523</v>
@@ -7582,8 +7300,8 @@
       <c r="BQ48" s="65"/>
       <c r="BR48" s="65"/>
       <c r="BS48" s="37"/>
-      <c r="BT48" s="96" t="s">
-        <v>64</v>
+      <c r="BT48" s="89" t="s">
+        <v>63</v>
       </c>
       <c r="BU48" s="37"/>
       <c r="BV48" s="37"/>
@@ -7775,7 +7493,7 @@
       <c r="BR50" s="65"/>
       <c r="BS50" s="37"/>
       <c r="BT50" s="37"/>
-      <c r="BU50" s="78">
+      <c r="BU50" s="77">
         <v>0.3</v>
       </c>
       <c r="BV50" s="37"/>
@@ -7889,10 +7607,10 @@
     <row r="52" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="23"/>
       <c r="B52" s="46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C52" s="47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D52" s="63">
         <v>44523</v>
@@ -7966,8 +7684,8 @@
       <c r="BQ52" s="65"/>
       <c r="BR52" s="65"/>
       <c r="BS52" s="37"/>
-      <c r="BT52" s="96" t="s">
-        <v>64</v>
+      <c r="BT52" s="89" t="s">
+        <v>63</v>
       </c>
       <c r="BU52" s="37"/>
       <c r="BV52" s="37"/>
@@ -8180,7 +7898,7 @@
         <v>30</v>
       </c>
       <c r="C55" s="47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D55" s="63">
         <v>44526</v>
@@ -8258,7 +7976,7 @@
       <c r="BT55" s="37"/>
       <c r="BU55" s="37"/>
       <c r="BV55" s="37"/>
-      <c r="BW55" s="95">
+      <c r="BW55" s="88">
         <v>1</v>
       </c>
       <c r="BX55" s="65"/>
@@ -8475,509 +8193,509 @@
     <mergeCell ref="BE4:BK4"/>
   </mergeCells>
   <conditionalFormatting sqref="H56:BX57 BZ56:CE57 H5:BX6 BZ6:CE6 V7:Z7 AC7:AG9 AJ7:AN9 AQ7:AU9 AX7:BB9 BE7:BI9 BL7:BP9 BS7:BW9 BZ7:CD9 AJ22:AN23 AJ25:AN25 AJ24:AK24 X8:Z9 N7:S7 H7:M8 N8:R8 H9:T9">
-    <cfRule type="expression" dxfId="2" priority="203">
+    <cfRule type="expression" dxfId="116" priority="203">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56:BX57 BZ56:CE57 H6:BX6 BZ6:CE6 V7:Z7 AC7:AG9 AJ7:AN9 AQ7:AU9 AX7:BB9 BE7:BI9 BL7:BP9 BS7:BW9 BZ7:CD9 AJ22:AN23 AJ25:AN25 AJ24:AK24 X8:Z9 N7:S7 H7:M8 N8:R8 H9:T9">
-    <cfRule type="expression" dxfId="1" priority="197">
+    <cfRule type="expression" dxfId="115" priority="197">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="198" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ5:CF5 BY56:BY57 CF56:CF57 BY5:BY6 CF6">
-    <cfRule type="expression" dxfId="143" priority="205">
+    <cfRule type="expression" dxfId="113" priority="205">
       <formula>AND(TODAY()&gt;=BY$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY56:BY57 CF56:CF57 BY6 CF6">
-    <cfRule type="expression" dxfId="142" priority="208">
+    <cfRule type="expression" dxfId="112" priority="208">
       <formula>AND(task_start&lt;=BY$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BY$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="209" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="209" stopIfTrue="1">
       <formula>AND(task_end&gt;=BY$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:S10 BZ10:CD10 V10:Z10 AC10:AG10 AJ10:AN10 AQ10:AU10 AX10:BB10 BE10:BI10 BL10:BP10 BS10:BW10">
-    <cfRule type="expression" dxfId="140" priority="154">
+    <cfRule type="expression" dxfId="110" priority="154">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:S10 BZ10:CD10 V10:Z10 AC10:AG10 AJ10:AN10 AQ10:AU10 AX10:BB10 BE10:BI10 BL10:BP10 BS10:BW10">
-    <cfRule type="expression" dxfId="139" priority="152">
+    <cfRule type="expression" dxfId="109" priority="152">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="153" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="153" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ11:CD17 V13:Z13 AC11:AG12 AJ11:AN17 AQ11:AU17 AX11:BB17 BE11:BI17 BL11:BP17 BS11:BW17 H11:S17 V16:Z17 AC17:AE17 V11:V12 V14:W15 Y14:Z14 AF13:AG15">
-    <cfRule type="expression" dxfId="5" priority="148">
+    <cfRule type="expression" dxfId="107" priority="148">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ11:CD17 V13:Z13 AC11:AG12 AJ11:AN17 AQ11:AU17 AX11:BB17 BE11:BI17 BL11:BP17 BS11:BW17 H11:S17 V16:Z17 AC17:AE17 V11:V12 V14:W15 Y14:Z14 AF13:AG15">
-    <cfRule type="expression" dxfId="4" priority="146">
+    <cfRule type="expression" dxfId="106" priority="146">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="147" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="147" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:S18 BZ18:CD18 V18:Z18 AC18:AG18 AJ18:AN18 AQ18:AU18 AX18:BB18 BE18:BI18 BL18:BP18 BS18:BW18">
-    <cfRule type="expression" dxfId="137" priority="142">
+    <cfRule type="expression" dxfId="104" priority="142">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:S18 BZ18:CD18 V18:Z18 AC18:AG18 AJ18:AN18 AQ18:AU18 AX18:BB18 BE18:BI18 BL18:BP18 BS18:BW18">
-    <cfRule type="expression" dxfId="136" priority="140">
+    <cfRule type="expression" dxfId="103" priority="140">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="141" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42:L42 BZ42:CD42 V42:Z42 O42:S42 AC42:AG42 AJ42:AN42 AQ42:AU42 AX42:BB42 BE42:BI42 BL42:BP42 BS42:BW42">
-    <cfRule type="expression" dxfId="134" priority="136">
+    <cfRule type="expression" dxfId="101" priority="136">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42:L42 BZ42:CD42 V42:Z42 O42:S42 AC42:AG42 AJ42:AN42 AQ42:AU42 AX42:BB42 BE42:BI42 BL42:BP42 BS42:BW42">
-    <cfRule type="expression" dxfId="133" priority="134">
+    <cfRule type="expression" dxfId="100" priority="134">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="135" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:S40 BZ19:CD41 V19:Z41 M42:M55 H41:M41 O41:S41 N41:N55 AC19:AG41 AJ19:AN19 AQ20:AU21 AX19:BB22 BL19:BP41 BS19:BW41 AU19 AJ20:AJ21 AJ27:AN41 AJ26:AM26 AQ30:AU30 AT29:AU29 AQ36:AU37 AQ35:AS35 AQ26:AU26 AQ25:AS25 AT23:AU23 AQ22:AR22 AX25:BB26 BA23:BB23 AX41:BB41 AX40:AY40 AZ27:BB27 AQ27:AS27 BE19:BI33 AX30 AQ40:AU41 AU38 AQ39:AS39 AX38:BB39 AX37:AY37 AX33:AX34 AZ24:BB24 BE35:BI41 BI34 AQ33:AU34 AQ31:AS32 AK21:AM21 AX28:BB29 AX32:BB32">
-    <cfRule type="expression" dxfId="131" priority="130">
+    <cfRule type="expression" dxfId="98" priority="130">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:S40 BZ19:CD41 V19:Z41 M42:M55 H41:M41 O41:S41 N41:N55 AC19:AG41 AJ19:AN19 AQ20:AU21 AX19:BB22 BL19:BP41 BS19:BW41 AU19 AJ20:AJ21 AJ27:AN41 AJ26:AM26 AQ30:AU30 AT29:AU29 AQ36:AU37 AQ35:AS35 AQ26:AU26 AQ25:AS25 AT23:AU23 AQ22:AR22 AX25:BB26 BA23:BB23 AX41:BB41 AX40:AY40 AZ27:BB27 AQ27:AS27 BE19:BI33 AX30 AQ40:AU41 AU38 AQ39:AS39 AX38:BB39 AX37:AY37 AX33:AX34 AZ24:BB24 BE35:BI41 BI34 AQ33:AU34 AQ31:AS32 AK21:AM21 AX28:BB29 AX32:BB32">
-    <cfRule type="expression" dxfId="130" priority="128">
+    <cfRule type="expression" dxfId="97" priority="128">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="129" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43:L55 BZ43:CD55 V43:Z55 O43:S55 AC43:AG55 AJ43:AN55 AQ43:AU55 AX43:BB55 BE43:BI55 BS55:BV55 BL46:BP55 BS43:BW45 BT46:BW47 BS49:BU49 BS48 BU48:BW48 BS52 BS54:BU54 BS50:BT51 BV50:BW50 BW49 BS53:BT53 BV53:BW53 BU52:BW52 BV51">
-    <cfRule type="expression" dxfId="128" priority="124">
+    <cfRule type="expression" dxfId="95" priority="124">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43:L55 BZ43:CD55 V43:Z55 O43:S55 AC43:AG55 AJ43:AN55 AQ43:AU55 AX43:BB55 BE43:BI55 BS55:BV55 BL46:BP55 BS43:BW45 BT46:BW47 BS49:BU49 BS48 BU48:BW48 BS52 BS54:BU54 BS50:BT51 BV50:BW50 BW49 BS53:BT53 BV53:BW53 BU52:BW52 BV51">
-    <cfRule type="expression" dxfId="127" priority="122">
+    <cfRule type="expression" dxfId="94" priority="122">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="123" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="123" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:U7 T10:U55">
-    <cfRule type="expression" dxfId="125" priority="115">
+    <cfRule type="expression" dxfId="92" priority="115">
       <formula>AND(TODAY()&gt;=T$5,TODAY()&lt;U$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:U7 T10:U55">
-    <cfRule type="expression" dxfId="124" priority="113">
+    <cfRule type="expression" dxfId="91" priority="113">
       <formula>AND(task_start&lt;=T$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=T$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="114" stopIfTrue="1">
       <formula>AND(task_end&gt;=T$5,task_start&lt;U$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA7:AB10 AA12:AB13 AA14 AA16:AB55">
-    <cfRule type="expression" dxfId="122" priority="112">
+    <cfRule type="expression" dxfId="89" priority="112">
       <formula>AND(TODAY()&gt;=AA$5,TODAY()&lt;AB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA7:AB10 AA12:AB13 AA14 AA16:AB55">
-    <cfRule type="expression" dxfId="121" priority="110">
+    <cfRule type="expression" dxfId="88" priority="110">
       <formula>AND(task_start&lt;=AA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AA$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="111" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="111" stopIfTrue="1">
       <formula>AND(task_end&gt;=AA$5,task_start&lt;AB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH7:AI55">
-    <cfRule type="expression" dxfId="119" priority="109">
+    <cfRule type="expression" dxfId="86" priority="109">
       <formula>AND(TODAY()&gt;=AH$5,TODAY()&lt;AI$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH7:AI55">
-    <cfRule type="expression" dxfId="118" priority="107">
+    <cfRule type="expression" dxfId="85" priority="107">
       <formula>AND(task_start&lt;=AH$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AH$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="108" stopIfTrue="1">
       <formula>AND(task_end&gt;=AH$5,task_start&lt;AI$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO7:AP18 AO20:AP20 AO19 AO27:AP55 AO22:AP25">
-    <cfRule type="expression" dxfId="116" priority="106">
+    <cfRule type="expression" dxfId="83" priority="106">
       <formula>AND(TODAY()&gt;=AO$5,TODAY()&lt;AP$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO7:AP18 AO20:AP20 AO19 AO27:AP55 AO22:AP25">
-    <cfRule type="expression" dxfId="115" priority="104">
+    <cfRule type="expression" dxfId="82" priority="104">
       <formula>AND(task_start&lt;=AO$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AO$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="105" stopIfTrue="1">
       <formula>AND(task_end&gt;=AO$5,task_start&lt;AP$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV7:AW21 AV36:AW38 AW35 AV26:AW26 AV23:AW23 AV33:AW34 AV40:AW55 AV28:AW30">
-    <cfRule type="expression" dxfId="113" priority="103">
+    <cfRule type="expression" dxfId="80" priority="103">
       <formula>AND(TODAY()&gt;=AV$5,TODAY()&lt;AW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV7:AW21 AV36:AW38 AW35 AV26:AW26 AV23:AW23 AV33:AW34 AV40:AW55 AV28:AW30">
-    <cfRule type="expression" dxfId="112" priority="101">
+    <cfRule type="expression" dxfId="79" priority="101">
       <formula>AND(task_start&lt;=AV$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AV$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="102" stopIfTrue="1">
       <formula>AND(task_end&gt;=AV$5,task_start&lt;AW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC42:BD55 BC41 BC35:BD36 BC7:BD33 BC38:BD39 BD37 BD40">
-    <cfRule type="expression" dxfId="110" priority="100">
+    <cfRule type="expression" dxfId="77" priority="100">
       <formula>AND(TODAY()&gt;=BC$5,TODAY()&lt;BD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC42:BD55 BC41 BC35:BD36 BC7:BD33 BC38:BD39 BD37 BD40">
-    <cfRule type="expression" dxfId="109" priority="98">
+    <cfRule type="expression" dxfId="76" priority="98">
       <formula>AND(task_start&lt;=BC$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BC$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="99" stopIfTrue="1">
       <formula>AND(task_end&gt;=BC$5,task_start&lt;BD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ7:BK55">
-    <cfRule type="expression" dxfId="107" priority="97">
+    <cfRule type="expression" dxfId="74" priority="97">
       <formula>AND(TODAY()&gt;=BJ$5,TODAY()&lt;BK$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ7:BK55">
-    <cfRule type="expression" dxfId="106" priority="95">
+    <cfRule type="expression" dxfId="73" priority="95">
       <formula>AND(task_start&lt;=BJ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BJ$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="96" stopIfTrue="1">
       <formula>AND(task_end&gt;=BJ$5,task_start&lt;BK$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ7:BR43 BQ45:BR55 BR44">
-    <cfRule type="expression" dxfId="104" priority="94">
+    <cfRule type="expression" dxfId="71" priority="94">
       <formula>AND(TODAY()&gt;=BQ$5,TODAY()&lt;BR$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ7:BR43 BQ45:BR55 BR44">
-    <cfRule type="expression" dxfId="103" priority="92">
+    <cfRule type="expression" dxfId="70" priority="92">
       <formula>AND(task_start&lt;=BQ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BQ$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="93" stopIfTrue="1">
       <formula>AND(task_end&gt;=BQ$5,task_start&lt;BR$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX7:BY55">
-    <cfRule type="expression" dxfId="101" priority="91">
+    <cfRule type="expression" dxfId="68" priority="91">
       <formula>AND(TODAY()&gt;=BX$5,TODAY()&lt;BY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX7:BY55">
-    <cfRule type="expression" dxfId="100" priority="89">
+    <cfRule type="expression" dxfId="67" priority="89">
       <formula>AND(task_start&lt;=BX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BX$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="90" stopIfTrue="1">
       <formula>AND(task_end&gt;=BX$5,task_start&lt;BY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE7:CF55">
-    <cfRule type="expression" dxfId="98" priority="88">
+    <cfRule type="expression" dxfId="65" priority="88">
       <formula>AND(TODAY()&gt;=CE$5,TODAY()&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE7:CF55">
-    <cfRule type="expression" dxfId="97" priority="86">
+    <cfRule type="expression" dxfId="64" priority="86">
       <formula>AND(task_start&lt;=CE$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=CE$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="87" stopIfTrue="1">
       <formula>AND(task_end&gt;=CE$5,task_start&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA15">
-    <cfRule type="expression" dxfId="95" priority="81">
+    <cfRule type="expression" dxfId="62" priority="81">
       <formula>AND(TODAY()&gt;=AA$5,TODAY()&lt;AB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA15">
-    <cfRule type="expression" dxfId="94" priority="79">
+    <cfRule type="expression" dxfId="61" priority="79">
       <formula>AND(task_start&lt;=AA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AA$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="80" stopIfTrue="1">
       <formula>AND(task_end&gt;=AA$5,task_start&lt;AB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y15">
-    <cfRule type="expression" dxfId="92" priority="69">
+    <cfRule type="expression" dxfId="59" priority="69">
       <formula>AND(TODAY()&gt;=Y$5,TODAY()&lt;Z$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y15">
-    <cfRule type="expression" dxfId="91" priority="67">
+    <cfRule type="expression" dxfId="58" priority="67">
       <formula>AND(task_start&lt;=Y$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Y$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="68" stopIfTrue="1">
       <formula>AND(task_end&gt;=Y$5,task_start&lt;Z$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z15">
-    <cfRule type="expression" dxfId="89" priority="66">
+    <cfRule type="expression" dxfId="56" priority="66">
       <formula>AND(TODAY()&gt;=Z$5,TODAY()&lt;AA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z15">
-    <cfRule type="expression" dxfId="88" priority="64">
+    <cfRule type="expression" dxfId="55" priority="64">
       <formula>AND(task_start&lt;=Z$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Z$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="65" stopIfTrue="1">
       <formula>AND(task_end&gt;=Z$5,task_start&lt;AA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X14">
-    <cfRule type="expression" dxfId="86" priority="63">
+    <cfRule type="expression" dxfId="53" priority="63">
       <formula>AND(TODAY()&gt;=X$5,TODAY()&lt;Y$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X14">
-    <cfRule type="expression" dxfId="85" priority="61">
+    <cfRule type="expression" dxfId="52" priority="61">
       <formula>AND(task_start&lt;=X$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=X$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="62" stopIfTrue="1">
       <formula>AND(task_end&gt;=X$5,task_start&lt;Y$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT35">
-    <cfRule type="expression" dxfId="83" priority="60">
+    <cfRule type="expression" dxfId="50" priority="60">
       <formula>AND(TODAY()&gt;=AT$5,TODAY()&lt;AU$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT35">
-    <cfRule type="expression" dxfId="82" priority="58">
+    <cfRule type="expression" dxfId="49" priority="58">
       <formula>AND(task_start&lt;=AT$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AT$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="59" stopIfTrue="1">
       <formula>AND(task_end&gt;=AT$5,task_start&lt;AU$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35">
-    <cfRule type="expression" dxfId="80" priority="57">
+    <cfRule type="expression" dxfId="47" priority="57">
       <formula>AND(TODAY()&gt;=AU$5,TODAY()&lt;AV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35">
-    <cfRule type="expression" dxfId="79" priority="55">
+    <cfRule type="expression" dxfId="46" priority="55">
       <formula>AND(task_start&lt;=AU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AU$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="56" stopIfTrue="1">
       <formula>AND(task_end&gt;=AU$5,task_start&lt;AV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV35">
-    <cfRule type="expression" dxfId="77" priority="54">
+    <cfRule type="expression" dxfId="44" priority="54">
       <formula>AND(TODAY()&gt;=AV$5,TODAY()&lt;AW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV35">
-    <cfRule type="expression" dxfId="76" priority="52">
+    <cfRule type="expression" dxfId="43" priority="52">
       <formula>AND(task_start&lt;=AV$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AV$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="53" stopIfTrue="1">
       <formula>AND(task_end&gt;=AV$5,task_start&lt;AW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB35:BB36">
-    <cfRule type="expression" dxfId="74" priority="51">
+    <cfRule type="expression" dxfId="41" priority="51">
       <formula>AND(TODAY()&gt;=BB$5,TODAY()&lt;BC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB35:BB36">
-    <cfRule type="expression" dxfId="73" priority="49">
+    <cfRule type="expression" dxfId="40" priority="49">
       <formula>AND(task_start&lt;=BB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="50" stopIfTrue="1">
       <formula>AND(task_end&gt;=BB$5,task_start&lt;BC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU51">
-    <cfRule type="expression" dxfId="71" priority="48">
+    <cfRule type="expression" dxfId="38" priority="48">
       <formula>AND(TODAY()&gt;=BU$5,TODAY()&lt;BV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU51">
-    <cfRule type="expression" dxfId="70" priority="46">
+    <cfRule type="expression" dxfId="37" priority="46">
       <formula>AND(task_start&lt;=BU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BU$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="47" stopIfTrue="1">
       <formula>AND(task_end&gt;=BU$5,task_start&lt;BV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV54">
-    <cfRule type="expression" dxfId="68" priority="45">
+    <cfRule type="expression" dxfId="35" priority="45">
       <formula>AND(TODAY()&gt;=BV$5,TODAY()&lt;BW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV54">
-    <cfRule type="expression" dxfId="67" priority="43">
+    <cfRule type="expression" dxfId="34" priority="43">
       <formula>AND(task_start&lt;=BV$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BV$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="44" stopIfTrue="1">
       <formula>AND(task_end&gt;=BV$5,task_start&lt;BW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ24:AS24">
-    <cfRule type="expression" dxfId="65" priority="211">
+    <cfRule type="expression" dxfId="32" priority="211">
       <formula>AND(TODAY()&gt;=AL$5,TODAY()&lt;AM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ24:AS24">
-    <cfRule type="expression" dxfId="64" priority="214">
+    <cfRule type="expression" dxfId="31" priority="214">
       <formula>AND(task_start&lt;=AL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AL$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="215" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="215" stopIfTrue="1">
       <formula>AND(task_end&gt;=AL$5,task_start&lt;AM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL24:AN24">
-    <cfRule type="expression" dxfId="62" priority="42">
+    <cfRule type="expression" dxfId="29" priority="42">
       <formula>AND(TODAY()&gt;=AL$5,TODAY()&lt;AM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL24:AN24">
-    <cfRule type="expression" dxfId="61" priority="40">
+    <cfRule type="expression" dxfId="28" priority="40">
       <formula>AND(task_start&lt;=AL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AL$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="41" stopIfTrue="1">
       <formula>AND(task_end&gt;=AL$5,task_start&lt;AM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT24:AU24">
-    <cfRule type="expression" dxfId="59" priority="39">
+    <cfRule type="expression" dxfId="26" priority="39">
       <formula>AND(TODAY()&gt;=AT$5,TODAY()&lt;AU$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT24:AU24">
-    <cfRule type="expression" dxfId="58" priority="37">
+    <cfRule type="expression" dxfId="25" priority="37">
       <formula>AND(task_start&lt;=AT$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AT$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="38" stopIfTrue="1">
       <formula>AND(task_end&gt;=AT$5,task_start&lt;AU$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W11">
-    <cfRule type="expression" dxfId="56" priority="36">
+    <cfRule type="expression" dxfId="23" priority="36">
       <formula>AND(TODAY()&gt;=W$5,TODAY()&lt;X$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W11">
-    <cfRule type="expression" dxfId="55" priority="34">
+    <cfRule type="expression" dxfId="22" priority="34">
       <formula>AND(task_start&lt;=W$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="35" stopIfTrue="1">
       <formula>AND(task_end&gt;=W$5,task_start&lt;X$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB11">
-    <cfRule type="expression" dxfId="50" priority="30">
+    <cfRule type="expression" dxfId="20" priority="30">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;AC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB11">
-    <cfRule type="expression" dxfId="49" priority="28">
+    <cfRule type="expression" dxfId="19" priority="28">
       <formula>AND(task_start&lt;=AB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="29" stopIfTrue="1">
       <formula>AND(task_end&gt;=AB$5,task_start&lt;AC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC16">
-    <cfRule type="expression" dxfId="47" priority="27">
+    <cfRule type="expression" dxfId="17" priority="27">
       <formula>AND(TODAY()&gt;=AC$5,TODAY()&lt;AD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC16">
-    <cfRule type="expression" dxfId="46" priority="25">
+    <cfRule type="expression" dxfId="16" priority="25">
       <formula>AND(task_start&lt;=AC$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AC$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="26" stopIfTrue="1">
       <formula>AND(task_end&gt;=AC$5,task_start&lt;AD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX23:AZ23">
-    <cfRule type="expression" dxfId="44" priority="24">
+    <cfRule type="expression" dxfId="14" priority="24">
       <formula>AND(TODAY()&gt;=AX$5,TODAY()&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX23:AZ23">
-    <cfRule type="expression" dxfId="43" priority="22">
+    <cfRule type="expression" dxfId="13" priority="22">
       <formula>AND(task_start&lt;=AX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AX$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="23" stopIfTrue="1">
       <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG16">
-    <cfRule type="expression" dxfId="41" priority="18">
+    <cfRule type="expression" dxfId="11" priority="18">
       <formula>AND(TODAY()&gt;=AG$5,TODAY()&lt;AH$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG16">
-    <cfRule type="expression" dxfId="40" priority="16">
+    <cfRule type="expression" dxfId="10" priority="16">
       <formula>AND(task_start&lt;=AG$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AG$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="17" stopIfTrue="1">
       <formula>AND(task_end&gt;=AG$5,task_start&lt;AH$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY31:BB31">
-    <cfRule type="expression" dxfId="38" priority="15">
+    <cfRule type="expression" dxfId="8" priority="15">
       <formula>AND(TODAY()&gt;=AY$5,TODAY()&lt;AZ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY31:BB31">
-    <cfRule type="expression" dxfId="37" priority="13">
+    <cfRule type="expression" dxfId="7" priority="13">
       <formula>AND(task_start&lt;=AY$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AY$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="14" stopIfTrue="1">
       <formula>AND(task_end&gt;=AY$5,task_start&lt;AZ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD34:BH34">
-    <cfRule type="expression" dxfId="35" priority="12">
+    <cfRule type="expression" dxfId="5" priority="12">
       <formula>AND(TODAY()&gt;=BD$5,TODAY()&lt;BE$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD34:BH34">
-    <cfRule type="expression" dxfId="34" priority="10">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>AND(task_start&lt;=BD$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BD$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="11" stopIfTrue="1">
       <formula>AND(task_end&gt;=BD$5,task_start&lt;BE$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ40">
-    <cfRule type="expression" dxfId="32" priority="9">
+    <cfRule type="expression" dxfId="2" priority="9">
       <formula>AND(TODAY()&gt;=AZ$5,TODAY()&lt;BA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ40">
-    <cfRule type="expression" dxfId="31" priority="7">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>AND(task_start&lt;=AZ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AZ$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
       <formula>AND(task_end&gt;=AZ$5,task_start&lt;BA$5)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/MINTA-gantt-diagram.xlsx
+++ b/MINTA-gantt-diagram.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71165203-C34C-4F4E-B712-28F7A372708C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt-diagram" sheetId="11" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <definedName name="task_start" localSheetId="0">'Gantt-diagram'!$D1</definedName>
     <definedName name="today" localSheetId="0">TODAY()</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="59">
   <si>
     <t>Projekt kezdete:</t>
   </si>
@@ -97,30 +96,6 @@
     <t>9.3.2.  Felhasználói munkamenethez kapcsolódó GUI megvalósítása</t>
   </si>
   <si>
-    <t>9.3.3.  Felhasználói munkamenethez szükséges adatok létrehozása az adatbázisban</t>
-  </si>
-  <si>
-    <t>9.3.4.  Felhasználók kezeléséhez tartozó üzleti logika (listázása, módosítása, létrehozása, törlése)</t>
-  </si>
-  <si>
-    <t>9.3.5.  Felhasználók kezeléséhez kapcsolódó GUI megvalósítása</t>
-  </si>
-  <si>
-    <t>9.3.15.  Fuvarok kezeléséhez tartozó üzleti logika (listázása, módosítása, létrehozása, törlése)</t>
-  </si>
-  <si>
-    <t>9.3.17.  Fuvarok kezeléséhez szükséges adatok létrehozása az adatbázisban</t>
-  </si>
-  <si>
-    <t>9.3.21.  Biztonsági mentés automatikus létrehozása</t>
-  </si>
-  <si>
-    <t>9.3.22. Tesztelési dokumentum (TP, TC)</t>
-  </si>
-  <si>
-    <t>9.3.23. Bemutató elkészítése</t>
-  </si>
-  <si>
     <t>9.4.1. Javított minőségű prototípus új funkciókkal</t>
   </si>
   <si>
@@ -160,9 +135,6 @@
     <t>Csütörtök 11:00-12:00</t>
   </si>
   <si>
-    <t>9.3.9.  Ételek, menük készítéséhez tartozó üzleti logika (listázása, módosítása, létrehozása, törlése)</t>
-  </si>
-  <si>
     <t>0.3</t>
   </si>
   <si>
@@ -175,52 +147,13 @@
     <t>Rózsa Kristóf</t>
   </si>
   <si>
-    <t>9.3.19.  Fuvar idejének megjelenítése</t>
-  </si>
-  <si>
-    <t>9.3.1.  Felhasználói munkamenet üzleti logikája több jogosultsági szinttel (admin, user)</t>
-  </si>
-  <si>
-    <t>9.3.12.  Futárok kezeléséhez kapcsolódó üzleti logika (listázása, módosítása, létrehozása, törlése)</t>
-  </si>
-  <si>
     <t>Nagy György</t>
-  </si>
-  <si>
-    <t>9.3.13.  Futárok kezeléséhez kapcsolódó GUI megvalósítása</t>
-  </si>
-  <si>
-    <t>9.3.16.  Fuvarok kezeléséhez kapcsolódó GUI megvalósítása</t>
   </si>
   <si>
     <t>Oberhauser Attila</t>
   </si>
   <si>
-    <t>9.3.10.  Ételek, menük készítéséhez kapcsolódó GUI megvalósítása</t>
-  </si>
-  <si>
-    <t>9.3.11.  Hozzávalók kezeléséhez szükséges adatok létrehozása az adatbázisban</t>
-  </si>
-  <si>
-    <t>9.3.14.  Futárok kezeléséhez szükséges adatok létrehozása az adatbázisban</t>
-  </si>
-  <si>
-    <t>9.3.18.  Értesítés sikeres rendelés esetén</t>
-  </si>
-  <si>
     <t>Nagy Dominik</t>
-  </si>
-  <si>
-    <t>9.3.6.  Étel rendeléséhez tartozó üzleti logika (listázása, módosítása, létrehozása, törlése)</t>
-  </si>
-  <si>
-    <t>9.3.7.   Étel rendeléséhez kapcsolódó GUI megvalósítása</t>
-  </si>
-  <si>
-    <t>9.3.8.  Étel rendeléséhez  szükséges adatok létrehozása az adatbázisban</t>
-  </si>
-  <si>
-    <t>9.3.20.  Kapcsolatfelvételi űrlap biztosítása új ügyfelek számára (üzleti logika és GUI)</t>
   </si>
   <si>
     <t>9.4.5. Étel rendelés tesztelése (TP, TC, TR)</t>
@@ -234,41 +167,75 @@
   <si>
     <t>9.4.10. Fuvar idejének tesztelése (TP, TC, TR)</t>
   </si>
+  <si>
+    <t xml:space="preserve">9.3.1.  Felhasználói munkamenet üzleti logikája több jogosultsági szinttel (admin, user), adatok létrehozása az adatbázisban </t>
+  </si>
+  <si>
+    <t>9.3.3. Felhasználók kezeléséhez tartozó üzleti logika (listázása, módosítása, létrehozása, törlése), GUI megvalósítása</t>
+  </si>
+  <si>
+    <t>9.3.4.  Étel rendeléséhez tartozó üzleti logika (listázása, módosítása, létrehozása, törlése)</t>
+  </si>
+  <si>
+    <t>9.3.5.  Étel rendeléséhez  szükséges adatok létrehozása az adatbázisban, GUI megvalósítása</t>
+  </si>
+  <si>
+    <t>9.3.6.  Ételek, menük készítéséhez tartozó üzleti logika (listázása, módosítása, létrehozása, törlése), GUI megvalósítása</t>
+  </si>
+  <si>
+    <t>9.3.7.  Hozzávalók kezeléséhez szükséges adatok létrehozása az adatbázisban</t>
+  </si>
+  <si>
+    <t>9.3.8.  Futárok kezeléséhez kapcsolódó üzleti logika (listázása, módosítása, létrehozása, törlése), GUI megvalósítása</t>
+  </si>
+  <si>
+    <t>9.3.9.  Futárok kezeléséhez szükséges adatok létrehozása az adatbázisban</t>
+  </si>
+  <si>
+    <t>9.3.10.  Fuvarok kezeléséhez tartozó üzleti logika (listázása, módosítása, létrehozása, törlése), GUI megvalósítása</t>
+  </si>
+  <si>
+    <t>9.3.11.  Fuvarok kezeléséhez szükséges adatok létrehozása az adatbázisban</t>
+  </si>
+  <si>
+    <t>9.3.12.  Értesítés sikeres rendelés esetén</t>
+  </si>
+  <si>
+    <t>9.3.13.  Fuvar idejének megjelenítése</t>
+  </si>
+  <si>
+    <t>9.3.14.  Kapcsolatfelvételi űrlap biztosítása új ügyfelek számára (üzleti logika és GUI)</t>
+  </si>
+  <si>
+    <t>9.3.15.  Biztonsági mentés automatikus létrehozása</t>
+  </si>
+  <si>
+    <t>9.3.16. Tesztelési dokumentum (TP, TC)</t>
+  </si>
+  <si>
+    <t>9.3.17. Bemutató elkészítése
+Felelős: Nagy Dominik
+9.3.17. Bemutató elkészítése</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
-    <numFmt numFmtId="166" formatCode="ddd\,\ m/d/yyyy"/>
-    <numFmt numFmtId="167" formatCode="d"/>
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="169" formatCode="\ yyyy/\ mmm/\ d/"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="165" formatCode="ddd\,\ m/d/yyyy"/>
+    <numFmt numFmtId="166" formatCode="d"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="168" formatCode="\ yyyy/\ mmm/\ d/"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -417,7 +384,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -488,12 +455,6 @@
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -703,150 +664,150 @@
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="3">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" applyFill="0">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" applyFill="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyFill="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyFill="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyFill="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyFill="0">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="9">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="10">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="11">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="11">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="11" applyFont="1" applyFill="1">
@@ -873,43 +834,43 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="7" applyFont="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="7" applyFont="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="3" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="167" fontId="8" fillId="3" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="4" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="167" fontId="8" fillId="4" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="11" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="167" fontId="8" fillId="11" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="10" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="167" fontId="8" fillId="10" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="11" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -917,52 +878,44 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="3" xfId="8" applyNumberFormat="1">
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="3" xfId="8" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -971,22 +924,632 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="11" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Cím" xfId="4" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Címsor 1" xfId="5" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Címsor 2" xfId="6" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Címsor 3" xfId="7" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Date" xfId="9" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Date" xfId="9"/>
     <cellStyle name="Ezres" xfId="3" builtinId="3" customBuiltin="1"/>
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Name" xfId="10" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Name" xfId="10"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
-    <cellStyle name="Project Start" xfId="8" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Task" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="zHiddenText" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Project Start" xfId="8"/>
+    <cellStyle name="Task" xfId="11"/>
+    <cellStyle name="zHiddenText" xfId="2"/>
   </cellStyles>
-  <dxfs count="126">
+  <dxfs count="186">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2252,16 +2815,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="125"/>
-      <tableStyleElement type="headerRow" dxfId="124"/>
-      <tableStyleElement type="totalRow" dxfId="123"/>
-      <tableStyleElement type="firstColumn" dxfId="122"/>
-      <tableStyleElement type="lastColumn" dxfId="121"/>
-      <tableStyleElement type="firstRowStripe" dxfId="120"/>
-      <tableStyleElement type="secondRowStripe" dxfId="119"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="118"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="117"/>
+    <tableStyle name="ToDoList" pivot="0" count="9">
+      <tableStyleElement type="wholeTable" dxfId="185"/>
+      <tableStyleElement type="headerRow" dxfId="184"/>
+      <tableStyleElement type="totalRow" dxfId="183"/>
+      <tableStyleElement type="firstColumn" dxfId="182"/>
+      <tableStyleElement type="lastColumn" dxfId="181"/>
+      <tableStyleElement type="firstRowStripe" dxfId="180"/>
+      <tableStyleElement type="secondRowStripe" dxfId="179"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="178"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="177"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2617,15 +3180,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CF60"/>
+  <dimension ref="A1:CF54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CI14" sqref="CI14"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X24" sqref="X24:X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2648,7 +3211,7 @@
     <row r="1" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="23"/>
       <c r="B1" s="59" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="3"/>
@@ -2657,68 +3220,68 @@
       <c r="G1" s="21"/>
       <c r="H1" s="21"/>
       <c r="I1" s="67"/>
-      <c r="J1" s="69"/>
+      <c r="J1" s="68"/>
       <c r="K1" s="67" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="L1" s="67"/>
       <c r="M1" s="67"/>
       <c r="N1" s="67"/>
       <c r="O1" s="67"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="68"/>
       <c r="R1" s="67" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="S1" s="67"/>
       <c r="T1" s="67"/>
       <c r="U1" s="67"/>
       <c r="V1" s="67"/>
       <c r="W1" s="67"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="69"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="68"/>
       <c r="Z1" s="67" t="s">
         <v>9</v>
       </c>
       <c r="AA1" s="67"/>
       <c r="AB1" s="67"/>
       <c r="AC1" s="67"/>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="69" t="s">
-        <v>48</v>
+      <c r="AD1" s="87"/>
+      <c r="AE1" s="68"/>
+      <c r="AF1" s="68" t="s">
+        <v>36</v>
       </c>
       <c r="AG1" s="67"/>
       <c r="AH1" s="67"/>
       <c r="AI1" s="67"/>
       <c r="AJ1" s="67"/>
-      <c r="AK1" s="75"/>
-      <c r="AL1" s="69"/>
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="68"/>
       <c r="AM1" s="67" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="AN1" s="67"/>
       <c r="AO1" s="67"/>
       <c r="AP1" s="67"/>
       <c r="AQ1" s="67"/>
-      <c r="AR1" s="82"/>
+      <c r="AR1" s="79"/>
       <c r="AS1" s="67"/>
       <c r="AT1" s="67"/>
-      <c r="AU1" s="84"/>
-      <c r="AV1" s="69"/>
+      <c r="AU1" s="81"/>
+      <c r="AV1" s="68"/>
       <c r="AW1" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="AX1" s="82"/>
+        <v>38</v>
+      </c>
+      <c r="AX1" s="79"/>
       <c r="AY1" s="67"/>
-      <c r="AZ1" s="83"/>
-      <c r="BC1" s="85"/>
-      <c r="BE1" s="86"/>
-      <c r="BJ1" s="83"/>
+      <c r="AZ1" s="80"/>
+      <c r="BC1" s="82"/>
+      <c r="BE1" s="83"/>
+      <c r="BJ1" s="80"/>
     </row>
     <row r="2" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="27" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F2" s="38"/>
       <c r="H2" s="25"/>
@@ -2728,126 +3291,126 @@
       <c r="C3" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="95">
+      <c r="D3" s="91">
         <v>44459</v>
       </c>
-      <c r="E3" s="95"/>
+      <c r="E3" s="91"/>
       <c r="F3" s="38"/>
     </row>
     <row r="4" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
       <c r="D4"/>
-      <c r="F4" s="96"/>
-      <c r="H4" s="92">
+      <c r="F4" s="92"/>
+      <c r="H4" s="88">
         <f>H5</f>
         <v>44459</v>
       </c>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="92">
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="88">
         <f>O5</f>
         <v>44466</v>
       </c>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="93"/>
-      <c r="S4" s="93"/>
-      <c r="T4" s="93"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="92">
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="88">
         <f>V5</f>
         <v>44473</v>
       </c>
-      <c r="W4" s="93"/>
-      <c r="X4" s="93"/>
-      <c r="Y4" s="93"/>
-      <c r="Z4" s="93"/>
-      <c r="AA4" s="93"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="92">
+      <c r="W4" s="89"/>
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="88">
         <f>AC5</f>
         <v>44480</v>
       </c>
-      <c r="AD4" s="93"/>
-      <c r="AE4" s="93"/>
-      <c r="AF4" s="93"/>
-      <c r="AG4" s="93"/>
-      <c r="AH4" s="93"/>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="92">
+      <c r="AD4" s="89"/>
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="89"/>
+      <c r="AG4" s="89"/>
+      <c r="AH4" s="89"/>
+      <c r="AI4" s="90"/>
+      <c r="AJ4" s="88">
         <f>AJ5</f>
         <v>44487</v>
       </c>
-      <c r="AK4" s="93"/>
-      <c r="AL4" s="93"/>
-      <c r="AM4" s="93"/>
-      <c r="AN4" s="93"/>
-      <c r="AO4" s="93"/>
-      <c r="AP4" s="94"/>
-      <c r="AQ4" s="92">
+      <c r="AK4" s="89"/>
+      <c r="AL4" s="89"/>
+      <c r="AM4" s="89"/>
+      <c r="AN4" s="89"/>
+      <c r="AO4" s="89"/>
+      <c r="AP4" s="90"/>
+      <c r="AQ4" s="88">
         <f>AQ5</f>
         <v>44494</v>
       </c>
-      <c r="AR4" s="93"/>
-      <c r="AS4" s="93"/>
-      <c r="AT4" s="93"/>
-      <c r="AU4" s="93"/>
-      <c r="AV4" s="93"/>
-      <c r="AW4" s="94"/>
-      <c r="AX4" s="92">
+      <c r="AR4" s="89"/>
+      <c r="AS4" s="89"/>
+      <c r="AT4" s="89"/>
+      <c r="AU4" s="89"/>
+      <c r="AV4" s="89"/>
+      <c r="AW4" s="90"/>
+      <c r="AX4" s="88">
         <f>AX5</f>
         <v>44501</v>
       </c>
-      <c r="AY4" s="93"/>
-      <c r="AZ4" s="93"/>
-      <c r="BA4" s="93"/>
-      <c r="BB4" s="93"/>
-      <c r="BC4" s="93"/>
-      <c r="BD4" s="94"/>
-      <c r="BE4" s="92">
+      <c r="AY4" s="89"/>
+      <c r="AZ4" s="89"/>
+      <c r="BA4" s="89"/>
+      <c r="BB4" s="89"/>
+      <c r="BC4" s="89"/>
+      <c r="BD4" s="90"/>
+      <c r="BE4" s="88">
         <f>BE5</f>
         <v>44508</v>
       </c>
-      <c r="BF4" s="93"/>
-      <c r="BG4" s="93"/>
-      <c r="BH4" s="93"/>
-      <c r="BI4" s="93"/>
-      <c r="BJ4" s="93"/>
-      <c r="BK4" s="94"/>
-      <c r="BL4" s="92">
+      <c r="BF4" s="89"/>
+      <c r="BG4" s="89"/>
+      <c r="BH4" s="89"/>
+      <c r="BI4" s="89"/>
+      <c r="BJ4" s="89"/>
+      <c r="BK4" s="90"/>
+      <c r="BL4" s="88">
         <f>BL5</f>
         <v>44515</v>
       </c>
-      <c r="BM4" s="93"/>
-      <c r="BN4" s="93"/>
-      <c r="BO4" s="93"/>
-      <c r="BP4" s="93"/>
-      <c r="BQ4" s="93"/>
-      <c r="BR4" s="94"/>
-      <c r="BS4" s="92">
+      <c r="BM4" s="89"/>
+      <c r="BN4" s="89"/>
+      <c r="BO4" s="89"/>
+      <c r="BP4" s="89"/>
+      <c r="BQ4" s="89"/>
+      <c r="BR4" s="90"/>
+      <c r="BS4" s="88">
         <f>BS5</f>
         <v>44522</v>
       </c>
-      <c r="BT4" s="93"/>
-      <c r="BU4" s="93"/>
-      <c r="BV4" s="93"/>
-      <c r="BW4" s="93"/>
-      <c r="BX4" s="93"/>
-      <c r="BY4" s="94"/>
-      <c r="BZ4" s="92">
+      <c r="BT4" s="89"/>
+      <c r="BU4" s="89"/>
+      <c r="BV4" s="89"/>
+      <c r="BW4" s="89"/>
+      <c r="BX4" s="89"/>
+      <c r="BY4" s="90"/>
+      <c r="BZ4" s="88">
         <f>BZ5</f>
         <v>44529</v>
       </c>
-      <c r="CA4" s="93"/>
-      <c r="CB4" s="93"/>
-      <c r="CC4" s="93"/>
-      <c r="CD4" s="93"/>
-      <c r="CE4" s="93"/>
-      <c r="CF4" s="94"/>
+      <c r="CA4" s="89"/>
+      <c r="CB4" s="89"/>
+      <c r="CC4" s="89"/>
+      <c r="CD4" s="89"/>
+      <c r="CE4" s="89"/>
+      <c r="CF4" s="90"/>
     </row>
     <row r="5" spans="1:84" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23"/>
@@ -2863,7 +3426,7 @@
       <c r="E5" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="97"/>
+      <c r="F5" s="93"/>
       <c r="H5" s="6">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2</f>
         <v>44459</v>
@@ -3269,7 +3832,7 @@
       <c r="E7" s="12"/>
       <c r="F7" s="36"/>
       <c r="G7" s="10" t="str">
-        <f t="shared" ref="G7:G57" si="23">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="G7:G51" si="23">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="H7" s="37"/>
@@ -3380,13 +3943,13 @@
       <c r="P8" s="37"/>
       <c r="Q8" s="37"/>
       <c r="R8" s="37"/>
-      <c r="S8" s="87">
+      <c r="S8" s="84">
         <v>1</v>
       </c>
-      <c r="T8" s="87"/>
-      <c r="U8" s="87"/>
-      <c r="V8" s="87"/>
-      <c r="W8" s="87"/>
+      <c r="T8" s="84"/>
+      <c r="U8" s="84"/>
+      <c r="V8" s="84"/>
+      <c r="W8" s="84"/>
       <c r="X8" s="37"/>
       <c r="Y8" s="37"/>
       <c r="Z8" s="37"/>
@@ -3455,7 +4018,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D9" s="60">
         <v>44472</v>
@@ -3478,11 +4041,11 @@
       <c r="R9" s="37"/>
       <c r="S9" s="37"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="88">
+      <c r="U9" s="85">
         <v>1</v>
       </c>
-      <c r="V9" s="88"/>
-      <c r="W9" s="88"/>
+      <c r="V9" s="85"/>
+      <c r="W9" s="85"/>
       <c r="X9" s="37"/>
       <c r="Y9" s="37"/>
       <c r="Z9" s="37"/>
@@ -3642,7 +4205,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D11" s="61">
         <v>44475</v>
@@ -3672,12 +4235,12 @@
       <c r="U11" s="65"/>
       <c r="V11" s="37"/>
       <c r="W11" s="37"/>
-      <c r="X11" s="75">
+      <c r="X11" s="72">
         <v>2</v>
       </c>
-      <c r="Y11" s="75"/>
-      <c r="Z11" s="75"/>
-      <c r="AA11" s="75"/>
+      <c r="Y11" s="72"/>
+      <c r="Z11" s="72"/>
+      <c r="AA11" s="72"/>
       <c r="AB11" s="65"/>
       <c r="AC11" s="37"/>
       <c r="AD11" s="37"/>
@@ -3742,7 +4305,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D12" s="61">
         <v>44474</v>
@@ -3768,12 +4331,12 @@
       <c r="T12" s="65"/>
       <c r="U12" s="65"/>
       <c r="V12" s="37"/>
-      <c r="W12" s="74">
+      <c r="W12" s="71">
         <v>2</v>
       </c>
-      <c r="X12" s="74"/>
-      <c r="Y12" s="74"/>
-      <c r="Z12" s="74"/>
+      <c r="X12" s="71"/>
+      <c r="Y12" s="71"/>
+      <c r="Z12" s="71"/>
       <c r="AA12" s="65"/>
       <c r="AB12" s="65"/>
       <c r="AC12" s="37"/>
@@ -3839,7 +4402,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D13" s="61">
         <v>44480</v>
@@ -3871,11 +4434,11 @@
       <c r="Z13" s="37"/>
       <c r="AA13" s="65"/>
       <c r="AB13" s="65"/>
-      <c r="AC13" s="74">
+      <c r="AC13" s="71">
         <v>2</v>
       </c>
-      <c r="AD13" s="74"/>
-      <c r="AE13" s="74"/>
+      <c r="AD13" s="71"/>
+      <c r="AE13" s="71"/>
       <c r="AF13" s="37"/>
       <c r="AG13" s="37"/>
       <c r="AH13" s="65"/>
@@ -3936,7 +4499,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D14" s="61">
         <v>44479</v>
@@ -3966,13 +4529,13 @@
       <c r="X14" s="37"/>
       <c r="Y14" s="37"/>
       <c r="Z14" s="37"/>
-      <c r="AA14" s="79"/>
-      <c r="AB14" s="80">
+      <c r="AA14" s="76"/>
+      <c r="AB14" s="77">
         <v>3</v>
       </c>
-      <c r="AC14" s="80"/>
-      <c r="AD14" s="80"/>
-      <c r="AE14" s="80"/>
+      <c r="AC14" s="77"/>
+      <c r="AD14" s="77"/>
+      <c r="AE14" s="77"/>
       <c r="AF14" s="37"/>
       <c r="AG14" s="37"/>
       <c r="AH14" s="65"/>
@@ -4033,7 +4596,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D15" s="61">
         <v>44479</v>
@@ -4063,19 +4626,19 @@
       <c r="Y15" s="37"/>
       <c r="Z15" s="37"/>
       <c r="AA15" s="65"/>
-      <c r="AB15" s="71">
+      <c r="AB15" s="69">
         <v>2</v>
       </c>
-      <c r="AC15" s="71"/>
-      <c r="AD15" s="71"/>
-      <c r="AE15" s="71"/>
+      <c r="AC15" s="69"/>
+      <c r="AD15" s="69"/>
+      <c r="AE15" s="69"/>
       <c r="AF15" s="37"/>
       <c r="AG15" s="37"/>
       <c r="AH15" s="65"/>
       <c r="AI15" s="65"/>
       <c r="AJ15" s="37"/>
       <c r="AK15" s="37"/>
-      <c r="AL15" s="76"/>
+      <c r="AL15" s="73"/>
       <c r="AM15" s="37"/>
       <c r="AN15" s="37"/>
       <c r="AO15" s="65"/>
@@ -4129,7 +4692,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D16" s="61">
         <v>44481</v>
@@ -4162,12 +4725,12 @@
       <c r="AA16" s="65"/>
       <c r="AB16" s="65"/>
       <c r="AC16" s="37"/>
-      <c r="AD16" s="75">
+      <c r="AD16" s="72">
         <v>2</v>
       </c>
-      <c r="AE16" s="75"/>
-      <c r="AF16" s="75"/>
-      <c r="AG16" s="76"/>
+      <c r="AE16" s="72"/>
+      <c r="AF16" s="72"/>
+      <c r="AG16" s="73"/>
       <c r="AH16" s="65"/>
       <c r="AI16" s="65"/>
       <c r="AJ16" s="37"/>
@@ -4226,7 +4789,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D17" s="61">
         <v>44483</v>
@@ -4261,10 +4824,10 @@
       <c r="AC17" s="37"/>
       <c r="AD17" s="37"/>
       <c r="AE17" s="37"/>
-      <c r="AF17" s="88">
+      <c r="AF17" s="85">
         <v>2</v>
       </c>
-      <c r="AG17" s="88"/>
+      <c r="AG17" s="85"/>
       <c r="AH17" s="65"/>
       <c r="AI17" s="65"/>
       <c r="AJ17" s="37"/>
@@ -4320,7 +4883,7 @@
     <row r="18" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="23"/>
       <c r="B18" s="56" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C18" s="31"/>
       <c r="D18" s="15"/>
@@ -4413,22 +4976,22 @@
         <v>1</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D19" s="62">
         <v>44493</v>
       </c>
       <c r="E19" s="62">
-        <f>D19+4</f>
-        <v>44497</v>
+        <f>D19+5</f>
+        <v>44498</v>
       </c>
       <c r="F19" s="36"/>
       <c r="G19" s="10">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H19" s="37"/>
       <c r="I19" s="37"/>
@@ -4464,14 +5027,14 @@
       <c r="AM19" s="37"/>
       <c r="AN19" s="37"/>
       <c r="AO19" s="65"/>
-      <c r="AP19" s="74">
-        <v>2</v>
-      </c>
-      <c r="AQ19" s="74"/>
-      <c r="AR19" s="74"/>
-      <c r="AS19" s="74"/>
-      <c r="AT19" s="74"/>
-      <c r="AU19" s="37"/>
+      <c r="AP19" s="71">
+        <v>3</v>
+      </c>
+      <c r="AQ19" s="71"/>
+      <c r="AR19" s="71"/>
+      <c r="AS19" s="71"/>
+      <c r="AT19" s="71"/>
+      <c r="AU19" s="71"/>
       <c r="AV19" s="65"/>
       <c r="AW19" s="65"/>
       <c r="AX19" s="37"/>
@@ -4516,7 +5079,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D20" s="62">
         <v>44488</v>
@@ -4556,12 +5119,12 @@
       <c r="AH20" s="65"/>
       <c r="AI20" s="65"/>
       <c r="AJ20" s="37"/>
-      <c r="AK20" s="80">
+      <c r="AK20" s="77">
         <v>2</v>
       </c>
-      <c r="AL20" s="80"/>
-      <c r="AM20" s="80"/>
-      <c r="AN20" s="80"/>
+      <c r="AL20" s="77"/>
+      <c r="AM20" s="77"/>
+      <c r="AN20" s="77"/>
       <c r="AO20" s="65"/>
       <c r="AP20" s="65"/>
       <c r="AQ20" s="37"/>
@@ -4610,17 +5173,17 @@
     <row r="21" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="23"/>
       <c r="B21" s="48" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C21" s="49" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D21" s="62">
         <v>44491</v>
       </c>
       <c r="E21" s="62">
-        <f>D21+2</f>
-        <v>44493</v>
+        <f>D21+5</f>
+        <v>44496</v>
       </c>
       <c r="F21" s="36"/>
       <c r="G21" s="10"/>
@@ -4656,14 +5219,14 @@
       <c r="AK21" s="37"/>
       <c r="AL21" s="37"/>
       <c r="AM21" s="37"/>
-      <c r="AN21" s="80">
-        <v>1</v>
-      </c>
-      <c r="AO21" s="80"/>
-      <c r="AP21" s="80"/>
-      <c r="AQ21" s="37"/>
-      <c r="AR21" s="37"/>
-      <c r="AS21" s="37"/>
+      <c r="AN21" s="69">
+        <v>5</v>
+      </c>
+      <c r="AO21" s="69"/>
+      <c r="AP21" s="69"/>
+      <c r="AQ21" s="69"/>
+      <c r="AR21" s="69"/>
+      <c r="AS21" s="69"/>
       <c r="AT21" s="37"/>
       <c r="AU21" s="37"/>
       <c r="AV21" s="65"/>
@@ -4707,10 +5270,10 @@
     <row r="22" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="23"/>
       <c r="B22" s="48" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C22" s="49" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D22" s="62">
         <v>44496</v>
@@ -4758,13 +5321,13 @@
       <c r="AP22" s="65"/>
       <c r="AQ22" s="37"/>
       <c r="AR22" s="37"/>
-      <c r="AS22" s="71">
-        <v>3</v>
-      </c>
-      <c r="AT22" s="71"/>
-      <c r="AU22" s="71"/>
-      <c r="AV22" s="71"/>
-      <c r="AW22" s="71"/>
+      <c r="AS22" s="70">
+        <v>2</v>
+      </c>
+      <c r="AT22" s="70"/>
+      <c r="AU22" s="70"/>
+      <c r="AV22" s="70"/>
+      <c r="AW22" s="37"/>
       <c r="AX22" s="37"/>
       <c r="AY22" s="37"/>
       <c r="AZ22" s="37"/>
@@ -4804,17 +5367,17 @@
     <row r="23" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="23"/>
       <c r="B23" s="48" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C23" s="49" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D23" s="62">
         <v>44494</v>
       </c>
       <c r="E23" s="62">
-        <f>D23+2</f>
-        <v>44496</v>
+        <f>D23+5</f>
+        <v>44499</v>
       </c>
       <c r="F23" s="36"/>
       <c r="G23" s="10"/>
@@ -4853,14 +5416,14 @@
       <c r="AN23" s="37"/>
       <c r="AO23" s="65"/>
       <c r="AP23" s="65"/>
-      <c r="AQ23" s="75">
-        <v>2</v>
-      </c>
-      <c r="AR23" s="75"/>
-      <c r="AS23" s="75"/>
-      <c r="AT23" s="37"/>
-      <c r="AU23" s="37"/>
-      <c r="AV23" s="65"/>
+      <c r="AQ23" s="82">
+        <v>4</v>
+      </c>
+      <c r="AR23" s="82"/>
+      <c r="AS23" s="82"/>
+      <c r="AT23" s="82"/>
+      <c r="AU23" s="82"/>
+      <c r="AV23" s="82"/>
       <c r="AW23" s="65"/>
       <c r="AX23" s="37"/>
       <c r="AY23" s="37"/>
@@ -4901,17 +5464,17 @@
     <row r="24" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="23"/>
       <c r="B24" s="48" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C24" s="49" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D24" s="62">
         <v>44499</v>
       </c>
       <c r="E24" s="62">
-        <f>D24+3</f>
-        <v>44502</v>
+        <f>D24+5</f>
+        <v>44504</v>
       </c>
       <c r="F24" s="36"/>
       <c r="G24" s="10"/>
@@ -4955,14 +5518,14 @@
       <c r="AS24" s="37"/>
       <c r="AT24" s="37"/>
       <c r="AU24" s="37"/>
-      <c r="AV24" s="74">
-        <v>2</v>
-      </c>
-      <c r="AW24" s="74"/>
-      <c r="AX24" s="74"/>
-      <c r="AY24" s="74"/>
-      <c r="AZ24" s="37"/>
-      <c r="BA24" s="37"/>
+      <c r="AV24" s="75">
+        <v>5</v>
+      </c>
+      <c r="AW24" s="81"/>
+      <c r="AX24" s="81"/>
+      <c r="AY24" s="81"/>
+      <c r="AZ24" s="81"/>
+      <c r="BA24" s="81"/>
       <c r="BB24" s="37"/>
       <c r="BC24" s="65"/>
       <c r="BD24" s="65"/>
@@ -4997,18 +5560,18 @@
     </row>
     <row r="25" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="23"/>
-      <c r="B25" s="81" t="s">
-        <v>58</v>
+      <c r="B25" s="78" t="s">
+        <v>48</v>
       </c>
       <c r="C25" s="49" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D25" s="62">
-        <v>44497</v>
+        <v>44505</v>
       </c>
       <c r="E25" s="62">
-        <f>D25+3</f>
-        <v>44500</v>
+        <f>D25+2</f>
+        <v>44507</v>
       </c>
       <c r="F25" s="36"/>
       <c r="G25" s="10"/>
@@ -5021,7 +5584,7 @@
       <c r="N25" s="65"/>
       <c r="O25" s="37"/>
       <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
+      <c r="Q25" s="96"/>
       <c r="R25" s="37"/>
       <c r="S25" s="37"/>
       <c r="T25" s="65"/>
@@ -5050,19 +5613,19 @@
       <c r="AQ25" s="37"/>
       <c r="AR25" s="37"/>
       <c r="AS25" s="37"/>
-      <c r="AT25" s="88">
-        <v>3</v>
-      </c>
-      <c r="AU25" s="88"/>
-      <c r="AV25" s="88"/>
-      <c r="AW25" s="88"/>
+      <c r="AT25" s="37"/>
+      <c r="AU25" s="37"/>
+      <c r="AV25" s="37"/>
+      <c r="AW25" s="37"/>
       <c r="AX25" s="37"/>
       <c r="AY25" s="37"/>
       <c r="AZ25" s="37"/>
       <c r="BA25" s="37"/>
-      <c r="BB25" s="37"/>
-      <c r="BC25" s="65"/>
-      <c r="BD25" s="65"/>
+      <c r="BB25" s="75">
+        <v>1</v>
+      </c>
+      <c r="BC25" s="75"/>
+      <c r="BD25" s="75"/>
       <c r="BE25" s="37"/>
       <c r="BF25" s="37"/>
       <c r="BG25" s="37"/>
@@ -5094,18 +5657,18 @@
     </row>
     <row r="26" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="23"/>
-      <c r="B26" s="81" t="s">
-        <v>59</v>
+      <c r="B26" s="78" t="s">
+        <v>49</v>
       </c>
       <c r="C26" s="49" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D26" s="62">
         <v>44491</v>
       </c>
       <c r="E26" s="62">
-        <f>D26+2</f>
-        <v>44493</v>
+        <f>D26+5</f>
+        <v>44496</v>
       </c>
       <c r="F26" s="36"/>
       <c r="G26" s="10"/>
@@ -5141,14 +5704,14 @@
       <c r="AK26" s="37"/>
       <c r="AL26" s="37"/>
       <c r="AM26" s="37"/>
-      <c r="AN26" s="88">
-        <v>1</v>
-      </c>
-      <c r="AO26" s="88"/>
-      <c r="AP26" s="88"/>
-      <c r="AQ26" s="37"/>
-      <c r="AR26" s="37"/>
-      <c r="AS26" s="37"/>
+      <c r="AN26" s="72">
+        <v>5</v>
+      </c>
+      <c r="AO26" s="72"/>
+      <c r="AP26" s="72"/>
+      <c r="AQ26" s="72"/>
+      <c r="AR26" s="72"/>
+      <c r="AS26" s="72"/>
       <c r="AT26" s="37"/>
       <c r="AU26" s="37"/>
       <c r="AV26" s="65"/>
@@ -5191,8 +5754,8 @@
     </row>
     <row r="27" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="23"/>
-      <c r="B27" s="72" t="s">
-        <v>40</v>
+      <c r="B27" s="78" t="s">
+        <v>50</v>
       </c>
       <c r="C27" s="49" t="s">
         <v>37</v>
@@ -5201,8 +5764,8 @@
         <v>44497</v>
       </c>
       <c r="E27" s="62">
-        <f>D27+5</f>
-        <v>44502</v>
+        <f>D27+2</f>
+        <v>44499</v>
       </c>
       <c r="F27" s="36"/>
       <c r="G27" s="10"/>
@@ -5244,14 +5807,14 @@
       <c r="AQ27" s="37"/>
       <c r="AR27" s="37"/>
       <c r="AS27" s="37"/>
-      <c r="AT27" s="71">
-        <v>3</v>
-      </c>
-      <c r="AU27" s="71"/>
-      <c r="AV27" s="71"/>
-      <c r="AW27" s="71"/>
-      <c r="AX27" s="71"/>
-      <c r="AY27" s="71"/>
+      <c r="AT27" s="94">
+        <v>1</v>
+      </c>
+      <c r="AU27" s="94"/>
+      <c r="AV27" s="94"/>
+      <c r="AW27" s="65"/>
+      <c r="AX27" s="65"/>
+      <c r="AY27" s="65"/>
       <c r="AZ27" s="37"/>
       <c r="BA27" s="37"/>
       <c r="BB27" s="37"/>
@@ -5288,18 +5851,18 @@
     </row>
     <row r="28" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="23"/>
-      <c r="B28" s="81" t="s">
-        <v>52</v>
+      <c r="B28" s="78" t="s">
+        <v>51</v>
       </c>
       <c r="C28" s="49" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D28" s="62">
-        <v>44494</v>
+        <v>44501</v>
       </c>
       <c r="E28" s="62">
-        <f>D28+4</f>
-        <v>44498</v>
+        <f>D28+6</f>
+        <v>44507</v>
       </c>
       <c r="F28" s="36"/>
       <c r="G28" s="10"/>
@@ -5338,22 +5901,22 @@
       <c r="AN28" s="37"/>
       <c r="AO28" s="65"/>
       <c r="AP28" s="65"/>
-      <c r="AQ28" s="80">
-        <v>2</v>
-      </c>
-      <c r="AR28" s="80"/>
-      <c r="AS28" s="80"/>
-      <c r="AT28" s="80"/>
-      <c r="AU28" s="80"/>
-      <c r="AV28" s="65"/>
-      <c r="AW28" s="65"/>
-      <c r="AX28" s="37"/>
-      <c r="AY28" s="37"/>
-      <c r="AZ28" s="37"/>
-      <c r="BA28" s="37"/>
-      <c r="BB28" s="37"/>
-      <c r="BC28" s="65"/>
-      <c r="BD28" s="65"/>
+      <c r="AQ28" s="37"/>
+      <c r="AR28" s="37"/>
+      <c r="AS28" s="37"/>
+      <c r="AT28" s="37"/>
+      <c r="AU28" s="37"/>
+      <c r="AV28" s="37"/>
+      <c r="AW28" s="37"/>
+      <c r="AX28" s="82">
+        <v>5</v>
+      </c>
+      <c r="AY28" s="82"/>
+      <c r="AZ28" s="82"/>
+      <c r="BA28" s="82"/>
+      <c r="BB28" s="82"/>
+      <c r="BC28" s="82"/>
+      <c r="BD28" s="82"/>
       <c r="BE28" s="37"/>
       <c r="BF28" s="37"/>
       <c r="BG28" s="37"/>
@@ -5385,18 +5948,18 @@
     </row>
     <row r="29" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="23"/>
-      <c r="B29" s="81" t="s">
-        <v>53</v>
+      <c r="B29" s="78" t="s">
+        <v>52</v>
       </c>
       <c r="C29" s="49" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D29" s="62">
-        <v>44494</v>
+        <v>44497</v>
       </c>
       <c r="E29" s="62">
         <f>D29+2</f>
-        <v>44496</v>
+        <v>44499</v>
       </c>
       <c r="F29" s="36"/>
       <c r="G29" s="10"/>
@@ -5435,14 +5998,14 @@
       <c r="AN29" s="37"/>
       <c r="AO29" s="65"/>
       <c r="AP29" s="65"/>
-      <c r="AQ29" s="78">
-        <v>1</v>
-      </c>
-      <c r="AR29" s="78"/>
-      <c r="AS29" s="78"/>
-      <c r="AT29" s="37"/>
-      <c r="AU29" s="37"/>
-      <c r="AV29" s="65"/>
+      <c r="AQ29" s="37"/>
+      <c r="AR29" s="37"/>
+      <c r="AS29" s="37"/>
+      <c r="AT29" s="69">
+        <v>2</v>
+      </c>
+      <c r="AU29" s="69"/>
+      <c r="AV29" s="69"/>
       <c r="AW29" s="65"/>
       <c r="AX29" s="37"/>
       <c r="AY29" s="37"/>
@@ -5482,18 +6045,18 @@
     </row>
     <row r="30" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="23"/>
-      <c r="B30" s="72" t="s">
-        <v>47</v>
+      <c r="B30" s="78" t="s">
+        <v>53</v>
       </c>
       <c r="C30" s="49" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D30" s="62">
         <v>44502</v>
       </c>
       <c r="E30" s="62">
-        <f>D30+3</f>
-        <v>44505</v>
+        <f>D30+4</f>
+        <v>44506</v>
       </c>
       <c r="F30" s="36"/>
       <c r="G30" s="10"/>
@@ -5540,13 +6103,13 @@
       <c r="AV30" s="65"/>
       <c r="AW30" s="65"/>
       <c r="AX30" s="37"/>
-      <c r="AY30" s="73">
+      <c r="AY30" s="69">
         <v>2</v>
       </c>
-      <c r="AZ30" s="73"/>
-      <c r="BA30" s="73"/>
-      <c r="BB30" s="73"/>
-      <c r="BC30" s="65"/>
+      <c r="AZ30" s="69"/>
+      <c r="BA30" s="69"/>
+      <c r="BB30" s="69"/>
+      <c r="BC30" s="69"/>
       <c r="BD30" s="65"/>
       <c r="BE30" s="37"/>
       <c r="BF30" s="37"/>
@@ -5579,18 +6142,18 @@
     </row>
     <row r="31" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="23"/>
-      <c r="B31" s="72" t="s">
-        <v>49</v>
+      <c r="B31" s="78" t="s">
+        <v>54</v>
       </c>
       <c r="C31" s="49" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D31" s="62">
-        <v>44497</v>
+        <v>44501</v>
       </c>
       <c r="E31" s="62">
-        <f>D31+4</f>
-        <v>44501</v>
+        <f>D31+2</f>
+        <v>44503</v>
       </c>
       <c r="F31" s="36"/>
       <c r="G31" s="10"/>
@@ -5632,15 +6195,15 @@
       <c r="AQ31" s="37"/>
       <c r="AR31" s="37"/>
       <c r="AS31" s="37"/>
-      <c r="AT31" s="75">
-        <v>3</v>
-      </c>
-      <c r="AU31" s="75"/>
-      <c r="AV31" s="75"/>
-      <c r="AW31" s="75"/>
-      <c r="AX31" s="75"/>
-      <c r="AY31" s="37"/>
-      <c r="AZ31" s="37"/>
+      <c r="AT31" s="65"/>
+      <c r="AU31" s="65"/>
+      <c r="AV31" s="65"/>
+      <c r="AW31" s="65"/>
+      <c r="AX31" s="70">
+        <v>2</v>
+      </c>
+      <c r="AY31" s="70"/>
+      <c r="AZ31" s="70"/>
       <c r="BA31" s="37"/>
       <c r="BB31" s="37"/>
       <c r="BC31" s="65"/>
@@ -5676,18 +6239,18 @@
     </row>
     <row r="32" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="23"/>
-      <c r="B32" s="81" t="s">
-        <v>54</v>
+      <c r="B32" s="78" t="s">
+        <v>55</v>
       </c>
       <c r="C32" s="49" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D32" s="62">
         <v>44497</v>
       </c>
       <c r="E32" s="62">
-        <f>D32+2</f>
-        <v>44499</v>
+        <f>D32+4</f>
+        <v>44501</v>
       </c>
       <c r="F32" s="36"/>
       <c r="G32" s="10"/>
@@ -5730,12 +6293,12 @@
       <c r="AR32" s="37"/>
       <c r="AS32" s="37"/>
       <c r="AT32" s="37"/>
-      <c r="AU32" s="78">
-        <v>1</v>
-      </c>
-      <c r="AV32" s="78"/>
-      <c r="AW32" s="78"/>
-      <c r="AX32" s="37"/>
+      <c r="AU32" s="72">
+        <v>3</v>
+      </c>
+      <c r="AV32" s="72"/>
+      <c r="AW32" s="72"/>
+      <c r="AX32" s="72"/>
       <c r="AY32" s="37"/>
       <c r="AZ32" s="37"/>
       <c r="BA32" s="37"/>
@@ -5773,18 +6336,18 @@
     </row>
     <row r="33" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="23"/>
-      <c r="B33" s="70" t="s">
-        <v>22</v>
+      <c r="B33" s="78" t="s">
+        <v>56</v>
       </c>
       <c r="C33" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="62">
-        <v>44502</v>
+        <v>35</v>
+      </c>
+      <c r="D33" s="97">
+        <v>44506</v>
       </c>
       <c r="E33" s="62">
         <f>D33+3</f>
-        <v>44505</v>
+        <v>44509</v>
       </c>
       <c r="F33" s="36"/>
       <c r="G33" s="10"/>
@@ -5831,16 +6394,16 @@
       <c r="AV33" s="65"/>
       <c r="AW33" s="65"/>
       <c r="AX33" s="37"/>
-      <c r="AY33" s="89">
+      <c r="AY33" s="65"/>
+      <c r="AZ33" s="65"/>
+      <c r="BA33" s="65"/>
+      <c r="BB33" s="65"/>
+      <c r="BC33" s="70">
         <v>2</v>
       </c>
-      <c r="AZ33" s="89"/>
-      <c r="BA33" s="89"/>
-      <c r="BB33" s="89"/>
-      <c r="BC33" s="65"/>
-      <c r="BD33" s="65"/>
-      <c r="BE33" s="37"/>
-      <c r="BF33" s="37"/>
+      <c r="BD33" s="70"/>
+      <c r="BE33" s="70"/>
+      <c r="BF33" s="70"/>
       <c r="BG33" s="37"/>
       <c r="BH33" s="37"/>
       <c r="BI33" s="37"/>
@@ -5870,18 +6433,18 @@
     </row>
     <row r="34" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="23"/>
-      <c r="B34" s="72" t="s">
-        <v>50</v>
+      <c r="B34" s="78" t="s">
+        <v>57</v>
       </c>
       <c r="C34" s="49" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D34" s="62">
-        <v>44502</v>
+        <v>44508</v>
       </c>
       <c r="E34" s="62">
-        <f>D34+4</f>
-        <v>44506</v>
+        <f>D34+2</f>
+        <v>44510</v>
       </c>
       <c r="F34" s="36"/>
       <c r="G34" s="10"/>
@@ -5928,17 +6491,17 @@
       <c r="AV34" s="65"/>
       <c r="AW34" s="65"/>
       <c r="AX34" s="37"/>
-      <c r="AY34" s="75">
-        <v>3</v>
-      </c>
-      <c r="AZ34" s="75"/>
-      <c r="BA34" s="75"/>
-      <c r="BB34" s="75"/>
-      <c r="BC34" s="75"/>
+      <c r="AY34" s="37"/>
+      <c r="AZ34" s="37"/>
+      <c r="BA34" s="37"/>
+      <c r="BB34" s="37"/>
+      <c r="BC34" s="37"/>
       <c r="BD34" s="37"/>
-      <c r="BE34" s="37"/>
-      <c r="BF34" s="37"/>
-      <c r="BG34" s="37"/>
+      <c r="BE34" s="87">
+        <v>1</v>
+      </c>
+      <c r="BF34" s="87"/>
+      <c r="BG34" s="87"/>
       <c r="BH34" s="37"/>
       <c r="BI34" s="37"/>
       <c r="BJ34" s="65"/>
@@ -5967,18 +6530,18 @@
     </row>
     <row r="35" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
-      <c r="B35" s="70" t="s">
-        <v>23</v>
+      <c r="B35" s="95" t="s">
+        <v>58</v>
       </c>
       <c r="C35" s="49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D35" s="62">
-        <v>44501</v>
+        <v>44510</v>
       </c>
       <c r="E35" s="62">
-        <f>D35+3</f>
-        <v>44504</v>
+        <f>D35</f>
+        <v>44510</v>
       </c>
       <c r="F35" s="36"/>
       <c r="G35" s="10"/>
@@ -6024,18 +6587,18 @@
       <c r="AU35" s="37"/>
       <c r="AV35" s="65"/>
       <c r="AW35" s="65"/>
-      <c r="AX35" s="71">
-        <v>2</v>
-      </c>
-      <c r="AY35" s="71"/>
-      <c r="AZ35" s="71"/>
-      <c r="BA35" s="71"/>
+      <c r="AX35" s="37"/>
+      <c r="AY35" s="37"/>
+      <c r="AZ35" s="37"/>
+      <c r="BA35" s="37"/>
       <c r="BB35" s="37"/>
       <c r="BC35" s="65"/>
       <c r="BD35" s="65"/>
       <c r="BE35" s="37"/>
       <c r="BF35" s="37"/>
-      <c r="BG35" s="37"/>
+      <c r="BG35" s="82">
+        <v>1</v>
+      </c>
       <c r="BH35" s="37"/>
       <c r="BI35" s="37"/>
       <c r="BJ35" s="65"/>
@@ -6064,118 +6627,115 @@
     </row>
     <row r="36" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="23"/>
-      <c r="B36" s="81" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" s="62">
-        <v>44501</v>
-      </c>
-      <c r="E36" s="62">
-        <f>D36+3</f>
-        <v>44504</v>
-      </c>
+      <c r="B36" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="32"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="18"/>
       <c r="F36" s="36"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="65"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="65"/>
-      <c r="U36" s="65"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="37"/>
-      <c r="X36" s="37"/>
-      <c r="Y36" s="37"/>
-      <c r="Z36" s="37"/>
-      <c r="AA36" s="65"/>
-      <c r="AB36" s="65"/>
-      <c r="AC36" s="37"/>
-      <c r="AD36" s="37"/>
-      <c r="AE36" s="37"/>
-      <c r="AF36" s="37"/>
-      <c r="AG36" s="37"/>
-      <c r="AH36" s="65"/>
-      <c r="AI36" s="65"/>
-      <c r="AJ36" s="37"/>
-      <c r="AK36" s="37"/>
-      <c r="AL36" s="37"/>
-      <c r="AM36" s="37"/>
-      <c r="AN36" s="37"/>
-      <c r="AO36" s="65"/>
-      <c r="AP36" s="65"/>
-      <c r="AQ36" s="37"/>
-      <c r="AR36" s="37"/>
-      <c r="AS36" s="37"/>
-      <c r="AT36" s="37"/>
-      <c r="AU36" s="37"/>
-      <c r="AV36" s="65"/>
-      <c r="AW36" s="65"/>
-      <c r="AX36" s="80">
-        <v>2</v>
-      </c>
-      <c r="AY36" s="80"/>
-      <c r="AZ36" s="80"/>
-      <c r="BA36" s="80"/>
-      <c r="BB36" s="37"/>
-      <c r="BC36" s="65"/>
-      <c r="BD36" s="65"/>
-      <c r="BE36" s="37"/>
-      <c r="BF36" s="37"/>
-      <c r="BG36" s="37"/>
-      <c r="BH36" s="37"/>
-      <c r="BI36" s="37"/>
-      <c r="BJ36" s="65"/>
-      <c r="BK36" s="65"/>
-      <c r="BL36" s="37"/>
-      <c r="BM36" s="37"/>
-      <c r="BN36" s="37"/>
-      <c r="BO36" s="37"/>
-      <c r="BP36" s="37"/>
-      <c r="BQ36" s="65"/>
-      <c r="BR36" s="65"/>
-      <c r="BS36" s="37"/>
-      <c r="BT36" s="37"/>
-      <c r="BU36" s="37"/>
-      <c r="BV36" s="37"/>
-      <c r="BW36" s="37"/>
-      <c r="BX36" s="65"/>
-      <c r="BY36" s="65"/>
-      <c r="BZ36" s="37"/>
-      <c r="CA36" s="37"/>
-      <c r="CB36" s="37"/>
-      <c r="CC36" s="37"/>
-      <c r="CD36" s="37"/>
-      <c r="CE36" s="65"/>
-      <c r="CF36" s="65"/>
+      <c r="G36" s="36" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="36"/>
+      <c r="Y36" s="36"/>
+      <c r="Z36" s="36"/>
+      <c r="AA36" s="36"/>
+      <c r="AB36" s="36"/>
+      <c r="AC36" s="36"/>
+      <c r="AD36" s="36"/>
+      <c r="AE36" s="36"/>
+      <c r="AF36" s="36"/>
+      <c r="AG36" s="36"/>
+      <c r="AH36" s="36"/>
+      <c r="AI36" s="36"/>
+      <c r="AJ36" s="36"/>
+      <c r="AK36" s="36"/>
+      <c r="AL36" s="36"/>
+      <c r="AM36" s="36"/>
+      <c r="AN36" s="36"/>
+      <c r="AO36" s="36"/>
+      <c r="AP36" s="36"/>
+      <c r="AQ36" s="36"/>
+      <c r="AR36" s="36"/>
+      <c r="AS36" s="36"/>
+      <c r="AT36" s="36"/>
+      <c r="AU36" s="36"/>
+      <c r="AV36" s="36"/>
+      <c r="AW36" s="36"/>
+      <c r="AX36" s="36"/>
+      <c r="AY36" s="36"/>
+      <c r="AZ36" s="36"/>
+      <c r="BA36" s="36"/>
+      <c r="BB36" s="36"/>
+      <c r="BC36" s="36"/>
+      <c r="BD36" s="36"/>
+      <c r="BE36" s="36"/>
+      <c r="BF36" s="36"/>
+      <c r="BG36" s="36"/>
+      <c r="BH36" s="36"/>
+      <c r="BI36" s="36"/>
+      <c r="BJ36" s="36"/>
+      <c r="BK36" s="36"/>
+      <c r="BL36" s="36"/>
+      <c r="BM36" s="36"/>
+      <c r="BN36" s="36"/>
+      <c r="BO36" s="36"/>
+      <c r="BP36" s="36"/>
+      <c r="BQ36" s="36"/>
+      <c r="BR36" s="36"/>
+      <c r="BS36" s="36"/>
+      <c r="BT36" s="36"/>
+      <c r="BU36" s="36"/>
+      <c r="BV36" s="36"/>
+      <c r="BW36" s="36"/>
+      <c r="BX36" s="36"/>
+      <c r="BY36" s="36"/>
+      <c r="BZ36" s="36"/>
+      <c r="CA36" s="36"/>
+      <c r="CB36" s="36"/>
+      <c r="CC36" s="36"/>
+      <c r="CD36" s="36"/>
+      <c r="CE36" s="36"/>
+      <c r="CF36" s="36"/>
     </row>
     <row r="37" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="23"/>
-      <c r="B37" s="72" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37" s="62">
-        <v>44503</v>
-      </c>
-      <c r="E37" s="62">
-        <f>D37+2</f>
-        <v>44505</v>
+      <c r="B37" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="63">
+        <v>44515</v>
+      </c>
+      <c r="E37" s="63">
+        <f>D37+4</f>
+        <v>44519</v>
       </c>
       <c r="F37" s="36"/>
-      <c r="G37" s="10"/>
+      <c r="G37" s="10">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
       <c r="H37" s="37"/>
       <c r="I37" s="37"/>
       <c r="J37" s="37"/>
@@ -6220,11 +6780,10 @@
       <c r="AW37" s="65"/>
       <c r="AX37" s="37"/>
       <c r="AY37" s="37"/>
-      <c r="BA37" s="73">
-        <v>1</v>
-      </c>
-      <c r="BB37" s="73"/>
-      <c r="BC37" s="73"/>
+      <c r="AZ37" s="37"/>
+      <c r="BA37" s="37"/>
+      <c r="BB37" s="37"/>
+      <c r="BC37" s="65"/>
       <c r="BD37" s="65"/>
       <c r="BE37" s="37"/>
       <c r="BF37" s="37"/>
@@ -6233,11 +6792,13 @@
       <c r="BI37" s="37"/>
       <c r="BJ37" s="65"/>
       <c r="BK37" s="65"/>
-      <c r="BL37" s="37"/>
-      <c r="BM37" s="37"/>
-      <c r="BN37" s="37"/>
-      <c r="BO37" s="37"/>
-      <c r="BP37" s="37"/>
+      <c r="BL37" s="72">
+        <v>1</v>
+      </c>
+      <c r="BM37" s="72"/>
+      <c r="BN37" s="72"/>
+      <c r="BO37" s="72"/>
+      <c r="BP37" s="72"/>
       <c r="BQ37" s="65"/>
       <c r="BR37" s="65"/>
       <c r="BS37" s="37"/>
@@ -6257,18 +6818,18 @@
     </row>
     <row r="38" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="23"/>
-      <c r="B38" s="81" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38" s="62">
-        <v>44494</v>
-      </c>
-      <c r="E38" s="62">
-        <f>D38+3</f>
-        <v>44497</v>
+      <c r="B38" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="63">
+        <v>44515</v>
+      </c>
+      <c r="E38" s="63">
+        <f>D38+5</f>
+        <v>44520</v>
       </c>
       <c r="F38" s="36"/>
       <c r="G38" s="10"/>
@@ -6307,12 +6868,10 @@
       <c r="AN38" s="37"/>
       <c r="AO38" s="65"/>
       <c r="AP38" s="65"/>
-      <c r="AQ38" s="89">
-        <v>2</v>
-      </c>
-      <c r="AR38" s="89"/>
-      <c r="AS38" s="89"/>
-      <c r="AT38" s="89"/>
+      <c r="AQ38" s="37"/>
+      <c r="AR38" s="37"/>
+      <c r="AS38" s="37"/>
+      <c r="AT38" s="37"/>
       <c r="AU38" s="37"/>
       <c r="AV38" s="65"/>
       <c r="AW38" s="65"/>
@@ -6330,12 +6889,14 @@
       <c r="BI38" s="37"/>
       <c r="BJ38" s="65"/>
       <c r="BK38" s="65"/>
-      <c r="BL38" s="37"/>
-      <c r="BM38" s="37"/>
-      <c r="BN38" s="37"/>
-      <c r="BO38" s="37"/>
-      <c r="BP38" s="37"/>
-      <c r="BQ38" s="65"/>
+      <c r="BL38" s="69">
+        <v>2</v>
+      </c>
+      <c r="BM38" s="69"/>
+      <c r="BN38" s="69"/>
+      <c r="BO38" s="69"/>
+      <c r="BP38" s="69"/>
+      <c r="BQ38" s="69"/>
       <c r="BR38" s="65"/>
       <c r="BS38" s="37"/>
       <c r="BT38" s="37"/>
@@ -6354,18 +6915,18 @@
     </row>
     <row r="39" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="23"/>
-      <c r="B39" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39" s="62">
-        <v>44497</v>
-      </c>
-      <c r="E39" s="62">
-        <f>D39+3</f>
-        <v>44500</v>
+      <c r="B39" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="63">
+        <v>44515</v>
+      </c>
+      <c r="E39" s="63">
+        <f t="shared" ref="E39" si="24">D39+4</f>
+        <v>44519</v>
       </c>
       <c r="F39" s="36"/>
       <c r="G39" s="10"/>
@@ -6407,12 +6968,10 @@
       <c r="AQ39" s="37"/>
       <c r="AR39" s="37"/>
       <c r="AS39" s="37"/>
-      <c r="AT39" s="68">
-        <v>2</v>
-      </c>
-      <c r="AU39" s="68"/>
-      <c r="AV39" s="68"/>
-      <c r="AW39" s="68"/>
+      <c r="AT39" s="37"/>
+      <c r="AU39" s="37"/>
+      <c r="AV39" s="65"/>
+      <c r="AW39" s="65"/>
       <c r="AX39" s="37"/>
       <c r="AY39" s="37"/>
       <c r="AZ39" s="37"/>
@@ -6427,11 +6986,13 @@
       <c r="BI39" s="37"/>
       <c r="BJ39" s="65"/>
       <c r="BK39" s="65"/>
-      <c r="BL39" s="37"/>
-      <c r="BM39" s="37"/>
-      <c r="BN39" s="37"/>
-      <c r="BO39" s="37"/>
-      <c r="BP39" s="37"/>
+      <c r="BL39" s="77">
+        <v>2</v>
+      </c>
+      <c r="BM39" s="77"/>
+      <c r="BN39" s="77"/>
+      <c r="BO39" s="77"/>
+      <c r="BP39" s="77"/>
       <c r="BQ39" s="65"/>
       <c r="BR39" s="65"/>
       <c r="BS39" s="37"/>
@@ -6451,18 +7012,17 @@
     </row>
     <row r="40" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="23"/>
-      <c r="B40" s="70" t="s">
+      <c r="B40" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="62">
-        <v>44504</v>
-      </c>
-      <c r="E40" s="62">
-        <f>D40+2</f>
-        <v>44506</v>
+      <c r="C40" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="63">
+        <v>44522</v>
+      </c>
+      <c r="E40" s="63">
+        <v>44522</v>
       </c>
       <c r="F40" s="36"/>
       <c r="G40" s="10"/>
@@ -6511,11 +7071,9 @@
       <c r="AX40" s="37"/>
       <c r="AY40" s="37"/>
       <c r="AZ40" s="37"/>
-      <c r="BA40" s="90">
-        <v>1</v>
-      </c>
-      <c r="BB40" s="90"/>
-      <c r="BC40" s="90"/>
+      <c r="BA40" s="37"/>
+      <c r="BB40" s="37"/>
+      <c r="BC40" s="65"/>
       <c r="BD40" s="65"/>
       <c r="BE40" s="37"/>
       <c r="BF40" s="37"/>
@@ -6531,7 +7089,9 @@
       <c r="BP40" s="37"/>
       <c r="BQ40" s="65"/>
       <c r="BR40" s="65"/>
-      <c r="BS40" s="37"/>
+      <c r="BS40" s="69" t="s">
+        <v>32</v>
+      </c>
       <c r="BT40" s="37"/>
       <c r="BU40" s="37"/>
       <c r="BV40" s="37"/>
@@ -6548,18 +7108,17 @@
     </row>
     <row r="41" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="23"/>
-      <c r="B41" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" s="62">
-        <v>44507</v>
-      </c>
-      <c r="E41" s="62">
-        <f>D41</f>
-        <v>44507</v>
+      <c r="B41" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="63">
+        <v>44522</v>
+      </c>
+      <c r="E41" s="63">
+        <v>44522</v>
       </c>
       <c r="F41" s="36"/>
       <c r="G41" s="10"/>
@@ -6611,9 +7170,7 @@
       <c r="BA41" s="37"/>
       <c r="BB41" s="37"/>
       <c r="BC41" s="65"/>
-      <c r="BD41" s="91">
-        <v>1</v>
-      </c>
+      <c r="BD41" s="65"/>
       <c r="BE41" s="37"/>
       <c r="BF41" s="37"/>
       <c r="BG41" s="37"/>
@@ -6628,7 +7185,9 @@
       <c r="BP41" s="37"/>
       <c r="BQ41" s="65"/>
       <c r="BR41" s="65"/>
-      <c r="BS41" s="37"/>
+      <c r="BS41" s="86" t="s">
+        <v>41</v>
+      </c>
       <c r="BT41" s="37"/>
       <c r="BU41" s="37"/>
       <c r="BV41" s="37"/>
@@ -6645,115 +7204,116 @@
     </row>
     <row r="42" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="23"/>
-      <c r="B42" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="32"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="18"/>
+      <c r="B42" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="63">
+        <v>44523</v>
+      </c>
+      <c r="E42" s="63">
+        <v>44523</v>
+      </c>
       <c r="F42" s="36"/>
-      <c r="G42" s="36" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="36"/>
-      <c r="O42" s="36"/>
-      <c r="P42" s="36"/>
-      <c r="Q42" s="36"/>
-      <c r="R42" s="36"/>
-      <c r="S42" s="36"/>
-      <c r="T42" s="36"/>
-      <c r="U42" s="36"/>
-      <c r="V42" s="36"/>
-      <c r="W42" s="36"/>
-      <c r="X42" s="36"/>
-      <c r="Y42" s="36"/>
-      <c r="Z42" s="36"/>
-      <c r="AA42" s="36"/>
-      <c r="AB42" s="36"/>
-      <c r="AC42" s="36"/>
-      <c r="AD42" s="36"/>
-      <c r="AE42" s="36"/>
-      <c r="AF42" s="36"/>
-      <c r="AG42" s="36"/>
-      <c r="AH42" s="36"/>
-      <c r="AI42" s="36"/>
-      <c r="AJ42" s="36"/>
-      <c r="AK42" s="36"/>
-      <c r="AL42" s="36"/>
-      <c r="AM42" s="36"/>
-      <c r="AN42" s="36"/>
-      <c r="AO42" s="36"/>
-      <c r="AP42" s="36"/>
-      <c r="AQ42" s="36"/>
-      <c r="AR42" s="36"/>
-      <c r="AS42" s="36"/>
-      <c r="AT42" s="36"/>
-      <c r="AU42" s="36"/>
-      <c r="AV42" s="36"/>
-      <c r="AW42" s="36"/>
-      <c r="AX42" s="36"/>
-      <c r="AY42" s="36"/>
-      <c r="AZ42" s="36"/>
-      <c r="BA42" s="36"/>
-      <c r="BB42" s="36"/>
-      <c r="BC42" s="36"/>
-      <c r="BD42" s="36"/>
-      <c r="BE42" s="36"/>
-      <c r="BF42" s="36"/>
-      <c r="BG42" s="36"/>
-      <c r="BH42" s="36"/>
-      <c r="BI42" s="36"/>
-      <c r="BJ42" s="36"/>
-      <c r="BK42" s="36"/>
-      <c r="BL42" s="36"/>
-      <c r="BM42" s="36"/>
-      <c r="BN42" s="36"/>
-      <c r="BO42" s="36"/>
-      <c r="BP42" s="36"/>
-      <c r="BQ42" s="36"/>
-      <c r="BR42" s="36"/>
-      <c r="BS42" s="36"/>
-      <c r="BT42" s="36"/>
-      <c r="BU42" s="36"/>
-      <c r="BV42" s="36"/>
-      <c r="BW42" s="36"/>
-      <c r="BX42" s="36"/>
-      <c r="BY42" s="36"/>
-      <c r="BZ42" s="36"/>
-      <c r="CA42" s="36"/>
-      <c r="CB42" s="36"/>
-      <c r="CC42" s="36"/>
-      <c r="CD42" s="36"/>
-      <c r="CE42" s="36"/>
-      <c r="CF42" s="36"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="65"/>
+      <c r="N42" s="65"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="37"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="65"/>
+      <c r="U42" s="65"/>
+      <c r="V42" s="37"/>
+      <c r="W42" s="37"/>
+      <c r="X42" s="37"/>
+      <c r="Y42" s="37"/>
+      <c r="Z42" s="37"/>
+      <c r="AA42" s="65"/>
+      <c r="AB42" s="65"/>
+      <c r="AC42" s="37"/>
+      <c r="AD42" s="37"/>
+      <c r="AE42" s="37"/>
+      <c r="AF42" s="37"/>
+      <c r="AG42" s="37"/>
+      <c r="AH42" s="65"/>
+      <c r="AI42" s="65"/>
+      <c r="AJ42" s="37"/>
+      <c r="AK42" s="37"/>
+      <c r="AL42" s="37"/>
+      <c r="AM42" s="37"/>
+      <c r="AN42" s="37"/>
+      <c r="AO42" s="65"/>
+      <c r="AP42" s="65"/>
+      <c r="AQ42" s="37"/>
+      <c r="AR42" s="37"/>
+      <c r="AS42" s="37"/>
+      <c r="AT42" s="37"/>
+      <c r="AU42" s="37"/>
+      <c r="AV42" s="65"/>
+      <c r="AW42" s="65"/>
+      <c r="AX42" s="37"/>
+      <c r="AY42" s="37"/>
+      <c r="AZ42" s="37"/>
+      <c r="BA42" s="37"/>
+      <c r="BB42" s="37"/>
+      <c r="BC42" s="65"/>
+      <c r="BD42" s="65"/>
+      <c r="BE42" s="37"/>
+      <c r="BF42" s="37"/>
+      <c r="BG42" s="37"/>
+      <c r="BH42" s="37"/>
+      <c r="BI42" s="37"/>
+      <c r="BJ42" s="65"/>
+      <c r="BK42" s="65"/>
+      <c r="BL42" s="37"/>
+      <c r="BM42" s="37"/>
+      <c r="BN42" s="37"/>
+      <c r="BO42" s="37"/>
+      <c r="BP42" s="37"/>
+      <c r="BQ42" s="65"/>
+      <c r="BR42" s="65"/>
+      <c r="BS42" s="37"/>
+      <c r="BT42" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="BU42" s="37"/>
+      <c r="BV42" s="37"/>
+      <c r="BW42" s="37"/>
+      <c r="BX42" s="65"/>
+      <c r="BY42" s="65"/>
+      <c r="BZ42" s="37"/>
+      <c r="CA42" s="37"/>
+      <c r="CB42" s="37"/>
+      <c r="CC42" s="37"/>
+      <c r="CD42" s="37"/>
+      <c r="CE42" s="65"/>
+      <c r="CF42" s="65"/>
     </row>
     <row r="43" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="23"/>
       <c r="B43" s="46" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C43" s="47" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D43" s="63">
-        <v>44515</v>
+        <v>44525</v>
       </c>
       <c r="E43" s="63">
-        <f>D43+4</f>
-        <v>44519</v>
+        <v>44525</v>
       </c>
       <c r="F43" s="36"/>
-      <c r="G43" s="10">
-        <f t="shared" si="23"/>
-        <v>5</v>
-      </c>
+      <c r="G43" s="10"/>
       <c r="H43" s="37"/>
       <c r="I43" s="37"/>
       <c r="J43" s="37"/>
@@ -6810,19 +7370,19 @@
       <c r="BI43" s="37"/>
       <c r="BJ43" s="65"/>
       <c r="BK43" s="65"/>
-      <c r="BL43" s="75">
-        <v>1</v>
-      </c>
-      <c r="BM43" s="75"/>
-      <c r="BN43" s="75"/>
-      <c r="BO43" s="75"/>
-      <c r="BP43" s="75"/>
+      <c r="BL43" s="37"/>
+      <c r="BM43" s="37"/>
+      <c r="BN43" s="37"/>
+      <c r="BO43" s="37"/>
+      <c r="BP43" s="37"/>
       <c r="BQ43" s="65"/>
       <c r="BR43" s="65"/>
       <c r="BS43" s="37"/>
       <c r="BT43" s="37"/>
       <c r="BU43" s="37"/>
-      <c r="BV43" s="37"/>
+      <c r="BV43" s="69" t="s">
+        <v>32</v>
+      </c>
       <c r="BW43" s="37"/>
       <c r="BX43" s="65"/>
       <c r="BY43" s="65"/>
@@ -6837,17 +7397,16 @@
     <row r="44" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="23"/>
       <c r="B44" s="46" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C44" s="47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D44" s="63">
-        <v>44515</v>
+        <v>44524</v>
       </c>
       <c r="E44" s="63">
-        <f>D44+5</f>
-        <v>44520</v>
+        <v>44524</v>
       </c>
       <c r="F44" s="36"/>
       <c r="G44" s="10"/>
@@ -6907,18 +7466,18 @@
       <c r="BI44" s="37"/>
       <c r="BJ44" s="65"/>
       <c r="BK44" s="65"/>
-      <c r="BL44" s="71">
-        <v>2</v>
-      </c>
-      <c r="BM44" s="71"/>
-      <c r="BN44" s="71"/>
-      <c r="BO44" s="71"/>
-      <c r="BP44" s="71"/>
-      <c r="BQ44" s="71"/>
+      <c r="BL44" s="37"/>
+      <c r="BM44" s="37"/>
+      <c r="BN44" s="37"/>
+      <c r="BO44" s="37"/>
+      <c r="BP44" s="37"/>
+      <c r="BQ44" s="65"/>
       <c r="BR44" s="65"/>
       <c r="BS44" s="37"/>
       <c r="BT44" s="37"/>
-      <c r="BU44" s="37"/>
+      <c r="BU44" s="74">
+        <v>0.3</v>
+      </c>
       <c r="BV44" s="37"/>
       <c r="BW44" s="37"/>
       <c r="BX44" s="65"/>
@@ -6934,17 +7493,16 @@
     <row r="45" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="23"/>
       <c r="B45" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="47" t="s">
-        <v>51</v>
-      </c>
       <c r="D45" s="63">
-        <v>44515</v>
+        <v>44526</v>
       </c>
       <c r="E45" s="63">
-        <f t="shared" ref="E45" si="24">D45+4</f>
-        <v>44519</v>
+        <v>44526</v>
       </c>
       <c r="F45" s="36"/>
       <c r="G45" s="10"/>
@@ -7004,20 +7562,20 @@
       <c r="BI45" s="37"/>
       <c r="BJ45" s="65"/>
       <c r="BK45" s="65"/>
-      <c r="BL45" s="80">
-        <v>2</v>
-      </c>
-      <c r="BM45" s="80"/>
-      <c r="BN45" s="80"/>
-      <c r="BO45" s="80"/>
-      <c r="BP45" s="80"/>
+      <c r="BL45" s="37"/>
+      <c r="BM45" s="37"/>
+      <c r="BN45" s="37"/>
+      <c r="BO45" s="37"/>
+      <c r="BP45" s="37"/>
       <c r="BQ45" s="65"/>
       <c r="BR45" s="65"/>
       <c r="BS45" s="37"/>
       <c r="BT45" s="37"/>
       <c r="BU45" s="37"/>
       <c r="BV45" s="37"/>
-      <c r="BW45" s="37"/>
+      <c r="BW45" s="69" t="s">
+        <v>32</v>
+      </c>
       <c r="BX45" s="65"/>
       <c r="BY45" s="65"/>
       <c r="BZ45" s="37"/>
@@ -7031,16 +7589,16 @@
     <row r="46" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="23"/>
       <c r="B46" s="46" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C46" s="47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D46" s="63">
-        <v>44522</v>
+        <v>44523</v>
       </c>
       <c r="E46" s="63">
-        <v>44522</v>
+        <v>44523</v>
       </c>
       <c r="F46" s="36"/>
       <c r="G46" s="10"/>
@@ -7107,10 +7665,10 @@
       <c r="BP46" s="37"/>
       <c r="BQ46" s="65"/>
       <c r="BR46" s="65"/>
-      <c r="BS46" s="71" t="s">
+      <c r="BS46" s="37"/>
+      <c r="BT46" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="BT46" s="37"/>
       <c r="BU46" s="37"/>
       <c r="BV46" s="37"/>
       <c r="BW46" s="37"/>
@@ -7127,16 +7685,16 @@
     <row r="47" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="23"/>
       <c r="B47" s="46" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C47" s="47" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D47" s="63">
-        <v>44522</v>
+        <v>44524</v>
       </c>
       <c r="E47" s="63">
-        <v>44522</v>
+        <v>44524</v>
       </c>
       <c r="F47" s="36"/>
       <c r="G47" s="10"/>
@@ -7203,11 +7761,11 @@
       <c r="BP47" s="37"/>
       <c r="BQ47" s="65"/>
       <c r="BR47" s="65"/>
-      <c r="BS47" s="89" t="s">
-        <v>63</v>
-      </c>
+      <c r="BS47" s="37"/>
       <c r="BT47" s="37"/>
-      <c r="BU47" s="37"/>
+      <c r="BU47" s="70">
+        <v>1</v>
+      </c>
       <c r="BV47" s="37"/>
       <c r="BW47" s="37"/>
       <c r="BX47" s="65"/>
@@ -7223,16 +7781,16 @@
     <row r="48" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="23"/>
       <c r="B48" s="46" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="C48" s="47" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="D48" s="63">
-        <v>44523</v>
+        <v>44526</v>
       </c>
       <c r="E48" s="63">
-        <v>44523</v>
+        <v>44526</v>
       </c>
       <c r="F48" s="36"/>
       <c r="G48" s="10"/>
@@ -7300,12 +7858,12 @@
       <c r="BQ48" s="65"/>
       <c r="BR48" s="65"/>
       <c r="BS48" s="37"/>
-      <c r="BT48" s="89" t="s">
-        <v>63</v>
-      </c>
+      <c r="BT48" s="37"/>
       <c r="BU48" s="37"/>
       <c r="BV48" s="37"/>
-      <c r="BW48" s="37"/>
+      <c r="BW48" s="69" t="s">
+        <v>32</v>
+      </c>
       <c r="BX48" s="65"/>
       <c r="BY48" s="65"/>
       <c r="BZ48" s="37"/>
@@ -7319,16 +7877,17 @@
     <row r="49" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="23"/>
       <c r="B49" s="46" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C49" s="47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D49" s="63">
-        <v>44525</v>
+        <v>44526</v>
       </c>
       <c r="E49" s="63">
-        <v>44525</v>
+        <f>D49</f>
+        <v>44526</v>
       </c>
       <c r="F49" s="36"/>
       <c r="G49" s="10"/>
@@ -7398,10 +7957,10 @@
       <c r="BS49" s="37"/>
       <c r="BT49" s="37"/>
       <c r="BU49" s="37"/>
-      <c r="BV49" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="BW49" s="37"/>
+      <c r="BV49" s="37"/>
+      <c r="BW49" s="85">
+        <v>1</v>
+      </c>
       <c r="BX49" s="65"/>
       <c r="BY49" s="65"/>
       <c r="BZ49" s="37"/>
@@ -7413,771 +7972,199 @@
       <c r="CF49" s="65"/>
     </row>
     <row r="50" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="23"/>
-      <c r="B50" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="D50" s="63">
-        <v>44524</v>
-      </c>
-      <c r="E50" s="63">
-        <v>44524</v>
-      </c>
+      <c r="A50" s="22"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
       <c r="F50" s="36"/>
-      <c r="G50" s="10"/>
+      <c r="G50" s="10" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
       <c r="H50" s="37"/>
       <c r="I50" s="37"/>
       <c r="J50" s="37"/>
       <c r="K50" s="37"/>
       <c r="L50" s="37"/>
-      <c r="M50" s="65"/>
-      <c r="N50" s="65"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="37"/>
       <c r="O50" s="37"/>
       <c r="P50" s="37"/>
       <c r="Q50" s="37"/>
       <c r="R50" s="37"/>
       <c r="S50" s="37"/>
-      <c r="T50" s="65"/>
-      <c r="U50" s="65"/>
+      <c r="T50" s="37"/>
+      <c r="U50" s="37"/>
       <c r="V50" s="37"/>
       <c r="W50" s="37"/>
       <c r="X50" s="37"/>
       <c r="Y50" s="37"/>
       <c r="Z50" s="37"/>
-      <c r="AA50" s="65"/>
-      <c r="AB50" s="65"/>
+      <c r="AA50" s="37"/>
+      <c r="AB50" s="37"/>
       <c r="AC50" s="37"/>
       <c r="AD50" s="37"/>
       <c r="AE50" s="37"/>
       <c r="AF50" s="37"/>
       <c r="AG50" s="37"/>
-      <c r="AH50" s="65"/>
-      <c r="AI50" s="65"/>
+      <c r="AH50" s="37"/>
+      <c r="AI50" s="37"/>
       <c r="AJ50" s="37"/>
       <c r="AK50" s="37"/>
       <c r="AL50" s="37"/>
       <c r="AM50" s="37"/>
       <c r="AN50" s="37"/>
-      <c r="AO50" s="65"/>
-      <c r="AP50" s="65"/>
+      <c r="AO50" s="37"/>
+      <c r="AP50" s="37"/>
       <c r="AQ50" s="37"/>
       <c r="AR50" s="37"/>
       <c r="AS50" s="37"/>
       <c r="AT50" s="37"/>
       <c r="AU50" s="37"/>
-      <c r="AV50" s="65"/>
-      <c r="AW50" s="65"/>
+      <c r="AV50" s="37"/>
+      <c r="AW50" s="37"/>
       <c r="AX50" s="37"/>
       <c r="AY50" s="37"/>
       <c r="AZ50" s="37"/>
       <c r="BA50" s="37"/>
       <c r="BB50" s="37"/>
-      <c r="BC50" s="65"/>
-      <c r="BD50" s="65"/>
+      <c r="BC50" s="37"/>
+      <c r="BD50" s="37"/>
       <c r="BE50" s="37"/>
       <c r="BF50" s="37"/>
       <c r="BG50" s="37"/>
       <c r="BH50" s="37"/>
       <c r="BI50" s="37"/>
-      <c r="BJ50" s="65"/>
-      <c r="BK50" s="65"/>
+      <c r="BJ50" s="37"/>
+      <c r="BK50" s="37"/>
       <c r="BL50" s="37"/>
       <c r="BM50" s="37"/>
       <c r="BN50" s="37"/>
       <c r="BO50" s="37"/>
       <c r="BP50" s="37"/>
-      <c r="BQ50" s="65"/>
-      <c r="BR50" s="65"/>
+      <c r="BQ50" s="37"/>
+      <c r="BR50" s="37"/>
       <c r="BS50" s="37"/>
       <c r="BT50" s="37"/>
-      <c r="BU50" s="77">
-        <v>0.3</v>
-      </c>
+      <c r="BU50" s="37"/>
       <c r="BV50" s="37"/>
       <c r="BW50" s="37"/>
-      <c r="BX50" s="65"/>
-      <c r="BY50" s="65"/>
+      <c r="BX50" s="37"/>
+      <c r="BY50" s="37"/>
       <c r="BZ50" s="37"/>
       <c r="CA50" s="37"/>
       <c r="CB50" s="37"/>
       <c r="CC50" s="37"/>
       <c r="CD50" s="37"/>
-      <c r="CE50" s="65"/>
-      <c r="CF50" s="65"/>
+      <c r="CE50" s="37"/>
+      <c r="CF50" s="37"/>
     </row>
     <row r="51" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="23"/>
-      <c r="B51" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="C51" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="D51" s="63">
-        <v>44526</v>
-      </c>
-      <c r="E51" s="63">
-        <v>44526</v>
-      </c>
+      <c r="B51" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="41"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="43"/>
       <c r="F51" s="36"/>
-      <c r="G51" s="10"/>
+      <c r="G51" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
       <c r="H51" s="37"/>
       <c r="I51" s="37"/>
       <c r="J51" s="37"/>
       <c r="K51" s="37"/>
       <c r="L51" s="37"/>
-      <c r="M51" s="65"/>
-      <c r="N51" s="65"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="37"/>
       <c r="O51" s="37"/>
       <c r="P51" s="37"/>
       <c r="Q51" s="37"/>
       <c r="R51" s="37"/>
       <c r="S51" s="37"/>
-      <c r="T51" s="65"/>
-      <c r="U51" s="65"/>
+      <c r="T51" s="37"/>
+      <c r="U51" s="37"/>
       <c r="V51" s="37"/>
       <c r="W51" s="37"/>
       <c r="X51" s="37"/>
       <c r="Y51" s="37"/>
       <c r="Z51" s="37"/>
-      <c r="AA51" s="65"/>
-      <c r="AB51" s="65"/>
+      <c r="AA51" s="37"/>
+      <c r="AB51" s="37"/>
       <c r="AC51" s="37"/>
       <c r="AD51" s="37"/>
       <c r="AE51" s="37"/>
       <c r="AF51" s="37"/>
       <c r="AG51" s="37"/>
-      <c r="AH51" s="65"/>
-      <c r="AI51" s="65"/>
+      <c r="AH51" s="37"/>
+      <c r="AI51" s="37"/>
       <c r="AJ51" s="37"/>
       <c r="AK51" s="37"/>
       <c r="AL51" s="37"/>
       <c r="AM51" s="37"/>
       <c r="AN51" s="37"/>
-      <c r="AO51" s="65"/>
-      <c r="AP51" s="65"/>
+      <c r="AO51" s="37"/>
+      <c r="AP51" s="37"/>
       <c r="AQ51" s="37"/>
       <c r="AR51" s="37"/>
       <c r="AS51" s="37"/>
       <c r="AT51" s="37"/>
       <c r="AU51" s="37"/>
-      <c r="AV51" s="65"/>
-      <c r="AW51" s="65"/>
+      <c r="AV51" s="37"/>
+      <c r="AW51" s="37"/>
       <c r="AX51" s="37"/>
       <c r="AY51" s="37"/>
       <c r="AZ51" s="37"/>
       <c r="BA51" s="37"/>
       <c r="BB51" s="37"/>
-      <c r="BC51" s="65"/>
-      <c r="BD51" s="65"/>
+      <c r="BC51" s="37"/>
+      <c r="BD51" s="37"/>
       <c r="BE51" s="37"/>
       <c r="BF51" s="37"/>
       <c r="BG51" s="37"/>
       <c r="BH51" s="37"/>
       <c r="BI51" s="37"/>
-      <c r="BJ51" s="65"/>
-      <c r="BK51" s="65"/>
+      <c r="BJ51" s="37"/>
+      <c r="BK51" s="37"/>
       <c r="BL51" s="37"/>
       <c r="BM51" s="37"/>
       <c r="BN51" s="37"/>
       <c r="BO51" s="37"/>
       <c r="BP51" s="37"/>
-      <c r="BQ51" s="65"/>
-      <c r="BR51" s="65"/>
+      <c r="BQ51" s="37"/>
+      <c r="BR51" s="37"/>
       <c r="BS51" s="37"/>
       <c r="BT51" s="37"/>
       <c r="BU51" s="37"/>
       <c r="BV51" s="37"/>
-      <c r="BW51" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="BX51" s="65"/>
-      <c r="BY51" s="65"/>
+      <c r="BW51" s="37"/>
+      <c r="BX51" s="37"/>
+      <c r="BY51" s="37"/>
       <c r="BZ51" s="37"/>
       <c r="CA51" s="37"/>
       <c r="CB51" s="37"/>
       <c r="CC51" s="37"/>
       <c r="CD51" s="37"/>
-      <c r="CE51" s="65"/>
-      <c r="CF51" s="65"/>
+      <c r="CE51" s="37"/>
+      <c r="CF51" s="37"/>
     </row>
-    <row r="52" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="23"/>
-      <c r="B52" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="C52" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="D52" s="63">
-        <v>44523</v>
-      </c>
-      <c r="E52" s="63">
-        <v>44523</v>
-      </c>
-      <c r="F52" s="36"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="37"/>
-      <c r="M52" s="65"/>
-      <c r="N52" s="65"/>
-      <c r="O52" s="37"/>
-      <c r="P52" s="37"/>
-      <c r="Q52" s="37"/>
-      <c r="R52" s="37"/>
-      <c r="S52" s="37"/>
-      <c r="T52" s="65"/>
-      <c r="U52" s="65"/>
-      <c r="V52" s="37"/>
-      <c r="W52" s="37"/>
-      <c r="X52" s="37"/>
-      <c r="Y52" s="37"/>
-      <c r="Z52" s="37"/>
-      <c r="AA52" s="65"/>
-      <c r="AB52" s="65"/>
-      <c r="AC52" s="37"/>
-      <c r="AD52" s="37"/>
-      <c r="AE52" s="37"/>
-      <c r="AF52" s="37"/>
-      <c r="AG52" s="37"/>
-      <c r="AH52" s="65"/>
-      <c r="AI52" s="65"/>
-      <c r="AJ52" s="37"/>
-      <c r="AK52" s="37"/>
-      <c r="AL52" s="37"/>
-      <c r="AM52" s="37"/>
-      <c r="AN52" s="37"/>
-      <c r="AO52" s="65"/>
-      <c r="AP52" s="65"/>
-      <c r="AQ52" s="37"/>
-      <c r="AR52" s="37"/>
-      <c r="AS52" s="37"/>
-      <c r="AT52" s="37"/>
-      <c r="AU52" s="37"/>
-      <c r="AV52" s="65"/>
-      <c r="AW52" s="65"/>
-      <c r="AX52" s="37"/>
-      <c r="AY52" s="37"/>
-      <c r="AZ52" s="37"/>
-      <c r="BA52" s="37"/>
-      <c r="BB52" s="37"/>
-      <c r="BC52" s="65"/>
-      <c r="BD52" s="65"/>
-      <c r="BE52" s="37"/>
-      <c r="BF52" s="37"/>
-      <c r="BG52" s="37"/>
-      <c r="BH52" s="37"/>
-      <c r="BI52" s="37"/>
-      <c r="BJ52" s="65"/>
-      <c r="BK52" s="65"/>
-      <c r="BL52" s="37"/>
-      <c r="BM52" s="37"/>
-      <c r="BN52" s="37"/>
-      <c r="BO52" s="37"/>
-      <c r="BP52" s="37"/>
-      <c r="BQ52" s="65"/>
-      <c r="BR52" s="65"/>
-      <c r="BS52" s="37"/>
-      <c r="BT52" s="89" t="s">
-        <v>63</v>
-      </c>
-      <c r="BU52" s="37"/>
-      <c r="BV52" s="37"/>
-      <c r="BW52" s="37"/>
-      <c r="BX52" s="65"/>
-      <c r="BY52" s="65"/>
-      <c r="BZ52" s="37"/>
-      <c r="CA52" s="37"/>
-      <c r="CB52" s="37"/>
-      <c r="CC52" s="37"/>
-      <c r="CD52" s="37"/>
-      <c r="CE52" s="65"/>
-      <c r="CF52" s="65"/>
+    <row r="53" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="8"/>
+      <c r="E53" s="24"/>
     </row>
-    <row r="53" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="23"/>
-      <c r="B53" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="C53" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="D53" s="63">
-        <v>44524</v>
-      </c>
-      <c r="E53" s="63">
-        <v>44524</v>
-      </c>
-      <c r="F53" s="36"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="37"/>
-      <c r="K53" s="37"/>
-      <c r="L53" s="37"/>
-      <c r="M53" s="65"/>
-      <c r="N53" s="65"/>
-      <c r="O53" s="37"/>
-      <c r="P53" s="37"/>
-      <c r="Q53" s="37"/>
-      <c r="R53" s="37"/>
-      <c r="S53" s="37"/>
-      <c r="T53" s="65"/>
-      <c r="U53" s="65"/>
-      <c r="V53" s="37"/>
-      <c r="W53" s="37"/>
-      <c r="X53" s="37"/>
-      <c r="Y53" s="37"/>
-      <c r="Z53" s="37"/>
-      <c r="AA53" s="65"/>
-      <c r="AB53" s="65"/>
-      <c r="AC53" s="37"/>
-      <c r="AD53" s="37"/>
-      <c r="AE53" s="37"/>
-      <c r="AF53" s="37"/>
-      <c r="AG53" s="37"/>
-      <c r="AH53" s="65"/>
-      <c r="AI53" s="65"/>
-      <c r="AJ53" s="37"/>
-      <c r="AK53" s="37"/>
-      <c r="AL53" s="37"/>
-      <c r="AM53" s="37"/>
-      <c r="AN53" s="37"/>
-      <c r="AO53" s="65"/>
-      <c r="AP53" s="65"/>
-      <c r="AQ53" s="37"/>
-      <c r="AR53" s="37"/>
-      <c r="AS53" s="37"/>
-      <c r="AT53" s="37"/>
-      <c r="AU53" s="37"/>
-      <c r="AV53" s="65"/>
-      <c r="AW53" s="65"/>
-      <c r="AX53" s="37"/>
-      <c r="AY53" s="37"/>
-      <c r="AZ53" s="37"/>
-      <c r="BA53" s="37"/>
-      <c r="BB53" s="37"/>
-      <c r="BC53" s="65"/>
-      <c r="BD53" s="65"/>
-      <c r="BE53" s="37"/>
-      <c r="BF53" s="37"/>
-      <c r="BG53" s="37"/>
-      <c r="BH53" s="37"/>
-      <c r="BI53" s="37"/>
-      <c r="BJ53" s="65"/>
-      <c r="BK53" s="65"/>
-      <c r="BL53" s="37"/>
-      <c r="BM53" s="37"/>
-      <c r="BN53" s="37"/>
-      <c r="BO53" s="37"/>
-      <c r="BP53" s="37"/>
-      <c r="BQ53" s="65"/>
-      <c r="BR53" s="65"/>
-      <c r="BS53" s="37"/>
-      <c r="BT53" s="37"/>
-      <c r="BU53" s="73">
-        <v>1</v>
-      </c>
-      <c r="BV53" s="37"/>
-      <c r="BW53" s="37"/>
-      <c r="BX53" s="65"/>
-      <c r="BY53" s="65"/>
-      <c r="BZ53" s="37"/>
-      <c r="CA53" s="37"/>
-      <c r="CB53" s="37"/>
-      <c r="CC53" s="37"/>
-      <c r="CD53" s="37"/>
-      <c r="CE53" s="65"/>
-      <c r="CF53" s="65"/>
-    </row>
-    <row r="54" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="23"/>
-      <c r="B54" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="C54" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="D54" s="63">
-        <v>44526</v>
-      </c>
-      <c r="E54" s="63">
-        <v>44526</v>
-      </c>
-      <c r="F54" s="36"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="37"/>
-      <c r="K54" s="37"/>
-      <c r="L54" s="37"/>
-      <c r="M54" s="65"/>
-      <c r="N54" s="65"/>
-      <c r="O54" s="37"/>
-      <c r="P54" s="37"/>
-      <c r="Q54" s="37"/>
-      <c r="R54" s="37"/>
-      <c r="S54" s="37"/>
-      <c r="T54" s="65"/>
-      <c r="U54" s="65"/>
-      <c r="V54" s="37"/>
-      <c r="W54" s="37"/>
-      <c r="X54" s="37"/>
-      <c r="Y54" s="37"/>
-      <c r="Z54" s="37"/>
-      <c r="AA54" s="65"/>
-      <c r="AB54" s="65"/>
-      <c r="AC54" s="37"/>
-      <c r="AD54" s="37"/>
-      <c r="AE54" s="37"/>
-      <c r="AF54" s="37"/>
-      <c r="AG54" s="37"/>
-      <c r="AH54" s="65"/>
-      <c r="AI54" s="65"/>
-      <c r="AJ54" s="37"/>
-      <c r="AK54" s="37"/>
-      <c r="AL54" s="37"/>
-      <c r="AM54" s="37"/>
-      <c r="AN54" s="37"/>
-      <c r="AO54" s="65"/>
-      <c r="AP54" s="65"/>
-      <c r="AQ54" s="37"/>
-      <c r="AR54" s="37"/>
-      <c r="AS54" s="37"/>
-      <c r="AT54" s="37"/>
-      <c r="AU54" s="37"/>
-      <c r="AV54" s="65"/>
-      <c r="AW54" s="65"/>
-      <c r="AX54" s="37"/>
-      <c r="AY54" s="37"/>
-      <c r="AZ54" s="37"/>
-      <c r="BA54" s="37"/>
-      <c r="BB54" s="37"/>
-      <c r="BC54" s="65"/>
-      <c r="BD54" s="65"/>
-      <c r="BE54" s="37"/>
-      <c r="BF54" s="37"/>
-      <c r="BG54" s="37"/>
-      <c r="BH54" s="37"/>
-      <c r="BI54" s="37"/>
-      <c r="BJ54" s="65"/>
-      <c r="BK54" s="65"/>
-      <c r="BL54" s="37"/>
-      <c r="BM54" s="37"/>
-      <c r="BN54" s="37"/>
-      <c r="BO54" s="37"/>
-      <c r="BP54" s="37"/>
-      <c r="BQ54" s="65"/>
-      <c r="BR54" s="65"/>
-      <c r="BS54" s="37"/>
-      <c r="BT54" s="37"/>
-      <c r="BU54" s="37"/>
-      <c r="BV54" s="37"/>
-      <c r="BW54" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="BX54" s="65"/>
-      <c r="BY54" s="65"/>
-      <c r="BZ54" s="37"/>
-      <c r="CA54" s="37"/>
-      <c r="CB54" s="37"/>
-      <c r="CC54" s="37"/>
-      <c r="CD54" s="37"/>
-      <c r="CE54" s="65"/>
-      <c r="CF54" s="65"/>
-    </row>
-    <row r="55" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="23"/>
-      <c r="B55" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="C55" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="D55" s="63">
-        <v>44526</v>
-      </c>
-      <c r="E55" s="63">
-        <f>D55</f>
-        <v>44526</v>
-      </c>
-      <c r="F55" s="36"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="37"/>
-      <c r="M55" s="65"/>
-      <c r="N55" s="65"/>
-      <c r="O55" s="37"/>
-      <c r="P55" s="37"/>
-      <c r="Q55" s="37"/>
-      <c r="R55" s="37"/>
-      <c r="S55" s="37"/>
-      <c r="T55" s="65"/>
-      <c r="U55" s="65"/>
-      <c r="V55" s="37"/>
-      <c r="W55" s="37"/>
-      <c r="X55" s="37"/>
-      <c r="Y55" s="37"/>
-      <c r="Z55" s="37"/>
-      <c r="AA55" s="65"/>
-      <c r="AB55" s="65"/>
-      <c r="AC55" s="37"/>
-      <c r="AD55" s="37"/>
-      <c r="AE55" s="37"/>
-      <c r="AF55" s="37"/>
-      <c r="AG55" s="37"/>
-      <c r="AH55" s="65"/>
-      <c r="AI55" s="65"/>
-      <c r="AJ55" s="37"/>
-      <c r="AK55" s="37"/>
-      <c r="AL55" s="37"/>
-      <c r="AM55" s="37"/>
-      <c r="AN55" s="37"/>
-      <c r="AO55" s="65"/>
-      <c r="AP55" s="65"/>
-      <c r="AQ55" s="37"/>
-      <c r="AR55" s="37"/>
-      <c r="AS55" s="37"/>
-      <c r="AT55" s="37"/>
-      <c r="AU55" s="37"/>
-      <c r="AV55" s="65"/>
-      <c r="AW55" s="65"/>
-      <c r="AX55" s="37"/>
-      <c r="AY55" s="37"/>
-      <c r="AZ55" s="37"/>
-      <c r="BA55" s="37"/>
-      <c r="BB55" s="37"/>
-      <c r="BC55" s="65"/>
-      <c r="BD55" s="65"/>
-      <c r="BE55" s="37"/>
-      <c r="BF55" s="37"/>
-      <c r="BG55" s="37"/>
-      <c r="BH55" s="37"/>
-      <c r="BI55" s="37"/>
-      <c r="BJ55" s="65"/>
-      <c r="BK55" s="65"/>
-      <c r="BL55" s="37"/>
-      <c r="BM55" s="37"/>
-      <c r="BN55" s="37"/>
-      <c r="BO55" s="37"/>
-      <c r="BP55" s="37"/>
-      <c r="BQ55" s="65"/>
-      <c r="BR55" s="65"/>
-      <c r="BS55" s="37"/>
-      <c r="BT55" s="37"/>
-      <c r="BU55" s="37"/>
-      <c r="BV55" s="37"/>
-      <c r="BW55" s="88">
-        <v>1</v>
-      </c>
-      <c r="BX55" s="65"/>
-      <c r="BY55" s="65"/>
-      <c r="BZ55" s="37"/>
-      <c r="CA55" s="37"/>
-      <c r="CB55" s="37"/>
-      <c r="CC55" s="37"/>
-      <c r="CD55" s="37"/>
-      <c r="CE55" s="65"/>
-      <c r="CF55" s="65"/>
-    </row>
-    <row r="56" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="22"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="10" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="37"/>
-      <c r="M56" s="37"/>
-      <c r="N56" s="37"/>
-      <c r="O56" s="37"/>
-      <c r="P56" s="37"/>
-      <c r="Q56" s="37"/>
-      <c r="R56" s="37"/>
-      <c r="S56" s="37"/>
-      <c r="T56" s="37"/>
-      <c r="U56" s="37"/>
-      <c r="V56" s="37"/>
-      <c r="W56" s="37"/>
-      <c r="X56" s="37"/>
-      <c r="Y56" s="37"/>
-      <c r="Z56" s="37"/>
-      <c r="AA56" s="37"/>
-      <c r="AB56" s="37"/>
-      <c r="AC56" s="37"/>
-      <c r="AD56" s="37"/>
-      <c r="AE56" s="37"/>
-      <c r="AF56" s="37"/>
-      <c r="AG56" s="37"/>
-      <c r="AH56" s="37"/>
-      <c r="AI56" s="37"/>
-      <c r="AJ56" s="37"/>
-      <c r="AK56" s="37"/>
-      <c r="AL56" s="37"/>
-      <c r="AM56" s="37"/>
-      <c r="AN56" s="37"/>
-      <c r="AO56" s="37"/>
-      <c r="AP56" s="37"/>
-      <c r="AQ56" s="37"/>
-      <c r="AR56" s="37"/>
-      <c r="AS56" s="37"/>
-      <c r="AT56" s="37"/>
-      <c r="AU56" s="37"/>
-      <c r="AV56" s="37"/>
-      <c r="AW56" s="37"/>
-      <c r="AX56" s="37"/>
-      <c r="AY56" s="37"/>
-      <c r="AZ56" s="37"/>
-      <c r="BA56" s="37"/>
-      <c r="BB56" s="37"/>
-      <c r="BC56" s="37"/>
-      <c r="BD56" s="37"/>
-      <c r="BE56" s="37"/>
-      <c r="BF56" s="37"/>
-      <c r="BG56" s="37"/>
-      <c r="BH56" s="37"/>
-      <c r="BI56" s="37"/>
-      <c r="BJ56" s="37"/>
-      <c r="BK56" s="37"/>
-      <c r="BL56" s="37"/>
-      <c r="BM56" s="37"/>
-      <c r="BN56" s="37"/>
-      <c r="BO56" s="37"/>
-      <c r="BP56" s="37"/>
-      <c r="BQ56" s="37"/>
-      <c r="BR56" s="37"/>
-      <c r="BS56" s="37"/>
-      <c r="BT56" s="37"/>
-      <c r="BU56" s="37"/>
-      <c r="BV56" s="37"/>
-      <c r="BW56" s="37"/>
-      <c r="BX56" s="37"/>
-      <c r="BY56" s="37"/>
-      <c r="BZ56" s="37"/>
-      <c r="CA56" s="37"/>
-      <c r="CB56" s="37"/>
-      <c r="CC56" s="37"/>
-      <c r="CD56" s="37"/>
-      <c r="CE56" s="37"/>
-      <c r="CF56" s="37"/>
-    </row>
-    <row r="57" spans="1:84" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="23"/>
-      <c r="B57" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C57" s="41"/>
-      <c r="D57" s="42"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="19" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="37"/>
-      <c r="L57" s="37"/>
-      <c r="M57" s="37"/>
-      <c r="N57" s="37"/>
-      <c r="O57" s="37"/>
-      <c r="P57" s="37"/>
-      <c r="Q57" s="37"/>
-      <c r="R57" s="37"/>
-      <c r="S57" s="37"/>
-      <c r="T57" s="37"/>
-      <c r="U57" s="37"/>
-      <c r="V57" s="37"/>
-      <c r="W57" s="37"/>
-      <c r="X57" s="37"/>
-      <c r="Y57" s="37"/>
-      <c r="Z57" s="37"/>
-      <c r="AA57" s="37"/>
-      <c r="AB57" s="37"/>
-      <c r="AC57" s="37"/>
-      <c r="AD57" s="37"/>
-      <c r="AE57" s="37"/>
-      <c r="AF57" s="37"/>
-      <c r="AG57" s="37"/>
-      <c r="AH57" s="37"/>
-      <c r="AI57" s="37"/>
-      <c r="AJ57" s="37"/>
-      <c r="AK57" s="37"/>
-      <c r="AL57" s="37"/>
-      <c r="AM57" s="37"/>
-      <c r="AN57" s="37"/>
-      <c r="AO57" s="37"/>
-      <c r="AP57" s="37"/>
-      <c r="AQ57" s="37"/>
-      <c r="AR57" s="37"/>
-      <c r="AS57" s="37"/>
-      <c r="AT57" s="37"/>
-      <c r="AU57" s="37"/>
-      <c r="AV57" s="37"/>
-      <c r="AW57" s="37"/>
-      <c r="AX57" s="37"/>
-      <c r="AY57" s="37"/>
-      <c r="AZ57" s="37"/>
-      <c r="BA57" s="37"/>
-      <c r="BB57" s="37"/>
-      <c r="BC57" s="37"/>
-      <c r="BD57" s="37"/>
-      <c r="BE57" s="37"/>
-      <c r="BF57" s="37"/>
-      <c r="BG57" s="37"/>
-      <c r="BH57" s="37"/>
-      <c r="BI57" s="37"/>
-      <c r="BJ57" s="37"/>
-      <c r="BK57" s="37"/>
-      <c r="BL57" s="37"/>
-      <c r="BM57" s="37"/>
-      <c r="BN57" s="37"/>
-      <c r="BO57" s="37"/>
-      <c r="BP57" s="37"/>
-      <c r="BQ57" s="37"/>
-      <c r="BR57" s="37"/>
-      <c r="BS57" s="37"/>
-      <c r="BT57" s="37"/>
-      <c r="BU57" s="37"/>
-      <c r="BV57" s="37"/>
-      <c r="BW57" s="37"/>
-      <c r="BX57" s="37"/>
-      <c r="BY57" s="37"/>
-      <c r="BZ57" s="37"/>
-      <c r="CA57" s="37"/>
-      <c r="CB57" s="37"/>
-      <c r="CC57" s="37"/>
-      <c r="CD57" s="37"/>
-      <c r="CE57" s="37"/>
-      <c r="CF57" s="37"/>
-    </row>
-    <row r="59" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="8"/>
-      <c r="E59" s="24"/>
-    </row>
-    <row r="60" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="9"/>
+    <row r="54" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="BL4:BR4"/>
+    <mergeCell ref="BS4:BY4"/>
+    <mergeCell ref="BZ4:CF4"/>
+    <mergeCell ref="AX4:BD4"/>
+    <mergeCell ref="BE4:BK4"/>
     <mergeCell ref="AJ4:AP4"/>
     <mergeCell ref="AQ4:AW4"/>
     <mergeCell ref="D3:E3"/>
@@ -8186,517 +8173,603 @@
     <mergeCell ref="V4:AB4"/>
     <mergeCell ref="AC4:AI4"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="BL4:BR4"/>
-    <mergeCell ref="BS4:BY4"/>
-    <mergeCell ref="BZ4:CF4"/>
-    <mergeCell ref="AX4:BD4"/>
-    <mergeCell ref="BE4:BK4"/>
   </mergeCells>
-  <conditionalFormatting sqref="H56:BX57 BZ56:CE57 H5:BX6 BZ6:CE6 V7:Z7 AC7:AG9 AJ7:AN9 AQ7:AU9 AX7:BB9 BE7:BI9 BL7:BP9 BS7:BW9 BZ7:CD9 AJ22:AN23 AJ25:AN25 AJ24:AK24 X8:Z9 N7:S7 H7:M8 N8:R8 H9:T9">
-    <cfRule type="expression" dxfId="116" priority="203">
+  <conditionalFormatting sqref="H50:BX51 BZ50:CE51 H5:BX6 BZ6:CE6 V7:Z7 AC7:AG9 AJ7:AN9 AQ7:AU9 AX7:BB9 BE7:BI9 BL7:BP9 BS7:BW9 BZ7:CD9 AJ22:AN23 AJ25:AN25 AJ24:AK24 X8:Z9 N7:S7 H7:M8 N8:R8 H9:T9 N36:N49 T10:U49 AA16:AB49 AH7:AI49 AO27:AP49 AV36:AW49 BJ7:BK49 BQ7:BR37 BX7:BY49 CE7:CF49">
+    <cfRule type="expression" dxfId="167" priority="242">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H56:BX57 BZ56:CE57 H6:BX6 BZ6:CE6 V7:Z7 AC7:AG9 AJ7:AN9 AQ7:AU9 AX7:BB9 BE7:BI9 BL7:BP9 BS7:BW9 BZ7:CD9 AJ22:AN23 AJ25:AN25 AJ24:AK24 X8:Z9 N7:S7 H7:M8 N8:R8 H9:T9">
-    <cfRule type="expression" dxfId="115" priority="197">
+  <conditionalFormatting sqref="H50:BX51 BZ50:CE51 H6:BX6 BZ6:CE6 V7:Z7 AC7:AG9 AJ7:AN9 AQ7:AU9 AX7:BB9 BE7:BI9 BL7:BP9 BS7:BW9 BZ7:CD9 AJ22:AN23 AJ25:AN25 AJ24:AK24 X8:Z9 N7:S7 H7:M8 N8:R8 H9:T9 N36:N49 T10:U49 AA16:AB49 AH7:AI49 AO27:AP49 AV36:AW49 BJ7:BK49 BQ7:BR37 BX7:BY49 CE7:CF49">
+    <cfRule type="expression" dxfId="166" priority="236">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="237" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ5:CF5 BY56:BY57 CF56:CF57 BY5:BY6 CF6">
-    <cfRule type="expression" dxfId="113" priority="205">
+  <conditionalFormatting sqref="BZ5:CF5 BY50:BY51 CF50:CF51 BY5:BY6 CF6">
+    <cfRule type="expression" dxfId="164" priority="244">
       <formula>AND(TODAY()&gt;=BY$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BY56:BY57 CF56:CF57 BY6 CF6">
-    <cfRule type="expression" dxfId="112" priority="208">
+  <conditionalFormatting sqref="BY50:BY51 CF50:CF51 BY6 CF6">
+    <cfRule type="expression" dxfId="163" priority="247">
       <formula>AND(task_start&lt;=BY$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BY$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="209" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="248" stopIfTrue="1">
       <formula>AND(task_end&gt;=BY$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:S10 BZ10:CD10 V10:Z10 AC10:AG10 AJ10:AN10 AQ10:AU10 AX10:BB10 BE10:BI10 BL10:BP10 BS10:BW10">
-    <cfRule type="expression" dxfId="110" priority="154">
+    <cfRule type="expression" dxfId="161" priority="193">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:S10 BZ10:CD10 V10:Z10 AC10:AG10 AJ10:AN10 AQ10:AU10 AX10:BB10 BE10:BI10 BL10:BP10 BS10:BW10">
-    <cfRule type="expression" dxfId="109" priority="152">
+    <cfRule type="expression" dxfId="160" priority="191">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="153" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="192" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ11:CD17 V13:Z13 AC11:AG12 AJ11:AN17 AQ11:AU17 AX11:BB17 BE11:BI17 BL11:BP17 BS11:BW17 H11:S17 V16:Z17 AC17:AE17 V11:V12 V14:W15 Y14:Z14 AF13:AG15">
-    <cfRule type="expression" dxfId="107" priority="148">
+    <cfRule type="expression" dxfId="158" priority="187">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ11:CD17 V13:Z13 AC11:AG12 AJ11:AN17 AQ11:AU17 AX11:BB17 BE11:BI17 BL11:BP17 BS11:BW17 H11:S17 V16:Z17 AC17:AE17 V11:V12 V14:W15 Y14:Z14 AF13:AG15">
-    <cfRule type="expression" dxfId="106" priority="146">
+    <cfRule type="expression" dxfId="157" priority="185">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="147" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="186" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:S18 BZ18:CD18 V18:Z18 AC18:AG18 AJ18:AN18 AQ18:AU18 AX18:BB18 BE18:BI18 BL18:BP18 BS18:BW18">
-    <cfRule type="expression" dxfId="104" priority="142">
+    <cfRule type="expression" dxfId="155" priority="181">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:S18 BZ18:CD18 V18:Z18 AC18:AG18 AJ18:AN18 AQ18:AU18 AX18:BB18 BE18:BI18 BL18:BP18 BS18:BW18">
-    <cfRule type="expression" dxfId="103" priority="140">
+    <cfRule type="expression" dxfId="154" priority="179">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="180" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42:L42 BZ42:CD42 V42:Z42 O42:S42 AC42:AG42 AJ42:AN42 AQ42:AU42 AX42:BB42 BE42:BI42 BL42:BP42 BS42:BW42">
-    <cfRule type="expression" dxfId="101" priority="136">
+  <conditionalFormatting sqref="H36:L36 BZ36:CD36 V36:Z36 O36:S36 AC36:AG36 AJ36:AN36 AQ36:AU36 AX36:BB36 BE36:BI36 BL36:BP36 BS36:BW36">
+    <cfRule type="expression" dxfId="152" priority="175">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42:L42 BZ42:CD42 V42:Z42 O42:S42 AC42:AG42 AJ42:AN42 AQ42:AU42 AX42:BB42 BE42:BI42 BL42:BP42 BS42:BW42">
-    <cfRule type="expression" dxfId="100" priority="134">
+  <conditionalFormatting sqref="H36:L36 BZ36:CD36 V36:Z36 O36:S36 AC36:AG36 AJ36:AN36 AQ36:AU36 AX36:BB36 BE36:BI36 BL36:BP36 BS36:BW36">
+    <cfRule type="expression" dxfId="151" priority="173">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="174" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19:S40 BZ19:CD41 V19:Z41 M42:M55 H41:M41 O41:S41 N41:N55 AC19:AG41 AJ19:AN19 AQ20:AU21 AX19:BB22 BL19:BP41 BS19:BW41 AU19 AJ20:AJ21 AJ27:AN41 AJ26:AM26 AQ30:AU30 AT29:AU29 AQ36:AU37 AQ35:AS35 AQ26:AU26 AQ25:AS25 AT23:AU23 AQ22:AR22 AX25:BB26 BA23:BB23 AX41:BB41 AX40:AY40 AZ27:BB27 AQ27:AS27 BE19:BI33 AX30 AQ40:AU41 AU38 AQ39:AS39 AX38:BB39 AX37:AY37 AX33:AX34 AZ24:BB24 BE35:BI41 BI34 AQ33:AU34 AQ31:AS32 AK21:AM21 AX28:BB29 AX32:BB32">
-    <cfRule type="expression" dxfId="98" priority="130">
+  <conditionalFormatting sqref="H19:S35 BZ19:CD35 V19:Z35 M36:M49 AC19:AG35 AJ19:AN19 AQ20:AU20 AX19:BB22 BL19:BP35 BS19:BW35 AJ20:AJ21 AJ27:AN35 AJ26:AM26 AQ30:AU30 AQ35:AS35 AT26:AU26 AQ25:AS25 AQ22:AR22 AX26:BB26 BA23:BB23 AZ27:BB27 AQ27:AS27 BE19:BI32 AX30 AX33:AX34 BB24 BE35:BF35 BI34 AQ33:AU34 AQ31:AS32 AK21:AM21 AX29:BB29 AY32:BB32 AT21:AU21 BH35:BI35 AX25:BA25 BG33:BI33">
+    <cfRule type="expression" dxfId="149" priority="169">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19:S40 BZ19:CD41 V19:Z41 M42:M55 H41:M41 O41:S41 N41:N55 AC19:AG41 AJ19:AN19 AQ20:AU21 AX19:BB22 BL19:BP41 BS19:BW41 AU19 AJ20:AJ21 AJ27:AN41 AJ26:AM26 AQ30:AU30 AT29:AU29 AQ36:AU37 AQ35:AS35 AQ26:AU26 AQ25:AS25 AT23:AU23 AQ22:AR22 AX25:BB26 BA23:BB23 AX41:BB41 AX40:AY40 AZ27:BB27 AQ27:AS27 BE19:BI33 AX30 AQ40:AU41 AU38 AQ39:AS39 AX38:BB39 AX37:AY37 AX33:AX34 AZ24:BB24 BE35:BI41 BI34 AQ33:AU34 AQ31:AS32 AK21:AM21 AX28:BB29 AX32:BB32">
-    <cfRule type="expression" dxfId="97" priority="128">
+  <conditionalFormatting sqref="H19:S35 BZ19:CD35 V19:Z35 M36:M49 AC19:AG35 AJ19:AN19 AQ20:AU20 AX19:BB22 BL19:BP35 BS19:BW35 AJ20:AJ21 AJ27:AN35 AJ26:AM26 AQ30:AU30 AQ35:AS35 AT26:AU26 AQ25:AS25 AQ22:AR22 AX26:BB26 BA23:BB23 AZ27:BB27 AQ27:AS27 BE19:BI32 AX30 AX33:AX34 BB24 BE35:BF35 BI34 AQ33:AU34 AQ31:AS32 AK21:AM21 AX29:BB29 AY32:BB32 AT21:AU21 BH35:BI35 AX25:BA25 BG33:BI33">
+    <cfRule type="expression" dxfId="148" priority="167">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="168" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43:L55 BZ43:CD55 V43:Z55 O43:S55 AC43:AG55 AJ43:AN55 AQ43:AU55 AX43:BB55 BE43:BI55 BS55:BV55 BL46:BP55 BS43:BW45 BT46:BW47 BS49:BU49 BS48 BU48:BW48 BS52 BS54:BU54 BS50:BT51 BV50:BW50 BW49 BS53:BT53 BV53:BW53 BU52:BW52 BV51">
-    <cfRule type="expression" dxfId="95" priority="124">
+  <conditionalFormatting sqref="H37:L49 BZ37:CD49 V37:Z49 O37:S49 AC37:AG49 AJ37:AN49 AQ37:AU49 AX37:BB49 BE37:BI49 BS49:BV49 BL40:BP49 BS37:BW39 BT40:BW41 BS43:BU43 BS42 BU42:BW42 BS46 BS48:BU48 BS44:BT45 BV44:BW44 BW43 BS47:BT47 BV47:BW47 BU46:BW46 BV45">
+    <cfRule type="expression" dxfId="146" priority="163">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43:L55 BZ43:CD55 V43:Z55 O43:S55 AC43:AG55 AJ43:AN55 AQ43:AU55 AX43:BB55 BE43:BI55 BS55:BV55 BL46:BP55 BS43:BW45 BT46:BW47 BS49:BU49 BS48 BU48:BW48 BS52 BS54:BU54 BS50:BT51 BV50:BW50 BW49 BS53:BT53 BV53:BW53 BU52:BW52 BV51">
-    <cfRule type="expression" dxfId="94" priority="122">
+  <conditionalFormatting sqref="H37:L49 BZ37:CD49 V37:Z49 O37:S49 AC37:AG49 AJ37:AN49 AQ37:AU49 AX37:BB49 BE37:BI49 BS49:BV49 BL40:BP49 BS37:BW39 BT40:BW41 BS43:BU43 BS42 BU42:BW42 BS46 BS48:BU48 BS44:BT45 BV44:BW44 BW43 BS47:BT47 BV47:BW47 BU46:BW46 BV45">
+    <cfRule type="expression" dxfId="145" priority="161">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="123" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="162" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T7:U7 T10:U55">
-    <cfRule type="expression" dxfId="92" priority="115">
+  <conditionalFormatting sqref="T7:U7">
+    <cfRule type="expression" dxfId="143" priority="154">
       <formula>AND(TODAY()&gt;=T$5,TODAY()&lt;U$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T7:U7 T10:U55">
-    <cfRule type="expression" dxfId="91" priority="113">
+  <conditionalFormatting sqref="T7:U7">
+    <cfRule type="expression" dxfId="142" priority="152">
       <formula>AND(task_start&lt;=T$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=T$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="153" stopIfTrue="1">
       <formula>AND(task_end&gt;=T$5,task_start&lt;U$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA7:AB10 AA12:AB13 AA14 AA16:AB55">
-    <cfRule type="expression" dxfId="89" priority="112">
+  <conditionalFormatting sqref="AA7:AB10 AA12:AB13 AA14">
+    <cfRule type="expression" dxfId="140" priority="151">
       <formula>AND(TODAY()&gt;=AA$5,TODAY()&lt;AB$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA7:AB10 AA12:AB13 AA14 AA16:AB55">
-    <cfRule type="expression" dxfId="88" priority="110">
+  <conditionalFormatting sqref="AA7:AB10 AA12:AB13 AA14">
+    <cfRule type="expression" dxfId="139" priority="149">
       <formula>AND(task_start&lt;=AA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AA$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="111" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="150" stopIfTrue="1">
       <formula>AND(task_end&gt;=AA$5,task_start&lt;AB$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH7:AI55">
-    <cfRule type="expression" dxfId="86" priority="109">
-      <formula>AND(TODAY()&gt;=AH$5,TODAY()&lt;AI$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH7:AI55">
-    <cfRule type="expression" dxfId="85" priority="107">
-      <formula>AND(task_start&lt;=AH$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AH$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="108" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AH$5,task_start&lt;AI$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO7:AP18 AO20:AP20 AO19 AO27:AP55 AO22:AP25">
-    <cfRule type="expression" dxfId="83" priority="106">
+  <conditionalFormatting sqref="AO7:AP18 AO20:AP20 AO19 AO22:AP25">
+    <cfRule type="expression" dxfId="137" priority="145">
       <formula>AND(TODAY()&gt;=AO$5,TODAY()&lt;AP$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO7:AP18 AO20:AP20 AO19 AO27:AP55 AO22:AP25">
-    <cfRule type="expression" dxfId="82" priority="104">
+  <conditionalFormatting sqref="AO7:AP18 AO20:AP20 AO19 AO22:AP25">
+    <cfRule type="expression" dxfId="136" priority="143">
       <formula>AND(task_start&lt;=AO$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AO$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="144" stopIfTrue="1">
       <formula>AND(task_end&gt;=AO$5,task_start&lt;AP$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV7:AW21 AV36:AW38 AW35 AV26:AW26 AV23:AW23 AV33:AW34 AV40:AW55 AV28:AW30">
-    <cfRule type="expression" dxfId="80" priority="103">
+  <conditionalFormatting sqref="AV7:AW21 AW35 AV26:AW26 AW23 AV33:AW34 AV30:AW30 AW29">
+    <cfRule type="expression" dxfId="134" priority="142">
       <formula>AND(TODAY()&gt;=AV$5,TODAY()&lt;AW$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV7:AW21 AV36:AW38 AW35 AV26:AW26 AV23:AW23 AV33:AW34 AV40:AW55 AV28:AW30">
-    <cfRule type="expression" dxfId="79" priority="101">
+  <conditionalFormatting sqref="AV7:AW21 AW35 AV26:AW26 AW23 AV33:AW34 AV30:AW30 AW29">
+    <cfRule type="expression" dxfId="133" priority="140">
       <formula>AND(task_start&lt;=AV$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AV$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="141" stopIfTrue="1">
       <formula>AND(task_end&gt;=AV$5,task_start&lt;AW$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC42:BD55 BC41 BC35:BD36 BC7:BD33 BC38:BD39 BD37 BD40">
-    <cfRule type="expression" dxfId="77" priority="100">
+  <conditionalFormatting sqref="BC35:BD49 BC7:BD24 BC31:BD32 BD30 BC26:BD27 BC29:BD29">
+    <cfRule type="expression" dxfId="131" priority="139">
       <formula>AND(TODAY()&gt;=BC$5,TODAY()&lt;BD$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC42:BD55 BC41 BC35:BD36 BC7:BD33 BC38:BD39 BD37 BD40">
-    <cfRule type="expression" dxfId="76" priority="98">
+  <conditionalFormatting sqref="BC35:BD49 BC7:BD24 BC31:BD32 BD30 BC26:BD27 BC29:BD29">
+    <cfRule type="expression" dxfId="130" priority="137">
       <formula>AND(task_start&lt;=BC$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BC$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="138" stopIfTrue="1">
       <formula>AND(task_end&gt;=BC$5,task_start&lt;BD$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ7:BK55">
-    <cfRule type="expression" dxfId="74" priority="97">
-      <formula>AND(TODAY()&gt;=BJ$5,TODAY()&lt;BK$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ7:BK55">
-    <cfRule type="expression" dxfId="73" priority="95">
-      <formula>AND(task_start&lt;=BJ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BJ$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="96" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BJ$5,task_start&lt;BK$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BQ7:BR43 BQ45:BR55 BR44">
-    <cfRule type="expression" dxfId="71" priority="94">
+  <conditionalFormatting sqref="BQ39:BR49 BR38">
+    <cfRule type="expression" dxfId="128" priority="133">
       <formula>AND(TODAY()&gt;=BQ$5,TODAY()&lt;BR$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ7:BR43 BQ45:BR55 BR44">
-    <cfRule type="expression" dxfId="70" priority="92">
+  <conditionalFormatting sqref="BQ39:BR49 BR38">
+    <cfRule type="expression" dxfId="127" priority="131">
       <formula>AND(task_start&lt;=BQ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BQ$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="132" stopIfTrue="1">
       <formula>AND(task_end&gt;=BQ$5,task_start&lt;BR$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BX7:BY55">
-    <cfRule type="expression" dxfId="68" priority="91">
-      <formula>AND(TODAY()&gt;=BX$5,TODAY()&lt;BY$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BX7:BY55">
-    <cfRule type="expression" dxfId="67" priority="89">
-      <formula>AND(task_start&lt;=BX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BX$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="90" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BX$5,task_start&lt;BY$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CE7:CF55">
-    <cfRule type="expression" dxfId="65" priority="88">
-      <formula>AND(TODAY()&gt;=CE$5,TODAY()&lt;CF$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CE7:CF55">
-    <cfRule type="expression" dxfId="64" priority="86">
-      <formula>AND(task_start&lt;=CE$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=CE$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="87" stopIfTrue="1">
-      <formula>AND(task_end&gt;=CE$5,task_start&lt;CF$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AA15">
-    <cfRule type="expression" dxfId="62" priority="81">
+    <cfRule type="expression" dxfId="125" priority="120">
       <formula>AND(TODAY()&gt;=AA$5,TODAY()&lt;AB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA15">
-    <cfRule type="expression" dxfId="61" priority="79">
+    <cfRule type="expression" dxfId="124" priority="118">
       <formula>AND(task_start&lt;=AA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AA$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="119" stopIfTrue="1">
       <formula>AND(task_end&gt;=AA$5,task_start&lt;AB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y15">
-    <cfRule type="expression" dxfId="59" priority="69">
+    <cfRule type="expression" dxfId="122" priority="108">
       <formula>AND(TODAY()&gt;=Y$5,TODAY()&lt;Z$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y15">
-    <cfRule type="expression" dxfId="58" priority="67">
+    <cfRule type="expression" dxfId="121" priority="106">
       <formula>AND(task_start&lt;=Y$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Y$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="107" stopIfTrue="1">
       <formula>AND(task_end&gt;=Y$5,task_start&lt;Z$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z15">
-    <cfRule type="expression" dxfId="56" priority="66">
+    <cfRule type="expression" dxfId="119" priority="105">
       <formula>AND(TODAY()&gt;=Z$5,TODAY()&lt;AA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z15">
-    <cfRule type="expression" dxfId="55" priority="64">
+    <cfRule type="expression" dxfId="118" priority="103">
       <formula>AND(task_start&lt;=Z$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Z$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="104" stopIfTrue="1">
       <formula>AND(task_end&gt;=Z$5,task_start&lt;AA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X14">
-    <cfRule type="expression" dxfId="53" priority="63">
+    <cfRule type="expression" dxfId="116" priority="102">
       <formula>AND(TODAY()&gt;=X$5,TODAY()&lt;Y$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X14">
-    <cfRule type="expression" dxfId="52" priority="61">
+    <cfRule type="expression" dxfId="115" priority="100">
       <formula>AND(task_start&lt;=X$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=X$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="101" stopIfTrue="1">
       <formula>AND(task_end&gt;=X$5,task_start&lt;Y$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT35">
-    <cfRule type="expression" dxfId="50" priority="60">
+    <cfRule type="expression" dxfId="113" priority="99">
       <formula>AND(TODAY()&gt;=AT$5,TODAY()&lt;AU$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT35">
-    <cfRule type="expression" dxfId="49" priority="58">
+    <cfRule type="expression" dxfId="112" priority="97">
       <formula>AND(task_start&lt;=AT$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AT$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="98" stopIfTrue="1">
       <formula>AND(task_end&gt;=AT$5,task_start&lt;AU$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35">
-    <cfRule type="expression" dxfId="47" priority="57">
+    <cfRule type="expression" dxfId="110" priority="96">
       <formula>AND(TODAY()&gt;=AU$5,TODAY()&lt;AV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35">
-    <cfRule type="expression" dxfId="46" priority="55">
+    <cfRule type="expression" dxfId="109" priority="94">
       <formula>AND(task_start&lt;=AU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AU$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="95" stopIfTrue="1">
       <formula>AND(task_end&gt;=AU$5,task_start&lt;AV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV35">
-    <cfRule type="expression" dxfId="44" priority="54">
+    <cfRule type="expression" dxfId="107" priority="93">
       <formula>AND(TODAY()&gt;=AV$5,TODAY()&lt;AW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV35">
-    <cfRule type="expression" dxfId="43" priority="52">
+    <cfRule type="expression" dxfId="106" priority="91">
       <formula>AND(task_start&lt;=AV$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AV$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="92" stopIfTrue="1">
       <formula>AND(task_end&gt;=AV$5,task_start&lt;AW$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB35:BB36">
-    <cfRule type="expression" dxfId="41" priority="51">
+  <conditionalFormatting sqref="BB35">
+    <cfRule type="expression" dxfId="104" priority="90">
       <formula>AND(TODAY()&gt;=BB$5,TODAY()&lt;BC$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB35:BB36">
-    <cfRule type="expression" dxfId="40" priority="49">
+  <conditionalFormatting sqref="BB35">
+    <cfRule type="expression" dxfId="103" priority="88">
       <formula>AND(task_start&lt;=BB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="89" stopIfTrue="1">
       <formula>AND(task_end&gt;=BB$5,task_start&lt;BC$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BU51">
-    <cfRule type="expression" dxfId="38" priority="48">
+  <conditionalFormatting sqref="BU45">
+    <cfRule type="expression" dxfId="101" priority="87">
       <formula>AND(TODAY()&gt;=BU$5,TODAY()&lt;BV$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BU51">
-    <cfRule type="expression" dxfId="37" priority="46">
+  <conditionalFormatting sqref="BU45">
+    <cfRule type="expression" dxfId="100" priority="85">
       <formula>AND(task_start&lt;=BU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BU$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="86" stopIfTrue="1">
       <formula>AND(task_end&gt;=BU$5,task_start&lt;BV$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BV54">
-    <cfRule type="expression" dxfId="35" priority="45">
+  <conditionalFormatting sqref="BV48">
+    <cfRule type="expression" dxfId="98" priority="84">
       <formula>AND(TODAY()&gt;=BV$5,TODAY()&lt;BW$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BV54">
-    <cfRule type="expression" dxfId="34" priority="43">
+  <conditionalFormatting sqref="BV48">
+    <cfRule type="expression" dxfId="97" priority="82">
       <formula>AND(task_start&lt;=BV$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BV$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="83" stopIfTrue="1">
       <formula>AND(task_end&gt;=BV$5,task_start&lt;BW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ24:AS24">
-    <cfRule type="expression" dxfId="32" priority="211">
+    <cfRule type="expression" dxfId="95" priority="250">
       <formula>AND(TODAY()&gt;=AL$5,TODAY()&lt;AM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ24:AS24">
-    <cfRule type="expression" dxfId="31" priority="214">
+    <cfRule type="expression" dxfId="94" priority="253">
       <formula>AND(task_start&lt;=AL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AL$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="215" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="254" stopIfTrue="1">
       <formula>AND(task_end&gt;=AL$5,task_start&lt;AM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL24:AN24">
-    <cfRule type="expression" dxfId="29" priority="42">
+    <cfRule type="expression" dxfId="92" priority="81">
       <formula>AND(TODAY()&gt;=AL$5,TODAY()&lt;AM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL24:AN24">
-    <cfRule type="expression" dxfId="28" priority="40">
+    <cfRule type="expression" dxfId="91" priority="79">
       <formula>AND(task_start&lt;=AL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AL$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="80" stopIfTrue="1">
       <formula>AND(task_end&gt;=AL$5,task_start&lt;AM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT24:AU24">
-    <cfRule type="expression" dxfId="26" priority="39">
+    <cfRule type="expression" dxfId="89" priority="78">
       <formula>AND(TODAY()&gt;=AT$5,TODAY()&lt;AU$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT24:AU24">
-    <cfRule type="expression" dxfId="25" priority="37">
+    <cfRule type="expression" dxfId="88" priority="76">
       <formula>AND(task_start&lt;=AT$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AT$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="77" stopIfTrue="1">
       <formula>AND(task_end&gt;=AT$5,task_start&lt;AU$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W11">
-    <cfRule type="expression" dxfId="23" priority="36">
+    <cfRule type="expression" dxfId="86" priority="75">
       <formula>AND(TODAY()&gt;=W$5,TODAY()&lt;X$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W11">
-    <cfRule type="expression" dxfId="22" priority="34">
+    <cfRule type="expression" dxfId="85" priority="73">
       <formula>AND(task_start&lt;=W$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="74" stopIfTrue="1">
       <formula>AND(task_end&gt;=W$5,task_start&lt;X$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB11">
-    <cfRule type="expression" dxfId="20" priority="30">
+    <cfRule type="expression" dxfId="83" priority="69">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;AC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB11">
-    <cfRule type="expression" dxfId="19" priority="28">
+    <cfRule type="expression" dxfId="82" priority="67">
       <formula>AND(task_start&lt;=AB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="68" stopIfTrue="1">
       <formula>AND(task_end&gt;=AB$5,task_start&lt;AC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC16">
-    <cfRule type="expression" dxfId="17" priority="27">
+    <cfRule type="expression" dxfId="80" priority="66">
       <formula>AND(TODAY()&gt;=AC$5,TODAY()&lt;AD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC16">
-    <cfRule type="expression" dxfId="16" priority="25">
+    <cfRule type="expression" dxfId="79" priority="64">
       <formula>AND(task_start&lt;=AC$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AC$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="65" stopIfTrue="1">
       <formula>AND(task_end&gt;=AC$5,task_start&lt;AD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX23:AZ23">
-    <cfRule type="expression" dxfId="14" priority="24">
+    <cfRule type="expression" dxfId="77" priority="63">
       <formula>AND(TODAY()&gt;=AX$5,TODAY()&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX23:AZ23">
-    <cfRule type="expression" dxfId="13" priority="22">
+    <cfRule type="expression" dxfId="76" priority="61">
       <formula>AND(task_start&lt;=AX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AX$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="62" stopIfTrue="1">
       <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG16">
-    <cfRule type="expression" dxfId="11" priority="18">
+    <cfRule type="expression" dxfId="74" priority="57">
       <formula>AND(TODAY()&gt;=AG$5,TODAY()&lt;AH$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG16">
-    <cfRule type="expression" dxfId="10" priority="16">
+    <cfRule type="expression" dxfId="73" priority="55">
       <formula>AND(task_start&lt;=AG$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AG$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="56" stopIfTrue="1">
       <formula>AND(task_end&gt;=AG$5,task_start&lt;AH$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY31:BB31">
-    <cfRule type="expression" dxfId="8" priority="15">
+  <conditionalFormatting sqref="BA31:BB31">
+    <cfRule type="expression" dxfId="71" priority="54">
+      <formula>AND(TODAY()&gt;=BA$5,TODAY()&lt;BB$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA31:BB31">
+    <cfRule type="expression" dxfId="70" priority="52">
+      <formula>AND(task_start&lt;=BA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BA$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="53" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BA$5,task_start&lt;BB$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BD34 BH34">
+    <cfRule type="expression" dxfId="68" priority="51">
+      <formula>AND(TODAY()&gt;=BD$5,TODAY()&lt;BE$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BD34 BH34">
+    <cfRule type="expression" dxfId="67" priority="49">
+      <formula>AND(task_start&lt;=BD$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BD$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="50" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BD$5,task_start&lt;BE$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW22">
+    <cfRule type="expression" dxfId="65" priority="39">
+      <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW22">
+    <cfRule type="expression" dxfId="64" priority="37">
+      <formula>AND(task_start&lt;=AW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AW$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="38" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AW$5,task_start&lt;AX$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW25">
+    <cfRule type="expression" dxfId="62" priority="36">
+      <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW25">
+    <cfRule type="expression" dxfId="61" priority="34">
+      <formula>AND(task_start&lt;=AW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AW$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="35" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AW$5,task_start&lt;AX$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW27:AY27">
+    <cfRule type="expression" dxfId="59" priority="33">
+      <formula>AND(TODAY()&gt;=AW$5,TODAY()&lt;AX$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW27:AY27">
+    <cfRule type="expression" dxfId="58" priority="31">
+      <formula>AND(task_start&lt;=AW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AW$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="32" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AW$5,task_start&lt;AX$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB34:BC34">
+    <cfRule type="expression" dxfId="56" priority="25">
+      <formula>AND(task_start&lt;=BB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BB$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="26" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BB$5,task_start&lt;BC$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB34:BC34">
+    <cfRule type="expression" dxfId="51" priority="27">
+      <formula>AND(TODAY()&gt;=BB$5,TODAY()&lt;BC$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX35:BA35">
+    <cfRule type="expression" dxfId="47" priority="24">
+      <formula>AND(TODAY()&gt;=AX$5,TODAY()&lt;AY$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX35:BA35">
+    <cfRule type="expression" dxfId="45" priority="22">
+      <formula>AND(task_start&lt;=AX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AX$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="23" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AX$5,task_start&lt;AY$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY34:BA34">
+    <cfRule type="expression" dxfId="41" priority="21">
       <formula>AND(TODAY()&gt;=AY$5,TODAY()&lt;AZ$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY31:BB31">
-    <cfRule type="expression" dxfId="7" priority="13">
+  <conditionalFormatting sqref="AY34:BA34">
+    <cfRule type="expression" dxfId="39" priority="19">
       <formula>AND(task_start&lt;=AY$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AY$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="20" stopIfTrue="1">
       <formula>AND(task_end&gt;=AY$5,task_start&lt;AZ$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD34:BH34">
-    <cfRule type="expression" dxfId="5" priority="12">
-      <formula>AND(TODAY()&gt;=BD$5,TODAY()&lt;BE$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BD34:BH34">
-    <cfRule type="expression" dxfId="4" priority="10">
-      <formula>AND(task_start&lt;=BD$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BD$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="11" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BD$5,task_start&lt;BE$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ40">
-    <cfRule type="expression" dxfId="2" priority="9">
-      <formula>AND(TODAY()&gt;=AZ$5,TODAY()&lt;BA$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ40">
-    <cfRule type="expression" dxfId="1" priority="7">
-      <formula>AND(task_start&lt;=AZ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AZ$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AZ$5,task_start&lt;BA$5)</formula>
+  <conditionalFormatting sqref="AT25:AV25">
+    <cfRule type="expression" dxfId="35" priority="18">
+      <formula>AND(TODAY()&gt;=AT$5,TODAY()&lt;AU$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT25:AV25">
+    <cfRule type="expression" dxfId="33" priority="16">
+      <formula>AND(task_start&lt;=AT$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AT$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="17" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AT$5,task_start&lt;AU$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ28:AW28">
+    <cfRule type="expression" dxfId="29" priority="15">
+      <formula>AND(TODAY()&gt;=AQ$5,TODAY()&lt;AR$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ28:AW28">
+    <cfRule type="expression" dxfId="27" priority="13">
+      <formula>AND(task_start&lt;=AQ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AQ$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="14" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AQ$5,task_start&lt;AR$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY33:BB33">
+    <cfRule type="expression" dxfId="23" priority="12">
+      <formula>AND(TODAY()&gt;=AY$5,TODAY()&lt;AZ$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY33:BB33">
+    <cfRule type="expression" dxfId="21" priority="10">
+      <formula>AND(task_start&lt;=AY$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AY$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="11" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AY$5,task_start&lt;AZ$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT31:AU31">
+    <cfRule type="expression" dxfId="17" priority="9">
+      <formula>AND(TODAY()&gt;=AT$5,TODAY()&lt;AU$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT31:AU31">
+    <cfRule type="expression" dxfId="15" priority="7">
+      <formula>AND(task_start&lt;=AT$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AT$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="8" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AT$5,task_start&lt;AU$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ29:AS29">
+    <cfRule type="expression" dxfId="11" priority="6">
+      <formula>AND(TODAY()&gt;=AQ$5,TODAY()&lt;AR$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ29:AS29">
+    <cfRule type="expression" dxfId="9" priority="4">
+      <formula>AND(task_start&lt;=AQ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AQ$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="5" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AQ$5,task_start&lt;AR$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV31:AW31">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>AND(TODAY()&gt;=AV$5,TODAY()&lt;AW$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV31:AW31">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>AND(task_start&lt;=AV$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AV$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AV$5,task_start&lt;AW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -8706,7 +8779,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="E13 E21:E22 E23" formula="1"/>
+    <ignoredError sqref="E13 E22" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>